--- a/outputs/ML_Results/dist_LR/France_other.xlsx
+++ b/outputs/ML_Results/dist_LR/France_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ06945591" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ07156616" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ07368363" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ07576493" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ07771045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ07961146" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ08191612" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ08421393" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ08642308" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ08840335" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ09037887" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ09233241" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ09424287" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ09617331" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ09811364" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ10005457" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ10208427" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ10419759" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ10621335" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ10816808" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ11065089" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ11268766" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ11468965" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ11672561" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ11879405" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ12081639" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ12293825" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ12520864" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ12759256" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ12967830" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ13181080" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ13388831" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ13594875" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ13840535" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ14068821" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ14277873" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ14498015" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ14716269" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ14927376" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ15138432" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ15331603" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ15528963" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ15722462" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ15918012" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ16106824" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ16301855" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ16494993" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ16692488" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ16884764" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ17076786" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ35009061" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ35195914" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ35392312" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ35644743" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ35871949" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ36082216" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ36307830" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ36532786" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ36762504" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ36983160" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ37198843" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ37414650" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ37613032" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ37821687" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ38037885" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ38341036" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ38582055" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ38827097" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ39096251" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ39324993" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ39556554" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ39777179" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ39985855" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ40189715" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ40398126" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ40617525" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ40833844" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ41064745" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ41389081" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ41611743" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ41839305" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ42073004" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ42302313" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ42523001" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ42764417" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ43012604" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ43235152" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ43459438" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ43687590" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ43924574" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ44174848" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ44414111" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ44670550" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ44917565" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ45138677" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ45360846" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ45613837" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ45863361" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ46125835" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ46354628" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/France_other.xlsx
+++ b/outputs/ML_Results/dist_LR/France_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ35009061" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ35195914" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ35392312" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ35644743" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ35871949" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ36082216" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ36307830" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ36532786" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ36762504" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ36983160" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ37198843" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ37414650" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ37613032" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ37821687" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ38037885" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ38341036" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ38582055" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ38827097" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ39096251" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ39324993" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ39556554" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ39777179" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ39985855" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ40189715" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ40398126" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ40617525" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ40833844" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ41064745" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ41389081" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ41611743" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ41839305" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ42073004" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ42302313" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ42523001" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ42764417" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ43012604" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ43235152" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ43459438" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ43687590" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ43924574" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ44174848" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ44414111" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ44670550" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ44917565" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ45138677" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ45360846" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ45613837" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ45863361" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ46125835" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ46354628" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ35637359" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ35793212" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ35944483" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ36099137" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ36252827" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ36407839" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ36560091" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ36710969" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ36875853" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ37029552" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ37249386" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ37456364" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ37623844" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ37782578" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ37938993" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ38102348" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ38277391" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ38443025" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ38606091" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ38758129" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ38918287" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ39082575" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ39264823" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ39457655" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ39654777" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ39867051" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ40060579" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ40247229" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ40444718" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ40646443" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ40849193" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ41053682" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ41247832" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ41446728" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ41642303" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ41839680" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ42040525" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ42247426" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ42438702" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ42628677" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ42821110" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ43011766" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ43282184" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ43574361" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ43999830" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ44327159" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ44534178" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ44727278" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ44926609" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ45128496" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2153.263160733189</v>
+        <v>2288.301274609203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003606382628654001</v>
+        <v>0.001679030898211335</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.69402752215414</v>
+        <v>38.46633635638147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1422424063283341</v>
+        <v>0.1692600780769305</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.9725383945952</v>
+        <v>138.3445186369377</v>
       </c>
       <c r="C4" t="n">
-        <v>5.700644742160611e-18</v>
+        <v>6.231316650988357e-14</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03334875576189728</v>
+        <v>-0.04755896714879135</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2356900471799381</v>
+        <v>0.08756123856815234</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.287055546967937e-05</v>
+        <v>2.929862881872125e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5030212284167632</v>
+        <v>0.4017582799575974</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.61456362172354</v>
+        <v>-20.74853715124114</v>
       </c>
       <c r="C7" t="n">
-        <v>1.537989342678836e-05</v>
+        <v>0.0001822236050955124</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.452156584506245</v>
+        <v>12.98474255022341</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005017976937991723</v>
+        <v>0.0002586747388615744</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1544.75612156344</v>
+        <v>-1089.372303637018</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02662429658575793</v>
+        <v>0.1021209590202743</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-303.0119038719587</v>
+        <v>-49.04651628429821</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4784976767348578</v>
+        <v>0.910718961909322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2509.072758409759</v>
+        <v>7598.401830416167</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02444428694982716</v>
+        <v>1.170171146083461e-18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7507.815879883569</v>
+        <v>5.659754936080521</v>
       </c>
       <c r="C12" t="n">
-        <v>5.32033095363013e-16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15.41423133162558</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1100162096296981</v>
+        <v>0.5493194693562146</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3493.504874107251</v>
+        <v>3386.350892276731</v>
       </c>
       <c r="C2" t="n">
-        <v>2.488024319931362e-07</v>
+        <v>3.750679154386875e-06</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.10473738489444</v>
+        <v>21.61843668340434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4241573037038956</v>
+        <v>0.4192545146887189</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.9404141509919</v>
+        <v>129.3469876281484</v>
       </c>
       <c r="C4" t="n">
-        <v>3.07089132817915e-15</v>
+        <v>7.798591075216984e-13</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02576420100583686</v>
+        <v>-0.04289334852741742</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3097927096151206</v>
+        <v>0.1206413341008836</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.922896629772349e-05</v>
+        <v>3.431571639758391e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5442589408120138</v>
+        <v>0.3231844718630755</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.14066084424901</v>
+        <v>-26.85861858391105</v>
       </c>
       <c r="C7" t="n">
-        <v>7.484141676658434e-09</v>
+        <v>7.019663638327585e-07</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.405045860808192</v>
+        <v>6.79020587187516</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1823963841655577</v>
+        <v>0.05395211060901528</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1695.56292108605</v>
+        <v>-1646.862853653337</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005406250990050379</v>
+        <v>0.009011647474856411</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-259.1007986673083</v>
+        <v>-58.92674056390507</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5250068981365729</v>
+        <v>0.8915522295086957</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2968.360620740008</v>
+        <v>8243.841165394057</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005031951702105427</v>
+        <v>5.045267771529169e-22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8930.949116876584</v>
+        <v>2.727978358802074</v>
       </c>
       <c r="C12" t="n">
-        <v>4.511295733133873e-28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.133979669635707</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8962613766884671</v>
+        <v>0.7656396312858563</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2426.371759022497</v>
+        <v>2389.343857673253</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007797118820504467</v>
+        <v>0.0007785585042661257</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.25665901045962</v>
+        <v>24.33870828687263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5552871164481983</v>
+        <v>0.3643956835557595</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.9895003682462</v>
+        <v>144.9471480535829</v>
       </c>
       <c r="C4" t="n">
-        <v>1.145341471256915e-17</v>
+        <v>8.986303213954284e-16</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01480262715925767</v>
+        <v>-0.02431309613515914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5824356801558273</v>
+        <v>0.3559832840547521</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.840642691706687e-05</v>
+        <v>2.274610438475266e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6155226741166397</v>
+        <v>0.9440785618478988</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.76527395058197</v>
+        <v>-22.05867749138158</v>
       </c>
       <c r="C7" t="n">
-        <v>2.637241833692791e-05</v>
+        <v>1.925590244684829e-05</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.543510288040766</v>
+        <v>12.58621728658971</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00435510391457514</v>
+        <v>0.0002474877353713813</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-758.3177111308477</v>
+        <v>-905.4455978699528</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2491588915540168</v>
+        <v>0.142423847906942</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-380.7697305827461</v>
+        <v>-232.4501543349475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3677068969457933</v>
+        <v>0.5846688343226691</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2061.625802888611</v>
+        <v>7517.3954577622</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07912570634517425</v>
+        <v>6.189979737159204e-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8363.926040001903</v>
+        <v>6.809366454651153</v>
       </c>
       <c r="C12" t="n">
-        <v>8.156251642868833e-22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.543868463707945</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4992498274161042</v>
+        <v>0.473554081482112</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2374.060686739499</v>
+        <v>2735.377594109068</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009810484669071037</v>
+        <v>0.0001143807029774636</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.4902989891219</v>
+        <v>49.11205255048174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5684732540073645</v>
+        <v>0.07270561800113237</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.3652821176523</v>
+        <v>159.7355193966819</v>
       </c>
       <c r="C4" t="n">
-        <v>5.452893899980845e-18</v>
+        <v>1.30089928177249e-17</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01988398866734369</v>
+        <v>-0.02236772053122602</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4662319956510822</v>
+        <v>0.4120872651810107</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.89274031039548e-06</v>
+        <v>8.156082327410667e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9561525069898444</v>
+        <v>0.8297776760663582</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.35681393040086</v>
+        <v>-19.71023931537736</v>
       </c>
       <c r="C7" t="n">
-        <v>5.282611938581048e-05</v>
+        <v>0.0003820917143363335</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.499644300776762</v>
+        <v>5.557928389721962</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01885086878337788</v>
+        <v>0.1218509593841662</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1172.617610554796</v>
+        <v>-919.051768613523</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0737356981004272</v>
+        <v>0.1613128697975025</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-697.1437597882683</v>
+        <v>-517.0066912909483</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1035069800162995</v>
+        <v>0.2305572685977998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2216.93708579628</v>
+        <v>7886.814778907024</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03964453270932392</v>
+        <v>2.268597700564804e-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7534.731264028507</v>
+        <v>7.53249709851573</v>
       </c>
       <c r="C12" t="n">
-        <v>2.763912920811048e-18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>16.50661001215423</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08021006992153708</v>
+        <v>0.4032246159361857</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1919.40987021196</v>
+        <v>2434.479116004251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006923710641184681</v>
+        <v>0.001001368098150967</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.28981369057066</v>
+        <v>35.76362646401357</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4360037904313548</v>
+        <v>0.2010321331774686</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.0826626679789</v>
+        <v>138.9902747789153</v>
       </c>
       <c r="C4" t="n">
-        <v>3.529595583895152e-20</v>
+        <v>2.329547909047657e-13</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004234988032676371</v>
+        <v>-0.0132202751587525</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8752779284391294</v>
+        <v>0.6423653938931388</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.329779945652049e-07</v>
+        <v>3.230679215868202e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9847005118243373</v>
+        <v>0.9249188775193931</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.85782746202269</v>
+        <v>-25.22273639105847</v>
       </c>
       <c r="C7" t="n">
-        <v>2.000966066454696e-06</v>
+        <v>1.577503813708235e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.952970922484045</v>
+        <v>7.740914643821966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007488012941831193</v>
+        <v>0.0316336170729774</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1088.621992099968</v>
+        <v>-698.740772344927</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09579576237187586</v>
+        <v>0.3009903966078735</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-428.911125944984</v>
+        <v>-351.8657273683013</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3138628376409336</v>
+        <v>0.43169418589271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3334.360429614333</v>
+        <v>8011.533700041286</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004397068493757589</v>
+        <v>2.268640571405242e-19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7909.6844748064</v>
+        <v>19.09741045488244</v>
       </c>
       <c r="C12" t="n">
-        <v>2.629429979093894e-20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.17449153964055</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02826383307880578</v>
+        <v>0.04233617557155522</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2216.776673036718</v>
+        <v>2391.607192799239</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002078283438102693</v>
+        <v>0.0009740136128745045</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.72141157033423</v>
+        <v>1.770939345937919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6276744342986269</v>
+        <v>0.9493039089944066</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.4912211666073</v>
+        <v>154.3834737553542</v>
       </c>
       <c r="C4" t="n">
-        <v>4.75200706710763e-18</v>
+        <v>2.352990157111554e-16</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0492545010214831</v>
+        <v>-0.02487707882163852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1111843084414727</v>
+        <v>0.4185152295670281</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.457856671780097e-05</v>
+        <v>-1.651221333753781e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3535974070131082</v>
+        <v>0.6655946263396822</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.80734576959887</v>
+        <v>-21.04102564266632</v>
       </c>
       <c r="C7" t="n">
-        <v>1.180949124703435e-05</v>
+        <v>0.0001470193841148847</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.20268296537017</v>
+        <v>13.74467586105515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001791981868525544</v>
+        <v>8.42321308686523e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1618.905825577718</v>
+        <v>-1533.365743669225</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01514115240414353</v>
+        <v>0.03019546439659838</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.25826137894938</v>
+        <v>-251.9924551477031</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9424200600811722</v>
+        <v>0.553367654638523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2881.50634088298</v>
+        <v>8134.200078946959</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009256787757330338</v>
+        <v>2.57063705659234e-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8626.542994275827</v>
+        <v>5.085980845034776</v>
       </c>
       <c r="C12" t="n">
-        <v>9.951961359621761e-22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.129996341049048</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4528198848066957</v>
+        <v>0.6089246266918784</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3077.722842969906</v>
+        <v>3116.18904184588</v>
       </c>
       <c r="C2" t="n">
-        <v>3.184132168910135e-05</v>
+        <v>1.295706818022238e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.35431345158301</v>
+        <v>-6.591872492601851</v>
       </c>
       <c r="C3" t="n">
-        <v>0.448292671592455</v>
+        <v>0.8122298052401244</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.2938607585914</v>
+        <v>143.5522013883573</v>
       </c>
       <c r="C4" t="n">
-        <v>1.335026563008157e-14</v>
+        <v>1.982239074955143e-14</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05410822518614694</v>
+        <v>-0.04292441360036648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05333354777142424</v>
+        <v>0.1315899136186146</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.712983632017988e-05</v>
+        <v>2.765672452132971e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6295793894981577</v>
+        <v>0.4341255955916372</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.84210252789536</v>
+        <v>-23.62408266628183</v>
       </c>
       <c r="C7" t="n">
-        <v>7.599173510440784e-06</v>
+        <v>1.403103301513202e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.666382379979311</v>
+        <v>9.864937070686429</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006207225338357197</v>
+        <v>0.004079067871892095</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1398.110954208787</v>
+        <v>-1159.256527865837</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03451344010413174</v>
+        <v>0.07098916474658744</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-222.0060285328268</v>
+        <v>-194.3568436780116</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6064104589934265</v>
+        <v>0.6586250532058109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2754.049769328198</v>
+        <v>7112.251815707464</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01409037449150443</v>
+        <v>5.98715491046575e-16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7032.74839429572</v>
+        <v>3.656788508756559</v>
       </c>
       <c r="C12" t="n">
-        <v>4.263465621071579e-15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.271408361291687</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8088466243187791</v>
+        <v>0.7013038541589319</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2710.974144680411</v>
+        <v>2822.071546351796</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000241850544710175</v>
+        <v>5.689072517007503e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.685003803551734</v>
+        <v>4.356370503807014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9515028338744698</v>
+        <v>0.8733057859512661</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.4039560887572</v>
+        <v>151.4268085769461</v>
       </c>
       <c r="C4" t="n">
-        <v>4.869275054127448e-17</v>
+        <v>1.37171664390967e-15</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0248054119901914</v>
+        <v>-0.01209156950911852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3803031387601773</v>
+        <v>0.6715939277496039</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.855912860332359e-05</v>
+        <v>6.102755394871102e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6133992681853933</v>
+        <v>0.9877637559114416</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.63104776863186</v>
+        <v>-23.25236613985411</v>
       </c>
       <c r="C7" t="n">
-        <v>2.380248440737473e-06</v>
+        <v>2.617093102529443e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.10722738038402</v>
+        <v>12.07923764137611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001240849067178237</v>
+        <v>0.0003116004644387079</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1590.279184954272</v>
+        <v>-1412.941624088676</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01501126945008281</v>
+        <v>0.02990255126061046</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-347.2824935887043</v>
+        <v>-429.5531094007176</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4109620221146579</v>
+        <v>0.3256725012454759</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2535.629142134731</v>
+        <v>7918.102265697858</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02718925429409105</v>
+        <v>1.135524498867331e-19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8974.749032348594</v>
+        <v>0.8016633398236976</v>
       </c>
       <c r="C12" t="n">
-        <v>1.143543041203286e-24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.4321452627399385</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9656982231639188</v>
+        <v>0.9351999657019346</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1909.420946336154</v>
+        <v>2391.714543681244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009151288692835042</v>
+        <v>0.0009393309893213033</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.69292310693485</v>
+        <v>20.55211243212217</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2974128388226867</v>
+        <v>0.4560418098851627</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.5759841774205</v>
+        <v>142.3142982257509</v>
       </c>
       <c r="C4" t="n">
-        <v>3.09926923219861e-16</v>
+        <v>1.425829422873839e-14</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03442348346182667</v>
+        <v>-0.05240766865128994</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2495597586626537</v>
+        <v>0.08130773920094644</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.624230899320388e-05</v>
+        <v>8.022816163104736e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6567027608781308</v>
+        <v>0.8175152948502725</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.60108893398818</v>
+        <v>-17.91643248661815</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001073216544984081</v>
+        <v>0.001786503581854108</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.94110125042791</v>
+        <v>12.19705507992107</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002780642839134589</v>
+        <v>0.0006629449315768111</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-928.1249379197563</v>
+        <v>-1113.410899194461</v>
       </c>
       <c r="C9" t="n">
-        <v>0.172190985835487</v>
+        <v>0.0897632590130453</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-371.469427648582</v>
+        <v>-446.9600909985579</v>
       </c>
       <c r="C10" t="n">
-        <v>0.395908821346854</v>
+        <v>0.3186329796272134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2014.333636906399</v>
+        <v>6128.244554904409</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1122195755036065</v>
+        <v>5.906166775951365e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7060.456778084405</v>
+        <v>14.48116556098167</v>
       </c>
       <c r="C12" t="n">
-        <v>1.221774904886396e-15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.001662658055</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1709391544124639</v>
+        <v>0.1285923263563503</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1581.025162527961</v>
+        <v>1836.182107782863</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02629070160531538</v>
+        <v>0.01369997805512543</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.82226004178288</v>
+        <v>39.5825927723229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06630230421519792</v>
+        <v>0.185237085445149</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.3669244536483</v>
+        <v>150.5686560880575</v>
       </c>
       <c r="C4" t="n">
-        <v>8.086532004091807e-18</v>
+        <v>8.022847365791681e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02273601032019412</v>
+        <v>-0.01820075800008232</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4238574188585135</v>
+        <v>0.536540782798036</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.219548513064939e-05</v>
+        <v>2.347186283718239e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5094342737240743</v>
+        <v>0.5048764700177856</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.13848246332485</v>
+        <v>-23.63153111590425</v>
       </c>
       <c r="C7" t="n">
-        <v>6.463144076992204e-05</v>
+        <v>2.559149924415606e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.93869166917424</v>
+        <v>12.75767811666948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00133527566853901</v>
+        <v>0.0006053672482392773</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1496.163100202804</v>
+        <v>-1222.388642482584</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0244557338619632</v>
+        <v>0.07595557403210017</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-480.403366132148</v>
+        <v>-208.0571534555648</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2656924724315486</v>
+        <v>0.639268934915618</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2901.712189340716</v>
+        <v>8308.331419911176</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008482024917329592</v>
+        <v>1.964669098050082e-21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9140.783457425918</v>
+        <v>15.56791577620746</v>
       </c>
       <c r="C12" t="n">
-        <v>2.514533665581182e-25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17.22944861899668</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06561177623638181</v>
+        <v>0.1023857638869152</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3788.231239811508</v>
+        <v>3289.500773572803</v>
       </c>
       <c r="C2" t="n">
-        <v>9.055188072246798e-08</v>
+        <v>1.021340887245495e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.8846636948292</v>
+        <v>15.9020656046512</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4923836937246688</v>
+        <v>0.5479283221700864</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.0175294238972</v>
+        <v>145.6887853064986</v>
       </c>
       <c r="C4" t="n">
-        <v>3.589736740818087e-19</v>
+        <v>2.033796922282558e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02874616783358942</v>
+        <v>-0.02187354849601594</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2554856597561159</v>
+        <v>0.4026181909704187</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.010289621175725e-06</v>
+        <v>2.206191763049083e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8264616342115828</v>
+        <v>0.9479031605444421</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.83786051098577</v>
+        <v>-25.90266106125051</v>
       </c>
       <c r="C7" t="n">
-        <v>7.381108494765759e-09</v>
+        <v>1.122107997368703e-06</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.099010523840772</v>
+        <v>5.684967289186681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5360381847269491</v>
+        <v>0.0983008808783884</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1152.726086908713</v>
+        <v>-873.5799823246845</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06843243474065722</v>
+        <v>0.1802535400261332</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-132.6140456756738</v>
+        <v>-281.2243369106997</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7482338317443551</v>
+        <v>0.5000572139570678</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3200.083108490566</v>
+        <v>8524.587781056645</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002694018937414787</v>
+        <v>3.693381205529922e-22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7606.678749233483</v>
+        <v>2.760448695624369</v>
       </c>
       <c r="C12" t="n">
-        <v>4.778927496998378e-20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.21127694151361</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9817994519601712</v>
+        <v>0.7699820001209882</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2198.898735797058</v>
+        <v>2853.904623264561</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002664090858585278</v>
+        <v>2.842068443917714e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.33714753116574</v>
+        <v>44.49420374738059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1749696171141232</v>
+        <v>0.0904029150933274</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.1605270595301</v>
+        <v>143.7516425150626</v>
       </c>
       <c r="C4" t="n">
-        <v>2.734953273504629e-14</v>
+        <v>7.617924940611849e-16</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02411441232907573</v>
+        <v>-0.0297091023825568</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4098153417031239</v>
+        <v>0.2632734070358402</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.171907180769686e-06</v>
+        <v>-5.836882391243105e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9769913154141212</v>
+        <v>0.8623502500724156</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.67489355659515</v>
+        <v>-17.95037563055119</v>
       </c>
       <c r="C7" t="n">
-        <v>4.651265515848076e-06</v>
+        <v>0.0004507212087356006</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.939237119986</v>
+        <v>10.99263301234414</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000654681626339443</v>
+        <v>0.001303263068887046</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-936.154651296398</v>
+        <v>-1318.727239472947</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1545692827827151</v>
+        <v>0.03360796774228351</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-292.5557574056439</v>
+        <v>-554.483136202163</v>
       </c>
       <c r="C10" t="n">
-        <v>0.511932094673317</v>
+        <v>0.1778377392399526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3285.900027680283</v>
+        <v>7219.809635979936</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005835407352217861</v>
+        <v>3.590568584701245e-16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6747.088290055728</v>
+        <v>-1.091833328678312</v>
       </c>
       <c r="C12" t="n">
-        <v>1.537453765281179e-14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.48469147228282</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1554726976745152</v>
+        <v>0.9073485216289419</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2156.297004675779</v>
+        <v>2758.184003733842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002427850444699431</v>
+        <v>5.136374163442157e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6.828686458806132</v>
+        <v>22.85241077194766</v>
       </c>
       <c r="C3" t="n">
-        <v>0.798984767486023</v>
+        <v>0.3910271041530843</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.0413414015749</v>
+        <v>152.2449124314967</v>
       </c>
       <c r="C4" t="n">
-        <v>3.49416742924194e-18</v>
+        <v>2.724340028355059e-17</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02820197588018745</v>
+        <v>-0.02213791150200915</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3077154163278078</v>
+        <v>0.4087228469299677</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.826201181074466e-06</v>
+        <v>-1.719205757022489e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8772008035962564</v>
+        <v>0.6159064136026469</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.34280238277702</v>
+        <v>-20.9004965212304</v>
       </c>
       <c r="C7" t="n">
-        <v>2.117945095164652e-05</v>
+        <v>7.083747914902352e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.73719953660012</v>
+        <v>6.715920172706706</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002496282940163241</v>
+        <v>0.0515460875506551</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-740.5500022889428</v>
+        <v>-554.8784993699535</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2612087236368313</v>
+        <v>0.3881144404944333</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-413.3379090130084</v>
+        <v>-186.6025269532262</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3358636160258447</v>
+        <v>0.6562307882235431</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2411.670255120078</v>
+        <v>7534.845621271601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02313187434598909</v>
+        <v>2.312318128297008e-19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6558.542050663726</v>
+        <v>9.379827512724825</v>
       </c>
       <c r="C12" t="n">
-        <v>8.756417621142479e-13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.94527107833186</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01941116039196417</v>
+        <v>0.2937546563864699</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2734.633409953701</v>
+        <v>2621.414076942243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001604322965982761</v>
+        <v>0.0005602871545398482</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.3704522131516</v>
+        <v>12.92244263241444</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3053692028804425</v>
+        <v>0.6459347872386589</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.9927445338073</v>
+        <v>148.2836061279957</v>
       </c>
       <c r="C4" t="n">
-        <v>4.334621791359224e-17</v>
+        <v>4.598664567969073e-14</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02903522007483419</v>
+        <v>-0.0350569136336888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3298388236714387</v>
+        <v>0.2610759691029025</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.768725827105487e-05</v>
+        <v>4.768299825654951e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4782872795069651</v>
+        <v>0.8906735744752229</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.35195706411914</v>
+        <v>-19.27789842347073</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004008918699669463</v>
+        <v>0.0007421543024473547</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.59462156294787</v>
+        <v>9.692485677406699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001592124547437982</v>
+        <v>0.007762961363671994</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1338.036176475896</v>
+        <v>-1674.040537656339</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04949156534747814</v>
+        <v>0.01318974500040502</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-447.3785119355322</v>
+        <v>-536.7727750511893</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3145579982760323</v>
+        <v>0.2288904826193119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2298.305492243844</v>
+        <v>7234.478004915575</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0407163551476235</v>
+        <v>4.121975553396515e-14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6538.278366306979</v>
+        <v>12.57387118556314</v>
       </c>
       <c r="C12" t="n">
-        <v>3.725814760879624e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.395216007222441</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5770174414039527</v>
+        <v>0.198280213882935</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1974.368944633471</v>
+        <v>2046.685494953033</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007245436900345267</v>
+        <v>0.002979526038029088</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.828032550601398</v>
+        <v>83.65939731654007</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8341193979930281</v>
+        <v>0.003041836885430003</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.237904266684</v>
+        <v>152.9041240398953</v>
       </c>
       <c r="C4" t="n">
-        <v>1.109125670376666e-18</v>
+        <v>2.607612724233772e-17</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01617534156508819</v>
+        <v>0.001149905069278229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5784124183674595</v>
+        <v>0.9648167275881688</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.499887218349309e-05</v>
+        <v>-2.609160060103621e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6722236565500985</v>
+        <v>0.4505651009041057</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.0464645705797</v>
+        <v>-19.147013556338</v>
       </c>
       <c r="C7" t="n">
-        <v>1.20494905437795e-05</v>
+        <v>0.0002417528577562789</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.709418703168598</v>
+        <v>11.30278113135595</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01044890632728921</v>
+        <v>0.0006218408072367346</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1037.985055997634</v>
+        <v>-473.7217417432252</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1332814968801092</v>
+        <v>0.452245986361295</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-726.0135832225917</v>
+        <v>-482.9786914479417</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0915094955230849</v>
+        <v>0.235674627324233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2526.411970295289</v>
+        <v>7244.490380792307</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02595263812455804</v>
+        <v>2.466014413409937e-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8565.868535693982</v>
+        <v>10.18940182904286</v>
       </c>
       <c r="C12" t="n">
-        <v>8.276265999994791e-21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.90783729717826</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0359295962032606</v>
+        <v>0.2573391290194511</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3036.130280106179</v>
+        <v>2584.553707396929</v>
       </c>
       <c r="C2" t="n">
-        <v>1.887984273608884e-05</v>
+        <v>0.0003985804490451162</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.967679706109081</v>
+        <v>-1.73043116505883</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8223412445451292</v>
+        <v>0.9507748018291845</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.2881897179117</v>
+        <v>160.6504516649124</v>
       </c>
       <c r="C4" t="n">
-        <v>1.701720548252256e-17</v>
+        <v>1.198264716491066e-17</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03065703755147869</v>
+        <v>-0.01114342016669449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2454972743403709</v>
+        <v>0.6887101486447296</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.491462273317585e-06</v>
+        <v>2.701907776938716e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8717894404756794</v>
+        <v>0.9397674038559393</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.36275041402259</v>
+        <v>-24.97667317802647</v>
       </c>
       <c r="C7" t="n">
-        <v>1.128772126537208e-07</v>
+        <v>9.180993049213004e-06</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.388293179039191</v>
+        <v>10.40105763871528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02417752540818852</v>
+        <v>0.005437186836717707</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-969.2391287489543</v>
+        <v>-1121.441498739129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1385583987614007</v>
+        <v>0.10404321633535</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.29967709942269</v>
+        <v>-269.8678494221393</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9465741738163453</v>
+        <v>0.5466959004730896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2645.553675715871</v>
+        <v>8083.099761721351</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02016766388622294</v>
+        <v>4.325348741208235e-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8314.031664525364</v>
+        <v>7.236766808937125</v>
       </c>
       <c r="C12" t="n">
-        <v>3.009181053461249e-23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.7237534030876</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8494185571064048</v>
+        <v>0.4507571061548787</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1863.213600678766</v>
+        <v>3523.710927090898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01044819142649044</v>
+        <v>4.517900279524368e-07</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.23885760869214</v>
+        <v>19.48023972875414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3910138937352833</v>
+        <v>0.4637504136706193</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.1473253123093</v>
+        <v>137.8775277783051</v>
       </c>
       <c r="C4" t="n">
-        <v>6.405113324020106e-18</v>
+        <v>8.322867799095094e-15</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02608468527364823</v>
+        <v>-0.03010041529052319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.338331970431058</v>
+        <v>0.2815497809085666</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.048883885810613e-05</v>
+        <v>5.767390071683361e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7677243111023083</v>
+        <v>0.8771508945951092</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.32676815660712</v>
+        <v>-24.96136448345075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00045859498430649</v>
+        <v>5.59019970790302e-06</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.2627938836976</v>
+        <v>7.272340898271322</v>
       </c>
       <c r="C8" t="n">
-        <v>9.492892456896412e-05</v>
+        <v>0.03391977149435582</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1338.752365585466</v>
+        <v>-869.0980276597447</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03896465677900199</v>
+        <v>0.1756908060191177</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-570.6543104588902</v>
+        <v>97.3761470397402</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1725026294322191</v>
+        <v>0.8199885240774628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2604.734490319337</v>
+        <v>8206.891355662654</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01825407754313194</v>
+        <v>9.837967680062342e-22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7961.909871074604</v>
+        <v>-8.462072307064417</v>
       </c>
       <c r="C12" t="n">
-        <v>2.667661988586736e-20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.895974829048384</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4556177280895246</v>
+        <v>0.3635636204790595</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2202.962329537728</v>
+        <v>2215.078019828654</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002096505299525615</v>
+        <v>0.001946377918420494</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.89268788594548</v>
+        <v>-0.9763071426352354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4623613441680042</v>
+        <v>0.9708873307279489</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.3897923609492</v>
+        <v>142.3407323439893</v>
       </c>
       <c r="C4" t="n">
-        <v>6.623963798560445e-17</v>
+        <v>4.739200950138869e-14</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03331158798672954</v>
+        <v>-0.05403750903617993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2183308248456441</v>
+        <v>0.05429804982837846</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.447886916256593e-05</v>
+        <v>3.269898770990682e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4572611772776259</v>
+        <v>0.3445643015633539</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.32084462574789</v>
+        <v>-22.66542312980232</v>
       </c>
       <c r="C7" t="n">
-        <v>5.928572285628383e-07</v>
+        <v>2.636863509407167e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.282985500378416</v>
+        <v>10.96761345588954</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01991247420173389</v>
+        <v>0.001307384846309978</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1225.92441114374</v>
+        <v>-1184.026024657021</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04872168973327477</v>
+        <v>0.06654520115857586</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-71.55561986250359</v>
+        <v>-338.6092447168471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8658565292450344</v>
+        <v>0.4372719191401673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3213.826819081734</v>
+        <v>7762.882361911936</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004727981584795144</v>
+        <v>1.157349256194852e-19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7950.099520457044</v>
+        <v>21.58095588405639</v>
       </c>
       <c r="C12" t="n">
-        <v>2.132150689014959e-21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18.28022163774317</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04709369676789258</v>
+        <v>0.02483699132151651</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2451.548633959108</v>
+        <v>2435.683022540869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006314495231423445</v>
+        <v>0.0005014315042107164</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.553038882650192</v>
+        <v>41.99512709273215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7299761146749855</v>
+        <v>0.1132951729118766</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.4465204808001</v>
+        <v>147.1819565036456</v>
       </c>
       <c r="C4" t="n">
-        <v>1.067123510502468e-16</v>
+        <v>1.27366516650969e-16</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04105145954470481</v>
+        <v>-0.04157868643596621</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1433499934264719</v>
+        <v>0.1319085183763229</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.968009567901892e-06</v>
+        <v>2.84259598017664e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8676137083950732</v>
+        <v>0.4231530266004416</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.00821985280048</v>
+        <v>-20.84729320009036</v>
       </c>
       <c r="C7" t="n">
-        <v>6.311413116395211e-05</v>
+        <v>0.0001657709506349073</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.0676057707263</v>
+        <v>8.961351829613903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004499334631293624</v>
+        <v>0.01338731648906424</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1016.887005026398</v>
+        <v>-1073.787311436565</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1329071728347035</v>
+        <v>0.09943934280988402</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-405.7457184030389</v>
+        <v>-187.504233049475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3466589112948886</v>
+        <v>0.6640217827489554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2275.590786635736</v>
+        <v>8603.965930775528</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0401559393001053</v>
+        <v>8.15321040470408e-24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7521.033276980243</v>
+        <v>6.993552323399214</v>
       </c>
       <c r="C12" t="n">
-        <v>7.649548052790976e-17</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.661029731322637</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5424193738190827</v>
+        <v>0.4440484856000629</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2147.792367116737</v>
+        <v>2805.315693109842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002636661979581683</v>
+        <v>0.0001136933022766319</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.32182054648243</v>
+        <v>10.41619940995328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.495386433105917</v>
+        <v>0.705924344575702</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.5016869670215</v>
+        <v>152.0910519303013</v>
       </c>
       <c r="C4" t="n">
-        <v>8.807286659341597e-19</v>
+        <v>2.615703311141515e-16</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03901834156137067</v>
+        <v>-0.01844636825692158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1771272831024182</v>
+        <v>0.5287284538398697</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.830032000009618e-05</v>
+        <v>-4.792172203940687e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5875163463235611</v>
+        <v>0.8940547926905899</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.45221071593888</v>
+        <v>-21.8423044478788</v>
       </c>
       <c r="C7" t="n">
-        <v>7.685987767897688e-06</v>
+        <v>6.817830305943753e-05</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.09452851692672</v>
+        <v>8.371116185335355</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03102661257366663</v>
+        <v>0.0160379475982517</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1632.637967110167</v>
+        <v>-432.6086497493627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01377009604571884</v>
+        <v>0.5220808765359234</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-353.7253947339276</v>
+        <v>-541.0913535827284</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3930195008125255</v>
+        <v>0.2122796521430999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3515.537348244678</v>
+        <v>7416.27934805376</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002348294012344141</v>
+        <v>3.503567621736109e-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7879.065184831237</v>
+        <v>8.226649525005158</v>
       </c>
       <c r="C12" t="n">
-        <v>7.741015926001679e-21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>23.2056250806786</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01533363946185798</v>
+        <v>0.3886073885896772</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022.776053500876</v>
+        <v>2002.36986366558</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00573719532902889</v>
+        <v>0.005316791673803769</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.81022092225716</v>
+        <v>-4.717466410923635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6738311316382397</v>
+        <v>0.8638709685624482</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1598118957066</v>
+        <v>154.7004526476325</v>
       </c>
       <c r="C4" t="n">
-        <v>1.036608268373166e-15</v>
+        <v>3.296586565143757e-16</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03656959317175203</v>
+        <v>-0.01985025167688222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1921054955403858</v>
+        <v>0.4687161856541358</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.292309282462448e-05</v>
+        <v>5.955104412967184e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7050144869896091</v>
+        <v>0.8593565417107515</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.60798595167355</v>
+        <v>-24.60592668466752</v>
       </c>
       <c r="C7" t="n">
-        <v>3.782496214812756e-06</v>
+        <v>8.022409808052202e-06</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.17087370586928</v>
+        <v>11.48674659294807</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004227964704606653</v>
+        <v>0.001456907258625613</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1471.554348782087</v>
+        <v>-912.3240440665386</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02482811301745676</v>
+        <v>0.1519903237889807</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.007933418719404</v>
+        <v>-24.62262773224012</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9963586044510844</v>
+        <v>0.9560701863153033</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3172.04499270301</v>
+        <v>7528.499816312956</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005483405111448035</v>
+        <v>1.540273699875725e-18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7949.355678692322</v>
+        <v>20.42049133962528</v>
       </c>
       <c r="C12" t="n">
-        <v>6.937165173022975e-19</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.08179452086394</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.171295532306766</v>
+        <v>0.03312553671771755</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2450.313007680276</v>
+        <v>3137.88206744933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006763815451859707</v>
+        <v>1.937949331723643e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.171214883711933</v>
+        <v>30.42540570173642</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8239630148290435</v>
+        <v>0.2633464177268676</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.3184651155533</v>
+        <v>136.7726150753823</v>
       </c>
       <c r="C4" t="n">
-        <v>1.130687383831162e-19</v>
+        <v>8.603970369019891e-13</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01134705020374578</v>
+        <v>-0.006410402236062311</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6675771488038647</v>
+        <v>0.8188673735552346</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.285829156466999e-06</v>
+        <v>-3.475254247024115e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9484123125847771</v>
+        <v>0.3468418667179379</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.39850164491344</v>
+        <v>-22.14815266673052</v>
       </c>
       <c r="C7" t="n">
-        <v>3.411253532661228e-06</v>
+        <v>4.791781733305968e-05</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.601161510367021</v>
+        <v>8.796789694976809</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0194847893678695</v>
+        <v>0.01082791873440965</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1093.60560465899</v>
+        <v>-1371.885037567088</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1055227268873985</v>
+        <v>0.04160740775007483</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-516.1269353918262</v>
+        <v>-493.8089097731201</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2347487834096319</v>
+        <v>0.2462608278750009</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2315.974835325759</v>
+        <v>7928.929185631985</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0412856688574534</v>
+        <v>6.033710519757649e-19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8757.41887750605</v>
+        <v>2.280079788756627</v>
       </c>
       <c r="C12" t="n">
-        <v>1.233938800945925e-23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.465712053598732</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3156904169361993</v>
+        <v>0.809868742467604</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3045.160992120868</v>
+        <v>2274.215229039783</v>
       </c>
       <c r="C2" t="n">
-        <v>2.06414704630389e-05</v>
+        <v>0.001456726624967004</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.463750807469893</v>
+        <v>13.10991197179867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9540154511645479</v>
+        <v>0.6337518008088669</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.2836999144252</v>
+        <v>149.7520814313756</v>
       </c>
       <c r="C4" t="n">
-        <v>9.937994139620181e-22</v>
+        <v>1.508546210584489e-15</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03313197092777001</v>
+        <v>-0.0119108292998229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.204177585262192</v>
+        <v>0.6734733711962155</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.853598634164044e-05</v>
+        <v>-1.458742680900716e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5661908837616405</v>
+        <v>0.6695533315666768</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.05762934849929</v>
+        <v>-21.85965204095312</v>
       </c>
       <c r="C7" t="n">
-        <v>2.790415323539687e-06</v>
+        <v>8.102735671862451e-05</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.489548575453149</v>
+        <v>9.719903684338806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1825149086735836</v>
+        <v>0.004208485842050243</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1302.551760309308</v>
+        <v>-984.7876399950092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0342118459985702</v>
+        <v>0.1378723196063749</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-303.6334081255824</v>
+        <v>-378.7046806425105</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4603204631958067</v>
+        <v>0.3884131037535454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.264668607046</v>
+        <v>7791.680349255575</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02200658011634195</v>
+        <v>1.134823618113812e-19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8288.297341869973</v>
+        <v>17.79730759076372</v>
       </c>
       <c r="C12" t="n">
-        <v>8.887928895261261e-23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.737349552078598</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.537061833514852</v>
+        <v>0.05573171742502336</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2884.92362976594</v>
+        <v>2715.360494995369</v>
       </c>
       <c r="C2" t="n">
-        <v>6.985290050653134e-05</v>
+        <v>0.0001564732115151484</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.33303134411968</v>
+        <v>25.79115784329865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1063778103557817</v>
+        <v>0.3747925581397843</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.4645619651628</v>
+        <v>149.0801288001431</v>
       </c>
       <c r="C4" t="n">
-        <v>3.961057788609091e-17</v>
+        <v>2.151288697874155e-15</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01323219428266265</v>
+        <v>-0.04188446709717754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6413581649452016</v>
+        <v>0.1426057064214734</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.110315283431702e-05</v>
+        <v>2.530806696940784e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7697811067017598</v>
+        <v>0.4704192594327991</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.75193292250346</v>
+        <v>-22.73729734509261</v>
       </c>
       <c r="C7" t="n">
-        <v>2.457088076464953e-05</v>
+        <v>3.526170802386812e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.271179031898939</v>
+        <v>11.46064893699583</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02066414000752311</v>
+        <v>0.0007278946034455167</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-818.2993738536347</v>
+        <v>-1410.189423599918</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1922051173015675</v>
+        <v>0.03097004166262255</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-427.0436981500645</v>
+        <v>-270.8854134191213</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3120415470934432</v>
+        <v>0.5288359579062212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2127.428346798272</v>
+        <v>6938.217504038914</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0530359150671884</v>
+        <v>4.260937977106272e-14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7299.546255517176</v>
+        <v>6.554558972851092</v>
       </c>
       <c r="C12" t="n">
-        <v>8.328239643191731e-17</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.271396081698213</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7248721983987405</v>
+        <v>0.4932791676373836</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1836.560886317751</v>
+        <v>2866.76178653834</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007150258855859966</v>
+        <v>6.634951053231731e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.40524676358338</v>
+        <v>2.101085226916169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3456550056816621</v>
+        <v>0.9385729577874573</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.6879340691662</v>
+        <v>152.0696424000078</v>
       </c>
       <c r="C4" t="n">
-        <v>4.410751539732373e-20</v>
+        <v>4.712515846699181e-16</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009561536812132886</v>
+        <v>-0.01753863521768803</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7198920742373278</v>
+        <v>0.5400508284536918</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.785224888690556e-06</v>
+        <v>6.085560100688808e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8159563491768188</v>
+        <v>0.8635589243738726</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.04080268682311</v>
+        <v>-21.84306062463121</v>
       </c>
       <c r="C7" t="n">
-        <v>2.864984538393048e-06</v>
+        <v>7.690589337590165e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.965396533213726</v>
+        <v>11.68819204441955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002315924799888918</v>
+        <v>0.0005898780291953955</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1479.96595710264</v>
+        <v>-1641.505124794421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02051519176901603</v>
+        <v>0.01472938414355218</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-417.0268633193031</v>
+        <v>-467.6338629542448</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3212924467146288</v>
+        <v>0.2851620478747235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2302.472674958431</v>
+        <v>8517.479997637043</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03629925538774583</v>
+        <v>6.814411573656579e-22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8659.811442239468</v>
+        <v>-0.9255289311120265</v>
       </c>
       <c r="C12" t="n">
-        <v>1.295393157651854e-23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.33022563747394</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03788107867388468</v>
+        <v>0.9240240077953437</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2970.542642770724</v>
+        <v>2860.065348930978</v>
       </c>
       <c r="C2" t="n">
-        <v>1.495098722229807e-05</v>
+        <v>2.358433549857217e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.51366484157444</v>
+        <v>22.41524478757132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6244433816441091</v>
+        <v>0.3959270535063451</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.5250355813766</v>
+        <v>157.7408482273493</v>
       </c>
       <c r="C4" t="n">
-        <v>2.033642674818975e-18</v>
+        <v>8.929545522349969e-20</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03222354833251651</v>
+        <v>-0.04211096431088687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2178597090761027</v>
+        <v>0.101828058181077</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.244250482747425e-05</v>
+        <v>1.691993930054078e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7032074987056605</v>
+        <v>0.6076492031387281</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.3472321976087</v>
+        <v>-19.0648206488648</v>
       </c>
       <c r="C7" t="n">
-        <v>6.373404409917132e-06</v>
+        <v>0.0002326815347065305</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.949115383293277</v>
+        <v>8.007431342979483</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01557714067341982</v>
+        <v>0.01730311737603428</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1211.61113454329</v>
+        <v>-1268.155270915443</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05295862426719689</v>
+        <v>0.03580299370648936</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-110.581099809777</v>
+        <v>-264.7989913127793</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7854464134312561</v>
+        <v>0.5140897070099657</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2495.342896898884</v>
+        <v>6371.235896967894</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01698560361018611</v>
+        <v>1.187909041781455e-13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7355.377212704073</v>
+        <v>6.982060043541715</v>
       </c>
       <c r="C12" t="n">
-        <v>2.167244779237189e-17</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.783244025750912</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7561804982070092</v>
+        <v>0.4339633938589063</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1963.432204416469</v>
+        <v>2681.199339940078</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006569506677391691</v>
+        <v>0.0001388462307189117</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7.371405152402184</v>
+        <v>46.07814197838888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7846874959179513</v>
+        <v>0.09415349522146996</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.0298048016873</v>
+        <v>130.7839798980214</v>
       </c>
       <c r="C4" t="n">
-        <v>1.932283752970924e-20</v>
+        <v>2.07244888100257e-12</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04855509741323032</v>
+        <v>-0.01528010317251056</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07931677180577086</v>
+        <v>0.6105435870204918</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.170805456948363e-05</v>
+        <v>-1.203400027158749e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2595358800121326</v>
+        <v>0.7430370925148768</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.28670724340099</v>
+        <v>-24.30130618360339</v>
       </c>
       <c r="C7" t="n">
-        <v>1.561520461791482e-05</v>
+        <v>1.145127541209783e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.80547414800793</v>
+        <v>9.602692604911292</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008299190836299115</v>
+        <v>0.005188176708790907</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-887.9571045020127</v>
+        <v>-947.1237033045999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1843567752411485</v>
+        <v>0.1520201798453126</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-76.22440275041095</v>
+        <v>-209.8378173378587</v>
       </c>
       <c r="C10" t="n">
-        <v>0.858512899583904</v>
+        <v>0.6302681376944428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2894.804489705098</v>
+        <v>7049.586613328912</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01036902150399019</v>
+        <v>1.915101570141211e-16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7764.944949414346</v>
+        <v>11.46300157585344</v>
       </c>
       <c r="C12" t="n">
-        <v>1.06794735862245e-19</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.22265919050567</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2355595684759135</v>
+        <v>0.2209345796948383</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2674.626094939284</v>
+        <v>2142.061694596397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002326980963042711</v>
+        <v>0.003351459960627799</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.60768737835062</v>
+        <v>37.66362516186235</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2437778619519671</v>
+        <v>0.179197217011445</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.1059750572026</v>
+        <v>144.417274546092</v>
       </c>
       <c r="C4" t="n">
-        <v>7.577063705881325e-15</v>
+        <v>3.398003735831604e-14</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01106661105673924</v>
+        <v>-0.0208558899986121</v>
       </c>
       <c r="C5" t="n">
-        <v>0.730652728360118</v>
+        <v>0.4636015085131652</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.360860048050168e-05</v>
+        <v>-1.280791379557952e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5239340800691928</v>
+        <v>0.7174962313914433</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.53894368748451</v>
+        <v>-22.83723262871073</v>
       </c>
       <c r="C7" t="n">
-        <v>4.448579984215306e-06</v>
+        <v>5.618519029495691e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.645230852656773</v>
+        <v>11.33855987337722</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01238879411661289</v>
+        <v>0.001480007472119363</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-961.4158738698771</v>
+        <v>-570.1824676289027</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1519683747451938</v>
+        <v>0.3782001577097632</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-502.1122170126233</v>
+        <v>-307.9100682627167</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2557800412319773</v>
+        <v>0.4833353864791243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3164.494656753793</v>
+        <v>8233.991350552216</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01015336226858764</v>
+        <v>8.816217201372595e-21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7846.507243501203</v>
+        <v>14.47613960713537</v>
       </c>
       <c r="C12" t="n">
-        <v>1.497647805244946e-18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10.45309873817099</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.284855351304991</v>
+        <v>0.1295845956042566</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2471.38199717055</v>
+        <v>2556.489092257242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001987137631372684</v>
+        <v>0.0008216794110635197</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.28711029185875</v>
+        <v>-5.081212367891418</v>
       </c>
       <c r="C3" t="n">
-        <v>0.416879253117435</v>
+        <v>0.8575216662518352</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.8037043677307</v>
+        <v>155.3281745474154</v>
       </c>
       <c r="C4" t="n">
-        <v>3.204686630510325e-15</v>
+        <v>1.044067132940547e-15</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03486489936538583</v>
+        <v>-0.02551362085421301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2015913037135778</v>
+        <v>0.3599536134295368</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.598650335813159e-05</v>
+        <v>1.728348608994742e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.657976951540583</v>
+        <v>0.6340042348929665</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.33099963919555</v>
+        <v>-24.39386323871885</v>
       </c>
       <c r="C7" t="n">
-        <v>7.466273091948212e-05</v>
+        <v>1.072808728546727e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.856119596893627</v>
+        <v>8.73973220835035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01163634394752747</v>
+        <v>0.01970440763732059</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1329.368822295529</v>
+        <v>-773.6926771235155</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0536043602542083</v>
+        <v>0.2716654042176823</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-631.1039402444194</v>
+        <v>-329.7740534859893</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1537530227053525</v>
+        <v>0.4596239963626578</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2510.63426067545</v>
+        <v>8472.604147975326</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02676182218123286</v>
+        <v>1.719541056150513e-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7836.298914303397</v>
+        <v>11.08758628255906</v>
       </c>
       <c r="C12" t="n">
-        <v>3.254386030535966e-18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10.87744922491799</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2587665898042687</v>
+        <v>0.2549504218432271</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2964.553555143973</v>
+        <v>2468.481027792969</v>
       </c>
       <c r="C2" t="n">
-        <v>5.562018252452023e-05</v>
+        <v>0.0009123470185715428</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.84910516755431</v>
+        <v>10.10561757943305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1197277274355182</v>
+        <v>0.7219251699447551</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.7798329803015</v>
+        <v>159.2638033360971</v>
       </c>
       <c r="C4" t="n">
-        <v>7.106000065404894e-17</v>
+        <v>8.512276293817645e-16</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03659496739274141</v>
+        <v>-0.005970558546792723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1837614980569111</v>
+        <v>0.8310447885040695</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.956888957667937e-06</v>
+        <v>-5.188024449446528e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.957004222663787</v>
+        <v>0.8798212873375681</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.66023922055446</v>
+        <v>-23.8727741211563</v>
       </c>
       <c r="C7" t="n">
-        <v>4.838326486565835e-06</v>
+        <v>2.232491663231858e-05</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.590232078841886</v>
+        <v>8.93903365227581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01355825604797699</v>
+        <v>0.01413490851635679</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1071.982889697457</v>
+        <v>-560.3065883754912</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09566374229637734</v>
+        <v>0.3962026151132316</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-246.9949463014589</v>
+        <v>-526.2331367442328</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5643466050504506</v>
+        <v>0.2400662707663864</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3115.969806622151</v>
+        <v>7745.347382437744</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005017358833789109</v>
+        <v>2.23805279863024e-18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6193.53124605207</v>
+        <v>14.20865838708178</v>
       </c>
       <c r="C12" t="n">
-        <v>8.049407454981764e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.202425249760019</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4559130062516881</v>
+        <v>0.1442510463374162</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1696.122439988501</v>
+        <v>2207.259624991956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02285102923014697</v>
+        <v>0.002069835717985011</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.182268480922787</v>
+        <v>13.48408604811225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7721465585197556</v>
+        <v>0.6217686810499231</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.559625378747</v>
+        <v>145.4111361442651</v>
       </c>
       <c r="C4" t="n">
-        <v>2.120320732068046e-19</v>
+        <v>9.810991705203897e-15</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02496099015442627</v>
+        <v>-0.03491254117629711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.371194385141116</v>
+        <v>0.2113137676445324</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.45207694199987e-05</v>
+        <v>1.491634767623509e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.667131270996304</v>
+        <v>0.6628151833712188</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.11393047022198</v>
+        <v>-21.02784263137658</v>
       </c>
       <c r="C7" t="n">
-        <v>2.764389943910032e-05</v>
+        <v>0.000105532651653211</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.61058179541909</v>
+        <v>11.74334561228463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005612058532124086</v>
+        <v>0.0005984648916272885</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1469.001292876991</v>
+        <v>-1198.722633422295</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03216875197655305</v>
+        <v>0.0750842078901427</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-351.1131941623813</v>
+        <v>-285.3118597620726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4152855570756196</v>
+        <v>0.5139335258523623</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2885.835125960977</v>
+        <v>7380.776641526077</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009888857124763579</v>
+        <v>2.049643508611763e-15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9174.904422292331</v>
+        <v>16.0185654139304</v>
       </c>
       <c r="C12" t="n">
-        <v>1.480680971441137e-23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.83112041998762</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1749155329598094</v>
+        <v>0.09356858973615004</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2762.745856455211</v>
+        <v>1917.526501588219</v>
       </c>
       <c r="C2" t="n">
-        <v>7.770445160338078e-05</v>
+        <v>0.008697942755658323</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.33323670917684</v>
+        <v>33.22372484575138</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4002854090013274</v>
+        <v>0.2361293886150943</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.242831230535</v>
+        <v>143.7256338687469</v>
       </c>
       <c r="C4" t="n">
-        <v>1.847808576438129e-16</v>
+        <v>5.515425386081706e-15</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03148762742099771</v>
+        <v>-0.03288377392577389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2539879970099112</v>
+        <v>0.2464365865590914</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.031536905166943e-06</v>
+        <v>1.913657437100567e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8602519236141908</v>
+        <v>0.594583843741483</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.25278620443388</v>
+        <v>-18.99232601902106</v>
       </c>
       <c r="C7" t="n">
-        <v>1.911087978483799e-06</v>
+        <v>0.0005547841158258964</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.859321658811895</v>
+        <v>11.92096302818413</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1530331317139786</v>
+        <v>0.001158075885984714</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-986.9084067942549</v>
+        <v>-940.0859530857956</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1258772213429126</v>
+        <v>0.1595669647241656</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-455.6238403285693</v>
+        <v>-402.0153211380332</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2722995272481654</v>
+        <v>0.3407612504000734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2462.199974952026</v>
+        <v>7475.186841391765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02768760593167911</v>
+        <v>1.33840924169762e-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8621.033616099192</v>
+        <v>16.76725724286119</v>
       </c>
       <c r="C12" t="n">
-        <v>4.503811881513745e-24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.49077440035688</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1473198634012944</v>
+        <v>0.07233212227449617</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2816.320524970874</v>
+        <v>3107.41795455795</v>
       </c>
       <c r="C2" t="n">
-        <v>5.920763099924153e-05</v>
+        <v>8.162028169340884e-06</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.46931453040045</v>
+        <v>43.6277343393017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6918484662221167</v>
+        <v>0.112434308637688</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.77378104447</v>
+        <v>154.4309067868995</v>
       </c>
       <c r="C4" t="n">
-        <v>1.903126681208621e-18</v>
+        <v>4.499269895595783e-18</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0154068712610081</v>
+        <v>-0.02351841781695885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5824284451199628</v>
+        <v>0.399088784444729</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.688845024682011e-06</v>
+        <v>4.804258768774478e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9639058002571865</v>
+        <v>0.8861491872874901</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.50483984175941</v>
+        <v>-24.85937049138556</v>
       </c>
       <c r="C7" t="n">
-        <v>1.882976484604716e-05</v>
+        <v>3.01298451746545e-06</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.788780725223607</v>
+        <v>9.891564339833799</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003228529485898472</v>
+        <v>0.003778134172333058</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1521.826917620598</v>
+        <v>-1313.255091404158</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0214569045122402</v>
+        <v>0.03863683173520038</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-362.4243498348362</v>
+        <v>81.55978840992299</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3906660756524131</v>
+        <v>0.844957618908509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1696.223588859697</v>
+        <v>7824.741434906829</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1273722994990497</v>
+        <v>9.540808201262591e-22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7703.629126764663</v>
+        <v>-7.676076626940629</v>
       </c>
       <c r="C12" t="n">
-        <v>7.065003672105816e-20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.712773467172685</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.683899612760908</v>
+        <v>0.4040140034955854</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2117.637092936721</v>
+        <v>3027.325177003238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003431692042091172</v>
+        <v>6.617267959867794e-05</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-9.629321138766368</v>
+        <v>-3.589277090609215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7287458936900355</v>
+        <v>0.8985790257795554</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.0259421068466</v>
+        <v>152.6464657703195</v>
       </c>
       <c r="C4" t="n">
-        <v>6.639141872478877e-18</v>
+        <v>9.015024418742904e-16</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03964992568164991</v>
+        <v>-0.04377397711672598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1551682752191219</v>
+        <v>0.1305414176394502</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.447612149916714e-07</v>
+        <v>3.370828372157542e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9777534426061221</v>
+        <v>0.3614480845121086</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.96710357693053</v>
+        <v>-27.40180422160049</v>
       </c>
       <c r="C7" t="n">
-        <v>4.505309651484532e-05</v>
+        <v>1.884602436733676e-06</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.25104480314062</v>
+        <v>6.108677561051907</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00299159464328207</v>
+        <v>0.1079561529894239</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1230.796257620474</v>
+        <v>-781.4744949284832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05974996530647679</v>
+        <v>0.2269415758657764</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-375.5396241549261</v>
+        <v>-69.71752738185546</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3831717940350133</v>
+        <v>0.8764968379272482</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2509.589906954095</v>
+        <v>7326.032476103926</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03129898278641888</v>
+        <v>2.876309225348335e-16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8318.598503519521</v>
+        <v>12.64257824293265</v>
       </c>
       <c r="C12" t="n">
-        <v>5.74610804431112e-22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15.35519427958497</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09777558590575773</v>
+        <v>0.1928037354120791</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1640.991329435031</v>
+        <v>3301.852001214072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0227373122433389</v>
+        <v>3.257738628936348e-06</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.08583028593003</v>
+        <v>12.22936858290054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4368489749403375</v>
+        <v>0.6468597613622802</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.8395314366128</v>
+        <v>138.7708518793302</v>
       </c>
       <c r="C4" t="n">
-        <v>3.162600762883986e-17</v>
+        <v>4.984850934307145e-14</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02805794380420658</v>
+        <v>-0.02574641917873499</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3190947401347284</v>
+        <v>0.3705488313694514</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.581493204328159e-06</v>
+        <v>-1.625644206802921e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9177603565949466</v>
+        <v>0.6824713967481049</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.81517408156655</v>
+        <v>-22.51667578667863</v>
       </c>
       <c r="C7" t="n">
-        <v>4.370543895799399e-05</v>
+        <v>5.894331590768245e-05</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.01190614000278</v>
+        <v>7.147853609763634</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000212828883526045</v>
+        <v>0.03537181982656785</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1004.421677231175</v>
+        <v>-1155.398598592582</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1258739825605177</v>
+        <v>0.07453714737642386</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-275.4659640274638</v>
+        <v>-447.0416515137459</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5297970154928269</v>
+        <v>0.3157616075288199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3105.671650244883</v>
+        <v>8221.475656291734</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007806536209549825</v>
+        <v>3.888952307469678e-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7803.66421827928</v>
+        <v>3.056349596746818</v>
       </c>
       <c r="C12" t="n">
-        <v>2.658921854375092e-19</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>16.47112667337429</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08381851973107005</v>
+        <v>0.7475279674957491</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3032.545499064589</v>
+        <v>3471.638591820059</v>
       </c>
       <c r="C2" t="n">
-        <v>7.957433380053601e-05</v>
+        <v>4.629054395228192e-06</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.24261305416311</v>
+        <v>0.1251096762607347</v>
       </c>
       <c r="C3" t="n">
-        <v>0.609172111463486</v>
+        <v>0.9964291992593555</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.2421178132052</v>
+        <v>153.7991839468644</v>
       </c>
       <c r="C4" t="n">
-        <v>1.646470032649096e-18</v>
+        <v>1.871702036953792e-15</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02508416571080478</v>
+        <v>-0.03267419209781099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.367248721228616</v>
+        <v>0.265214445688942</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.167111562557202e-06</v>
+        <v>3.660496420741709e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7921302653700029</v>
+        <v>0.3597866691115648</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.03453963678851</v>
+        <v>-26.70195210361768</v>
       </c>
       <c r="C7" t="n">
-        <v>1.708268438620266e-06</v>
+        <v>2.174756647223363e-06</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.791397727628471</v>
+        <v>5.971462851620595</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04165988804185109</v>
+        <v>0.1204612003020452</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1563.844972158754</v>
+        <v>-1323.856530988645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02268905366374704</v>
+        <v>0.0480296970747518</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-192.373305843138</v>
+        <v>-305.4655472355436</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6555077484776141</v>
+        <v>0.4912015832156141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.499533045244</v>
+        <v>6340.377013481296</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03014731875250977</v>
+        <v>9.668626413728411e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8145.772725949204</v>
+        <v>7.090758860389633</v>
       </c>
       <c r="C12" t="n">
-        <v>2.74249586483312e-20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.715703228198411</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8589002598378448</v>
+        <v>0.4710758143608781</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2905.144921096455</v>
+        <v>2585.643945203773</v>
       </c>
       <c r="C2" t="n">
-        <v>4.935818664013599e-05</v>
+        <v>0.0002600234316952583</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.98640146837624</v>
+        <v>-2.149999098522468</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1334592923990648</v>
+        <v>0.9350711180217586</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.1972236186875</v>
+        <v>155.9761648891863</v>
       </c>
       <c r="C4" t="n">
-        <v>1.169493938598081e-15</v>
+        <v>2.258757643993586e-17</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04563016215596813</v>
+        <v>-0.04057274713018619</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1040813347412425</v>
+        <v>0.1459671182208354</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.054733154392612e-05</v>
+        <v>8.4716316422661e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5529518167259628</v>
+        <v>0.8046296740945964</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.945671442819</v>
+        <v>-20.32113886782365</v>
       </c>
       <c r="C7" t="n">
-        <v>1.519711634628422e-05</v>
+        <v>0.0001355223190535297</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.856748415282382</v>
+        <v>12.44597340430522</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01995994308097989</v>
+        <v>0.0001905057878318069</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1068.386855778781</v>
+        <v>-1516.048912781298</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1143718720637842</v>
+        <v>0.01980329857594826</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-489.7879887661898</v>
+        <v>-132.139708773053</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2546906008361327</v>
+        <v>0.7520868838971031</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2579.771837668738</v>
+        <v>7820.167373719741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01961079558409132</v>
+        <v>1.548627311382798e-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8085.450479934987</v>
+        <v>1.542050146492837</v>
       </c>
       <c r="C12" t="n">
-        <v>1.164153940704422e-20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.285177853016222</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.723792729045088</v>
+        <v>0.87076047935194</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2410.018491324417</v>
+        <v>2103.574883496054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000659750689414926</v>
+        <v>0.002793118978689859</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.60888355958726</v>
+        <v>64.94442820007697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.568149817486858</v>
+        <v>0.02667707052612694</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.3721719786469</v>
+        <v>151.8969593473474</v>
       </c>
       <c r="C4" t="n">
-        <v>2.761603478949849e-15</v>
+        <v>2.420858559827269e-16</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05170492060599671</v>
+        <v>-0.02404919581825881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07785911110982405</v>
+        <v>0.3882186832456991</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.962644639999597e-05</v>
+        <v>-8.259514969956655e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.433347520406084</v>
+        <v>0.8153266927563692</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.79964027900655</v>
+        <v>-21.58707403632811</v>
       </c>
       <c r="C7" t="n">
-        <v>1.016037954436513e-05</v>
+        <v>0.0001141554558431612</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.38101943342891</v>
+        <v>9.449442385870663</v>
       </c>
       <c r="C8" t="n">
-        <v>2.918836681224529e-05</v>
+        <v>0.004620641105132333</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1531.932113908371</v>
+        <v>251.7626498865197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01760026043415602</v>
+        <v>0.7089331249429918</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-202.1046080894432</v>
+        <v>-72.4194951322803</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6370087816025387</v>
+        <v>0.8712978825439595</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2719.224462679359</v>
+        <v>7568.146175242828</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01323171169689967</v>
+        <v>1.512471756478071e-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7643.11990609704</v>
+        <v>11.97716396025682</v>
       </c>
       <c r="C12" t="n">
-        <v>1.261329994095938e-16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.528638747858633</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7891338102668435</v>
+        <v>0.2115925841077961</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2499.01234603018</v>
+        <v>2510.617344728076</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004272951262622678</v>
+        <v>0.0003108580207782661</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.16559577041904</v>
+        <v>23.81458303956354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6840252069347394</v>
+        <v>0.3692823622984205</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.0895814984818</v>
+        <v>139.9066240625937</v>
       </c>
       <c r="C4" t="n">
-        <v>6.392728801551937e-17</v>
+        <v>1.944470772859936e-14</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001217199604013569</v>
+        <v>-0.02491703318765206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9648999354305343</v>
+        <v>0.3495178652111786</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.0337903940242e-05</v>
+        <v>-3.753751988620536e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.279351943979277</v>
+        <v>0.9146574067929075</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.85423755190121</v>
+        <v>-21.54078629955796</v>
       </c>
       <c r="C7" t="n">
-        <v>1.646989657021214e-05</v>
+        <v>5.010139316833055e-05</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.402259321217954</v>
+        <v>10.75896797119806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006160572001601955</v>
+        <v>0.001690106953862087</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-737.8106274105157</v>
+        <v>-1310.454974069418</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2606351093330847</v>
+        <v>0.03900870891890052</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-453.9823585465387</v>
+        <v>-314.7008725776235</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2861178985162384</v>
+        <v>0.4473776161005962</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2560.029817474598</v>
+        <v>8605.521017873119</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02097830663366618</v>
+        <v>6.447782282611277e-23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6865.90756604928</v>
+        <v>7.495354661973068</v>
       </c>
       <c r="C12" t="n">
-        <v>6.809779445620509e-15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.80129330142159</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1769936419475007</v>
+        <v>0.4011212619334211</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1108.486136208014</v>
+        <v>2488.185518593897</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1158685700189597</v>
+        <v>0.0007285203601771998</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.338205334231702</v>
+        <v>25.16716898867994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7810347025271378</v>
+        <v>0.3649444417861323</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.1207575095141</v>
+        <v>138.7152038263947</v>
       </c>
       <c r="C4" t="n">
-        <v>4.363716909634658e-22</v>
+        <v>9.529570058432287e-14</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02093311394580629</v>
+        <v>-0.01150691372665735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4330576159890577</v>
+        <v>0.6936375552091536</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.563114367548299e-06</v>
+        <v>4.353151957927568e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8877943402819195</v>
+        <v>0.8958507398336731</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.10861902647061</v>
+        <v>-22.56332814011054</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001019225175437848</v>
+        <v>6.432732755427947e-05</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.990068004928101</v>
+        <v>9.767302904338649</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007010668522956497</v>
+        <v>0.007485681236754031</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-994.989362300493</v>
+        <v>-1296.12602429412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1144605646533842</v>
+        <v>0.05205594567637317</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-441.2805121301817</v>
+        <v>-671.1983827474944</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2933964480642284</v>
+        <v>0.1313671453649907</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2923.142487991053</v>
+        <v>8178.630417878947</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01744208347537222</v>
+        <v>4.999634998071639e-21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8660.76923672056</v>
+        <v>15.00750983718499</v>
       </c>
       <c r="C12" t="n">
-        <v>2.907758076835878e-25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>32.86088334006079</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.000364968330763975</v>
+        <v>0.1135765239489794</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2581.76519803115</v>
+        <v>2187.30792157809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001814296560290549</v>
+        <v>0.00187577334094165</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.34061307363471</v>
+        <v>18.16197305399356</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4936418072433749</v>
+        <v>0.505413227347475</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.0109566664817</v>
+        <v>169.4584722853246</v>
       </c>
       <c r="C4" t="n">
-        <v>1.655076911155894e-18</v>
+        <v>1.638208966383605e-20</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03668564902294065</v>
+        <v>-0.01045929686018228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1854515962039872</v>
+        <v>0.7322183169992069</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.049482509823627e-05</v>
+        <v>-2.837501650775188e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.535246513825782</v>
+        <v>0.4827448886438901</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.79187066824261</v>
+        <v>-17.39285993359469</v>
       </c>
       <c r="C7" t="n">
-        <v>1.574456857253352e-05</v>
+        <v>0.001870815638376447</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.313290455965804</v>
+        <v>12.12013145701605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01072459888497459</v>
+        <v>0.0005515735023790175</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1511.546246040301</v>
+        <v>-1512.198481602523</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02209193910173341</v>
+        <v>0.02210832026014864</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-460.5559950451261</v>
+        <v>-269.320249385682</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2615408111867232</v>
+        <v>0.5266266912217008</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2436.890855086358</v>
+        <v>7066.824569667824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03654645626897675</v>
+        <v>3.988829936915491e-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8403.525036033521</v>
+        <v>7.934350838961764</v>
       </c>
       <c r="C12" t="n">
-        <v>4.530478082017635e-23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.165860593820641</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3616979092482284</v>
+        <v>0.3947537040741653</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2616.053233421475</v>
+        <v>2520.818576327808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004230072975440459</v>
+        <v>0.0004444075535242933</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.36857167349662</v>
+        <v>32.00482894459917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4781968459829268</v>
+        <v>0.2436345768965009</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.2874498593538</v>
+        <v>141.5139644539179</v>
       </c>
       <c r="C4" t="n">
-        <v>4.575169795887413e-15</v>
+        <v>2.972289892082835e-14</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01182202083935574</v>
+        <v>-0.02251818977579813</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6962337222098047</v>
+        <v>0.4463502619986695</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.082083567424358e-05</v>
+        <v>2.658410377629518e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7683951963639415</v>
+        <v>0.4696396318039716</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.33799623947811</v>
+        <v>-23.74931794397386</v>
       </c>
       <c r="C7" t="n">
-        <v>2.653323616904221e-05</v>
+        <v>2.092557613877948e-05</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.606391369082857</v>
+        <v>10.24571877945053</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006017001653599609</v>
+        <v>0.00273598785197003</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1110.248424972695</v>
+        <v>-1090.870902324217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0951735264676257</v>
+        <v>0.1120448386883619</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-461.9126860428371</v>
+        <v>-181.0281543881245</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2976782010426592</v>
+        <v>0.6826180206674368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2168.405387428517</v>
+        <v>8252.685483963949</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05707696552065094</v>
+        <v>2.343603076749222e-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8228.390204253148</v>
+        <v>6.630579764102947</v>
       </c>
       <c r="C12" t="n">
-        <v>2.888510094367778e-20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.188754216318955</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3865938420160364</v>
+        <v>0.4875238261673132</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2327.486993061458</v>
+        <v>2428.286073575213</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001377588598725547</v>
+        <v>0.0008852592648884785</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.82298703363168</v>
+        <v>21.53748155058459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6041858349975537</v>
+        <v>0.4296862529123372</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.392152857857</v>
+        <v>132.5106117699233</v>
       </c>
       <c r="C4" t="n">
-        <v>2.29406707939319e-18</v>
+        <v>2.497226737898586e-12</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01493505911051573</v>
+        <v>-0.03105710330308227</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5861533120718663</v>
+        <v>0.2615744994565163</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.20595520437925e-05</v>
+        <v>7.046969640485919e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.542436121546739</v>
+        <v>0.8357524390514923</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.89675012217268</v>
+        <v>-24.76536274092234</v>
       </c>
       <c r="C7" t="n">
-        <v>6.884484083403841e-06</v>
+        <v>1.326567491245322e-05</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.136550707693832</v>
+        <v>9.444058736746213</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01060275497277419</v>
+        <v>0.006938109791891578</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-859.6714528668538</v>
+        <v>-684.8613909604387</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1819205418548292</v>
+        <v>0.2999399150512803</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-118.3644958062388</v>
+        <v>-286.8585968790343</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7775545932921503</v>
+        <v>0.5102498071821149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2852.395518162135</v>
+        <v>8342.557715268555</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009318666247315994</v>
+        <v>1.743362535909443e-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7304.917334576059</v>
+        <v>17.04517114475342</v>
       </c>
       <c r="C12" t="n">
-        <v>1.730712435412058e-17</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.19423919143991</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1581680583120257</v>
+        <v>0.06892428932073426</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2231.787638680373</v>
+        <v>3559.3172209468</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002791263902758588</v>
+        <v>5.3226195938063e-07</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.86094797635867</v>
+        <v>4.674041623457377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3942648280648006</v>
+        <v>0.8632719076302061</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.085871560059</v>
+        <v>152.0203882156913</v>
       </c>
       <c r="C4" t="n">
-        <v>2.321571075672212e-15</v>
+        <v>1.718287043601965e-17</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04707737371745929</v>
+        <v>-0.03410189308775347</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09083577237652074</v>
+        <v>0.1889185657321827</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.613109843852045e-05</v>
+        <v>5.731496085116322e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.44463902263266</v>
+        <v>0.8627124224632002</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.63715992984811</v>
+        <v>-23.73398141089578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001169339143790762</v>
+        <v>5.209514407801062e-06</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.67932508400259</v>
+        <v>7.343129404000018</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002115236861083216</v>
+        <v>0.03400448494303754</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1487.830841210009</v>
+        <v>-1258.840051342121</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02899022776434119</v>
+        <v>0.04320013186811797</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-571.4005019284225</v>
+        <v>-322.3943849004827</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1961952947551812</v>
+        <v>0.4344542353235612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2471.220917493789</v>
+        <v>6911.12232981868</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02622712532473991</v>
+        <v>3.527658595751645e-15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6963.584981796854</v>
+        <v>-1.139855921750012</v>
       </c>
       <c r="C12" t="n">
-        <v>2.187020505112077e-13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.885197622527917</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3183681178840516</v>
+        <v>0.9018508427118608</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2541.468198657235</v>
+        <v>2657.972100941348</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002715533885835727</v>
+        <v>0.0001950092035600168</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.27405601630752</v>
+        <v>10.32712402089211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4353651658690866</v>
+        <v>0.7090946709344956</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.6257075659826</v>
+        <v>157.1196522170901</v>
       </c>
       <c r="C4" t="n">
-        <v>5.360327916238439e-16</v>
+        <v>2.147199263993164e-16</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008349100640344331</v>
+        <v>0.008717265951654188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7686589050536939</v>
+        <v>0.7638723610978178</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.347885484253668e-05</v>
+        <v>-2.168158325762984e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5228305961928712</v>
+        <v>0.5616973650408773</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.24296644048504</v>
+        <v>-25.00269374820256</v>
       </c>
       <c r="C7" t="n">
-        <v>2.680862115025199e-05</v>
+        <v>6.007135150888585e-06</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.22881459281951</v>
+        <v>9.44130988462171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009189855263772931</v>
+        <v>0.005585644600561389</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-885.9897581040827</v>
+        <v>-948.6158127238323</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1884630308851169</v>
+        <v>0.1700903216865179</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-479.5825662114621</v>
+        <v>-444.9364768670134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2579495402426232</v>
+        <v>0.3001845568115351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2502.397902605713</v>
+        <v>8584.089728424755</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02574137440417181</v>
+        <v>1.002416718867161e-21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8531.467691472168</v>
+        <v>8.272441690880076</v>
       </c>
       <c r="C12" t="n">
-        <v>2.339653062272217e-22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.384280303906714</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8004918205504141</v>
+        <v>0.3810392953564196</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2176.696939926876</v>
+        <v>2250.953270162533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001914743595807089</v>
+        <v>0.002074086116668336</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.2756018475771</v>
+        <v>29.24743995737471</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5734395271445792</v>
+        <v>0.3055202872473522</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.5836140653556</v>
+        <v>145.1059906295777</v>
       </c>
       <c r="C4" t="n">
-        <v>3.525429875728994e-20</v>
+        <v>1.212702693062456e-13</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0258497016194322</v>
+        <v>-0.0169080482890428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3312762629330778</v>
+        <v>0.5405077660865634</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.051745954323093e-06</v>
+        <v>-1.266437073084419e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9333483274474077</v>
+        <v>0.7119003412574529</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.73439697406162</v>
+        <v>-20.64817362787846</v>
       </c>
       <c r="C7" t="n">
-        <v>6.616051001702022e-07</v>
+        <v>0.0001554032272094903</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.259565291036132</v>
+        <v>11.22075491545342</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01511102916786862</v>
+        <v>0.002200909884222032</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-932.6843672024079</v>
+        <v>-669.9330642004115</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1503067018473755</v>
+        <v>0.3091929669353706</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-156.4695940493717</v>
+        <v>-585.3113731679067</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7126970859951194</v>
+        <v>0.1955154532287177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3311.757733674389</v>
+        <v>8140.96005695659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003378960691254133</v>
+        <v>4.874779008968587e-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8336.862951027919</v>
+        <v>12.59335153843445</v>
       </c>
       <c r="C12" t="n">
-        <v>7.589414045310182e-23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14.98583748576434</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1146146432751933</v>
+        <v>0.1980340530240912</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2526.38967105351</v>
+        <v>2180.70276210431</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007468909579469553</v>
+        <v>0.001775669230008141</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.91670337706306</v>
+        <v>19.14106449597185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1805202419773551</v>
+        <v>0.4789408054580424</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.5465451205974</v>
+        <v>158.0153958412056</v>
       </c>
       <c r="C4" t="n">
-        <v>3.996138676371506e-19</v>
+        <v>9.625583520687406e-18</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02879798716122782</v>
+        <v>-0.001149550697536694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3137443862556191</v>
+        <v>0.9653683073113901</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.015121536593975e-05</v>
+        <v>-1.867853816544953e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7975458348853092</v>
+        <v>0.5723637339583083</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.4813322076343</v>
+        <v>-21.87592185902359</v>
       </c>
       <c r="C7" t="n">
-        <v>3.716722930841161e-05</v>
+        <v>4.271387710537613e-05</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.450139598969116</v>
+        <v>12.25684691417401</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01585693417997265</v>
+        <v>0.0003511227628675078</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1297.949878635453</v>
+        <v>-882.5276654727006</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04895218606993298</v>
+        <v>0.1737154939008767</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-729.2449723050734</v>
+        <v>-509.432379507979</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09067092314892723</v>
+        <v>0.220989128355846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3102.370083626127</v>
+        <v>8122.713735571659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005782568938987748</v>
+        <v>1.691304242404747e-21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6379.80271648525</v>
+        <v>10.46428689045759</v>
       </c>
       <c r="C12" t="n">
-        <v>1.198397710303194e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15.21497555909002</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.11213811767891</v>
+        <v>0.2628350122255435</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2119.226775107408</v>
+        <v>2510.200446820607</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003604094013000597</v>
+        <v>0.0006535700870012862</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.86824048031962</v>
+        <v>0.5122519218727746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3822720367500871</v>
+        <v>0.9852078708173632</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.0559803914732</v>
+        <v>156.277998006007</v>
       </c>
       <c r="C4" t="n">
-        <v>8.971141080675888e-19</v>
+        <v>2.633369420738188e-17</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01752712011107767</v>
+        <v>-0.02745161970789884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5656969090300004</v>
+        <v>0.3475560182926641</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.573923822324585e-05</v>
+        <v>4.032849980166225e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3150927780290804</v>
+        <v>0.9063256356071796</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.97455885250302</v>
+        <v>-22.46884588688159</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001678461516394218</v>
+        <v>6.576520267426946e-05</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.58854477792588</v>
+        <v>11.08684287539425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001584708366576405</v>
+        <v>0.002570576964237919</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-329.0621175287283</v>
+        <v>-1103.468693958177</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6253477724733612</v>
+        <v>0.09375984041044141</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-327.4794390098862</v>
+        <v>-250.3111151727476</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4429220614230918</v>
+        <v>0.5703762989697498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2408.238836408961</v>
+        <v>6518.234678022483</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02936392613793647</v>
+        <v>9.196057078596084e-13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7499.227913760381</v>
+        <v>12.61516717521904</v>
       </c>
       <c r="C12" t="n">
-        <v>4.208841804568806e-17</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.47755097718302</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3700560173563433</v>
+        <v>0.1814219802075953</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2065.332709520999</v>
+        <v>2518.908185493096</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003326169471133008</v>
+        <v>0.0003856689311008918</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.118308940914481</v>
+        <v>29.26239304693302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9392701643417302</v>
+        <v>0.303992664557686</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.5782290198267</v>
+        <v>151.7578501924319</v>
       </c>
       <c r="C4" t="n">
-        <v>4.603150330925375e-19</v>
+        <v>1.403112198072542e-15</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02890517780082792</v>
+        <v>-0.0222978683980192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2785154553560124</v>
+        <v>0.4088786973197416</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.091349347515215e-05</v>
+        <v>8.795151562466861e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5414599621563125</v>
+        <v>0.792084086813445</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.52788807128923</v>
+        <v>-19.33964139259576</v>
       </c>
       <c r="C7" t="n">
-        <v>3.028995684136001e-05</v>
+        <v>0.0003628611027520394</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.04883862630894</v>
+        <v>8.787991271399889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000320569375273941</v>
+        <v>0.01226518803596364</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1814.376342734018</v>
+        <v>-1430.035873439524</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005107273167941935</v>
+        <v>0.02929545835933439</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-189.5051314561908</v>
+        <v>-596.8943360136715</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6603755271709999</v>
+        <v>0.1683236165696632</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2939.473256560103</v>
+        <v>8534.073225990018</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01118940239727952</v>
+        <v>1.81193854321125e-21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8135.413061803966</v>
+        <v>9.037355095241217</v>
       </c>
       <c r="C12" t="n">
-        <v>5.166410953711378e-21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.566437145674236</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3675189148501765</v>
+        <v>0.3509007270582639</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1738.193905220952</v>
+        <v>2492.532531818893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01989598104183734</v>
+        <v>0.0005321765307282765</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.36010819135998</v>
+        <v>34.46041188529449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6773543158669717</v>
+        <v>0.2168994717060352</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.7819402861642</v>
+        <v>145.208084143096</v>
       </c>
       <c r="C4" t="n">
-        <v>9.64510552786866e-16</v>
+        <v>4.79956711997302e-14</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04325449109738179</v>
+        <v>-0.03793413014215497</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1341074007895498</v>
+        <v>0.2257342053573052</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.198875903628643e-05</v>
+        <v>-4.294488656433429e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7370616886267751</v>
+        <v>0.9225094024750816</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.96123967059089</v>
+        <v>-21.68199861589663</v>
       </c>
       <c r="C7" t="n">
-        <v>1.986080848196794e-05</v>
+        <v>0.0001282631532036429</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.92247986702126</v>
+        <v>10.45526467719036</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007664226972214436</v>
+        <v>0.002171294038027904</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-704.2256929087459</v>
+        <v>-143.5643473869723</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3138527868863427</v>
+        <v>0.8383145421680449</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-193.8206332043242</v>
+        <v>-72.89550665752699</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6590954557364939</v>
+        <v>0.8706406891484753</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2015.099001250396</v>
+        <v>7114.44599558813</v>
       </c>
       <c r="C11" t="n">
-        <v>0.087385191951659</v>
+        <v>7.749541699740831e-16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8149.765352801256</v>
+        <v>8.079451299829643</v>
       </c>
       <c r="C12" t="n">
-        <v>1.642191191948102e-20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21.63493124666735</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02731658111715884</v>
+        <v>0.4057547733959112</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/France_other.xlsx
+++ b/outputs/ML_Results/dist_LR/France_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ35637359" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ35793212" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ35944483" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ36099137" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ36252827" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ36407839" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ36560091" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ36710969" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ36875853" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ37029552" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ37249386" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ37456364" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ37623844" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ37782578" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ37938993" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ38102348" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ38277391" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ38443025" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ38606091" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ38758129" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ38918287" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ39082575" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ39264823" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ39457655" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ39654777" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ39867051" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ40060579" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ40247229" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ40444718" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ40646443" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ40849193" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ41053682" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ41247832" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ41446728" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ41642303" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ41839680" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ42040525" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ42247426" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ42438702" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ42628677" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ42821110" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ43011766" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ43282184" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ43574361" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ43999830" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ44327159" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ44534178" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ44727278" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ44926609" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ45128496" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ26139037" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ26278538" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ26435099" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ26594868" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ26744524" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ26893620" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ27038407" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ27288383" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ27445156" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ27597373" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ27748098" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ27933910" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ28087653" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ28237132" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ28383969" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ28542531" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ28699757" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ28895823" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ29085247" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ29274248" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ29498642" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ29691309" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ29895021" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ30093089" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ30301864" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ30520821" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ30728923" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ30932006" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ31142078" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ31352117" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ31579884" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ31793097" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ32032519" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ32234750" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ32433813" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ32618873" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ32810108" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ33006251" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ33201721" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ33391078" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ33603506" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ33809760" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ34007825" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ34209278" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ34405738" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ34614064" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ34818059" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ35023030" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ35218145" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ35412866" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/France_other.xlsx
+++ b/outputs/ML_Results/dist_LR/France_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ26139037" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ26278538" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ26435099" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ26594868" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ26744524" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ26893620" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ27038407" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ27288383" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ27445156" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ27597373" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ27748098" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ27933910" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ28087653" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ28237132" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ28383969" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ28542531" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ28699757" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ28895823" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ29085247" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ29274248" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ29498642" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ29691309" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ29895021" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ30093089" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ30301864" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ30520821" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ30728923" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ30932006" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ31142078" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ31352117" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ31579884" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ31793097" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ32032519" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ32234750" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ32433813" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ32618873" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ32810108" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ33006251" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ33201721" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ33391078" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ33603506" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ33809760" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ34007825" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ34209278" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ34405738" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ34614064" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ34818059" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ35023030" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ35218145" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ35412866" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ00633037" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ00791855" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ00945460" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ01094297" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ01233403" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ01377451" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ01510845" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ01644290" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ01777593" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ02059566" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ02234384" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ02377611" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ02524901" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ02660984" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ02894377" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ03138476" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ03277442" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ03410848" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ03559267" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ03708644" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ03911325" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ04060848" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ04201501" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ04366569" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ04850927" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ05283939" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ05559470" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ05912296" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ06309358" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ06707659" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ07131709" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ07564310" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ07922236" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ08342729" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ08764922" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ09211812" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ09635094" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ10057197" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ10503708" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ10895689" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ11278490" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ11699032" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ12131052" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ12564715" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ12974250" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ13415294" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ13856615" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ14274684" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ14659413" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ14828389" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2288.301274609203</v>
+        <v>3963.764320808126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001679030898211335</v>
+        <v>2.00000017143174e-10</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.46633635638147</v>
+        <v>27.72698974633214</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1692600780769305</v>
+        <v>0.3623999081057853</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.3445186369377</v>
+        <v>169.1534089527311</v>
       </c>
       <c r="C4" t="n">
-        <v>6.231316650988357e-14</v>
+        <v>6.16243934376204e-17</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04755896714879135</v>
+        <v>-0.02568740616706636</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08756123856815234</v>
+        <v>0.4365306192089198</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.929862881872125e-05</v>
+        <v>-2.410355641995812e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4017582799575974</v>
+        <v>0.4816109465950615</v>
       </c>
     </row>
     <row r="7">
@@ -572,75 +572,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.74853715124114</v>
+        <v>-27.47804969276163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001822236050955124</v>
+        <v>1.298420904840674e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.98474255022341</v>
+        <v>-382.0560008263104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002586747388615744</v>
+        <v>0.4179174696659335</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1089.372303637018</v>
+        <v>10011.78651264317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1021209590202743</v>
+        <v>1.312826455797675e-23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-49.04651628429821</v>
+        <v>10.37711179074548</v>
       </c>
       <c r="C10" t="n">
-        <v>0.910718961909322</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7598.401830416167</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.170171146083461e-18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.659754936080521</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5493194693562146</v>
+        <v>0.3376827364549426</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3386.350892276731</v>
+        <v>2917.613404635164</v>
       </c>
       <c r="C2" t="n">
-        <v>3.750679154386875e-06</v>
+        <v>2.44126607859724e-06</v>
       </c>
     </row>
     <row r="3">
@@ -699,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.61843668340434</v>
+        <v>47.2848652046887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4192545146887189</v>
+        <v>0.1233157688186976</v>
       </c>
     </row>
     <row r="4">
@@ -712,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.3469876281484</v>
+        <v>171.1733139064295</v>
       </c>
       <c r="C4" t="n">
-        <v>7.798591075216984e-13</v>
+        <v>3.738469482555077e-17</v>
       </c>
     </row>
     <row r="5">
@@ -725,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04289334852741742</v>
+        <v>-0.0342939376472867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1206413341008836</v>
+        <v>0.2872204445099824</v>
       </c>
     </row>
     <row r="6">
@@ -738,10 +712,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.431571639758391e-05</v>
+        <v>-1.960152153887593e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3231844718630755</v>
+        <v>0.5839666981311187</v>
       </c>
     </row>
     <row r="7">
@@ -751,75 +725,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.85861858391105</v>
+        <v>-22.89712213537133</v>
       </c>
       <c r="C7" t="n">
-        <v>7.019663638327585e-07</v>
+        <v>1.546788911717962e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.79020587187516</v>
+        <v>-684.1168627886568</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05395211060901528</v>
+        <v>0.1396456215375235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1646.862853653337</v>
+        <v>10017.42202702791</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009011647474856411</v>
+        <v>2.467388803555421e-24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-58.92674056390507</v>
+        <v>31.53339732331091</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8915522295086957</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8243.841165394057</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.045267771529169e-22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.727978358802074</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7656396312858563</v>
+        <v>0.002693649379566315</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,10 +813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2389.343857673253</v>
+        <v>4293.915956241081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007785585042661257</v>
+        <v>7.681270962021731e-13</v>
       </c>
     </row>
     <row r="3">
@@ -878,10 +826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.33870828687263</v>
+        <v>19.69548710482963</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3643956835557595</v>
+        <v>0.4952561258925527</v>
       </c>
     </row>
     <row r="4">
@@ -891,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.9471480535829</v>
+        <v>153.3442906250032</v>
       </c>
       <c r="C4" t="n">
-        <v>8.986303213954284e-16</v>
+        <v>1.627326105422684e-15</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02431309613515914</v>
+        <v>-0.06098745856291962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3559832840547521</v>
+        <v>0.04724476899414519</v>
       </c>
     </row>
     <row r="6">
@@ -917,10 +865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.274610438475266e-06</v>
+        <v>2.501655073104421e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9440785618478988</v>
+        <v>0.4805036250262109</v>
       </c>
     </row>
     <row r="7">
@@ -930,75 +878,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.05867749138158</v>
+        <v>-30.90016255495352</v>
       </c>
       <c r="C7" t="n">
-        <v>1.925590244684829e-05</v>
+        <v>1.108754978550834e-09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.58621728658971</v>
+        <v>-353.2991472669283</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002474877353713813</v>
+        <v>0.443535457374979</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-905.4455978699528</v>
+        <v>8935.359446029948</v>
       </c>
       <c r="C9" t="n">
-        <v>0.142423847906942</v>
+        <v>8.046019984960357e-19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-232.4501543349475</v>
+        <v>13.97946008262537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5846688343226691</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7517.3954577622</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.189979737159204e-17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.809366454651153</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.473554081482112</v>
+        <v>0.1770497393956147</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2735.377594109068</v>
+        <v>3364.04420016108</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001143807029774636</v>
+        <v>7.839364046778443e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1057,10 +979,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.11205255048174</v>
+        <v>45.54698539165418</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07270561800113237</v>
+        <v>0.1404438371496837</v>
       </c>
     </row>
     <row r="4">
@@ -1070,10 +992,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.7355193966819</v>
+        <v>165.2274538693935</v>
       </c>
       <c r="C4" t="n">
-        <v>1.30089928177249e-17</v>
+        <v>1.339392477682084e-16</v>
       </c>
     </row>
     <row r="5">
@@ -1083,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02236772053122602</v>
+        <v>-0.004779021990985441</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4120872651810107</v>
+        <v>0.8761609634906444</v>
       </c>
     </row>
     <row r="6">
@@ -1096,10 +1018,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.156082327410667e-06</v>
+        <v>-2.64669865574905e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8297776760663582</v>
+        <v>0.4433825285723273</v>
       </c>
     </row>
     <row r="7">
@@ -1109,75 +1031,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.71023931537736</v>
+        <v>-26.23104366731522</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003820917143363335</v>
+        <v>5.200194924058863e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.557928389721962</v>
+        <v>-560.2504632910988</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1218509593841662</v>
+        <v>0.2332137688645205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-919.051768613523</v>
+        <v>8526.401763926029</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1613128697975025</v>
+        <v>2.900496150387032e-18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-517.0066912909483</v>
+        <v>29.0672411951012</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2305572685977998</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7886.814778907024</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.268597700564804e-20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.53249709851573</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4032246159361857</v>
+        <v>0.007088701622186069</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,10 +1119,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2434.479116004251</v>
+        <v>3832.792310020563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001001368098150967</v>
+        <v>4.198446819938703e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1236,10 +1132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.76362646401357</v>
+        <v>30.80631777868058</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2010321331774686</v>
+        <v>0.2854021849555426</v>
       </c>
     </row>
     <row r="4">
@@ -1249,10 +1145,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.9902747789153</v>
+        <v>166.1512889379582</v>
       </c>
       <c r="C4" t="n">
-        <v>2.329547909047657e-13</v>
+        <v>1.099112342436528e-17</v>
       </c>
     </row>
     <row r="5">
@@ -1262,10 +1158,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0132202751587525</v>
+        <v>-0.0254141379086555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6423653938931388</v>
+        <v>0.4025767994284879</v>
       </c>
     </row>
     <row r="6">
@@ -1275,10 +1171,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.230679215868202e-06</v>
+        <v>-3.199779973661783e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9249188775193931</v>
+        <v>0.3177982653106433</v>
       </c>
     </row>
     <row r="7">
@@ -1288,75 +1184,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.22273639105847</v>
+        <v>-25.75856834221814</v>
       </c>
       <c r="C7" t="n">
-        <v>1.577503813708235e-05</v>
+        <v>1.735336108121006e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.740914643821966</v>
+        <v>-557.6828856565976</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0316336170729774</v>
+        <v>0.2187015513373733</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-698.740772344927</v>
+        <v>9486.667725684089</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3009903966078735</v>
+        <v>1.511230371597104e-24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-351.8657273683013</v>
+        <v>16.73921469611761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.43169418589271</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8011.533700041286</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.268640571405242e-19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.09741045488244</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04233617557155522</v>
+        <v>0.1060722018647727</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2391.607192799239</v>
+        <v>2909.078069214348</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009740136128745045</v>
+        <v>3.127707200051521e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1415,10 +1285,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.770939345937919</v>
+        <v>24.67197229844289</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9493039089944066</v>
+        <v>0.411795549262415</v>
       </c>
     </row>
     <row r="4">
@@ -1428,10 +1298,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.3834737553542</v>
+        <v>153.8718712070927</v>
       </c>
       <c r="C4" t="n">
-        <v>2.352990157111554e-16</v>
+        <v>5.260599867692475e-14</v>
       </c>
     </row>
     <row r="5">
@@ -1441,10 +1311,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02487707882163852</v>
+        <v>-0.01368184165408647</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4185152295670281</v>
+        <v>0.6836578811810277</v>
       </c>
     </row>
     <row r="6">
@@ -1454,10 +1324,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.651221333753781e-05</v>
+        <v>-6.49450339395265e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6655946263396822</v>
+        <v>0.843620253576589</v>
       </c>
     </row>
     <row r="7">
@@ -1467,75 +1337,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.04102564266632</v>
+        <v>-29.84906354214922</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001470193841148847</v>
+        <v>3.062767333901492e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.74467586105515</v>
+        <v>-704.234457707536</v>
       </c>
       <c r="C8" t="n">
-        <v>8.42321308686523e-05</v>
+        <v>0.1298646431621045</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1533.365743669225</v>
+        <v>9744.411619646486</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03019546439659838</v>
+        <v>9.836108841516526e-23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-251.9924551477031</v>
+        <v>43.37174697018914</v>
       </c>
       <c r="C10" t="n">
-        <v>0.553367654638523</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8134.200078946959</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.57063705659234e-20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.085980845034776</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6089246266918784</v>
+        <v>8.437810339136547e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,10 +1425,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3116.18904184588</v>
+        <v>2933.975949555579</v>
       </c>
       <c r="C2" t="n">
-        <v>1.295706818022238e-05</v>
+        <v>2.361161496524853e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1594,10 +1438,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6.591872492601851</v>
+        <v>33.54075715834428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8122298052401244</v>
+        <v>0.2805303000783411</v>
       </c>
     </row>
     <row r="4">
@@ -1607,10 +1451,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.5522013883573</v>
+        <v>177.9697249957615</v>
       </c>
       <c r="C4" t="n">
-        <v>1.982239074955143e-14</v>
+        <v>1.402053689130952e-17</v>
       </c>
     </row>
     <row r="5">
@@ -1620,10 +1464,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04292441360036648</v>
+        <v>-0.02246104592495146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1315899136186146</v>
+        <v>0.4802057085375119</v>
       </c>
     </row>
     <row r="6">
@@ -1633,10 +1477,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.765672452132971e-05</v>
+        <v>2.02020454409207e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4341255955916372</v>
+        <v>0.9533954798579996</v>
       </c>
     </row>
     <row r="7">
@@ -1646,75 +1490,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.62408266628183</v>
+        <v>-25.81948298397712</v>
       </c>
       <c r="C7" t="n">
-        <v>1.403103301513202e-05</v>
+        <v>7.322286292460239e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.864937070686429</v>
+        <v>-410.3216010281092</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004079067871892095</v>
+        <v>0.371819147837151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1159.256527865837</v>
+        <v>9614.336124361689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07098916474658744</v>
+        <v>4.434664047224966e-23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-194.3568436780116</v>
+        <v>31.65411542424659</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6586250532058109</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7112.251815707464</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.98715491046575e-16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.656788508756559</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7013038541589319</v>
+        <v>0.002853400445609734</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,10 +1578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2822.071546351796</v>
+        <v>3548.129985277021</v>
       </c>
       <c r="C2" t="n">
-        <v>5.689072517007503e-05</v>
+        <v>3.331687693240633e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1773,10 +1591,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.356370503807014</v>
+        <v>14.93898194598442</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8733057859512661</v>
+        <v>0.630881974972092</v>
       </c>
     </row>
     <row r="4">
@@ -1786,10 +1604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.4268085769461</v>
+        <v>167.0385382351339</v>
       </c>
       <c r="C4" t="n">
-        <v>1.37171664390967e-15</v>
+        <v>7.252416373660869e-16</v>
       </c>
     </row>
     <row r="5">
@@ -1799,10 +1617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01209156950911852</v>
+        <v>-0.02863136267883731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6715939277496039</v>
+        <v>0.3924535913476749</v>
       </c>
     </row>
     <row r="6">
@@ -1812,10 +1630,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.102755394871102e-07</v>
+        <v>-2.449384245011141e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9877637559114416</v>
+        <v>0.4870194766719176</v>
       </c>
     </row>
     <row r="7">
@@ -1825,75 +1643,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.25236613985411</v>
+        <v>-25.36715369891073</v>
       </c>
       <c r="C7" t="n">
-        <v>2.617093102529443e-05</v>
+        <v>1.835890656213935e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.07923764137611</v>
+        <v>-637.5163133064743</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003116004644387079</v>
+        <v>0.1841770188428851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1412.941624088676</v>
+        <v>9441.810305920748</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02990255126061046</v>
+        <v>1.878846445801995e-20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-429.5531094007176</v>
+        <v>25.33375507805969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3256725012454759</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7918.102265697858</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.135524498867331e-19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8016633398236976</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9351999657019346</v>
+        <v>0.01930463270090897</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,10 +1731,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2391.714543681244</v>
+        <v>3730.464848263914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009393309893213033</v>
+        <v>7.856462945163715e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1952,10 +1744,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.55211243212217</v>
+        <v>32.04537353568082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4560418098851627</v>
+        <v>0.2631600811499855</v>
       </c>
     </row>
     <row r="4">
@@ -1965,10 +1757,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.3142982257509</v>
+        <v>152.0964290528358</v>
       </c>
       <c r="C4" t="n">
-        <v>1.425829422873839e-14</v>
+        <v>5.262584811483801e-16</v>
       </c>
     </row>
     <row r="5">
@@ -1978,10 +1770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05240766865128994</v>
+        <v>-0.04904157430030161</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08130773920094644</v>
+        <v>0.1026663408607271</v>
       </c>
     </row>
     <row r="6">
@@ -1991,10 +1783,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.022816163104736e-06</v>
+        <v>4.620626203391518e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8175152948502725</v>
+        <v>0.1849955210364063</v>
       </c>
     </row>
     <row r="7">
@@ -2004,75 +1796,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.91643248661815</v>
+        <v>-31.02237634765439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001786503581854108</v>
+        <v>5.787273669392159e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.19705507992107</v>
+        <v>-401.3614797473829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006629449315768111</v>
+        <v>0.3768618780703338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1113.410899194461</v>
+        <v>7374.091037307739</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0897632590130453</v>
+        <v>6.545344697213785e-14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-446.9600909985579</v>
+        <v>29.93116067116136</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3186329796272134</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6128.244554904409</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.906166775951365e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.48116556098167</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1285923263563503</v>
+        <v>0.003489656827215046</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,10 +1884,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1836.182107782863</v>
+        <v>3191.318715913166</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01369997805512543</v>
+        <v>9.832476112506826e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2131,10 +1897,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.5825927723229</v>
+        <v>44.53092885977945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.185237085445149</v>
+        <v>0.1252969298813513</v>
       </c>
     </row>
     <row r="4">
@@ -2144,10 +1910,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.5686560880575</v>
+        <v>153.4190932933986</v>
       </c>
       <c r="C4" t="n">
-        <v>8.022847365791681e-15</v>
+        <v>4.751372139321752e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2157,10 +1923,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01820075800008232</v>
+        <v>-0.03053783074533611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.536540782798036</v>
+        <v>0.3086366102200128</v>
       </c>
     </row>
     <row r="6">
@@ -2170,10 +1936,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.347186283718239e-05</v>
+        <v>5.569592002645243e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5048764700177856</v>
+        <v>0.865507243772543</v>
       </c>
     </row>
     <row r="7">
@@ -2183,75 +1949,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.63153111590425</v>
+        <v>-27.35105189829567</v>
       </c>
       <c r="C7" t="n">
-        <v>2.559149924415606e-05</v>
+        <v>5.653548738976743e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.75767811666948</v>
+        <v>-449.0165833134141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006053672482392773</v>
+        <v>0.3233431299236126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1222.388642482584</v>
+        <v>10280.24365057804</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07595557403210017</v>
+        <v>2.046386359401902e-27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-208.0571534555648</v>
+        <v>28.33518918581222</v>
       </c>
       <c r="C10" t="n">
-        <v>0.639268934915618</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8308.331419911176</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.964669098050082e-21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.56791577620746</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1023857638869152</v>
+        <v>0.007061213684689079</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,10 +2037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3289.500773572803</v>
+        <v>3230.245900310941</v>
       </c>
       <c r="C2" t="n">
-        <v>1.021340887245495e-05</v>
+        <v>9.877157842573215e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2310,10 +2050,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.9020656046512</v>
+        <v>32.73209275248261</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5479283221700864</v>
+        <v>0.2930488838958193</v>
       </c>
     </row>
     <row r="4">
@@ -2323,10 +2063,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.6887853064986</v>
+        <v>195.0550664464117</v>
       </c>
       <c r="C4" t="n">
-        <v>2.033796922282558e-15</v>
+        <v>1.332412580073332e-20</v>
       </c>
     </row>
     <row r="5">
@@ -2336,10 +2076,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02187354849601594</v>
+        <v>-0.01524518799848123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4026181909704187</v>
+        <v>0.6217887863313279</v>
       </c>
     </row>
     <row r="6">
@@ -2349,10 +2089,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.206191763049083e-06</v>
+        <v>-6.598040867869927e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9479031605444421</v>
+        <v>0.8366375864120257</v>
       </c>
     </row>
     <row r="7">
@@ -2362,75 +2102,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.90266106125051</v>
+        <v>-27.39791379744371</v>
       </c>
       <c r="C7" t="n">
-        <v>1.122107997368703e-06</v>
+        <v>9.275579315514077e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.684967289186681</v>
+        <v>-390.6496847423291</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0983008808783884</v>
+        <v>0.3896224668154815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-873.5799823246845</v>
+        <v>9611.460790140269</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1802535400261332</v>
+        <v>1.857567942001951e-24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-281.2243369106997</v>
+        <v>23.15064547202174</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5000572139570678</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8524.587781056645</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.693381205529922e-22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.760448695624369</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7699820001209882</v>
+        <v>0.02953378952131279</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,10 +2190,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2853.904623264561</v>
+        <v>4086.003197927608</v>
       </c>
       <c r="C2" t="n">
-        <v>2.842068443917714e-05</v>
+        <v>4.057250337075906e-11</v>
       </c>
     </row>
     <row r="3">
@@ -2489,10 +2203,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.49420374738059</v>
+        <v>31.98466326829973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0904029150933274</v>
+        <v>0.2750648370828129</v>
       </c>
     </row>
     <row r="4">
@@ -2502,10 +2216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.7516425150626</v>
+        <v>146.9044879098964</v>
       </c>
       <c r="C4" t="n">
-        <v>7.617924940611849e-16</v>
+        <v>7.744243539592775e-14</v>
       </c>
     </row>
     <row r="5">
@@ -2515,10 +2229,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0297091023825568</v>
+        <v>-0.03880239909884833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2632734070358402</v>
+        <v>0.2542407284890956</v>
       </c>
     </row>
     <row r="6">
@@ -2528,10 +2242,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.836882391243105e-06</v>
+        <v>-1.156361311462232e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8623502500724156</v>
+        <v>0.7234222465719202</v>
       </c>
     </row>
     <row r="7">
@@ -2541,75 +2255,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.95037563055119</v>
+        <v>-27.94150640906155</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004507212087356006</v>
+        <v>1.173657411814061e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.99263301234414</v>
+        <v>-662.0877638137742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001303263068887046</v>
+        <v>0.1467473004471161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1318.727239472947</v>
+        <v>7293.793684812641</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03360796774228351</v>
+        <v>2.064072324844722e-13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-554.483136202163</v>
+        <v>26.33003843207991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1778377392399526</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7219.809635979936</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.590568584701245e-16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-1.091833328678312</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9073485216289419</v>
+        <v>0.01287003593910372</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,10 +2343,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2758.184003733842</v>
+        <v>3807.76320217596</v>
       </c>
       <c r="C2" t="n">
-        <v>5.136374163442157e-05</v>
+        <v>1.211936725256977e-09</v>
       </c>
     </row>
     <row r="3">
@@ -2668,10 +2356,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.85241077194766</v>
+        <v>25.30015431713413</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3910271041530843</v>
+        <v>0.3933295148146035</v>
       </c>
     </row>
     <row r="4">
@@ -2681,10 +2369,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.2449124314967</v>
+        <v>148.9776647661691</v>
       </c>
       <c r="C4" t="n">
-        <v>2.724340028355059e-17</v>
+        <v>6.768851550799027e-14</v>
       </c>
     </row>
     <row r="5">
@@ -2694,10 +2382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02213791150200915</v>
+        <v>-0.007757035052396645</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4087228469299677</v>
+        <v>0.8102070748062076</v>
       </c>
     </row>
     <row r="6">
@@ -2707,10 +2395,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.719205757022489e-05</v>
+        <v>-5.862530836688761e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6159064136026469</v>
+        <v>0.08725549806373037</v>
       </c>
     </row>
     <row r="7">
@@ -2720,75 +2408,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.9004965212304</v>
+        <v>-26.96445932896853</v>
       </c>
       <c r="C7" t="n">
-        <v>7.083747914902352e-05</v>
+        <v>3.603041668677647e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.715920172706706</v>
+        <v>-727.2359005298974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0515460875506551</v>
+        <v>0.1162868394014386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-554.8784993699535</v>
+        <v>9288.921563191408</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3881144404944333</v>
+        <v>3.723484181385043e-21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-186.6025269532262</v>
+        <v>25.70239887796214</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6562307882235431</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7534.845621271601</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.312318128297008e-19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.379827512724825</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2937546563864699</v>
+        <v>0.01774068239836092</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +2464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,10 +2496,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2621.414076942243</v>
+        <v>3301.209808638679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005602871545398482</v>
+        <v>3.284068149015665e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2847,10 +2509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.92244263241444</v>
+        <v>22.23936115126033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6459347872386589</v>
+        <v>0.4412699583919166</v>
       </c>
     </row>
     <row r="4">
@@ -2860,10 +2522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.2836061279957</v>
+        <v>161.2822491054347</v>
       </c>
       <c r="C4" t="n">
-        <v>4.598664567969073e-14</v>
+        <v>4.317781262439305e-16</v>
       </c>
     </row>
     <row r="5">
@@ -2873,10 +2535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0350569136336888</v>
+        <v>0.005600122268603815</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2610759691029025</v>
+        <v>0.8568100813727264</v>
       </c>
     </row>
     <row r="6">
@@ -2886,10 +2548,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.768299825654951e-06</v>
+        <v>-3.32675703510698e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8906735744752229</v>
+        <v>0.9181750315785303</v>
       </c>
     </row>
     <row r="7">
@@ -2899,75 +2561,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.27789842347073</v>
+        <v>-33.82207561681646</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007421543024473547</v>
+        <v>7.960014368119176e-11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.692485677406699</v>
+        <v>-362.2532675439351</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007762961363671994</v>
+        <v>0.4259830672150904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1674.040537656339</v>
+        <v>8670.386673688741</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01318974500040502</v>
+        <v>1.555622011514547e-20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-536.7727750511893</v>
+        <v>36.64208223913131</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2288904826193119</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7234.478004915575</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.121975553396515e-14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12.57387118556314</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.198280213882935</v>
+        <v>0.0004961848622089816</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,10 +2649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2046.685494953033</v>
+        <v>3201.655876825291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002979526038029088</v>
+        <v>3.51017502312965e-07</v>
       </c>
     </row>
     <row r="3">
@@ -3026,10 +2662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.65939731654007</v>
+        <v>21.55152701574048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003041836885430003</v>
+        <v>0.4772984629699566</v>
       </c>
     </row>
     <row r="4">
@@ -3039,10 +2675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.9041240398953</v>
+        <v>168.9248137034193</v>
       </c>
       <c r="C4" t="n">
-        <v>2.607612724233772e-17</v>
+        <v>1.058877700284648e-16</v>
       </c>
     </row>
     <row r="5">
@@ -3052,10 +2688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001149905069278229</v>
+        <v>-0.01955562157883342</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9648167275881688</v>
+        <v>0.5214740952849496</v>
       </c>
     </row>
     <row r="6">
@@ -3065,10 +2701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.609160060103621e-05</v>
+        <v>-1.127307592308401e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4505651009041057</v>
+        <v>0.7367890392923672</v>
       </c>
     </row>
     <row r="7">
@@ -3078,75 +2714,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.147013556338</v>
+        <v>-28.12787450156433</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002417528577562789</v>
+        <v>7.248222745952056e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.30278113135595</v>
+        <v>-477.6641005632862</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006218408072367346</v>
+        <v>0.3029532479610039</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-473.7217417432252</v>
+        <v>9656.023669237373</v>
       </c>
       <c r="C9" t="n">
-        <v>0.452245986361295</v>
+        <v>3.182647680520543e-23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-482.9786914479417</v>
+        <v>30.70454202165843</v>
       </c>
       <c r="C10" t="n">
-        <v>0.235674627324233</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7244.490380792307</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.466014413409937e-17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10.18940182904286</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2573391290194511</v>
+        <v>0.003988302228424452</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,10 +2802,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2584.553707396929</v>
+        <v>3400.395402251434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003985804490451162</v>
+        <v>3.354870689339795e-08</v>
       </c>
     </row>
     <row r="3">
@@ -3205,10 +2815,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.73043116505883</v>
+        <v>33.55133029515746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9507748018291845</v>
+        <v>0.2684885959804781</v>
       </c>
     </row>
     <row r="4">
@@ -3218,10 +2828,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.6504516649124</v>
+        <v>166.2473661727634</v>
       </c>
       <c r="C4" t="n">
-        <v>1.198264716491066e-17</v>
+        <v>4.684399341569393e-16</v>
       </c>
     </row>
     <row r="5">
@@ -3231,10 +2841,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01114342016669449</v>
+        <v>-0.04910957366003164</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6887101486447296</v>
+        <v>0.1450414604568401</v>
       </c>
     </row>
     <row r="6">
@@ -3244,10 +2854,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.701907776938716e-06</v>
+        <v>6.24035744031554e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9397674038559393</v>
+        <v>0.9873591703743696</v>
       </c>
     </row>
     <row r="7">
@@ -3257,75 +2867,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.97667317802647</v>
+        <v>-25.99558141712766</v>
       </c>
       <c r="C7" t="n">
-        <v>9.180993049213004e-06</v>
+        <v>2.065586907041749e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.40105763871528</v>
+        <v>-625.7111490253751</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005437186836717707</v>
+        <v>0.191127455195051</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1121.441498739129</v>
+        <v>9489.944281722534</v>
       </c>
       <c r="C9" t="n">
-        <v>0.10404321633535</v>
+        <v>8.322486381506009e-23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-269.8678494221393</v>
+        <v>28.28577706201165</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5466959004730896</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8083.099761721351</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.325348741208235e-20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.236766808937125</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4507571061548787</v>
+        <v>0.008183496364724596</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,10 +2955,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3523.710927090898</v>
+        <v>4018.396692195035</v>
       </c>
       <c r="C2" t="n">
-        <v>4.517900279524368e-07</v>
+        <v>1.295537574860258e-10</v>
       </c>
     </row>
     <row r="3">
@@ -3384,10 +2968,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.48023972875414</v>
+        <v>37.77971366538842</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4637504136706193</v>
+        <v>0.2204813013411368</v>
       </c>
     </row>
     <row r="4">
@@ -3397,10 +2981,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8775277783051</v>
+        <v>155.5868811987935</v>
       </c>
       <c r="C4" t="n">
-        <v>8.322867799095094e-15</v>
+        <v>3.730251577226649e-15</v>
       </c>
     </row>
     <row r="5">
@@ -3410,10 +2994,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03010041529052319</v>
+        <v>-0.03910830036952542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2815497809085666</v>
+        <v>0.2242199732787248</v>
       </c>
     </row>
     <row r="6">
@@ -3423,10 +3007,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.767390071683361e-06</v>
+        <v>-1.480290364396643e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8771508945951092</v>
+        <v>0.6636695334947831</v>
       </c>
     </row>
     <row r="7">
@@ -3436,75 +3020,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.96136448345075</v>
+        <v>-25.79991785048487</v>
       </c>
       <c r="C7" t="n">
-        <v>5.59019970790302e-06</v>
+        <v>4.667285244853466e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.272340898271322</v>
+        <v>-526.8935726273829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03391977149435582</v>
+        <v>0.2643638358775814</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-869.0980276597447</v>
+        <v>9364.613307659522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1756908060191177</v>
+        <v>7.39933456443808e-22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.3761470397402</v>
+        <v>14.75129342755767</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8199885240774628</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8206.891355662654</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.837967680062342e-22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-8.462072307064417</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3635636204790595</v>
+        <v>0.1647338898520337</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +3076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,10 +3108,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2215.078019828654</v>
+        <v>3449.470520233008</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001946377918420494</v>
+        <v>2.674811865598662e-08</v>
       </c>
     </row>
     <row r="3">
@@ -3563,10 +3121,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9763071426352354</v>
+        <v>35.85227620493973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9708873307279489</v>
+        <v>0.2231595475228791</v>
       </c>
     </row>
     <row r="4">
@@ -3576,10 +3134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.3407323439893</v>
+        <v>163.2409486956743</v>
       </c>
       <c r="C4" t="n">
-        <v>4.739200950138869e-14</v>
+        <v>6.858603164243738e-17</v>
       </c>
     </row>
     <row r="5">
@@ -3589,10 +3147,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05403750903617993</v>
+        <v>-0.02182550698210427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05429804982837846</v>
+        <v>0.462727698972985</v>
       </c>
     </row>
     <row r="6">
@@ -3602,10 +3160,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.269898770990682e-05</v>
+        <v>-1.810606112927077e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3445643015633539</v>
+        <v>0.5598119560781114</v>
       </c>
     </row>
     <row r="7">
@@ -3615,75 +3173,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.66542312980232</v>
+        <v>-24.91261419982037</v>
       </c>
       <c r="C7" t="n">
-        <v>2.636863509407167e-05</v>
+        <v>3.161392732616731e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.96761345588954</v>
+        <v>-611.5375055177208</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001307384846309978</v>
+        <v>0.1677839773049586</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1184.026024657021</v>
+        <v>9166.409921180084</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06654520115857586</v>
+        <v>2.750803218824762e-18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-338.6092447168471</v>
+        <v>24.66464441930691</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4372719191401673</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7762.882361911936</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.157349256194852e-19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>21.58095588405639</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02483699132151651</v>
+        <v>0.02173568868834711</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +3229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,10 +3261,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2435.683022540869</v>
+        <v>3799.034387901088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005014315042107164</v>
+        <v>1.343166843273308e-09</v>
       </c>
     </row>
     <row r="3">
@@ -3742,10 +3274,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.99512709273215</v>
+        <v>21.8003846973083</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1132951729118766</v>
+        <v>0.4712175711716572</v>
       </c>
     </row>
     <row r="4">
@@ -3755,10 +3287,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.1819565036456</v>
+        <v>177.5951973820319</v>
       </c>
       <c r="C4" t="n">
-        <v>1.27366516650969e-16</v>
+        <v>1.187819739556744e-18</v>
       </c>
     </row>
     <row r="5">
@@ -3768,10 +3300,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04157868643596621</v>
+        <v>-0.04205364192738782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1319085183763229</v>
+        <v>0.1807573108226062</v>
       </c>
     </row>
     <row r="6">
@@ -3781,10 +3313,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.84259598017664e-05</v>
+        <v>-3.016365049469304e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4231530266004416</v>
+        <v>0.9925164679807685</v>
       </c>
     </row>
     <row r="7">
@@ -3794,75 +3326,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.84729320009036</v>
+        <v>-26.40959132524201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001657709506349073</v>
+        <v>1.60190781723882e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.961351829613903</v>
+        <v>-333.0361660747155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01338731648906424</v>
+        <v>0.4606223802406513</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1073.787311436565</v>
+        <v>8248.827268461373</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09943934280988402</v>
+        <v>2.961403173404694e-16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-187.504233049475</v>
+        <v>18.72431943485939</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6640217827489554</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8603.965930775528</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.15321040470408e-24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.993552323399214</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4440484856000629</v>
+        <v>0.07765336247604626</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +3382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,10 +3414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2805.315693109842</v>
+        <v>3891.331187139454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001136933022766319</v>
+        <v>2.403978000017719e-10</v>
       </c>
     </row>
     <row r="3">
@@ -3921,10 +3427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.41619940995328</v>
+        <v>22.36624295554934</v>
       </c>
       <c r="C3" t="n">
-        <v>0.705924344575702</v>
+        <v>0.4558560862537886</v>
       </c>
     </row>
     <row r="4">
@@ -3934,10 +3440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.0910519303013</v>
+        <v>158.6145956608179</v>
       </c>
       <c r="C4" t="n">
-        <v>2.615703311141515e-16</v>
+        <v>1.007720654581179e-15</v>
       </c>
     </row>
     <row r="5">
@@ -3947,10 +3453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01844636825692158</v>
+        <v>-0.01646076299241565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5287284538398697</v>
+        <v>0.5947395005212408</v>
       </c>
     </row>
     <row r="6">
@@ -3960,10 +3466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.792172203940687e-06</v>
+        <v>-3.736796603172921e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8940547926905899</v>
+        <v>0.3006926153890557</v>
       </c>
     </row>
     <row r="7">
@@ -3973,75 +3479,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.8423044478788</v>
+        <v>-26.09931420044919</v>
       </c>
       <c r="C7" t="n">
-        <v>6.817830305943753e-05</v>
+        <v>4.572506275643745e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.371116185335355</v>
+        <v>-676.020620899214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0160379475982517</v>
+        <v>0.1456955484264649</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-432.6086497493627</v>
+        <v>9279.986569151613</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5220808765359234</v>
+        <v>3.297185832436034e-21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-541.0913535827284</v>
+        <v>18.79474167672992</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2122796521430999</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7416.27934805376</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.503567621736109e-17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.226649525005158</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3886073885896772</v>
+        <v>0.07232490203759304</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +3535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,10 +3567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2002.36986366558</v>
+        <v>3108.00751880064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005316791673803769</v>
+        <v>5.255887291829983e-07</v>
       </c>
     </row>
     <row r="3">
@@ -4100,10 +3580,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.717466410923635</v>
+        <v>45.90670523743586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8638709685624482</v>
+        <v>0.1234870807276947</v>
       </c>
     </row>
     <row r="4">
@@ -4113,10 +3593,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.7004526476325</v>
+        <v>153.9966273411887</v>
       </c>
       <c r="C4" t="n">
-        <v>3.296586565143757e-16</v>
+        <v>3.949405364400093e-14</v>
       </c>
     </row>
     <row r="5">
@@ -4126,10 +3606,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01985025167688222</v>
+        <v>-0.03175269461329453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4687161856541358</v>
+        <v>0.2982600236900998</v>
       </c>
     </row>
     <row r="6">
@@ -4139,10 +3619,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.955104412967184e-06</v>
+        <v>-1.480036175147538e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8593565417107515</v>
+        <v>0.6418840777459248</v>
       </c>
     </row>
     <row r="7">
@@ -4152,75 +3632,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.60592668466752</v>
+        <v>-25.93180212661233</v>
       </c>
       <c r="C7" t="n">
-        <v>8.022409808052202e-06</v>
+        <v>3.059826014865208e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.48674659294807</v>
+        <v>-808.8728769774762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001456907258625613</v>
+        <v>0.07548952995159125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-912.3240440665386</v>
+        <v>9882.166893293022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1519903237889807</v>
+        <v>1.195076047720773e-24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-24.62262773224012</v>
+        <v>36.1311257391775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9560701863153033</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7528.499816312956</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.540273699875725e-18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.42049133962528</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03312553671771755</v>
+        <v>0.0009099908684714253</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +3688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,10 +3720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3137.88206744933</v>
+        <v>3012.594632876661</v>
       </c>
       <c r="C2" t="n">
-        <v>1.937949331723643e-05</v>
+        <v>1.648499637511322e-06</v>
       </c>
     </row>
     <row r="3">
@@ -4279,10 +3733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.42540570173642</v>
+        <v>44.74345902380469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2633464177268676</v>
+        <v>0.1331623771736484</v>
       </c>
     </row>
     <row r="4">
@@ -4292,10 +3746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.7726150753823</v>
+        <v>159.9033174214271</v>
       </c>
       <c r="C4" t="n">
-        <v>8.603970369019891e-13</v>
+        <v>3.818057129503895e-15</v>
       </c>
     </row>
     <row r="5">
@@ -4305,10 +3759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006410402236062311</v>
+        <v>-0.03136009422065766</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8188673735552346</v>
+        <v>0.3521608192052299</v>
       </c>
     </row>
     <row r="6">
@@ -4318,10 +3772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.475254247024115e-05</v>
+        <v>2.09254292889408e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3468418667179379</v>
+        <v>0.5745094092370708</v>
       </c>
     </row>
     <row r="7">
@@ -4331,75 +3785,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.14815266673052</v>
+        <v>-26.84908668813142</v>
       </c>
       <c r="C7" t="n">
-        <v>4.791781733305968e-05</v>
+        <v>7.139352866201824e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.796789694976809</v>
+        <v>-593.9680982467753</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01082791873440965</v>
+        <v>0.2105790939531117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1371.885037567088</v>
+        <v>9122.051491807893</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04160740775007483</v>
+        <v>1.907374804937198e-20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-493.8089097731201</v>
+        <v>36.41937754580169</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2462608278750009</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7928.929185631985</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.033710519757649e-19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.280079788756627</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.809868742467604</v>
+        <v>0.000943643605765122</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +3841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,10 +3873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2274.215229039783</v>
+        <v>2522.294700323552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001456726624967004</v>
+        <v>3.683084351330186e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4458,10 +3886,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.10991197179867</v>
+        <v>48.23624263235799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6337518008088669</v>
+        <v>0.1031153103024488</v>
       </c>
     </row>
     <row r="4">
@@ -4471,10 +3899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.7520814313756</v>
+        <v>161.6419636389739</v>
       </c>
       <c r="C4" t="n">
-        <v>1.508546210584489e-15</v>
+        <v>1.194207080262091e-15</v>
       </c>
     </row>
     <row r="5">
@@ -4484,10 +3912,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0119108292998229</v>
+        <v>-0.03602432894015808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6734733711962155</v>
+        <v>0.2321421995243215</v>
       </c>
     </row>
     <row r="6">
@@ -4497,10 +3925,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.458742680900716e-05</v>
+        <v>3.390906547023099e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6695533315666768</v>
+        <v>0.3538299673907068</v>
       </c>
     </row>
     <row r="7">
@@ -4510,75 +3938,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.85965204095312</v>
+        <v>-28.10497897898225</v>
       </c>
       <c r="C7" t="n">
-        <v>8.102735671862451e-05</v>
+        <v>8.731520160595236e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.719903684338806</v>
+        <v>-525.2191945646699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004208485842050243</v>
+        <v>0.2510517295217799</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-984.7876399950092</v>
+        <v>9286.768762623567</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1378723196063749</v>
+        <v>1.069547695625101e-21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-378.7046806425105</v>
+        <v>46.64368934309695</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3884131037535454</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7791.680349255575</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.134823618113812e-19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.79730759076372</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05573171742502336</v>
+        <v>8.481200099798739e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,10 +4026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2715.360494995369</v>
+        <v>3532.636456696942</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001564732115151484</v>
+        <v>3.254610423794665e-09</v>
       </c>
     </row>
     <row r="3">
@@ -4637,10 +4039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.79115784329865</v>
+        <v>20.43779178733995</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3747925581397843</v>
+        <v>0.4945595898735794</v>
       </c>
     </row>
     <row r="4">
@@ -4650,10 +4052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.0801288001431</v>
+        <v>161.8648494156076</v>
       </c>
       <c r="C4" t="n">
-        <v>2.151288697874155e-15</v>
+        <v>8.11689649773503e-17</v>
       </c>
     </row>
     <row r="5">
@@ -4663,10 +4065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04188446709717754</v>
+        <v>-0.004943568492603797</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1426057064214734</v>
+        <v>0.8707227504666623</v>
       </c>
     </row>
     <row r="6">
@@ -4676,10 +4078,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.530806696940784e-05</v>
+        <v>-1.154190807902485e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4704192594327991</v>
+        <v>0.7223660982917418</v>
       </c>
     </row>
     <row r="7">
@@ -4689,75 +4091,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.73729734509261</v>
+        <v>-32.80000575871745</v>
       </c>
       <c r="C7" t="n">
-        <v>3.526170802386812e-05</v>
+        <v>1.576745857530172e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.46064893699583</v>
+        <v>-216.6973077547541</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007278946034455167</v>
+        <v>0.6391561339723939</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1410.189423599918</v>
+        <v>9714.331030531812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03097004166262255</v>
+        <v>5.133744174415289e-25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-270.8854134191213</v>
+        <v>25.77780663065924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5288359579062212</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6938.217504038914</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.260937977106272e-14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.554558972851092</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4932791676373836</v>
+        <v>0.01161947936350972</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +4147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,10 +4179,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2866.76178653834</v>
+        <v>3580.052946451267</v>
       </c>
       <c r="C2" t="n">
-        <v>6.634951053231731e-05</v>
+        <v>9.251167761928071e-09</v>
       </c>
     </row>
     <row r="3">
@@ -4816,10 +4192,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.101085226916169</v>
+        <v>2.435986016484989</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9385729577874573</v>
+        <v>0.9344289148963858</v>
       </c>
     </row>
     <row r="4">
@@ -4829,10 +4205,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.0696424000078</v>
+        <v>171.7540428088728</v>
       </c>
       <c r="C4" t="n">
-        <v>4.712515846699181e-16</v>
+        <v>3.860460444596689e-17</v>
       </c>
     </row>
     <row r="5">
@@ -4842,10 +4218,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01753863521768803</v>
+        <v>-0.02935957737743625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5400508284536918</v>
+        <v>0.3537044066368392</v>
       </c>
     </row>
     <row r="6">
@@ -4855,10 +4231,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.085560100688808e-06</v>
+        <v>-9.849056957661589e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8635589243738726</v>
+        <v>0.7605993376319915</v>
       </c>
     </row>
     <row r="7">
@@ -4868,75 +4244,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.84306062463121</v>
+        <v>-23.51736938463497</v>
       </c>
       <c r="C7" t="n">
-        <v>7.690589337590165e-05</v>
+        <v>6.159400583204844e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.68819204441955</v>
+        <v>-1042.638084329507</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005898780291953955</v>
+        <v>0.02765664014128209</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1641.505124794421</v>
+        <v>7437.881343531099</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01472938414355218</v>
+        <v>1.54090053876302e-13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-467.6338629542448</v>
+        <v>32.57847361673545</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2851620478747235</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8517.479997637043</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.814411573656579e-22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.9255289311120265</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9240240077953437</v>
+        <v>0.00196198214370904</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2860.065348930978</v>
+        <v>3773.215333388746</v>
       </c>
       <c r="C2" t="n">
-        <v>2.358433549857217e-05</v>
+        <v>5.369007029182224e-09</v>
       </c>
     </row>
     <row r="3">
@@ -4995,10 +4345,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.41524478757132</v>
+        <v>44.08428062406668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3959270535063451</v>
+        <v>0.1520025624454976</v>
       </c>
     </row>
     <row r="4">
@@ -5008,10 +4358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.7408482273493</v>
+        <v>150.002375203448</v>
       </c>
       <c r="C4" t="n">
-        <v>8.929545522349969e-20</v>
+        <v>1.122948515859493e-13</v>
       </c>
     </row>
     <row r="5">
@@ -5021,10 +4371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04211096431088687</v>
+        <v>-0.009139965675396412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.101828058181077</v>
+        <v>0.7828671098484863</v>
       </c>
     </row>
     <row r="6">
@@ -5034,10 +4384,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.691993930054078e-05</v>
+        <v>-2.774327764667224e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6076492031387281</v>
+        <v>0.4440103049633378</v>
       </c>
     </row>
     <row r="7">
@@ -5047,75 +4397,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.0648206488648</v>
+        <v>-29.44599888841029</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002326815347065305</v>
+        <v>5.510807651625686e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.007431342979483</v>
+        <v>-646.4365037970517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01730311737603428</v>
+        <v>0.1736373730570732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1268.155270915443</v>
+        <v>9181.579646301456</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03580299370648936</v>
+        <v>2.067964017827531e-20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-264.7989913127793</v>
+        <v>24.42363567269488</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5140897070099657</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6371.235896967894</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.187909041781455e-13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.982060043541715</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4339633938589063</v>
+        <v>0.02844084616596472</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,10 +4485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2681.199339940078</v>
+        <v>3804.62561460781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001388462307189117</v>
+        <v>2.581165978233461e-10</v>
       </c>
     </row>
     <row r="3">
@@ -5174,10 +4498,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.07814197838888</v>
+        <v>25.27639453861424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09415349522146996</v>
+        <v>0.3718081803061598</v>
       </c>
     </row>
     <row r="4">
@@ -5187,10 +4511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.7839798980214</v>
+        <v>158.7853207482892</v>
       </c>
       <c r="C4" t="n">
-        <v>2.07244888100257e-12</v>
+        <v>3.930401115425348e-16</v>
       </c>
     </row>
     <row r="5">
@@ -5200,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01528010317251056</v>
+        <v>-0.02759226798133441</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6105435870204918</v>
+        <v>0.3780678765567536</v>
       </c>
     </row>
     <row r="6">
@@ -5213,10 +4537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.203400027158749e-05</v>
+        <v>-4.865625448582562e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7430370925148768</v>
+        <v>0.876731534063204</v>
       </c>
     </row>
     <row r="7">
@@ -5226,75 +4550,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.30130618360339</v>
+        <v>-32.02276754791345</v>
       </c>
       <c r="C7" t="n">
-        <v>1.145127541209783e-05</v>
+        <v>2.4706057814729e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.602692604911292</v>
+        <v>53.04449835639093</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005188176708790907</v>
+        <v>0.9058430014197415</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-947.1237033045999</v>
+        <v>10441.78088819094</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1520201798453126</v>
+        <v>1.38370785763817e-28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-209.8378173378587</v>
+        <v>14.38005013734852</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6302681376944428</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7049.586613328912</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.915101570141211e-16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.46300157585344</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2209345796948383</v>
+        <v>0.1653110246109465</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +4606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,10 +4638,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2142.061694596397</v>
+        <v>3083.269149895833</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003351459960627799</v>
+        <v>1.278965346415896e-06</v>
       </c>
     </row>
     <row r="3">
@@ -5353,10 +4651,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.66362516186235</v>
+        <v>4.589894260861485</v>
       </c>
       <c r="C3" t="n">
-        <v>0.179197217011445</v>
+        <v>0.8844681419233296</v>
       </c>
     </row>
     <row r="4">
@@ -5366,10 +4664,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.417274546092</v>
+        <v>176.0443927055069</v>
       </c>
       <c r="C4" t="n">
-        <v>3.398003735831604e-14</v>
+        <v>2.071211762582231e-17</v>
       </c>
     </row>
     <row r="5">
@@ -5379,10 +4677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0208558899986121</v>
+        <v>-0.001565708833553427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4636015085131652</v>
+        <v>0.9598000329704165</v>
       </c>
     </row>
     <row r="6">
@@ -5392,10 +4690,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.280791379557952e-05</v>
+        <v>-3.462915416812151e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7174962313914433</v>
+        <v>0.295980935868325</v>
       </c>
     </row>
     <row r="7">
@@ -5405,75 +4703,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.83723262871073</v>
+        <v>-29.00513730479048</v>
       </c>
       <c r="C7" t="n">
-        <v>5.618519029495691e-05</v>
+        <v>2.12725530881607e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.33855987337722</v>
+        <v>-629.9676134282381</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001480007472119363</v>
+        <v>0.1690781770726499</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-570.1824676289027</v>
+        <v>9275.758520718729</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3782001577097632</v>
+        <v>5.402782843677533e-20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-307.9100682627167</v>
+        <v>38.74593003356169</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4833353864791243</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8233.991350552216</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.816217201372595e-21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.47613960713537</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1295845956042566</v>
+        <v>0.0005041645701010777</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +4759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,10 +4791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2556.489092257242</v>
+        <v>3185.418864211084</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008216794110635197</v>
+        <v>2.599806574980681e-08</v>
       </c>
     </row>
     <row r="3">
@@ -5532,10 +4804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.081212367891418</v>
+        <v>76.56008819530919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8575216662518352</v>
+        <v>0.009217989546917866</v>
       </c>
     </row>
     <row r="4">
@@ -5545,10 +4817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.3281745474154</v>
+        <v>159.8869915037854</v>
       </c>
       <c r="C4" t="n">
-        <v>1.044067132940547e-15</v>
+        <v>2.367247353764103e-17</v>
       </c>
     </row>
     <row r="5">
@@ -5558,10 +4830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02551362085421301</v>
+        <v>-0.05707369797804662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3599536134295368</v>
+        <v>0.05352300050772296</v>
       </c>
     </row>
     <row r="6">
@@ -5571,10 +4843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.728348608994742e-05</v>
+        <v>3.910222477063714e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6340042348929665</v>
+        <v>0.2859640431019174</v>
       </c>
     </row>
     <row r="7">
@@ -5584,75 +4856,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.39386323871885</v>
+        <v>-24.45523414456569</v>
       </c>
       <c r="C7" t="n">
-        <v>1.072808728546727e-05</v>
+        <v>6.446627801312684e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.73973220835035</v>
+        <v>-357.0418038620903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01970440763732059</v>
+        <v>0.4272725581037747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-773.6926771235155</v>
+        <v>9894.150620708497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2716654042176823</v>
+        <v>5.413710525610037e-27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-329.7740534859893</v>
+        <v>22.80664209954131</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4596239963626578</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8472.604147975326</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.719541056150513e-20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.08758628255906</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2549504218432271</v>
+        <v>0.02159840525531076</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +4912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,10 +4944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2468.481027792969</v>
+        <v>2830.747600230463</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009123470185715428</v>
+        <v>2.204507377479102e-06</v>
       </c>
     </row>
     <row r="3">
@@ -5711,10 +4957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.10561757943305</v>
+        <v>-6.692540014363942</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7219251699447551</v>
+        <v>0.8116831277133181</v>
       </c>
     </row>
     <row r="4">
@@ -5724,10 +4970,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.2638033360971</v>
+        <v>182.193350561081</v>
       </c>
       <c r="C4" t="n">
-        <v>8.512276293817645e-16</v>
+        <v>2.986185937364455e-20</v>
       </c>
     </row>
     <row r="5">
@@ -5737,10 +4983,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005970558546792723</v>
+        <v>0.009280945471614288</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8310447885040695</v>
+        <v>0.7682090143195999</v>
       </c>
     </row>
     <row r="6">
@@ -5750,10 +4996,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.188024449446528e-06</v>
+        <v>-5.047591937241461e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8798212873375681</v>
+        <v>0.1183164858912217</v>
       </c>
     </row>
     <row r="7">
@@ -5763,75 +5009,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.8727741211563</v>
+        <v>-24.35702659164772</v>
       </c>
       <c r="C7" t="n">
-        <v>2.232491663231858e-05</v>
+        <v>1.054648671533668e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.93903365227581</v>
+        <v>-815.7931655770715</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01413490851635679</v>
+        <v>0.0713667797376932</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-560.3065883754912</v>
+        <v>11018.9772344106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3962026151132316</v>
+        <v>3.716956374981321e-31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-526.2331367442328</v>
+        <v>33.79018488903106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2400662707663864</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7745.347382437744</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.23805279863024e-18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.20865838708178</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1442510463374162</v>
+        <v>0.0011857130002284</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +5065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,10 +5097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2207.259624991956</v>
+        <v>3650.177006255912</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002069835717985011</v>
+        <v>9.24005230356719e-09</v>
       </c>
     </row>
     <row r="3">
@@ -5890,10 +5110,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.48408604811225</v>
+        <v>55.8572167055647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6217686810499231</v>
+        <v>0.08194441919083634</v>
       </c>
     </row>
     <row r="4">
@@ -5903,10 +5123,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.4111361442651</v>
+        <v>149.5333730838258</v>
       </c>
       <c r="C4" t="n">
-        <v>9.810991705203897e-15</v>
+        <v>9.521516335310227e-13</v>
       </c>
     </row>
     <row r="5">
@@ -5916,10 +5136,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03491254117629711</v>
+        <v>-0.03873380181659734</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2113137676445324</v>
+        <v>0.2305504098414415</v>
       </c>
     </row>
     <row r="6">
@@ -5929,10 +5149,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.491634767623509e-05</v>
+        <v>7.120867865408742e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6628151833712188</v>
+        <v>0.8386433892518455</v>
       </c>
     </row>
     <row r="7">
@@ -5942,75 +5162,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.02784263137658</v>
+        <v>-30.32408175551351</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000105532651653211</v>
+        <v>2.660747555264286e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.74334561228463</v>
+        <v>-276.2510033808461</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005984648916272885</v>
+        <v>0.5706767555236536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1198.722633422295</v>
+        <v>9277.714520664938</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0750842078901427</v>
+        <v>2.661201302786511e-21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-285.3118597620726</v>
+        <v>22.34437819191374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5139335258523623</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7380.776641526077</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.049643508611763e-15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.0185654139304</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09356858973615004</v>
+        <v>0.04065210140084728</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +5218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,10 +5250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1917.526501588219</v>
+        <v>3166.339919984511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008697942755658323</v>
+        <v>2.755659387961193e-07</v>
       </c>
     </row>
     <row r="3">
@@ -6069,10 +5263,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.22372484575138</v>
+        <v>44.82782667569982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2361293886150943</v>
+        <v>0.1459514854394402</v>
       </c>
     </row>
     <row r="4">
@@ -6082,10 +5276,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.7256338687469</v>
+        <v>173.8924624693807</v>
       </c>
       <c r="C4" t="n">
-        <v>5.515425386081706e-15</v>
+        <v>1.558329250439536e-17</v>
       </c>
     </row>
     <row r="5">
@@ -6095,10 +5289,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03288377392577389</v>
+        <v>-0.03392517716588329</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2464365865590914</v>
+        <v>0.2822754131074985</v>
       </c>
     </row>
     <row r="6">
@@ -6108,10 +5302,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.913657437100567e-05</v>
+        <v>1.601269035805004e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.594583843741483</v>
+        <v>0.6312156919582412</v>
       </c>
     </row>
     <row r="7">
@@ -6121,75 +5315,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.99232601902106</v>
+        <v>-25.98543628915795</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005547841158258964</v>
+        <v>3.940614639497751e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.92096302818413</v>
+        <v>-499.8099506795705</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001158075885984714</v>
+        <v>0.2828992730640134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-940.0859530857956</v>
+        <v>9756.914218241216</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1595669647241656</v>
+        <v>1.259958681412921e-23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-402.0153211380332</v>
+        <v>26.8086374248975</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3407612504000734</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7475.186841391765</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.33840924169762e-17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.76725724286119</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07233212227449617</v>
+        <v>0.01053118826025311</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +5371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,10 +5403,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3107.41795455795</v>
+        <v>3458.985022622769</v>
       </c>
       <c r="C2" t="n">
-        <v>8.162028169340884e-06</v>
+        <v>9.569338408831475e-09</v>
       </c>
     </row>
     <row r="3">
@@ -6248,10 +5416,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.6277343393017</v>
+        <v>39.73308461241379</v>
       </c>
       <c r="C3" t="n">
-        <v>0.112434308637688</v>
+        <v>0.1715293201739758</v>
       </c>
     </row>
     <row r="4">
@@ -6261,10 +5429,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.4309067868995</v>
+        <v>168.2419342380784</v>
       </c>
       <c r="C4" t="n">
-        <v>4.499269895595783e-18</v>
+        <v>1.761820251475463e-18</v>
       </c>
     </row>
     <row r="5">
@@ -6274,10 +5442,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02351841781695885</v>
+        <v>-0.03263598470169519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.399088784444729</v>
+        <v>0.271421656749585</v>
       </c>
     </row>
     <row r="6">
@@ -6287,10 +5455,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.804258768774478e-06</v>
+        <v>-1.403652689325801e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8861491872874901</v>
+        <v>0.6560673061959953</v>
       </c>
     </row>
     <row r="7">
@@ -6300,75 +5468,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.85937049138556</v>
+        <v>-24.51964666430375</v>
       </c>
       <c r="C7" t="n">
-        <v>3.01298451746545e-06</v>
+        <v>1.555351383511096e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.891564339833799</v>
+        <v>-553.5172891654222</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003778134172333058</v>
+        <v>0.2135510800700714</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1313.255091404158</v>
+        <v>9134.485462733617</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03863683173520038</v>
+        <v>4.416514482143541e-21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.55978840992299</v>
+        <v>24.3821405294882</v>
       </c>
       <c r="C10" t="n">
-        <v>0.844957618908509</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7824.741434906829</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.540808201262591e-22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-7.676076626940629</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4040140034955854</v>
+        <v>0.01986414777060142</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +5524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,10 +5556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3027.325177003238</v>
+        <v>3456.952648547206</v>
       </c>
       <c r="C2" t="n">
-        <v>6.617267959867794e-05</v>
+        <v>6.309062467292037e-09</v>
       </c>
     </row>
     <row r="3">
@@ -6427,10 +5569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.589277090609215</v>
+        <v>51.25376974844528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8985790257795554</v>
+        <v>0.08868555631729523</v>
       </c>
     </row>
     <row r="4">
@@ -6440,10 +5582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.6464657703195</v>
+        <v>152.9859513807526</v>
       </c>
       <c r="C4" t="n">
-        <v>9.015024418742904e-16</v>
+        <v>5.854457583975611e-15</v>
       </c>
     </row>
     <row r="5">
@@ -6453,10 +5595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04377397711672598</v>
+        <v>-0.01929127779014321</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1305414176394502</v>
+        <v>0.513561672683297</v>
       </c>
     </row>
     <row r="6">
@@ -6466,10 +5608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.370828372157542e-05</v>
+        <v>-1.521389683329638e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3614480845121086</v>
+        <v>0.6289810520712562</v>
       </c>
     </row>
     <row r="7">
@@ -6479,75 +5621,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.40180422160049</v>
+        <v>-27.05011077324545</v>
       </c>
       <c r="C7" t="n">
-        <v>1.884602436733676e-06</v>
+        <v>5.382280013492019e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.108677561051907</v>
+        <v>-477.2424111155751</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1079561529894239</v>
+        <v>0.2890525805658516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-781.4744949284832</v>
+        <v>10261.81695235803</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2269415758657764</v>
+        <v>2.098393869878405e-27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-69.71752738185546</v>
+        <v>22.87102892233908</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8764968379272482</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7326.032476103926</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.876309225348335e-16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12.64257824293265</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1928037354120791</v>
+        <v>0.02869584580540335</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +5677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,10 +5709,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3301.852001214072</v>
+        <v>4284.482354042748</v>
       </c>
       <c r="C2" t="n">
-        <v>3.257738628936348e-06</v>
+        <v>7.366444902471372e-12</v>
       </c>
     </row>
     <row r="3">
@@ -6606,10 +5722,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.22936858290054</v>
+        <v>16.23510703005225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6468597613622802</v>
+        <v>0.582820500192456</v>
       </c>
     </row>
     <row r="4">
@@ -6619,10 +5735,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.7708518793302</v>
+        <v>143.3318413868333</v>
       </c>
       <c r="C4" t="n">
-        <v>4.984850934307145e-14</v>
+        <v>2.21770219525801e-13</v>
       </c>
     </row>
     <row r="5">
@@ -6632,10 +5748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02574641917873499</v>
+        <v>-0.02569026440354987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3705488313694514</v>
+        <v>0.4168093188385514</v>
       </c>
     </row>
     <row r="6">
@@ -6645,10 +5761,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.625644206802921e-05</v>
+        <v>-7.587344171086298e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6824713967481049</v>
+        <v>0.838080388072978</v>
       </c>
     </row>
     <row r="7">
@@ -6658,75 +5774,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.51667578667863</v>
+        <v>-32.62224186291661</v>
       </c>
       <c r="C7" t="n">
-        <v>5.894331590768245e-05</v>
+        <v>1.849131948366263e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.147853609763634</v>
+        <v>-545.6385639500389</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03537181982656785</v>
+        <v>0.2312197431141396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1155.398598592582</v>
+        <v>6951.870640233426</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07453714737642386</v>
+        <v>3.163560242064095e-12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-447.0416515137459</v>
+        <v>27.57953974586971</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3157616075288199</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8221.475656291734</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.888952307469678e-20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.056349596746818</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7475279674957491</v>
+        <v>0.01031518752219594</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +5830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,10 +5862,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3471.638591820059</v>
+        <v>3990.76020519646</v>
       </c>
       <c r="C2" t="n">
-        <v>4.629054395228192e-06</v>
+        <v>6.57251818525717e-11</v>
       </c>
     </row>
     <row r="3">
@@ -6785,10 +5875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1251096762607347</v>
+        <v>54.47030228391242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9964291992593555</v>
+        <v>0.06845989419203063</v>
       </c>
     </row>
     <row r="4">
@@ -6798,10 +5888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.7991839468644</v>
+        <v>141.7509579765799</v>
       </c>
       <c r="C4" t="n">
-        <v>1.871702036953792e-15</v>
+        <v>2.705662333187101e-13</v>
       </c>
     </row>
     <row r="5">
@@ -6811,10 +5901,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03267419209781099</v>
+        <v>-0.08274925196231667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265214445688942</v>
+        <v>0.008895682995034198</v>
       </c>
     </row>
     <row r="6">
@@ -6824,10 +5914,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.660496420741709e-05</v>
+        <v>5.301306423997914e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3597866691115648</v>
+        <v>0.1435255517977105</v>
       </c>
     </row>
     <row r="7">
@@ -6837,75 +5927,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.70195210361768</v>
+        <v>-31.42796724206575</v>
       </c>
       <c r="C7" t="n">
-        <v>2.174756647223363e-06</v>
+        <v>1.35082983545287e-09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.971462851620595</v>
+        <v>50.63641184056621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1204612003020452</v>
+        <v>0.9135294085552892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1323.856530988645</v>
+        <v>6886.433681853263</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0480296970747518</v>
+        <v>2.70369623262348e-12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-305.4655472355436</v>
+        <v>25.98830946958053</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4912015832156141</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6340.377013481296</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.668626413728411e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.090758860389633</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4710758143608781</v>
+        <v>0.01220160886475945</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +5983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,10 +6015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2585.643945203773</v>
+        <v>2811.735734563882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002600234316952583</v>
+        <v>4.981228426145281e-06</v>
       </c>
     </row>
     <row r="3">
@@ -6964,10 +6028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.149999098522468</v>
+        <v>15.23328958397306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9350711180217586</v>
+        <v>0.6041382964787597</v>
       </c>
     </row>
     <row r="4">
@@ -6977,10 +6041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.9761648891863</v>
+        <v>170.5935159829898</v>
       </c>
       <c r="C4" t="n">
-        <v>2.258757643993586e-17</v>
+        <v>1.170524338864215e-17</v>
       </c>
     </row>
     <row r="5">
@@ -6990,10 +6054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04057274713018619</v>
+        <v>-0.0325171743398401</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1459671182208354</v>
+        <v>0.2696030700868632</v>
       </c>
     </row>
     <row r="6">
@@ -7003,10 +6067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.4716316422661e-06</v>
+        <v>-1.773404236553262e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8046296740945964</v>
+        <v>0.5814250964175059</v>
       </c>
     </row>
     <row r="7">
@@ -7016,75 +6080,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.32113886782365</v>
+        <v>-21.37933590152043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001355223190535297</v>
+        <v>1.97875652473548e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.44597340430522</v>
+        <v>-865.7091680080323</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001905057878318069</v>
+        <v>0.05688437740785956</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1516.048912781298</v>
+        <v>10959.95160294391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01980329857594826</v>
+        <v>1.223202634300287e-27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-132.139708773053</v>
+        <v>33.82507351049524</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7520868838971031</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7820.167373719741</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.548627311382798e-20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.542050146492837</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.87076047935194</v>
+        <v>0.001853497015973381</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +6136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,10 +6168,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2103.574883496054</v>
+        <v>3455.90550616751</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002793118978689859</v>
+        <v>5.444851569105341e-09</v>
       </c>
     </row>
     <row r="3">
@@ -7143,10 +6181,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.94442820007697</v>
+        <v>48.34838210109464</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02667707052612694</v>
+        <v>0.09577946564987944</v>
       </c>
     </row>
     <row r="4">
@@ -7156,10 +6194,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.8969593473474</v>
+        <v>174.5707351001968</v>
       </c>
       <c r="C4" t="n">
-        <v>2.420858559827269e-16</v>
+        <v>4.204543903278902e-19</v>
       </c>
     </row>
     <row r="5">
@@ -7169,10 +6207,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02404919581825881</v>
+        <v>-0.02224824323560911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3882186832456991</v>
+        <v>0.4838997335418272</v>
       </c>
     </row>
     <row r="6">
@@ -7182,10 +6220,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.259514969956655e-06</v>
+        <v>-1.008450270119672e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8153266927563692</v>
+        <v>0.7456287240092174</v>
       </c>
     </row>
     <row r="7">
@@ -7195,75 +6233,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.58707403632811</v>
+        <v>-25.39431898920908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001141554558431612</v>
+        <v>7.207280312495928e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.449442385870663</v>
+        <v>-487.4087946043991</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004620641105132333</v>
+        <v>0.2809348029802543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>251.7626498865197</v>
+        <v>9808.329932208202</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7089331249429918</v>
+        <v>7.491971811348163e-27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-72.4194951322803</v>
+        <v>17.66879258464217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8712978825439595</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7568.146175242828</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.512471756478071e-17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.97716396025682</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2115925841077961</v>
+        <v>0.08464559762307075</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +6289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,10 +6321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2510.617344728076</v>
+        <v>3764.041762808651</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003108580207782661</v>
+        <v>2.58067959193494e-09</v>
       </c>
     </row>
     <row r="3">
@@ -7322,10 +6334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.81458303956354</v>
+        <v>24.07977033912794</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3692823622984205</v>
+        <v>0.4287624614607035</v>
       </c>
     </row>
     <row r="4">
@@ -7335,10 +6347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139.9066240625937</v>
+        <v>154.9060018940837</v>
       </c>
       <c r="C4" t="n">
-        <v>1.944470772859936e-14</v>
+        <v>2.21856079583056e-15</v>
       </c>
     </row>
     <row r="5">
@@ -7348,10 +6360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02491703318765206</v>
+        <v>0.009810532464246395</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3495178652111786</v>
+        <v>0.7480382245348185</v>
       </c>
     </row>
     <row r="6">
@@ -7361,10 +6373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.753751988620536e-06</v>
+        <v>-5.299200784460436e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9146574067929075</v>
+        <v>0.1201980284036427</v>
       </c>
     </row>
     <row r="7">
@@ -7374,75 +6386,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.54078629955796</v>
+        <v>-28.46763931344373</v>
       </c>
       <c r="C7" t="n">
-        <v>5.010139316833055e-05</v>
+        <v>3.175927119735135e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.75896797119806</v>
+        <v>-799.6545604995932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001690106953862087</v>
+        <v>0.07574252887507303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1310.454974069418</v>
+        <v>8553.503841155583</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03900870891890052</v>
+        <v>3.923845905711858e-18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-314.7008725776235</v>
+        <v>28.11247008058056</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4473776161005962</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8605.521017873119</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.447782282611277e-23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.495354661973068</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4011212619334211</v>
+        <v>0.009193347358134672</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +6442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,10 +6474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2488.185518593897</v>
+        <v>3395.283718304423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007285203601771998</v>
+        <v>6.912775922304533e-08</v>
       </c>
     </row>
     <row r="3">
@@ -7501,10 +6487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.16716898867994</v>
+        <v>12.67720324719706</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3649444417861323</v>
+        <v>0.6784630726330477</v>
       </c>
     </row>
     <row r="4">
@@ -7514,10 +6500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.7152038263947</v>
+        <v>171.2598333826165</v>
       </c>
       <c r="C4" t="n">
-        <v>9.529570058432287e-14</v>
+        <v>8.7130624862291e-16</v>
       </c>
     </row>
     <row r="5">
@@ -7527,10 +6513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01150691372665735</v>
+        <v>-0.00820309023935753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6936375552091536</v>
+        <v>0.8067461023418684</v>
       </c>
     </row>
     <row r="6">
@@ -7540,10 +6526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.353151957927568e-06</v>
+        <v>-1.095957938530668e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8958507398336731</v>
+        <v>0.7596973440008844</v>
       </c>
     </row>
     <row r="7">
@@ -7553,75 +6539,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.56332814011054</v>
+        <v>-31.26012921783307</v>
       </c>
       <c r="C7" t="n">
-        <v>6.432732755427947e-05</v>
+        <v>4.409315108380764e-09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.767302904338649</v>
+        <v>-399.9413421246373</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007485681236754031</v>
+        <v>0.4061818260544241</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1296.12602429412</v>
+        <v>9913.869952789528</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05205594567637317</v>
+        <v>8.643481825319481e-24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-671.1983827474944</v>
+        <v>27.8815627009572</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1313671453649907</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8178.630417878947</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.999634998071639e-21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.00750983718499</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1135765239489794</v>
+        <v>0.009663338594158346</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +6595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,10 +6627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2187.30792157809</v>
+        <v>3228.858691165513</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00187577334094165</v>
+        <v>1.814079502012666e-07</v>
       </c>
     </row>
     <row r="3">
@@ -7680,10 +6640,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.16197305399356</v>
+        <v>20.48806528951629</v>
       </c>
       <c r="C3" t="n">
-        <v>0.505413227347475</v>
+        <v>0.487097136574657</v>
       </c>
     </row>
     <row r="4">
@@ -7693,10 +6653,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.4584722853246</v>
+        <v>170.5671359437327</v>
       </c>
       <c r="C4" t="n">
-        <v>1.638208966383605e-20</v>
+        <v>9.716435581648769e-17</v>
       </c>
     </row>
     <row r="5">
@@ -7706,10 +6666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01045929686018228</v>
+        <v>-0.03836882045925473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7322183169992069</v>
+        <v>0.2502917088596218</v>
       </c>
     </row>
     <row r="6">
@@ -7719,10 +6679,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.837501650775188e-05</v>
+        <v>3.050218172701464e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4827448886438901</v>
+        <v>0.4475043528942376</v>
       </c>
     </row>
     <row r="7">
@@ -7732,75 +6692,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.39285993359469</v>
+        <v>-30.4480505385111</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001870815638376447</v>
+        <v>1.02988352798861e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.12013145701605</v>
+        <v>-311.7337218041607</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005515735023790175</v>
+        <v>0.5219212326175839</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1512.198481602523</v>
+        <v>9583.303934723965</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02210832026014864</v>
+        <v>6.384622316040175e-23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-269.320249385682</v>
+        <v>30.67578955638535</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5266266912217008</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7066.824569667824</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.988829936915491e-17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.934350838961764</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3947537040741653</v>
+        <v>0.003754687350538214</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +6748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,10 +6780,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2520.818576327808</v>
+        <v>3565.774920939266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004444075535242933</v>
+        <v>2.99127792268824e-09</v>
       </c>
     </row>
     <row r="3">
@@ -7859,10 +6793,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.00482894459917</v>
+        <v>32.41247962832571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2436345768965009</v>
+        <v>0.2660143190735441</v>
       </c>
     </row>
     <row r="4">
@@ -7872,10 +6806,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.5139644539179</v>
+        <v>145.7556504228465</v>
       </c>
       <c r="C4" t="n">
-        <v>2.972289892082835e-14</v>
+        <v>3.181361689773805e-14</v>
       </c>
     </row>
     <row r="5">
@@ -7885,10 +6819,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02251818977579813</v>
+        <v>0.002031827431507181</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4463502619986695</v>
+        <v>0.9450318910407454</v>
       </c>
     </row>
     <row r="6">
@@ -7898,10 +6832,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.658410377629518e-05</v>
+        <v>-4.231866466845213e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4696396318039716</v>
+        <v>0.1967843757650083</v>
       </c>
     </row>
     <row r="7">
@@ -7911,75 +6845,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.74931794397386</v>
+        <v>-29.10151303996354</v>
       </c>
       <c r="C7" t="n">
-        <v>2.092557613877948e-05</v>
+        <v>1.008064430582905e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.24571877945053</v>
+        <v>-748.7079959856244</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00273598785197003</v>
+        <v>0.09572233101097037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1090.870902324217</v>
+        <v>8967.971882676869</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1120448386883619</v>
+        <v>4.391578937347942e-21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-181.0281543881245</v>
+        <v>33.3374246184626</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6826180206674368</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8252.685483963949</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.343603076749222e-20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.630579764102947</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4875238261673132</v>
+        <v>0.001932319331977729</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +6901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,10 +6933,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2428.286073575213</v>
+        <v>3648.00008105826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008852592648884785</v>
+        <v>6.39974861023562e-09</v>
       </c>
     </row>
     <row r="3">
@@ -8038,10 +6946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.53748155058459</v>
+        <v>53.42428228391563</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4296862529123372</v>
+        <v>0.08263363056197326</v>
       </c>
     </row>
     <row r="4">
@@ -8051,10 +6959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.5106117699233</v>
+        <v>149.620525706227</v>
       </c>
       <c r="C4" t="n">
-        <v>2.497226737898586e-12</v>
+        <v>4.022990555268799e-14</v>
       </c>
     </row>
     <row r="5">
@@ -8064,10 +6972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03105710330308227</v>
+        <v>-0.05196806352472148</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2615744994565163</v>
+        <v>0.1127288737260776</v>
       </c>
     </row>
     <row r="6">
@@ -8077,10 +6985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.046969640485919e-06</v>
+        <v>-8.841605685804607e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8357524390514923</v>
+        <v>0.7923042463782121</v>
       </c>
     </row>
     <row r="7">
@@ -8090,75 +6998,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.76536274092234</v>
+        <v>-25.58933513803602</v>
       </c>
       <c r="C7" t="n">
-        <v>1.326567491245322e-05</v>
+        <v>4.211012695708845e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.444058736746213</v>
+        <v>-323.6218851952492</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006938109791891578</v>
+        <v>0.4815451776118252</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-684.8613909604387</v>
+        <v>9323.865643186102</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2999399150512803</v>
+        <v>2.418058107225402e-22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-286.8585968790343</v>
+        <v>20.89538154933762</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5102498071821149</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8342.557715268555</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.743362535909443e-20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.04517114475342</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06892428932073426</v>
+        <v>0.05206442984321862</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +7054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,10 +7086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3559.3172209468</v>
+        <v>3347.282210117361</v>
       </c>
       <c r="C2" t="n">
-        <v>5.3226195938063e-07</v>
+        <v>1.306677776218857e-07</v>
       </c>
     </row>
     <row r="3">
@@ -8217,10 +7099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.674041623457377</v>
+        <v>9.846264208323106</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8632719076302061</v>
+        <v>0.7402434404107067</v>
       </c>
     </row>
     <row r="4">
@@ -8230,10 +7112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.0203882156913</v>
+        <v>175.9184895613452</v>
       </c>
       <c r="C4" t="n">
-        <v>1.718287043601965e-17</v>
+        <v>2.283147615710231e-18</v>
       </c>
     </row>
     <row r="5">
@@ -8243,10 +7125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03410189308775347</v>
+        <v>-0.03384774904693524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1889185657321827</v>
+        <v>0.2686590386079571</v>
       </c>
     </row>
     <row r="6">
@@ -8256,10 +7138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.731496085116322e-06</v>
+        <v>-5.585448424715961e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8627124224632002</v>
+        <v>0.8600372887642971</v>
       </c>
     </row>
     <row r="7">
@@ -8269,75 +7151,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.73398141089578</v>
+        <v>-24.64136262506647</v>
       </c>
       <c r="C7" t="n">
-        <v>5.209514407801062e-06</v>
+        <v>2.18800958670178e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.343129404000018</v>
+        <v>-866.5450994209659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03400448494303754</v>
+        <v>0.05647807924951169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1258.840051342121</v>
+        <v>8721.647902765286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04320013186811797</v>
+        <v>5.264933855551533e-17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-322.3943849004827</v>
+        <v>31.24061357907708</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4344542353235612</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6911.12232981868</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.527658595751645e-15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-1.139855921750012</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9018508427118608</v>
+        <v>0.003849822559542838</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +7207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,10 +7239,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2657.972100941348</v>
+        <v>3447.913287924198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001950092035600168</v>
+        <v>5.515345671196794e-08</v>
       </c>
     </row>
     <row r="3">
@@ -8396,10 +7252,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.32712402089211</v>
+        <v>-1.633530210490736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7090946709344956</v>
+        <v>0.9566220945607831</v>
       </c>
     </row>
     <row r="4">
@@ -8409,10 +7265,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1196522170901</v>
+        <v>180.3412095430866</v>
       </c>
       <c r="C4" t="n">
-        <v>2.147199263993164e-16</v>
+        <v>2.943458217710657e-19</v>
       </c>
     </row>
     <row r="5">
@@ -8422,10 +7278,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008717265951654188</v>
+        <v>-0.01466150995395012</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7638723610978178</v>
+        <v>0.6347218926721454</v>
       </c>
     </row>
     <row r="6">
@@ -8435,10 +7291,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.168158325762984e-05</v>
+        <v>-2.5176246811975e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5616973650408773</v>
+        <v>0.4642604343843104</v>
       </c>
     </row>
     <row r="7">
@@ -8448,75 +7304,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.00269374820256</v>
+        <v>-26.68559178815406</v>
       </c>
       <c r="C7" t="n">
-        <v>6.007135150888585e-06</v>
+        <v>1.952201796033435e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.44130988462171</v>
+        <v>-576.2441157173409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005585644600561389</v>
+        <v>0.2209924672880151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-948.6158127238323</v>
+        <v>9359.080976460134</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1700903216865179</v>
+        <v>3.28729503192643e-22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-444.9364768670134</v>
+        <v>26.06985935972106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3001845568115351</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8584.089728424755</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.002416718867161e-21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.272441690880076</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3810392953564196</v>
+        <v>0.01588692042683464</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +7360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,10 +7392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2250.953270162533</v>
+        <v>3601.60001525767</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002074086116668336</v>
+        <v>3.16086697963967e-09</v>
       </c>
     </row>
     <row r="3">
@@ -8575,10 +7405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.24743995737471</v>
+        <v>37.82517951951179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3055202872473522</v>
+        <v>0.2184174421117403</v>
       </c>
     </row>
     <row r="4">
@@ -8588,10 +7418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.1059906295777</v>
+        <v>173.5375330383236</v>
       </c>
       <c r="C4" t="n">
-        <v>1.212702693062456e-13</v>
+        <v>1.427722701167488e-17</v>
       </c>
     </row>
     <row r="5">
@@ -8601,10 +7431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0169080482890428</v>
+        <v>-0.0101266460614743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5405077660865634</v>
+        <v>0.7456516141755793</v>
       </c>
     </row>
     <row r="6">
@@ -8614,10 +7444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.266437073084419e-05</v>
+        <v>-1.275671270583725e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7119003412574529</v>
+        <v>0.6973475089686155</v>
       </c>
     </row>
     <row r="7">
@@ -8627,75 +7457,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.64817362787846</v>
+        <v>-28.15711433372568</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001554032272094903</v>
+        <v>5.948904369366551e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.22075491545342</v>
+        <v>-335.7386275001979</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002200909884222032</v>
+        <v>0.4656316418732139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-669.9330642004115</v>
+        <v>9438.807963242485</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3091929669353706</v>
+        <v>1.211587815291204e-22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-585.3113731679067</v>
+        <v>18.60781016029895</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1955154532287177</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8140.96005695659</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.874779008968587e-20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12.59335153843445</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1980340530240912</v>
+        <v>0.07297429645501728</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +7513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,10 +7545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2180.70276210431</v>
+        <v>4796.731598881701</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001775669230008141</v>
+        <v>2.998412474984323e-14</v>
       </c>
     </row>
     <row r="3">
@@ -8754,10 +7558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.14106449597185</v>
+        <v>11.3247042864422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4789408054580424</v>
+        <v>0.702518248675477</v>
       </c>
     </row>
     <row r="4">
@@ -8767,10 +7571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.0153958412056</v>
+        <v>145.4830281686707</v>
       </c>
       <c r="C4" t="n">
-        <v>9.625583520687406e-18</v>
+        <v>1.243592565587182e-13</v>
       </c>
     </row>
     <row r="5">
@@ -8780,10 +7584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001149550697536694</v>
+        <v>-0.02348155113442219</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9653683073113901</v>
+        <v>0.4834688639665038</v>
       </c>
     </row>
     <row r="6">
@@ -8793,10 +7597,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.867853816544953e-05</v>
+        <v>-4.639462399082651e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5723637339583083</v>
+        <v>0.1646287838027581</v>
       </c>
     </row>
     <row r="7">
@@ -8806,75 +7610,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.87592185902359</v>
+        <v>-26.20656811957421</v>
       </c>
       <c r="C7" t="n">
-        <v>4.271387710537613e-05</v>
+        <v>2.322076285157554e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.25684691417401</v>
+        <v>-804.4085442409421</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003511227628675078</v>
+        <v>0.08597555109204676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-882.5276654727006</v>
+        <v>7515.237506961892</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1737154939008767</v>
+        <v>8.827685752216957e-13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-509.432379507979</v>
+        <v>10.11509206070878</v>
       </c>
       <c r="C10" t="n">
-        <v>0.220989128355846</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8122.713735571659</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.691304242404747e-21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10.46428689045759</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2628350122255435</v>
+        <v>0.3370131537749915</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +7666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,10 +7698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2510.200446820607</v>
+        <v>3562.67275359386</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006535700870012862</v>
+        <v>7.927020880604728e-09</v>
       </c>
     </row>
     <row r="3">
@@ -8933,10 +7711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5122519218727746</v>
+        <v>27.66767196699887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9852078708173632</v>
+        <v>0.3596695188424626</v>
       </c>
     </row>
     <row r="4">
@@ -8946,10 +7724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.277998006007</v>
+        <v>166.5342655767391</v>
       </c>
       <c r="C4" t="n">
-        <v>2.633369420738188e-17</v>
+        <v>2.043647069018902e-16</v>
       </c>
     </row>
     <row r="5">
@@ -8959,10 +7737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02745161970789884</v>
+        <v>-0.0345432608878328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3475560182926641</v>
+        <v>0.2856023566552487</v>
       </c>
     </row>
     <row r="6">
@@ -8972,10 +7750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.032849980166225e-06</v>
+        <v>3.119391679830884e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9063256356071796</v>
+        <v>0.9229764170395183</v>
       </c>
     </row>
     <row r="7">
@@ -8985,75 +7763,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.46884588688159</v>
+        <v>-28.18433512732526</v>
       </c>
       <c r="C7" t="n">
-        <v>6.576520267426946e-05</v>
+        <v>7.24979021389709e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.08684287539425</v>
+        <v>-296.5277499956227</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002570576964237919</v>
+        <v>0.5336614234983261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1103.468693958177</v>
+        <v>10137.12041351301</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09375984041044141</v>
+        <v>6.399406281190213e-25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-250.3111151727476</v>
+        <v>20.36901817534089</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5703762989697498</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6518.234678022483</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.196057078596084e-13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12.61516717521904</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1814219802075953</v>
+        <v>0.05928551942910068</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +7819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,10 +7851,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2518.908185493096</v>
+        <v>3310.84701840463</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003856689311008918</v>
+        <v>4.65824279422788e-08</v>
       </c>
     </row>
     <row r="3">
@@ -9112,10 +7864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.26239304693302</v>
+        <v>7.922414390611884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.303992664557686</v>
+        <v>0.7863870321439796</v>
       </c>
     </row>
     <row r="4">
@@ -9125,10 +7877,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.7578501924319</v>
+        <v>164.282710101258</v>
       </c>
       <c r="C4" t="n">
-        <v>1.403112198072542e-15</v>
+        <v>2.489158652324337e-16</v>
       </c>
     </row>
     <row r="5">
@@ -9138,10 +7890,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0222978683980192</v>
+        <v>-0.02950586920441162</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4088786973197416</v>
+        <v>0.3429507500605037</v>
       </c>
     </row>
     <row r="6">
@@ -9151,10 +7903,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.795151562466861e-06</v>
+        <v>1.246591266044355e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.792084086813445</v>
+        <v>0.7459137356909653</v>
       </c>
     </row>
     <row r="7">
@@ -9164,75 +7916,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.33964139259576</v>
+        <v>-29.05064322575738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003628611027520394</v>
+        <v>3.053603584397726e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.787991271399889</v>
+        <v>-528.7755290327759</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01226518803596364</v>
+        <v>0.2561200367341262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1430.035873439524</v>
+        <v>9681.689366642786</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02929545835933439</v>
+        <v>1.346307176727365e-24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-596.8943360136715</v>
+        <v>31.7893158225462</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1683236165696632</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8534.073225990018</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.81193854321125e-21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.037355095241217</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3509007270582639</v>
+        <v>0.002634586758470149</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +7972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,10 +8004,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2492.532531818893</v>
+        <v>2835.024693732661</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005321765307282765</v>
+        <v>3.450624417966923e-06</v>
       </c>
     </row>
     <row r="3">
@@ -9291,10 +8017,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.46041188529449</v>
+        <v>59.51672779700099</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2168994717060352</v>
+        <v>0.04586166596409432</v>
       </c>
     </row>
     <row r="4">
@@ -9304,10 +8030,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.208084143096</v>
+        <v>170.2398528465489</v>
       </c>
       <c r="C4" t="n">
-        <v>4.79956711997302e-14</v>
+        <v>3.365156729863588e-18</v>
       </c>
     </row>
     <row r="5">
@@ -9317,10 +8043,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03793413014215497</v>
+        <v>-0.004283443001367397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2257342053573052</v>
+        <v>0.8794014537297126</v>
       </c>
     </row>
     <row r="6">
@@ -9330,10 +8056,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.294488656433429e-06</v>
+        <v>8.892000159719632e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9225094024750816</v>
+        <v>0.9766612654761797</v>
       </c>
     </row>
     <row r="7">
@@ -9343,75 +8069,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.68199861589663</v>
+        <v>-31.42211185260619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001282631532036429</v>
+        <v>3.550326062550854e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.45526467719036</v>
+        <v>-324.2510792128335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002171294038027904</v>
+        <v>0.4573511471607519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-143.5643473869723</v>
+        <v>8623.404545474777</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8383145421680449</v>
+        <v>6.742316022025508e-21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-72.89550665752699</v>
+        <v>40.09595967831548</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8706406891484753</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7114.44599558813</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.749541699740831e-16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.079451299829643</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4057547733959112</v>
+        <v>0.0001868634182554515</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/France_other.xlsx
+++ b/outputs/ML_Results/dist_LR/France_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ00633037" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ00791855" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ00945460" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ01094297" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ01233403" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ01377451" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ01510845" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ01644290" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ01777593" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ02059566" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ02234384" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ02377611" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ02524901" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ02660984" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ02894377" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ03138476" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ03277442" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ03410848" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ03559267" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ03708644" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ03911325" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ04060848" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ04201501" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ04366569" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ04850927" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ05283939" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ05559470" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ05912296" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ06309358" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ06707659" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ07131709" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ07564310" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ07922236" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ08342729" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ08764922" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ09211812" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ09635094" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ10057197" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ10503708" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ10895689" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ11278490" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ11699032" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ12131052" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ12564715" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ12974250" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ13415294" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ13856615" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ14274684" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ14659413" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ14828389" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ12689044" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ12806923" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ12927322" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ13071598" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ13211235" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ13359239" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ13504947" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ13667736" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ13806003" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ13959166" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ14123249" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ14274540" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ14422253" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ14591529" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ14760112" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ14930099" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ15103223" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ15290530" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ15465764" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ15655539" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ15840075" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ16007035" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ16168989" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ16342535" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ16522231" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ16689686" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ16857846" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ17021883" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ17204201" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ17374210" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ17535148" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ17757191" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ17909588" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ18064072" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ18221879" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ18371807" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ18538465" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ18688512" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ18838450" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ19016862" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ19186646" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ19340608" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ19505608" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ19664189" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ19825027" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ20009819" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ20170854" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ20338266" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ20488445" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ20665053" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3963.764320808126</v>
+        <v>4192.859688919649</v>
       </c>
       <c r="C2" t="n">
-        <v>2.00000017143174e-10</v>
+        <v>2.182057991329513e-12</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.72698974633214</v>
+        <v>10.09440166045992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3623999081057853</v>
+        <v>0.7163513777460303</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.1534089527311</v>
+        <v>176.1161684949688</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16243934376204e-17</v>
+        <v>3.317675248818602e-19</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02568740616706636</v>
+        <v>-0.03975518756600747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4365306192089198</v>
+        <v>0.2268400051412837</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.410355641995812e-05</v>
+        <v>-4.609311554855753e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4816109465950615</v>
+        <v>0.1474477760458154</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.47804969276163</v>
+        <v>-24.9905633004031</v>
       </c>
       <c r="C7" t="n">
-        <v>1.298420904840674e-07</v>
+        <v>4.731859042491603e-07</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-382.0560008263104</v>
+        <v>-336.9759577392307</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4179174696659335</v>
+        <v>0.4323546758861635</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10011.78651264317</v>
+        <v>7968.18779930989</v>
       </c>
       <c r="C9" t="n">
-        <v>1.312826455797675e-23</v>
+        <v>2.381182484140003e-16</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.37711179074548</v>
+        <v>13.50216313526285</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3376827364549426</v>
+        <v>0.1749044499963271</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2917.613404635164</v>
+        <v>3460.986835129127</v>
       </c>
       <c r="C2" t="n">
-        <v>2.44126607859724e-06</v>
+        <v>6.98534307958536e-09</v>
       </c>
     </row>
     <row r="3">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.2848652046887</v>
+        <v>54.16320845556497</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1233157688186976</v>
+        <v>0.06997214898579134</v>
       </c>
     </row>
     <row r="4">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.1733139064295</v>
+        <v>168.3152135874057</v>
       </c>
       <c r="C4" t="n">
-        <v>3.738469482555077e-17</v>
+        <v>3.62609168993002e-17</v>
       </c>
     </row>
     <row r="5">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0342939376472867</v>
+        <v>-0.03231900825039733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2872204445099824</v>
+        <v>0.2989136604556287</v>
       </c>
     </row>
     <row r="6">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.960152153887593e-05</v>
+        <v>-2.296138654174276e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5839666981311187</v>
+        <v>0.4939622033680706</v>
       </c>
     </row>
     <row r="7">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.89712213537133</v>
+        <v>-24.08477035108455</v>
       </c>
       <c r="C7" t="n">
-        <v>1.546788911717962e-05</v>
+        <v>2.493138608182089e-06</v>
       </c>
     </row>
     <row r="8">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-684.1168627886568</v>
+        <v>-501.8725475604601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1396456215375235</v>
+        <v>0.2593466812953092</v>
       </c>
     </row>
     <row r="9">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10017.42202702791</v>
+        <v>9297.496540713597</v>
       </c>
       <c r="C9" t="n">
-        <v>2.467388803555421e-24</v>
+        <v>1.837380245174439e-22</v>
       </c>
     </row>
     <row r="10">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.53339732331091</v>
+        <v>21.91927687645675</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002693649379566315</v>
+        <v>0.03310636190781076</v>
       </c>
     </row>
   </sheetData>
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4293.915956241081</v>
+        <v>3019.552343366677</v>
       </c>
       <c r="C2" t="n">
-        <v>7.681270962021731e-13</v>
+        <v>1.329210161553668e-07</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.69548710482963</v>
+        <v>10.48087716073696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4952561258925527</v>
+        <v>0.7050648467199976</v>
       </c>
     </row>
     <row r="4">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.3442906250032</v>
+        <v>167.567681161351</v>
       </c>
       <c r="C4" t="n">
-        <v>1.627326105422684e-15</v>
+        <v>1.406106564428688e-18</v>
       </c>
     </row>
     <row r="5">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06098745856291962</v>
+        <v>-0.04497141098871519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04724476899414519</v>
+        <v>0.1426091256297251</v>
       </c>
     </row>
     <row r="6">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.501655073104421e-05</v>
+        <v>-3.006475072624577e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4805036250262109</v>
+        <v>0.3063368545512785</v>
       </c>
     </row>
     <row r="7">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.90016255495352</v>
+        <v>-17.59162715727636</v>
       </c>
       <c r="C7" t="n">
-        <v>1.108754978550834e-09</v>
+        <v>0.00033938125219413</v>
       </c>
     </row>
     <row r="8">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-353.2991472669283</v>
+        <v>-619.4775169299174</v>
       </c>
       <c r="C8" t="n">
-        <v>0.443535457374979</v>
+        <v>0.1418798968161033</v>
       </c>
     </row>
     <row r="9">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8935.359446029948</v>
+        <v>9687.349190065808</v>
       </c>
       <c r="C9" t="n">
-        <v>8.046019984960357e-19</v>
+        <v>7.625351933847263e-26</v>
       </c>
     </row>
     <row r="10">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.97946008262537</v>
+        <v>28.58833228870674</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1770497393956147</v>
+        <v>0.003423705996652704</v>
       </c>
     </row>
   </sheetData>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3364.04420016108</v>
+        <v>3888.48330280998</v>
       </c>
       <c r="C2" t="n">
-        <v>7.839364046778443e-08</v>
+        <v>4.274818057133312e-10</v>
       </c>
     </row>
     <row r="3">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.54698539165418</v>
+        <v>26.36880087297981</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1404438371496837</v>
+        <v>0.3658771294354328</v>
       </c>
     </row>
     <row r="4">
@@ -992,10 +992,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.2274538693935</v>
+        <v>159.5260057497219</v>
       </c>
       <c r="C4" t="n">
-        <v>1.339392477682084e-16</v>
+        <v>1.003380339762621e-15</v>
       </c>
     </row>
     <row r="5">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004779021990985441</v>
+        <v>-0.01681226435179393</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8761609634906444</v>
+        <v>0.5934378612724804</v>
       </c>
     </row>
     <row r="6">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.64669865574905e-05</v>
+        <v>-3.389851380764604e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4433825285723273</v>
+        <v>0.3941527222875343</v>
       </c>
     </row>
     <row r="7">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.23104366731522</v>
+        <v>-28.29476768395594</v>
       </c>
       <c r="C7" t="n">
-        <v>5.200194924058863e-07</v>
+        <v>6.937047303455115e-08</v>
       </c>
     </row>
     <row r="8">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-560.2504632910988</v>
+        <v>-649.2560844644424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2332137688645205</v>
+        <v>0.1581838100954478</v>
       </c>
     </row>
     <row r="9">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8526.401763926029</v>
+        <v>9107.923238497715</v>
       </c>
       <c r="C9" t="n">
-        <v>2.900496150387032e-18</v>
+        <v>3.577694613813254e-21</v>
       </c>
     </row>
     <row r="10">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.0672411951012</v>
+        <v>21.777371556525</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007088701622186069</v>
+        <v>0.04585124900187768</v>
       </c>
     </row>
   </sheetData>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3832.792310020563</v>
+        <v>3963.485428722602</v>
       </c>
       <c r="C2" t="n">
-        <v>4.198446819938703e-10</v>
+        <v>2.131779785619903e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.80631777868058</v>
+        <v>24.22315833454758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2854021849555426</v>
+        <v>0.4119294817653283</v>
       </c>
     </row>
     <row r="4">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.1512889379582</v>
+        <v>153.4058013948888</v>
       </c>
       <c r="C4" t="n">
-        <v>1.099112342436528e-17</v>
+        <v>3.305459469885653e-15</v>
       </c>
     </row>
     <row r="5">
@@ -1158,10 +1158,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0254141379086555</v>
+        <v>-0.02892259155235168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4025767994284879</v>
+        <v>0.3317875033516106</v>
       </c>
     </row>
     <row r="6">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.199779973661783e-05</v>
+        <v>-1.642647955891046e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3177982653106433</v>
+        <v>0.6055204500264073</v>
       </c>
     </row>
     <row r="7">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.75856834221814</v>
+        <v>-29.42879560242291</v>
       </c>
       <c r="C7" t="n">
-        <v>1.735336108121006e-07</v>
+        <v>6.272194114750535e-09</v>
       </c>
     </row>
     <row r="8">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-557.6828856565976</v>
+        <v>-435.476285367035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2187015513373733</v>
+        <v>0.3422802350468473</v>
       </c>
     </row>
     <row r="9">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9486.667725684089</v>
+        <v>7809.699241061693</v>
       </c>
       <c r="C9" t="n">
-        <v>1.511230371597104e-24</v>
+        <v>3.562166878497121e-15</v>
       </c>
     </row>
     <row r="10">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.73921469611761</v>
+        <v>25.8911259679012</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1060722018647727</v>
+        <v>0.01399421756061791</v>
       </c>
     </row>
   </sheetData>
@@ -1272,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2909.078069214348</v>
+        <v>3509.784222758395</v>
       </c>
       <c r="C2" t="n">
-        <v>3.127707200051521e-06</v>
+        <v>4.420257923372391e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.67197229844289</v>
+        <v>25.13365146378232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.411795549262415</v>
+        <v>0.4052486228859946</v>
       </c>
     </row>
     <row r="4">
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8718712070927</v>
+        <v>183.0823703167057</v>
       </c>
       <c r="C4" t="n">
-        <v>5.260599867692475e-14</v>
+        <v>2.550213876864556e-19</v>
       </c>
     </row>
     <row r="5">
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01368184165408647</v>
+        <v>0.005981152259065398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6836578811810277</v>
+        <v>0.8478661334419627</v>
       </c>
     </row>
     <row r="6">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.49450339395265e-06</v>
+        <v>-3.984027354664163e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.843620253576589</v>
+        <v>0.2121178178234071</v>
       </c>
     </row>
     <row r="7">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.84906354214922</v>
+        <v>-29.8298913457896</v>
       </c>
       <c r="C7" t="n">
-        <v>3.062767333901492e-08</v>
+        <v>4.141176457989607e-09</v>
       </c>
     </row>
     <row r="8">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-704.234457707536</v>
+        <v>-653.9853824561574</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1298646431621045</v>
+        <v>0.1530535702852363</v>
       </c>
     </row>
     <row r="9">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9744.411619646486</v>
+        <v>8744.122450018571</v>
       </c>
       <c r="C9" t="n">
-        <v>9.836108841516526e-23</v>
+        <v>4.571142623301148e-21</v>
       </c>
     </row>
     <row r="10">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.37174697018914</v>
+        <v>28.00277449810886</v>
       </c>
       <c r="C10" t="n">
-        <v>8.437810339136547e-05</v>
+        <v>0.006639504167154323</v>
       </c>
     </row>
   </sheetData>
@@ -1425,10 +1425,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2933.975949555579</v>
+        <v>3311.647461713098</v>
       </c>
       <c r="C2" t="n">
-        <v>2.361161496524853e-06</v>
+        <v>3.075099850511113e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.54075715834428</v>
+        <v>37.65099465753307</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2805303000783411</v>
+        <v>0.1716069440003012</v>
       </c>
     </row>
     <row r="4">
@@ -1451,10 +1451,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.9697249957615</v>
+        <v>167.2941127447598</v>
       </c>
       <c r="C4" t="n">
-        <v>1.402053689130952e-17</v>
+        <v>1.535204281164028e-18</v>
       </c>
     </row>
     <row r="5">
@@ -1464,10 +1464,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02246104592495146</v>
+        <v>-0.0137410428530165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4802057085375119</v>
+        <v>0.6539004938535371</v>
       </c>
     </row>
     <row r="6">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.02020454409207e-06</v>
+        <v>8.539617689182674e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9533954798579996</v>
+        <v>0.7894929984482433</v>
       </c>
     </row>
     <row r="7">
@@ -1490,10 +1490,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.81948298397712</v>
+        <v>-30.01361007600445</v>
       </c>
       <c r="C7" t="n">
-        <v>7.322286292460239e-07</v>
+        <v>1.380328980163352e-09</v>
       </c>
     </row>
     <row r="8">
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-410.3216010281092</v>
+        <v>-384.9239799076987</v>
       </c>
       <c r="C8" t="n">
-        <v>0.371819147837151</v>
+        <v>0.362659708684276</v>
       </c>
     </row>
     <row r="9">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9614.336124361689</v>
+        <v>10399.23523682271</v>
       </c>
       <c r="C9" t="n">
-        <v>4.434664047224966e-23</v>
+        <v>6.794778895973494e-27</v>
       </c>
     </row>
     <row r="10">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.65411542424659</v>
+        <v>23.89358554352055</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002853400445609734</v>
+        <v>0.01702716051228582</v>
       </c>
     </row>
   </sheetData>
@@ -1578,10 +1578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3548.129985277021</v>
+        <v>3692.685873059163</v>
       </c>
       <c r="C2" t="n">
-        <v>3.331687693240633e-08</v>
+        <v>1.407031639300641e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.93898194598442</v>
+        <v>8.727981211762277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.630881974972092</v>
+        <v>0.7610703753518441</v>
       </c>
     </row>
     <row r="4">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.0385382351339</v>
+        <v>168.926821744432</v>
       </c>
       <c r="C4" t="n">
-        <v>7.252416373660869e-16</v>
+        <v>3.510063385843129e-18</v>
       </c>
     </row>
     <row r="5">
@@ -1617,10 +1617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02863136267883731</v>
+        <v>-0.03182185562408101</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3924535913476749</v>
+        <v>0.310330238055669</v>
       </c>
     </row>
     <row r="6">
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.449384245011141e-05</v>
+        <v>-7.63220053342687e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4870194766719176</v>
+        <v>0.8243377793176019</v>
       </c>
     </row>
     <row r="7">
@@ -1643,10 +1643,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.36715369891073</v>
+        <v>-27.08662898723118</v>
       </c>
       <c r="C7" t="n">
-        <v>1.835890656213935e-06</v>
+        <v>1.294054314891223e-07</v>
       </c>
     </row>
     <row r="8">
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-637.5163133064743</v>
+        <v>-510.3291747819152</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1841770188428851</v>
+        <v>0.2642604387917181</v>
       </c>
     </row>
     <row r="9">
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9441.810305920748</v>
+        <v>8527.960936269317</v>
       </c>
       <c r="C9" t="n">
-        <v>1.878846445801995e-20</v>
+        <v>2.483902796970035e-19</v>
       </c>
     </row>
     <row r="10">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.33375507805969</v>
+        <v>25.28581556722597</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01930463270090897</v>
+        <v>0.01341926165937069</v>
       </c>
     </row>
   </sheetData>
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3730.464848263914</v>
+        <v>4092.692616702611</v>
       </c>
       <c r="C2" t="n">
-        <v>7.856462945163715e-10</v>
+        <v>1.753316761022969e-11</v>
       </c>
     </row>
     <row r="3">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.04537353568082</v>
+        <v>37.45867651053855</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2631600811499855</v>
+        <v>0.1931571675682301</v>
       </c>
     </row>
     <row r="4">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.0964290528358</v>
+        <v>150.3258544094345</v>
       </c>
       <c r="C4" t="n">
-        <v>5.262584811483801e-16</v>
+        <v>1.181979058740857e-14</v>
       </c>
     </row>
     <row r="5">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04904157430030161</v>
+        <v>-0.02444296833262434</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1026663408607271</v>
+        <v>0.4401694368181552</v>
       </c>
     </row>
     <row r="6">
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.620626203391518e-05</v>
+        <v>-2.279517159983451e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1849955210364063</v>
+        <v>0.4896461770491743</v>
       </c>
     </row>
     <row r="7">
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.02237634765439</v>
+        <v>-28.77967357840528</v>
       </c>
       <c r="C7" t="n">
-        <v>5.787273669392159e-10</v>
+        <v>1.340617463866209e-08</v>
       </c>
     </row>
     <row r="8">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-401.3614797473829</v>
+        <v>-371.838373233154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3768618780703338</v>
+        <v>0.409697432841758</v>
       </c>
     </row>
     <row r="9">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7374.091037307739</v>
+        <v>9577.768045861074</v>
       </c>
       <c r="C9" t="n">
-        <v>6.545344697213785e-14</v>
+        <v>6.616554116898738e-23</v>
       </c>
     </row>
     <row r="10">
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.93116067116136</v>
+        <v>12.79507369806173</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003489656827215046</v>
+        <v>0.220175201563583</v>
       </c>
     </row>
   </sheetData>
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3191.318715913166</v>
+        <v>4131.788984440305</v>
       </c>
       <c r="C2" t="n">
-        <v>9.832476112506826e-08</v>
+        <v>9.945525051960536e-12</v>
       </c>
     </row>
     <row r="3">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.53092885977945</v>
+        <v>5.653396399263141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1252969298813513</v>
+        <v>0.843467058783927</v>
       </c>
     </row>
     <row r="4">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.4190932933986</v>
+        <v>157.2328208997936</v>
       </c>
       <c r="C4" t="n">
-        <v>4.751372139321752e-15</v>
+        <v>1.43601227586222e-15</v>
       </c>
     </row>
     <row r="5">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03053783074533611</v>
+        <v>-0.01923593344862203</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3086366102200128</v>
+        <v>0.5215304205615289</v>
       </c>
     </row>
     <row r="6">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.569592002645243e-06</v>
+        <v>-3.349878726192028e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.865507243772543</v>
+        <v>0.3179024704617207</v>
       </c>
     </row>
     <row r="7">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.35105189829567</v>
+        <v>-29.27470097539884</v>
       </c>
       <c r="C7" t="n">
-        <v>5.653548738976743e-08</v>
+        <v>8.241570188109895e-09</v>
       </c>
     </row>
     <row r="8">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-449.0165833134141</v>
+        <v>-795.5783987910713</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3233431299236126</v>
+        <v>0.07441684027144746</v>
       </c>
     </row>
     <row r="9">
@@ -1975,10 +1975,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10280.24365057804</v>
+        <v>7954.604264978194</v>
       </c>
       <c r="C9" t="n">
-        <v>2.046386359401902e-27</v>
+        <v>2.913248382751608e-16</v>
       </c>
     </row>
     <row r="10">
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.33518918581222</v>
+        <v>25.9318321316718</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007061213684689079</v>
+        <v>0.01177353518152494</v>
       </c>
     </row>
   </sheetData>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3230.245900310941</v>
+        <v>3397.387264258425</v>
       </c>
       <c r="C2" t="n">
-        <v>9.877157842573215e-08</v>
+        <v>1.659225596938686e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.73209275248261</v>
+        <v>34.55960224684487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2930488838958193</v>
+        <v>0.2364737548939758</v>
       </c>
     </row>
     <row r="4">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.0550664464117</v>
+        <v>177.9667732710959</v>
       </c>
       <c r="C4" t="n">
-        <v>1.332412580073332e-20</v>
+        <v>5.797769099486454e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01524518799848123</v>
+        <v>-0.02282769006086557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6217887863313279</v>
+        <v>0.4608824452418286</v>
       </c>
     </row>
     <row r="6">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.598040867869927e-06</v>
+        <v>-1.716277988979499e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8366375864120257</v>
+        <v>0.5789145195622512</v>
       </c>
     </row>
     <row r="7">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.39791379744371</v>
+        <v>-25.98558307639485</v>
       </c>
       <c r="C7" t="n">
-        <v>9.275579315514077e-08</v>
+        <v>2.551048326444183e-07</v>
       </c>
     </row>
     <row r="8">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-390.6496847423291</v>
+        <v>-285.1496102567755</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3896224668154815</v>
+        <v>0.5195692331802937</v>
       </c>
     </row>
     <row r="9">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9611.460790140269</v>
+        <v>9204.106919143151</v>
       </c>
       <c r="C9" t="n">
-        <v>1.857567942001951e-24</v>
+        <v>5.912491489029464e-23</v>
       </c>
     </row>
     <row r="10">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.15064547202174</v>
+        <v>22.19645684052699</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02953378952131279</v>
+        <v>0.03346399109526251</v>
       </c>
     </row>
   </sheetData>
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4086.003197927608</v>
+        <v>3745.797038758166</v>
       </c>
       <c r="C2" t="n">
-        <v>4.057250337075906e-11</v>
+        <v>8.322010079744817e-09</v>
       </c>
     </row>
     <row r="3">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.98466326829973</v>
+        <v>6.331722552243647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2750648370828129</v>
+        <v>0.8377208012229114</v>
       </c>
     </row>
     <row r="4">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.9044879098964</v>
+        <v>173.2212046186711</v>
       </c>
       <c r="C4" t="n">
-        <v>7.744243539592775e-14</v>
+        <v>2.257999438816588e-17</v>
       </c>
     </row>
     <row r="5">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03880239909884833</v>
+        <v>-0.02637688206261909</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2542407284890956</v>
+        <v>0.4339955749337266</v>
       </c>
     </row>
     <row r="6">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.156361311462232e-05</v>
+        <v>-2.362314300493504e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7234222465719202</v>
+        <v>0.4745902069053889</v>
       </c>
     </row>
     <row r="7">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.94150640906155</v>
+        <v>-27.06438725538402</v>
       </c>
       <c r="C7" t="n">
-        <v>1.173657411814061e-07</v>
+        <v>7.612932329034208e-07</v>
       </c>
     </row>
     <row r="8">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-662.0877638137742</v>
+        <v>-519.5753023479998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1467473004471161</v>
+        <v>0.2740138242833343</v>
       </c>
     </row>
     <row r="9">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7293.793684812641</v>
+        <v>9054.954931128817</v>
       </c>
       <c r="C9" t="n">
-        <v>2.064072324844722e-13</v>
+        <v>1.573589527131978e-19</v>
       </c>
     </row>
     <row r="10">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.33003843207991</v>
+        <v>21.99130080605529</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01287003593910372</v>
+        <v>0.04309357959420376</v>
       </c>
     </row>
   </sheetData>
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3807.76320217596</v>
+        <v>2499.936628689329</v>
       </c>
       <c r="C2" t="n">
-        <v>1.211936725256977e-09</v>
+        <v>2.276082119043081e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.30015431713413</v>
+        <v>44.18241473274706</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3933295148146035</v>
+        <v>0.1271534643976749</v>
       </c>
     </row>
     <row r="4">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.9776647661691</v>
+        <v>173.2486407693539</v>
       </c>
       <c r="C4" t="n">
-        <v>6.768851550799027e-14</v>
+        <v>3.560328623770367e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007757035052396645</v>
+        <v>0.00522115970768434</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8102070748062076</v>
+        <v>0.8593158570648209</v>
       </c>
     </row>
     <row r="6">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.862530836688761e-05</v>
+        <v>-2.855367595706854e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08725549806373037</v>
+        <v>0.3657325648418026</v>
       </c>
     </row>
     <row r="7">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.96445932896853</v>
+        <v>-25.85796042024143</v>
       </c>
       <c r="C7" t="n">
-        <v>3.603041668677647e-07</v>
+        <v>1.633767771326747e-07</v>
       </c>
     </row>
     <row r="8">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-727.2359005298974</v>
+        <v>-726.9886092102627</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1162868394014386</v>
+        <v>0.08643890647378118</v>
       </c>
     </row>
     <row r="9">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9288.921563191408</v>
+        <v>10267.29797256862</v>
       </c>
       <c r="C9" t="n">
-        <v>3.723484181385043e-21</v>
+        <v>2.386796365564297e-27</v>
       </c>
     </row>
     <row r="10">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.70239887796214</v>
+        <v>41.20046765701925</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01774068239836092</v>
+        <v>5.327161404454407e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3301.209808638679</v>
+        <v>3205.316452669374</v>
       </c>
       <c r="C2" t="n">
-        <v>3.284068149015665e-08</v>
+        <v>1.18586658987611e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.23936115126033</v>
+        <v>48.23607299882816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4412699583919166</v>
+        <v>0.1133936377415012</v>
       </c>
     </row>
     <row r="4">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.2822491054347</v>
+        <v>188.9748233812484</v>
       </c>
       <c r="C4" t="n">
-        <v>4.317781262439305e-16</v>
+        <v>1.272120864697709e-20</v>
       </c>
     </row>
     <row r="5">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005600122268603815</v>
+        <v>-0.01706800986894173</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8568100813727264</v>
+        <v>0.5657842807084528</v>
       </c>
     </row>
     <row r="6">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.32675703510698e-06</v>
+        <v>-4.960907813404629e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9181750315785303</v>
+        <v>0.8762245309784659</v>
       </c>
     </row>
     <row r="7">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-33.82207561681646</v>
+        <v>-25.09192477325761</v>
       </c>
       <c r="C7" t="n">
-        <v>7.960014368119176e-11</v>
+        <v>8.646152828489703e-07</v>
       </c>
     </row>
     <row r="8">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-362.2532675439351</v>
+        <v>-774.9866290680869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4259830672150904</v>
+        <v>0.08224226336404107</v>
       </c>
     </row>
     <row r="9">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8670.386673688741</v>
+        <v>9017.981386052288</v>
       </c>
       <c r="C9" t="n">
-        <v>1.555622011514547e-20</v>
+        <v>8.271536144591752e-22</v>
       </c>
     </row>
     <row r="10">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.64208223913131</v>
+        <v>26.61748070122441</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004961848622089816</v>
+        <v>0.01041940247039817</v>
       </c>
     </row>
   </sheetData>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3201.655876825291</v>
+        <v>3453.96103026604</v>
       </c>
       <c r="C2" t="n">
-        <v>3.51017502312965e-07</v>
+        <v>3.041128908745556e-09</v>
       </c>
     </row>
     <row r="3">
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.55152701574048</v>
+        <v>6.61018992098289</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4772984629699566</v>
+        <v>0.8108889514291113</v>
       </c>
     </row>
     <row r="4">
@@ -2675,10 +2675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.9248137034193</v>
+        <v>166.7915948633126</v>
       </c>
       <c r="C4" t="n">
-        <v>1.058877700284648e-16</v>
+        <v>1.99506601775741e-18</v>
       </c>
     </row>
     <row r="5">
@@ -2688,10 +2688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01955562157883342</v>
+        <v>-0.01618795512923338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5214740952849496</v>
+        <v>0.587340995368447</v>
       </c>
     </row>
     <row r="6">
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.127307592308401e-05</v>
+        <v>-2.58422476446587e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7367890392923672</v>
+        <v>0.3931961141674147</v>
       </c>
     </row>
     <row r="7">
@@ -2714,10 +2714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.12787450156433</v>
+        <v>-28.27270927274997</v>
       </c>
       <c r="C7" t="n">
-        <v>7.248222745952056e-08</v>
+        <v>1.03168919791079e-08</v>
       </c>
     </row>
     <row r="8">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-477.6641005632862</v>
+        <v>-461.3421342913387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3029532479610039</v>
+        <v>0.2842634270008157</v>
       </c>
     </row>
     <row r="9">
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9656.023669237373</v>
+        <v>10052.29507430355</v>
       </c>
       <c r="C9" t="n">
-        <v>3.182647680520543e-23</v>
+        <v>1.268619044182876e-28</v>
       </c>
     </row>
     <row r="10">
@@ -2753,10 +2753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.70454202165843</v>
+        <v>26.15990616995438</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003988302228424452</v>
+        <v>0.009635608952911009</v>
       </c>
     </row>
   </sheetData>
@@ -2802,10 +2802,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3400.395402251434</v>
+        <v>3923.816891504849</v>
       </c>
       <c r="C2" t="n">
-        <v>3.354870689339795e-08</v>
+        <v>1.829238980977764e-10</v>
       </c>
     </row>
     <row r="3">
@@ -2815,10 +2815,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.55133029515746</v>
+        <v>22.21648397942346</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2684885959804781</v>
+        <v>0.4543839751910169</v>
       </c>
     </row>
     <row r="4">
@@ -2828,10 +2828,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.2473661727634</v>
+        <v>155.4882856695484</v>
       </c>
       <c r="C4" t="n">
-        <v>4.684399341569393e-16</v>
+        <v>5.69812520263571e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04910957366003164</v>
+        <v>-0.03209096628285806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1450414604568401</v>
+        <v>0.3030404665394694</v>
       </c>
     </row>
     <row r="6">
@@ -2854,10 +2854,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.24035744031554e-07</v>
+        <v>-1.453733852955244e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9873591703743696</v>
+        <v>0.6933676033069209</v>
       </c>
     </row>
     <row r="7">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.99558141712766</v>
+        <v>-27.88108775762684</v>
       </c>
       <c r="C7" t="n">
-        <v>2.065586907041749e-06</v>
+        <v>1.03125098974976e-07</v>
       </c>
     </row>
     <row r="8">
@@ -2880,10 +2880,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-625.7111490253751</v>
+        <v>-702.8696055829587</v>
       </c>
       <c r="C8" t="n">
-        <v>0.191127455195051</v>
+        <v>0.1315654342164538</v>
       </c>
     </row>
     <row r="9">
@@ -2893,10 +2893,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9489.944281722534</v>
+        <v>9154.124616914023</v>
       </c>
       <c r="C9" t="n">
-        <v>8.322486381506009e-23</v>
+        <v>2.122244865750926e-22</v>
       </c>
     </row>
     <row r="10">
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.28577706201165</v>
+        <v>22.91239167220595</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008183496364724596</v>
+        <v>0.02807543186224844</v>
       </c>
     </row>
   </sheetData>
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4018.396692195035</v>
+        <v>3811.961881844959</v>
       </c>
       <c r="C2" t="n">
-        <v>1.295537574860258e-10</v>
+        <v>2.566869654028889e-10</v>
       </c>
     </row>
     <row r="3">
@@ -2968,10 +2968,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.77971366538842</v>
+        <v>0.04063775345904297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2204813013411368</v>
+        <v>0.9988656534440146</v>
       </c>
     </row>
     <row r="4">
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.5868811987935</v>
+        <v>170.2590194027647</v>
       </c>
       <c r="C4" t="n">
-        <v>3.730251577226649e-15</v>
+        <v>6.987855219916904e-18</v>
       </c>
     </row>
     <row r="5">
@@ -2994,10 +2994,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03910830036952542</v>
+        <v>-0.04096126749628529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2242199732787248</v>
+        <v>0.1990297365448361</v>
       </c>
     </row>
     <row r="6">
@@ -3007,10 +3007,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.480290364396643e-05</v>
+        <v>-1.575903299766769e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6636695334947831</v>
+        <v>0.6186362495870766</v>
       </c>
     </row>
     <row r="7">
@@ -3020,10 +3020,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.79991785048487</v>
+        <v>-27.06123749887468</v>
       </c>
       <c r="C7" t="n">
-        <v>4.667285244853466e-07</v>
+        <v>4.664279028027494e-08</v>
       </c>
     </row>
     <row r="8">
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-526.8935726273829</v>
+        <v>-48.84970067143001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2643638358775814</v>
+        <v>0.9113774740417634</v>
       </c>
     </row>
     <row r="9">
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9364.613307659522</v>
+        <v>8673.391352644092</v>
       </c>
       <c r="C9" t="n">
-        <v>7.39933456443808e-22</v>
+        <v>9.343184878580727e-18</v>
       </c>
     </row>
     <row r="10">
@@ -3059,10 +3059,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.75129342755767</v>
+        <v>18.69558541766629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1647338898520337</v>
+        <v>0.06356029725737562</v>
       </c>
     </row>
   </sheetData>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3449.470520233008</v>
+        <v>3505.2298969615</v>
       </c>
       <c r="C2" t="n">
-        <v>2.674811865598662e-08</v>
+        <v>1.219189253876584e-08</v>
       </c>
     </row>
     <row r="3">
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.85227620493973</v>
+        <v>53.85319588209082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2231595475228791</v>
+        <v>0.05373247637958235</v>
       </c>
     </row>
     <row r="4">
@@ -3134,10 +3134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.2409486956743</v>
+        <v>144.8999123674394</v>
       </c>
       <c r="C4" t="n">
-        <v>6.858603164243738e-17</v>
+        <v>1.825204418595583e-14</v>
       </c>
     </row>
     <row r="5">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02182550698210427</v>
+        <v>0.01064630965781038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.462727698972985</v>
+        <v>0.7312884759933773</v>
       </c>
     </row>
     <row r="6">
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.810606112927077e-05</v>
+        <v>-5.374858706268452e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5598119560781114</v>
+        <v>0.10476460727671</v>
       </c>
     </row>
     <row r="7">
@@ -3173,10 +3173,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.91261419982037</v>
+        <v>-27.55910386215515</v>
       </c>
       <c r="C7" t="n">
-        <v>3.161392732616731e-07</v>
+        <v>3.682936884048124e-08</v>
       </c>
     </row>
     <row r="8">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-611.5375055177208</v>
+        <v>-761.2472768023929</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1677839773049586</v>
+        <v>0.08235032435754619</v>
       </c>
     </row>
     <row r="9">
@@ -3199,10 +3199,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9166.409921180084</v>
+        <v>8429.996610799964</v>
       </c>
       <c r="C9" t="n">
-        <v>2.750803218824762e-18</v>
+        <v>1.304574240882814e-17</v>
       </c>
     </row>
     <row r="10">
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.66464441930691</v>
+        <v>31.70866417176754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02173568868834711</v>
+        <v>0.002586324020620057</v>
       </c>
     </row>
   </sheetData>
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3799.034387901088</v>
+        <v>3800.819299810892</v>
       </c>
       <c r="C2" t="n">
-        <v>1.343166843273308e-09</v>
+        <v>2.240874284517733e-09</v>
       </c>
     </row>
     <row r="3">
@@ -3274,10 +3274,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.8003846973083</v>
+        <v>38.87577160975304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4712175711716572</v>
+        <v>0.2075069660513971</v>
       </c>
     </row>
     <row r="4">
@@ -3287,10 +3287,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.5951973820319</v>
+        <v>162.4234126296523</v>
       </c>
       <c r="C4" t="n">
-        <v>1.187819739556744e-18</v>
+        <v>7.814829230097451e-16</v>
       </c>
     </row>
     <row r="5">
@@ -3300,10 +3300,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04205364192738782</v>
+        <v>-0.02851353693388815</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1807573108226062</v>
+        <v>0.3745827819857763</v>
       </c>
     </row>
     <row r="6">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.016365049469304e-07</v>
+        <v>-1.206421564988003e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9925164679807685</v>
+        <v>0.7220173861348903</v>
       </c>
     </row>
     <row r="7">
@@ -3326,10 +3326,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.40959132524201</v>
+        <v>-29.39835532611973</v>
       </c>
       <c r="C7" t="n">
-        <v>1.60190781723882e-07</v>
+        <v>2.160090953681182e-08</v>
       </c>
     </row>
     <row r="8">
@@ -3339,10 +3339,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-333.0361660747155</v>
+        <v>-276.1039624806338</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4606223802406513</v>
+        <v>0.5496919560233615</v>
       </c>
     </row>
     <row r="9">
@@ -3352,10 +3352,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8248.827268461373</v>
+        <v>8999.980012191838</v>
       </c>
       <c r="C9" t="n">
-        <v>2.961403173404694e-16</v>
+        <v>1.143915169074591e-20</v>
       </c>
     </row>
     <row r="10">
@@ -3365,10 +3365,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.72431943485939</v>
+        <v>19.21426896366229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07765336247604626</v>
+        <v>0.08215966849481798</v>
       </c>
     </row>
   </sheetData>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3891.331187139454</v>
+        <v>3749.797165221501</v>
       </c>
       <c r="C2" t="n">
-        <v>2.403978000017719e-10</v>
+        <v>5.931557912233842e-11</v>
       </c>
     </row>
     <row r="3">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.36624295554934</v>
+        <v>15.58811720990837</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4558560862537886</v>
+        <v>0.5653581359826131</v>
       </c>
     </row>
     <row r="4">
@@ -3440,10 +3440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.6145956608179</v>
+        <v>156.8371188355068</v>
       </c>
       <c r="C4" t="n">
-        <v>1.007720654581179e-15</v>
+        <v>7.556183370182302e-17</v>
       </c>
     </row>
     <row r="5">
@@ -3453,10 +3453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01646076299241565</v>
+        <v>-0.01329324109051462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5947395005212408</v>
+        <v>0.6370380593941666</v>
       </c>
     </row>
     <row r="6">
@@ -3466,10 +3466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.736796603172921e-05</v>
+        <v>-2.412184182725455e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3006926153890557</v>
+        <v>0.431171440121717</v>
       </c>
     </row>
     <row r="7">
@@ -3479,10 +3479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.09931420044919</v>
+        <v>-28.81559157364156</v>
       </c>
       <c r="C7" t="n">
-        <v>4.572506275643745e-07</v>
+        <v>1.907620671273697e-09</v>
       </c>
     </row>
     <row r="8">
@@ -3492,10 +3492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-676.020620899214</v>
+        <v>-523.3534261684925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1456955484264649</v>
+        <v>0.2216789302445795</v>
       </c>
     </row>
     <row r="9">
@@ -3505,10 +3505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9279.986569151613</v>
+        <v>8976.397560867452</v>
       </c>
       <c r="C9" t="n">
-        <v>3.297185832436034e-21</v>
+        <v>2.844227978670161e-23</v>
       </c>
     </row>
     <row r="10">
@@ -3518,10 +3518,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.79474167672992</v>
+        <v>24.29214188906447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07232490203759304</v>
+        <v>0.01485438411112972</v>
       </c>
     </row>
   </sheetData>
@@ -3567,10 +3567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3108.00751880064</v>
+        <v>3641.404163907747</v>
       </c>
       <c r="C2" t="n">
-        <v>5.255887291829983e-07</v>
+        <v>1.773022043655992e-09</v>
       </c>
     </row>
     <row r="3">
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.90670523743586</v>
+        <v>9.897865628560595</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1234870807276947</v>
+        <v>0.718067917226333</v>
       </c>
     </row>
     <row r="4">
@@ -3593,10 +3593,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.9966273411887</v>
+        <v>189.9358905705586</v>
       </c>
       <c r="C4" t="n">
-        <v>3.949405364400093e-14</v>
+        <v>1.056266163721845e-22</v>
       </c>
     </row>
     <row r="5">
@@ -3606,10 +3606,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03175269461329453</v>
+        <v>-0.006989716869268081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2982600236900998</v>
+        <v>0.8106261969104805</v>
       </c>
     </row>
     <row r="6">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.480036175147538e-05</v>
+        <v>-4.803288243657118e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6418840777459248</v>
+        <v>0.1273676916557939</v>
       </c>
     </row>
     <row r="7">
@@ -3632,10 +3632,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.93180212661233</v>
+        <v>-25.56967451939916</v>
       </c>
       <c r="C7" t="n">
-        <v>3.059826014865208e-07</v>
+        <v>1.857023234205458e-07</v>
       </c>
     </row>
     <row r="8">
@@ -3645,10 +3645,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-808.8728769774762</v>
+        <v>-604.4931645516943</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07548952995159125</v>
+        <v>0.1566130552212505</v>
       </c>
     </row>
     <row r="9">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9882.166893293022</v>
+        <v>7993.21917079673</v>
       </c>
       <c r="C9" t="n">
-        <v>1.195076047720773e-24</v>
+        <v>9.977892837558639e-16</v>
       </c>
     </row>
     <row r="10">
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.1311257391775</v>
+        <v>24.21066407790147</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009099908684714253</v>
+        <v>0.01733043898132584</v>
       </c>
     </row>
   </sheetData>
@@ -3720,10 +3720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3012.594632876661</v>
+        <v>3177.682756473709</v>
       </c>
       <c r="C2" t="n">
-        <v>1.648499637511322e-06</v>
+        <v>1.604705413889008e-07</v>
       </c>
     </row>
     <row r="3">
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.74345902380469</v>
+        <v>29.59736435112971</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1331623771736484</v>
+        <v>0.3096547626729778</v>
       </c>
     </row>
     <row r="4">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.9033174214271</v>
+        <v>155.9099318087489</v>
       </c>
       <c r="C4" t="n">
-        <v>3.818057129503895e-15</v>
+        <v>2.248039667806135e-15</v>
       </c>
     </row>
     <row r="5">
@@ -3759,10 +3759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03136009422065766</v>
+        <v>-0.01337711629792189</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3521608192052299</v>
+        <v>0.6560648825321207</v>
       </c>
     </row>
     <row r="6">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.09254292889408e-05</v>
+        <v>-3.541014380062653e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5745094092370708</v>
+        <v>0.2633145780298169</v>
       </c>
     </row>
     <row r="7">
@@ -3785,10 +3785,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.84908668813142</v>
+        <v>-24.19748675504658</v>
       </c>
       <c r="C7" t="n">
-        <v>7.139352866201824e-07</v>
+        <v>1.220497530333855e-06</v>
       </c>
     </row>
     <row r="8">
@@ -3798,10 +3798,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-593.9680982467753</v>
+        <v>-877.2414409874139</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2105790939531117</v>
+        <v>0.04808403128341857</v>
       </c>
     </row>
     <row r="9">
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9122.051491807893</v>
+        <v>9845.732489268214</v>
       </c>
       <c r="C9" t="n">
-        <v>1.907374804937198e-20</v>
+        <v>1.209937024369702e-24</v>
       </c>
     </row>
     <row r="10">
@@ -3824,10 +3824,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.41937754580169</v>
+        <v>33.33675895715434</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000943643605765122</v>
+        <v>0.001097840910035117</v>
       </c>
     </row>
   </sheetData>
@@ -3873,10 +3873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2522.294700323552</v>
+        <v>3012.276743359899</v>
       </c>
       <c r="C2" t="n">
-        <v>3.683084351330186e-05</v>
+        <v>2.122178657794869e-07</v>
       </c>
     </row>
     <row r="3">
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.23624263235799</v>
+        <v>53.3616196883175</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1031153103024488</v>
+        <v>0.06778149297629713</v>
       </c>
     </row>
     <row r="4">
@@ -3899,10 +3899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.6419636389739</v>
+        <v>162.188671396833</v>
       </c>
       <c r="C4" t="n">
-        <v>1.194207080262091e-15</v>
+        <v>7.287418434042696e-17</v>
       </c>
     </row>
     <row r="5">
@@ -3912,10 +3912,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03602432894015808</v>
+        <v>-0.03339684152476214</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2321421995243215</v>
+        <v>0.2514898118352087</v>
       </c>
     </row>
     <row r="6">
@@ -3925,10 +3925,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.390906547023099e-05</v>
+        <v>3.258776647732084e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3538299673907068</v>
+        <v>0.3373569029365171</v>
       </c>
     </row>
     <row r="7">
@@ -3938,10 +3938,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.10497897898225</v>
+        <v>-26.54298059555584</v>
       </c>
       <c r="C7" t="n">
-        <v>8.731520160595236e-08</v>
+        <v>1.067892870447786e-07</v>
       </c>
     </row>
     <row r="8">
@@ -3951,10 +3951,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-525.2191945646699</v>
+        <v>-449.4969372493719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2510517295217799</v>
+        <v>0.302797240690059</v>
       </c>
     </row>
     <row r="9">
@@ -3964,10 +3964,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9286.768762623567</v>
+        <v>9617.281113890103</v>
       </c>
       <c r="C9" t="n">
-        <v>1.069547695625101e-21</v>
+        <v>4.032099355892676e-26</v>
       </c>
     </row>
     <row r="10">
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64368934309695</v>
+        <v>28.94690246698301</v>
       </c>
       <c r="C10" t="n">
-        <v>8.481200099798739e-06</v>
+        <v>0.003610500783591447</v>
       </c>
     </row>
   </sheetData>
@@ -4026,10 +4026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3532.636456696942</v>
+        <v>3546.559493610384</v>
       </c>
       <c r="C2" t="n">
-        <v>3.254610423794665e-09</v>
+        <v>4.374395593968232e-09</v>
       </c>
     </row>
     <row r="3">
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.43779178733995</v>
+        <v>36.1765479559663</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4945595898735794</v>
+        <v>0.227980388064643</v>
       </c>
     </row>
     <row r="4">
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.8648494156076</v>
+        <v>160.6586466201338</v>
       </c>
       <c r="C4" t="n">
-        <v>8.11689649773503e-17</v>
+        <v>8.071434316346476e-16</v>
       </c>
     </row>
     <row r="5">
@@ -4065,10 +4065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004943568492603797</v>
+        <v>-0.032611504107641</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8707227504666623</v>
+        <v>0.3445467892787178</v>
       </c>
     </row>
     <row r="6">
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.154190807902485e-05</v>
+        <v>7.482920656372177e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7223660982917418</v>
+        <v>0.8345735141069808</v>
       </c>
     </row>
     <row r="7">
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.80000575871745</v>
+        <v>-28.72980008526695</v>
       </c>
       <c r="C7" t="n">
-        <v>1.576745857530172e-10</v>
+        <v>7.893320097047272e-08</v>
       </c>
     </row>
     <row r="8">
@@ -4104,10 +4104,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-216.6973077547541</v>
+        <v>-410.6787040371036</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6391561339723939</v>
+        <v>0.3738006510458007</v>
       </c>
     </row>
     <row r="9">
@@ -4117,10 +4117,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9714.331030531812</v>
+        <v>9535.149288184013</v>
       </c>
       <c r="C9" t="n">
-        <v>5.133744174415289e-25</v>
+        <v>2.366568554422442e-23</v>
       </c>
     </row>
     <row r="10">
@@ -4130,10 +4130,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.77780663065924</v>
+        <v>24.74653534562853</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01161947936350972</v>
+        <v>0.01541914863804676</v>
       </c>
     </row>
   </sheetData>
@@ -4179,10 +4179,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3580.052946451267</v>
+        <v>4535.710722199089</v>
       </c>
       <c r="C2" t="n">
-        <v>9.251167761928071e-09</v>
+        <v>1.144640049234098e-13</v>
       </c>
     </row>
     <row r="3">
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.435986016484989</v>
+        <v>14.24397591575082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9344289148963858</v>
+        <v>0.6121985697203887</v>
       </c>
     </row>
     <row r="4">
@@ -4205,10 +4205,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.7540428088728</v>
+        <v>141.0048920722616</v>
       </c>
       <c r="C4" t="n">
-        <v>3.860460444596689e-17</v>
+        <v>1.187020706831441e-12</v>
       </c>
     </row>
     <row r="5">
@@ -4218,10 +4218,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02935957737743625</v>
+        <v>-0.03160847649404652</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3537044066368392</v>
+        <v>0.2968429028386081</v>
       </c>
     </row>
     <row r="6">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.849056957661589e-06</v>
+        <v>-1.882330096194748e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7605993376319915</v>
+        <v>0.611486668847756</v>
       </c>
     </row>
     <row r="7">
@@ -4244,10 +4244,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.51736938463497</v>
+        <v>-28.03653169125566</v>
       </c>
       <c r="C7" t="n">
-        <v>6.159400583204844e-06</v>
+        <v>2.848002382408355e-08</v>
       </c>
     </row>
     <row r="8">
@@ -4257,10 +4257,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1042.638084329507</v>
+        <v>-550.9865595613952</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02765664014128209</v>
+        <v>0.233498976339491</v>
       </c>
     </row>
     <row r="9">
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7437.881343531099</v>
+        <v>8554.837693985452</v>
       </c>
       <c r="C9" t="n">
-        <v>1.54090053876302e-13</v>
+        <v>1.3344406717712e-19</v>
       </c>
     </row>
     <row r="10">
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.57847361673545</v>
+        <v>11.09695613759778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00196198214370904</v>
+        <v>0.2882384567741432</v>
       </c>
     </row>
   </sheetData>
@@ -4332,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3773.215333388746</v>
+        <v>3050.558997405587</v>
       </c>
       <c r="C2" t="n">
-        <v>5.369007029182224e-09</v>
+        <v>3.162403418593091e-07</v>
       </c>
     </row>
     <row r="3">
@@ -4345,10 +4345,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.08428062406668</v>
+        <v>48.27461917386474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1520025624454976</v>
+        <v>0.1110387076523591</v>
       </c>
     </row>
     <row r="4">
@@ -4358,10 +4358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.002375203448</v>
+        <v>167.7653527639067</v>
       </c>
       <c r="C4" t="n">
-        <v>1.122948515859493e-13</v>
+        <v>2.090678078717264e-17</v>
       </c>
     </row>
     <row r="5">
@@ -4371,10 +4371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009139965675396412</v>
+        <v>-0.01453133870671358</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7828671098484863</v>
+        <v>0.6290901809527729</v>
       </c>
     </row>
     <row r="6">
@@ -4384,10 +4384,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.774327764667224e-05</v>
+        <v>-3.039715532407526e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4440103049633378</v>
+        <v>0.3238096244233956</v>
       </c>
     </row>
     <row r="7">
@@ -4397,10 +4397,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.44599888841029</v>
+        <v>-24.4421979962841</v>
       </c>
       <c r="C7" t="n">
-        <v>5.510807651625686e-08</v>
+        <v>1.420354403381669e-06</v>
       </c>
     </row>
     <row r="8">
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-646.4365037970517</v>
+        <v>-751.7068517201359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1736373730570732</v>
+        <v>0.09021082024032163</v>
       </c>
     </row>
     <row r="9">
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9181.579646301456</v>
+        <v>9898.412466521622</v>
       </c>
       <c r="C9" t="n">
-        <v>2.067964017827531e-20</v>
+        <v>6.359780211927674e-26</v>
       </c>
     </row>
     <row r="10">
@@ -4436,10 +4436,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.42363567269488</v>
+        <v>31.26108640137974</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02844084616596472</v>
+        <v>0.002048435145302661</v>
       </c>
     </row>
   </sheetData>
@@ -4485,10 +4485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3804.62561460781</v>
+        <v>3771.485526843889</v>
       </c>
       <c r="C2" t="n">
-        <v>2.581165978233461e-10</v>
+        <v>2.458806453533341e-10</v>
       </c>
     </row>
     <row r="3">
@@ -4498,10 +4498,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.27639453861424</v>
+        <v>37.24319685181123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3718081803061598</v>
+        <v>0.180954564186856</v>
       </c>
     </row>
     <row r="4">
@@ -4511,10 +4511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.7853207482892</v>
+        <v>162.5701943679459</v>
       </c>
       <c r="C4" t="n">
-        <v>3.930401115425348e-16</v>
+        <v>9.417362858268162e-18</v>
       </c>
     </row>
     <row r="5">
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02759226798133441</v>
+        <v>-0.03936493541661167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3780678765567536</v>
+        <v>0.2208987452835926</v>
       </c>
     </row>
     <row r="6">
@@ -4537,10 +4537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.865625448582562e-06</v>
+        <v>-6.544904410869367e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.876731534063204</v>
+        <v>0.9845575313864358</v>
       </c>
     </row>
     <row r="7">
@@ -4550,10 +4550,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.02276754791345</v>
+        <v>-27.13792444145576</v>
       </c>
       <c r="C7" t="n">
-        <v>2.4706057814729e-10</v>
+        <v>6.808582261564716e-08</v>
       </c>
     </row>
     <row r="8">
@@ -4563,10 +4563,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.04449835639093</v>
+        <v>-582.2556999480947</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9058430014197415</v>
+        <v>0.1782013144257305</v>
       </c>
     </row>
     <row r="9">
@@ -4576,10 +4576,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10441.78088819094</v>
+        <v>9561.763280931262</v>
       </c>
       <c r="C9" t="n">
-        <v>1.38370785763817e-28</v>
+        <v>3.856121998535653e-24</v>
       </c>
     </row>
     <row r="10">
@@ -4589,10 +4589,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.38005013734852</v>
+        <v>19.16194751269876</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1653110246109465</v>
+        <v>0.05647626019563744</v>
       </c>
     </row>
   </sheetData>
@@ -4638,10 +4638,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3083.269149895833</v>
+        <v>3266.713736037466</v>
       </c>
       <c r="C2" t="n">
-        <v>1.278965346415896e-06</v>
+        <v>4.611790650423383e-08</v>
       </c>
     </row>
     <row r="3">
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.589894260861485</v>
+        <v>18.35865221467391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8844681419233296</v>
+        <v>0.5163147055317382</v>
       </c>
     </row>
     <row r="4">
@@ -4664,10 +4664,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.0443927055069</v>
+        <v>182.9809679194165</v>
       </c>
       <c r="C4" t="n">
-        <v>2.071211762582231e-17</v>
+        <v>6.543540437316552e-21</v>
       </c>
     </row>
     <row r="5">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001565708833553427</v>
+        <v>-0.01481321377490051</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9598000329704165</v>
+        <v>0.626898638927485</v>
       </c>
     </row>
     <row r="6">
@@ -4690,10 +4690,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.462915416812151e-05</v>
+        <v>-2.764905321173883e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.295980935868325</v>
+        <v>0.3736261179887286</v>
       </c>
     </row>
     <row r="7">
@@ -4703,10 +4703,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.00513730479048</v>
+        <v>-25.33071412947853</v>
       </c>
       <c r="C7" t="n">
-        <v>2.12725530881607e-08</v>
+        <v>2.702689255684188e-07</v>
       </c>
     </row>
     <row r="8">
@@ -4716,10 +4716,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-629.9676134282381</v>
+        <v>-547.3691193087895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1690781770726499</v>
+        <v>0.205425207885684</v>
       </c>
     </row>
     <row r="9">
@@ -4729,10 +4729,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9275.758520718729</v>
+        <v>7612.504684061809</v>
       </c>
       <c r="C9" t="n">
-        <v>5.402782843677533e-20</v>
+        <v>2.526233119235076e-15</v>
       </c>
     </row>
     <row r="10">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.74593003356169</v>
+        <v>33.52830309927819</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005041645701010777</v>
+        <v>0.001219773202295636</v>
       </c>
     </row>
   </sheetData>
@@ -4791,10 +4791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3185.418864211084</v>
+        <v>3178.974895339512</v>
       </c>
       <c r="C2" t="n">
-        <v>2.599806574980681e-08</v>
+        <v>2.602818218715321e-07</v>
       </c>
     </row>
     <row r="3">
@@ -4804,10 +4804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.56008819530919</v>
+        <v>7.452929605293868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009217989546917866</v>
+        <v>0.8023014445934433</v>
       </c>
     </row>
     <row r="4">
@@ -4817,10 +4817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.8869915037854</v>
+        <v>171.7447838286602</v>
       </c>
       <c r="C4" t="n">
-        <v>2.367247353764103e-17</v>
+        <v>4.56242234943451e-18</v>
       </c>
     </row>
     <row r="5">
@@ -4830,10 +4830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05707369797804662</v>
+        <v>0.001257968196232799</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05352300050772296</v>
+        <v>0.9672068148979904</v>
       </c>
     </row>
     <row r="6">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.910222477063714e-05</v>
+        <v>-2.987495695468974e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2859640431019174</v>
+        <v>0.3444511233940143</v>
       </c>
     </row>
     <row r="7">
@@ -4856,10 +4856,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.45523414456569</v>
+        <v>-31.70774500965394</v>
       </c>
       <c r="C7" t="n">
-        <v>6.446627801312684e-07</v>
+        <v>1.065515614996725e-09</v>
       </c>
     </row>
     <row r="8">
@@ -4869,10 +4869,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-357.0418038620903</v>
+        <v>-284.1868211604213</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4272725581037747</v>
+        <v>0.5280193427490596</v>
       </c>
     </row>
     <row r="9">
@@ -4882,10 +4882,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9894.150620708497</v>
+        <v>9888.138685147946</v>
       </c>
       <c r="C9" t="n">
-        <v>5.413710525610037e-27</v>
+        <v>7.253632264940004e-24</v>
       </c>
     </row>
     <row r="10">
@@ -4895,10 +4895,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.80664209954131</v>
+        <v>33.57877352919098</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02159840525531076</v>
+        <v>0.001510618671355085</v>
       </c>
     </row>
   </sheetData>
@@ -4944,10 +4944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2830.747600230463</v>
+        <v>3448.500443121059</v>
       </c>
       <c r="C2" t="n">
-        <v>2.204507377479102e-06</v>
+        <v>9.921720151451605e-09</v>
       </c>
     </row>
     <row r="3">
@@ -4957,10 +4957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6.692540014363942</v>
+        <v>13.04776463798039</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8116831277133181</v>
+        <v>0.6495910073943256</v>
       </c>
     </row>
     <row r="4">
@@ -4970,10 +4970,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.193350561081</v>
+        <v>167.4551142564183</v>
       </c>
       <c r="C4" t="n">
-        <v>2.986185937364455e-20</v>
+        <v>2.501489680456761e-17</v>
       </c>
     </row>
     <row r="5">
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009280945471614288</v>
+        <v>-0.01358549746895385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7682090143195999</v>
+        <v>0.6692823629196313</v>
       </c>
     </row>
     <row r="6">
@@ -4996,10 +4996,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.047591937241461e-05</v>
+        <v>-2.038204168737506e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1183164858912217</v>
+        <v>0.5408698869689856</v>
       </c>
     </row>
     <row r="7">
@@ -5009,10 +5009,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.35702659164772</v>
+        <v>-25.26907575573183</v>
       </c>
       <c r="C7" t="n">
-        <v>1.054648671533668e-06</v>
+        <v>5.630404697044195e-07</v>
       </c>
     </row>
     <row r="8">
@@ -5022,10 +5022,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-815.7931655770715</v>
+        <v>-628.8984964782303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0713667797376932</v>
+        <v>0.1744943622820523</v>
       </c>
     </row>
     <row r="9">
@@ -5035,10 +5035,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11018.9772344106</v>
+        <v>8927.215132676247</v>
       </c>
       <c r="C9" t="n">
-        <v>3.716956374981321e-31</v>
+        <v>1.717649086056891e-21</v>
       </c>
     </row>
     <row r="10">
@@ -5048,10 +5048,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.79018488903106</v>
+        <v>28.81526800460025</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0011857130002284</v>
+        <v>0.005403112633514961</v>
       </c>
     </row>
   </sheetData>
@@ -5097,10 +5097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3650.177006255912</v>
+        <v>3686.037105020983</v>
       </c>
       <c r="C2" t="n">
-        <v>9.24005230356719e-09</v>
+        <v>1.384542268843167e-09</v>
       </c>
     </row>
     <row r="3">
@@ -5110,10 +5110,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.8572167055647</v>
+        <v>30.64532463521625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08194441919083634</v>
+        <v>0.3032784372883093</v>
       </c>
     </row>
     <row r="4">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5333730838258</v>
+        <v>160.9445395117832</v>
       </c>
       <c r="C4" t="n">
-        <v>9.521516335310227e-13</v>
+        <v>6.837209686732723e-16</v>
       </c>
     </row>
     <row r="5">
@@ -5136,10 +5136,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03873380181659734</v>
+        <v>-0.01023497040096256</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2305504098414415</v>
+        <v>0.7497122506665364</v>
       </c>
     </row>
     <row r="6">
@@ -5149,10 +5149,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.120867865408742e-06</v>
+        <v>-6.500154718783862e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8386433892518455</v>
+        <v>0.8523585634869003</v>
       </c>
     </row>
     <row r="7">
@@ -5162,10 +5162,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.32408175551351</v>
+        <v>-32.40018811245</v>
       </c>
       <c r="C7" t="n">
-        <v>2.660747555264286e-08</v>
+        <v>5.831912019731103e-10</v>
       </c>
     </row>
     <row r="8">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-276.2510033808461</v>
+        <v>-485.5249209939899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5706767555236536</v>
+        <v>0.2834635178875588</v>
       </c>
     </row>
     <row r="9">
@@ -5188,10 +5188,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9277.714520664938</v>
+        <v>8875.021145691171</v>
       </c>
       <c r="C9" t="n">
-        <v>2.661201302786511e-21</v>
+        <v>9.006136656166412e-21</v>
       </c>
     </row>
     <row r="10">
@@ -5201,10 +5201,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.34437819191374</v>
+        <v>27.170991929693</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04065210140084728</v>
+        <v>0.009824078832035711</v>
       </c>
     </row>
   </sheetData>
@@ -5250,10 +5250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3166.339919984511</v>
+        <v>3368.035294835061</v>
       </c>
       <c r="C2" t="n">
-        <v>2.755659387961193e-07</v>
+        <v>3.486046463666311e-08</v>
       </c>
     </row>
     <row r="3">
@@ -5263,10 +5263,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.82782667569982</v>
+        <v>11.88747370198767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1459514854394402</v>
+        <v>0.6850067979290206</v>
       </c>
     </row>
     <row r="4">
@@ -5276,10 +5276,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.8924624693807</v>
+        <v>176.9702632865461</v>
       </c>
       <c r="C4" t="n">
-        <v>1.558329250439536e-17</v>
+        <v>3.754363632943429e-19</v>
       </c>
     </row>
     <row r="5">
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03392517716588329</v>
+        <v>-0.01092601274143023</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2822754131074985</v>
+        <v>0.7050292500513983</v>
       </c>
     </row>
     <row r="6">
@@ -5302,10 +5302,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.601269035805004e-05</v>
+        <v>-3.246054187913627e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6312156919582412</v>
+        <v>0.2992470579852669</v>
       </c>
     </row>
     <row r="7">
@@ -5315,10 +5315,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.98543628915795</v>
+        <v>-26.7046486102807</v>
       </c>
       <c r="C7" t="n">
-        <v>3.940614639497751e-07</v>
+        <v>7.44506123465492e-08</v>
       </c>
     </row>
     <row r="8">
@@ -5328,10 +5328,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-499.8099506795705</v>
+        <v>-728.1925596594758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2828992730640134</v>
+        <v>0.09675439903263262</v>
       </c>
     </row>
     <row r="9">
@@ -5341,10 +5341,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9756.914218241216</v>
+        <v>10262.24033544423</v>
       </c>
       <c r="C9" t="n">
-        <v>1.259958681412921e-23</v>
+        <v>1.261630077289648e-26</v>
       </c>
     </row>
     <row r="10">
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.8086374248975</v>
+        <v>26.29257582313465</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01053118826025311</v>
+        <v>0.01208849644106124</v>
       </c>
     </row>
   </sheetData>
@@ -5403,10 +5403,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3458.985022622769</v>
+        <v>3641.46407955524</v>
       </c>
       <c r="C2" t="n">
-        <v>9.569338408831475e-09</v>
+        <v>6.146845128862533e-10</v>
       </c>
     </row>
     <row r="3">
@@ -5416,10 +5416,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.73308461241379</v>
+        <v>19.64556252753899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1715293201739758</v>
+        <v>0.4784480667626606</v>
       </c>
     </row>
     <row r="4">
@@ -5429,10 +5429,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.2419342380784</v>
+        <v>156.625176847004</v>
       </c>
       <c r="C4" t="n">
-        <v>1.761820251475463e-18</v>
+        <v>4.11442939560118e-17</v>
       </c>
     </row>
     <row r="5">
@@ -5442,10 +5442,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03263598470169519</v>
+        <v>-0.04224191013161263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.271421656749585</v>
+        <v>0.1447437365940827</v>
       </c>
     </row>
     <row r="6">
@@ -5455,10 +5455,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.403652689325801e-05</v>
+        <v>-2.66981465427339e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6560673061959953</v>
+        <v>0.3857201417427742</v>
       </c>
     </row>
     <row r="7">
@@ -5468,10 +5468,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.51964666430375</v>
+        <v>-26.04219757368116</v>
       </c>
       <c r="C7" t="n">
-        <v>1.555351383511096e-06</v>
+        <v>6.966344143425193e-08</v>
       </c>
     </row>
     <row r="8">
@@ -5481,10 +5481,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-553.5172891654222</v>
+        <v>-446.2566773926808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2135510800700714</v>
+        <v>0.2904627677748388</v>
       </c>
     </row>
     <row r="9">
@@ -5494,10 +5494,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9134.485462733617</v>
+        <v>8205.548273928245</v>
       </c>
       <c r="C9" t="n">
-        <v>4.416514482143541e-21</v>
+        <v>5.192033228389012e-18</v>
       </c>
     </row>
     <row r="10">
@@ -5507,10 +5507,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.3821405294882</v>
+        <v>28.40203012758403</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01986414777060142</v>
+        <v>0.004024083176244787</v>
       </c>
     </row>
   </sheetData>
@@ -5556,10 +5556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3456.952648547206</v>
+        <v>3607.715405799141</v>
       </c>
       <c r="C2" t="n">
-        <v>6.309062467292037e-09</v>
+        <v>3.23106122287625e-09</v>
       </c>
     </row>
     <row r="3">
@@ -5569,10 +5569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.25376974844528</v>
+        <v>33.90625580125799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08868555631729523</v>
+        <v>0.2433183901786266</v>
       </c>
     </row>
     <row r="4">
@@ -5582,10 +5582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.9859513807526</v>
+        <v>147.9617760158505</v>
       </c>
       <c r="C4" t="n">
-        <v>5.854457583975611e-15</v>
+        <v>1.500634417134463e-14</v>
       </c>
     </row>
     <row r="5">
@@ -5595,10 +5595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01929127779014321</v>
+        <v>-0.002652192010787181</v>
       </c>
       <c r="C5" t="n">
-        <v>0.513561672683297</v>
+        <v>0.92794758447931</v>
       </c>
     </row>
     <row r="6">
@@ -5608,10 +5608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.521389683329638e-05</v>
+        <v>-3.301057747193665e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6289810520712562</v>
+        <v>0.3016525120622245</v>
       </c>
     </row>
     <row r="7">
@@ -5621,10 +5621,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.05011077324545</v>
+        <v>-28.29468617160524</v>
       </c>
       <c r="C7" t="n">
-        <v>5.382280013492019e-08</v>
+        <v>1.56388421396181e-08</v>
       </c>
     </row>
     <row r="8">
@@ -5634,10 +5634,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-477.2424111155751</v>
+        <v>-856.7079930985947</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2890525805658516</v>
+        <v>0.05417076581828901</v>
       </c>
     </row>
     <row r="9">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10261.81695235803</v>
+        <v>9474.380657464681</v>
       </c>
       <c r="C9" t="n">
-        <v>2.098393869878405e-27</v>
+        <v>4.392626192826016e-22</v>
       </c>
     </row>
     <row r="10">
@@ -5660,10 +5660,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.87102892233908</v>
+        <v>30.48814625361166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02869584580540335</v>
+        <v>0.004378553698982077</v>
       </c>
     </row>
   </sheetData>
@@ -5709,10 +5709,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4284.482354042748</v>
+        <v>3695.612807846793</v>
       </c>
       <c r="C2" t="n">
-        <v>7.366444902471372e-12</v>
+        <v>1.206162877568807e-09</v>
       </c>
     </row>
     <row r="3">
@@ -5722,10 +5722,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.23510703005225</v>
+        <v>49.1091362644418</v>
       </c>
       <c r="C3" t="n">
-        <v>0.582820500192456</v>
+        <v>0.08937375841600503</v>
       </c>
     </row>
     <row r="4">
@@ -5735,10 +5735,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.3318413868333</v>
+        <v>166.5329171687055</v>
       </c>
       <c r="C4" t="n">
-        <v>2.21770219525801e-13</v>
+        <v>4.440869804575817e-17</v>
       </c>
     </row>
     <row r="5">
@@ -5748,10 +5748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02569026440354987</v>
+        <v>-0.01484198803806112</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4168093188385514</v>
+        <v>0.6400536617426944</v>
       </c>
     </row>
     <row r="6">
@@ -5761,10 +5761,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.587344171086298e-06</v>
+        <v>-2.614280673686081e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.838080388072978</v>
+        <v>0.4303152667864676</v>
       </c>
     </row>
     <row r="7">
@@ -5774,10 +5774,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.62224186291661</v>
+        <v>-26.46839316062599</v>
       </c>
       <c r="C7" t="n">
-        <v>1.849131948366263e-10</v>
+        <v>3.92560086922944e-07</v>
       </c>
     </row>
     <row r="8">
@@ -5787,10 +5787,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-545.6385639500389</v>
+        <v>-446.7065661648488</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2312197431141396</v>
+        <v>0.3189372029206064</v>
       </c>
     </row>
     <row r="9">
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6951.870640233426</v>
+        <v>9228.391235076389</v>
       </c>
       <c r="C9" t="n">
-        <v>3.163560242064095e-12</v>
+        <v>4.52940580411728e-21</v>
       </c>
     </row>
     <row r="10">
@@ -5813,10 +5813,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.57953974586971</v>
+        <v>16.75680172650757</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01031518752219594</v>
+        <v>0.1050480601952844</v>
       </c>
     </row>
   </sheetData>
@@ -5862,10 +5862,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3990.76020519646</v>
+        <v>3236.078416387008</v>
       </c>
       <c r="C2" t="n">
-        <v>6.57251818525717e-11</v>
+        <v>6.373863682631391e-08</v>
       </c>
     </row>
     <row r="3">
@@ -5875,10 +5875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.47030228391242</v>
+        <v>26.25132357240285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06845989419203063</v>
+        <v>0.3474685645877021</v>
       </c>
     </row>
     <row r="4">
@@ -5888,10 +5888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.7509579765799</v>
+        <v>160.8303127347585</v>
       </c>
       <c r="C4" t="n">
-        <v>2.705662333187101e-13</v>
+        <v>6.622011006843076e-17</v>
       </c>
     </row>
     <row r="5">
@@ -5901,10 +5901,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08274925196231667</v>
+        <v>-0.01252132476991707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008895682995034198</v>
+        <v>0.679093374204536</v>
       </c>
     </row>
     <row r="6">
@@ -5914,10 +5914,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.301306423997914e-05</v>
+        <v>9.950255753064097e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1435255517977105</v>
+        <v>0.7826025828842473</v>
       </c>
     </row>
     <row r="7">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.42796724206575</v>
+        <v>-30.92868316916984</v>
       </c>
       <c r="C7" t="n">
-        <v>1.35082983545287e-09</v>
+        <v>1.488708588082969e-09</v>
       </c>
     </row>
     <row r="8">
@@ -5940,10 +5940,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.63641184056621</v>
+        <v>-319.4751278318212</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9135294085552892</v>
+        <v>0.474959233150183</v>
       </c>
     </row>
     <row r="9">
@@ -5953,10 +5953,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6886.433681853263</v>
+        <v>8788.254856395037</v>
       </c>
       <c r="C9" t="n">
-        <v>2.70369623262348e-12</v>
+        <v>9.160397947405174e-21</v>
       </c>
     </row>
     <row r="10">
@@ -5966,10 +5966,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.98830946958053</v>
+        <v>34.47992942747905</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01220160886475945</v>
+        <v>0.000884596480682287</v>
       </c>
     </row>
   </sheetData>
@@ -6015,10 +6015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2811.735734563882</v>
+        <v>3828.164509620417</v>
       </c>
       <c r="C2" t="n">
-        <v>4.981228426145281e-06</v>
+        <v>4.72182051508285e-10</v>
       </c>
     </row>
     <row r="3">
@@ -6028,10 +6028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.23328958397306</v>
+        <v>27.96427828595434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6041382964787597</v>
+        <v>0.3578277512101607</v>
       </c>
     </row>
     <row r="4">
@@ -6041,10 +6041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.5935159829898</v>
+        <v>161.5350792141812</v>
       </c>
       <c r="C4" t="n">
-        <v>1.170524338864215e-17</v>
+        <v>1.965527902602491e-16</v>
       </c>
     </row>
     <row r="5">
@@ -6054,10 +6054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0325171743398401</v>
+        <v>-0.004465771298044513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2696030700868632</v>
+        <v>0.8883234888646647</v>
       </c>
     </row>
     <row r="6">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.773404236553262e-05</v>
+        <v>-5.740683281098401e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5814250964175059</v>
+        <v>0.1131870014605403</v>
       </c>
     </row>
     <row r="7">
@@ -6080,10 +6080,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.37933590152043</v>
+        <v>-24.92846159558888</v>
       </c>
       <c r="C7" t="n">
-        <v>1.97875652473548e-05</v>
+        <v>6.899599755749965e-07</v>
       </c>
     </row>
     <row r="8">
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-865.7091680080323</v>
+        <v>-748.8408744302004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05688437740785956</v>
+        <v>0.09246805027839103</v>
       </c>
     </row>
     <row r="9">
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10959.95160294391</v>
+        <v>9163.065075925933</v>
       </c>
       <c r="C9" t="n">
-        <v>1.223202634300287e-27</v>
+        <v>1.094000208659614e-21</v>
       </c>
     </row>
     <row r="10">
@@ -6119,10 +6119,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.82507351049524</v>
+        <v>20.48173107838479</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001853497015973381</v>
+        <v>0.0456036947648678</v>
       </c>
     </row>
   </sheetData>
@@ -6168,10 +6168,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3455.90550616751</v>
+        <v>3903.482335416568</v>
       </c>
       <c r="C2" t="n">
-        <v>5.444851569105341e-09</v>
+        <v>4.006103005447175e-10</v>
       </c>
     </row>
     <row r="3">
@@ -6181,10 +6181,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.34838210109464</v>
+        <v>-4.642397634251338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09577946564987944</v>
+        <v>0.8756122847376722</v>
       </c>
     </row>
     <row r="4">
@@ -6194,10 +6194,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.5707351001968</v>
+        <v>181.5364129807198</v>
       </c>
       <c r="C4" t="n">
-        <v>4.204543903278902e-19</v>
+        <v>7.59155983095873e-19</v>
       </c>
     </row>
     <row r="5">
@@ -6207,10 +6207,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02224824323560911</v>
+        <v>-0.05041605242846265</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4838997335418272</v>
+        <v>0.1112797745276691</v>
       </c>
     </row>
     <row r="6">
@@ -6220,10 +6220,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.008450270119672e-05</v>
+        <v>-1.289517587946415e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7456287240092174</v>
+        <v>0.6823082375481793</v>
       </c>
     </row>
     <row r="7">
@@ -6233,10 +6233,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.39431898920908</v>
+        <v>-26.64212802357434</v>
       </c>
       <c r="C7" t="n">
-        <v>7.207280312495928e-07</v>
+        <v>2.620434063337979e-07</v>
       </c>
     </row>
     <row r="8">
@@ -6246,10 +6246,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-487.4087946043991</v>
+        <v>-478.4905027370958</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2809348029802543</v>
+        <v>0.305427658361345</v>
       </c>
     </row>
     <row r="9">
@@ -6259,10 +6259,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9808.329932208202</v>
+        <v>7993.834783611941</v>
       </c>
       <c r="C9" t="n">
-        <v>7.491971811348163e-27</v>
+        <v>2.447951557231849e-15</v>
       </c>
     </row>
     <row r="10">
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.66879258464217</v>
+        <v>21.76441708225288</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08464559762307075</v>
+        <v>0.04109617329974952</v>
       </c>
     </row>
   </sheetData>
@@ -6321,10 +6321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3764.041762808651</v>
+        <v>3639.590777419183</v>
       </c>
       <c r="C2" t="n">
-        <v>2.58067959193494e-09</v>
+        <v>8.627669435663691e-10</v>
       </c>
     </row>
     <row r="3">
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.07977033912794</v>
+        <v>46.28651880620789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4287624614607035</v>
+        <v>0.1071357447118871</v>
       </c>
     </row>
     <row r="4">
@@ -6347,10 +6347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.9060018940837</v>
+        <v>156.078626864876</v>
       </c>
       <c r="C4" t="n">
-        <v>2.21856079583056e-15</v>
+        <v>7.045362105076242e-16</v>
       </c>
     </row>
     <row r="5">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009810532464246395</v>
+        <v>-0.01916244561672453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7480382245348185</v>
+        <v>0.5076414215657201</v>
       </c>
     </row>
     <row r="6">
@@ -6373,10 +6373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.299200784460436e-05</v>
+        <v>-3.137198050450755e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1201980284036427</v>
+        <v>0.3001380600829162</v>
       </c>
     </row>
     <row r="7">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.46763931344373</v>
+        <v>-27.02191255063791</v>
       </c>
       <c r="C7" t="n">
-        <v>3.175927119735135e-08</v>
+        <v>6.05181541637389e-08</v>
       </c>
     </row>
     <row r="8">
@@ -6399,10 +6399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-799.6545604995932</v>
+        <v>-628.1937056562081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07574252887507303</v>
+        <v>0.1492298358741506</v>
       </c>
     </row>
     <row r="9">
@@ -6412,10 +6412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8553.503841155583</v>
+        <v>8854.447969106996</v>
       </c>
       <c r="C9" t="n">
-        <v>3.923845905711858e-18</v>
+        <v>1.374956113448219e-22</v>
       </c>
     </row>
     <row r="10">
@@ -6425,10 +6425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.11247008058056</v>
+        <v>25.37521345590488</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009193347358134672</v>
+        <v>0.01373134357256932</v>
       </c>
     </row>
   </sheetData>
@@ -6474,10 +6474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3395.283718304423</v>
+        <v>3275.397140736808</v>
       </c>
       <c r="C2" t="n">
-        <v>6.912775922304533e-08</v>
+        <v>2.698423589360381e-08</v>
       </c>
     </row>
     <row r="3">
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.67720324719706</v>
+        <v>29.7035003542981</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6784630726330477</v>
+        <v>0.2859915232278194</v>
       </c>
     </row>
     <row r="4">
@@ -6500,10 +6500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.2598333826165</v>
+        <v>166.8725678056971</v>
       </c>
       <c r="C4" t="n">
-        <v>8.7130624862291e-16</v>
+        <v>5.43134725895716e-18</v>
       </c>
     </row>
     <row r="5">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00820309023935753</v>
+        <v>-0.006832310149133686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8067461023418684</v>
+        <v>0.8272156837376771</v>
       </c>
     </row>
     <row r="6">
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.095957938530668e-05</v>
+        <v>-2.513002036900528e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7596973440008844</v>
+        <v>0.4119598260957932</v>
       </c>
     </row>
     <row r="7">
@@ -6539,10 +6539,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.26012921783307</v>
+        <v>-27.11919883821842</v>
       </c>
       <c r="C7" t="n">
-        <v>4.409315108380764e-09</v>
+        <v>5.538763096010446e-08</v>
       </c>
     </row>
     <row r="8">
@@ -6552,10 +6552,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-399.9413421246373</v>
+        <v>-528.7928510323532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4061818260544241</v>
+        <v>0.2198291310014648</v>
       </c>
     </row>
     <row r="9">
@@ -6565,10 +6565,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9913.869952789528</v>
+        <v>10600.85377981647</v>
       </c>
       <c r="C9" t="n">
-        <v>8.643481825319481e-24</v>
+        <v>3.835054996380975e-28</v>
       </c>
     </row>
     <row r="10">
@@ -6578,10 +6578,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.8815627009572</v>
+        <v>24.87031773002801</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009663338594158346</v>
+        <v>0.0129170649941231</v>
       </c>
     </row>
   </sheetData>
@@ -6627,10 +6627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3228.858691165513</v>
+        <v>4263.691242646007</v>
       </c>
       <c r="C2" t="n">
-        <v>1.814079502012666e-07</v>
+        <v>1.93852523404172e-13</v>
       </c>
     </row>
     <row r="3">
@@ -6640,10 +6640,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.48806528951629</v>
+        <v>57.71526429464429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.487097136574657</v>
+        <v>0.03620489398913648</v>
       </c>
     </row>
     <row r="4">
@@ -6653,10 +6653,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.5671359437327</v>
+        <v>140.1533261070201</v>
       </c>
       <c r="C4" t="n">
-        <v>9.716435581648769e-17</v>
+        <v>6.908784193458985e-14</v>
       </c>
     </row>
     <row r="5">
@@ -6666,10 +6666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03836882045925473</v>
+        <v>-0.02492714048094566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2502917088596218</v>
+        <v>0.40734815064487</v>
       </c>
     </row>
     <row r="6">
@@ -6679,10 +6679,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.050218172701464e-05</v>
+        <v>-1.561042382024307e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4475043528942376</v>
+        <v>0.6073760034856779</v>
       </c>
     </row>
     <row r="7">
@@ -6692,10 +6692,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.4480505385111</v>
+        <v>-30.34971126759372</v>
       </c>
       <c r="C7" t="n">
-        <v>1.02988352798861e-08</v>
+        <v>1.128586561247811e-09</v>
       </c>
     </row>
     <row r="8">
@@ -6705,10 +6705,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-311.7337218041607</v>
+        <v>-515.6162055075279</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5219212326175839</v>
+        <v>0.2254175544931187</v>
       </c>
     </row>
     <row r="9">
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9583.303934723965</v>
+        <v>8183.116734898577</v>
       </c>
       <c r="C9" t="n">
-        <v>6.384622316040175e-23</v>
+        <v>1.075188612647407e-16</v>
       </c>
     </row>
     <row r="10">
@@ -6731,10 +6731,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.67578955638535</v>
+        <v>16.86930583295369</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003754687350538214</v>
+        <v>0.0801894107568162</v>
       </c>
     </row>
   </sheetData>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3565.774920939266</v>
+        <v>3688.80525346356</v>
       </c>
       <c r="C2" t="n">
-        <v>2.99127792268824e-09</v>
+        <v>1.670075207116031e-09</v>
       </c>
     </row>
     <row r="3">
@@ -6793,10 +6793,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.41247962832571</v>
+        <v>16.16331575590376</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2660143190735441</v>
+        <v>0.5836080812883551</v>
       </c>
     </row>
     <row r="4">
@@ -6806,10 +6806,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.7556504228465</v>
+        <v>164.8455064509523</v>
       </c>
       <c r="C4" t="n">
-        <v>3.181361689773805e-14</v>
+        <v>5.29057816874096e-17</v>
       </c>
     </row>
     <row r="5">
@@ -6819,10 +6819,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002031827431507181</v>
+        <v>-0.01187922013250251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9450318910407454</v>
+        <v>0.6894570830031521</v>
       </c>
     </row>
     <row r="6">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.231866466845213e-05</v>
+        <v>-2.788636805791378e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1967843757650083</v>
+        <v>0.3907750129949952</v>
       </c>
     </row>
     <row r="7">
@@ -6845,10 +6845,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.10151303996354</v>
+        <v>-25.32767475117204</v>
       </c>
       <c r="C7" t="n">
-        <v>1.008064430582905e-08</v>
+        <v>4.670644902847079e-07</v>
       </c>
     </row>
     <row r="8">
@@ -6858,10 +6858,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-748.7079959856244</v>
+        <v>-882.4786321063976</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09572233101097037</v>
+        <v>0.05267618765940533</v>
       </c>
     </row>
     <row r="9">
@@ -6871,10 +6871,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8967.971882676869</v>
+        <v>8743.067711495691</v>
       </c>
       <c r="C9" t="n">
-        <v>4.391578937347942e-21</v>
+        <v>7.57221386994887e-21</v>
       </c>
     </row>
     <row r="10">
@@ -6884,10 +6884,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.3374246184626</v>
+        <v>25.48697110724402</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001932319331977729</v>
+        <v>0.01333818159469467</v>
       </c>
     </row>
   </sheetData>
@@ -6933,10 +6933,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3648.00008105826</v>
+        <v>2843.077589885803</v>
       </c>
       <c r="C2" t="n">
-        <v>6.39974861023562e-09</v>
+        <v>3.792445816244667e-06</v>
       </c>
     </row>
     <row r="3">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.42428228391563</v>
+        <v>3.345375705874421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08263363056197326</v>
+        <v>0.9083990196281981</v>
       </c>
     </row>
     <row r="4">
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.620525706227</v>
+        <v>184.8048100659095</v>
       </c>
       <c r="C4" t="n">
-        <v>4.022990555268799e-14</v>
+        <v>6.376168279956235e-20</v>
       </c>
     </row>
     <row r="5">
@@ -6972,10 +6972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05196806352472148</v>
+        <v>-0.01416754878400117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1127288737260776</v>
+        <v>0.6669477361091889</v>
       </c>
     </row>
     <row r="6">
@@ -6985,10 +6985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.841605685804607e-06</v>
+        <v>-2.937973799860358e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7923042463782121</v>
+        <v>0.9307235709953607</v>
       </c>
     </row>
     <row r="7">
@@ -6998,10 +6998,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.58933513803602</v>
+        <v>-27.01296588911271</v>
       </c>
       <c r="C7" t="n">
-        <v>4.211012695708845e-07</v>
+        <v>1.253068038199939e-07</v>
       </c>
     </row>
     <row r="8">
@@ -7011,10 +7011,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-323.6218851952492</v>
+        <v>-470.3211667516435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4815451776118252</v>
+        <v>0.2941740291178618</v>
       </c>
     </row>
     <row r="9">
@@ -7024,10 +7024,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9323.865643186102</v>
+        <v>9933.771854329298</v>
       </c>
       <c r="C9" t="n">
-        <v>2.418058107225402e-22</v>
+        <v>3.168045843492988e-24</v>
       </c>
     </row>
     <row r="10">
@@ -7037,10 +7037,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.89538154933762</v>
+        <v>35.80218495732117</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05206442984321862</v>
+        <v>0.0006111117291651796</v>
       </c>
     </row>
   </sheetData>
@@ -7086,10 +7086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3347.282210117361</v>
+        <v>3341.756147284027</v>
       </c>
       <c r="C2" t="n">
-        <v>1.306677776218857e-07</v>
+        <v>3.092040537884621e-08</v>
       </c>
     </row>
     <row r="3">
@@ -7099,10 +7099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.846264208323106</v>
+        <v>18.04006852679789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7402434404107067</v>
+        <v>0.5251933323666644</v>
       </c>
     </row>
     <row r="4">
@@ -7112,10 +7112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.9184895613452</v>
+        <v>180.6752055568383</v>
       </c>
       <c r="C4" t="n">
-        <v>2.283147615710231e-18</v>
+        <v>3.857942387336608e-20</v>
       </c>
     </row>
     <row r="5">
@@ -7125,10 +7125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03384774904693524</v>
+        <v>0.005415095973770132</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2686590386079571</v>
+        <v>0.8571829421537378</v>
       </c>
     </row>
     <row r="6">
@@ -7138,10 +7138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.585448424715961e-06</v>
+        <v>-5.969332990830921e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8600372887642971</v>
+        <v>0.07914343479995972</v>
       </c>
     </row>
     <row r="7">
@@ -7151,10 +7151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.64136262506647</v>
+        <v>-26.70513141183405</v>
       </c>
       <c r="C7" t="n">
-        <v>2.18800958670178e-06</v>
+        <v>1.006827704129938e-07</v>
       </c>
     </row>
     <row r="8">
@@ -7164,10 +7164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-866.5450994209659</v>
+        <v>-515.441201612255</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05647807924951169</v>
+        <v>0.2467670708537716</v>
       </c>
     </row>
     <row r="9">
@@ -7177,10 +7177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8721.647902765286</v>
+        <v>9317.381358551476</v>
       </c>
       <c r="C9" t="n">
-        <v>5.264933855551533e-17</v>
+        <v>2.703437176567172e-22</v>
       </c>
     </row>
     <row r="10">
@@ -7190,10 +7190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.24061357907708</v>
+        <v>27.21859235808148</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003849822559542838</v>
+        <v>0.009427504241426129</v>
       </c>
     </row>
   </sheetData>
@@ -7239,10 +7239,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3447.913287924198</v>
+        <v>3269.705700435612</v>
       </c>
       <c r="C2" t="n">
-        <v>5.515345671196794e-08</v>
+        <v>1.745224286355193e-08</v>
       </c>
     </row>
     <row r="3">
@@ -7252,10 +7252,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.633530210490736</v>
+        <v>28.32962483318825</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9566220945607831</v>
+        <v>0.3007517870740328</v>
       </c>
     </row>
     <row r="4">
@@ -7265,10 +7265,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.3412095430866</v>
+        <v>166.5115507989023</v>
       </c>
       <c r="C4" t="n">
-        <v>2.943458217710657e-19</v>
+        <v>2.009573951266915e-18</v>
       </c>
     </row>
     <row r="5">
@@ -7278,10 +7278,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01466150995395012</v>
+        <v>-0.003454481614200852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6347218926721454</v>
+        <v>0.9055829742348597</v>
       </c>
     </row>
     <row r="6">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.5176246811975e-05</v>
+        <v>-3.989706872580265e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4642604343843104</v>
+        <v>0.2180561568791285</v>
       </c>
     </row>
     <row r="7">
@@ -7304,10 +7304,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.68559178815406</v>
+        <v>-28.34985681440348</v>
       </c>
       <c r="C7" t="n">
-        <v>1.952201796033435e-07</v>
+        <v>4.758173150660875e-09</v>
       </c>
     </row>
     <row r="8">
@@ -7317,10 +7317,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-576.2441157173409</v>
+        <v>-570.0473450210117</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2209924672880151</v>
+        <v>0.1874904925328253</v>
       </c>
     </row>
     <row r="9">
@@ -7330,10 +7330,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9359.080976460134</v>
+        <v>9258.258627100067</v>
       </c>
       <c r="C9" t="n">
-        <v>3.28729503192643e-22</v>
+        <v>2.100736984020002e-24</v>
       </c>
     </row>
     <row r="10">
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.06985935972106</v>
+        <v>32.27413815296211</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01588692042683464</v>
+        <v>0.001337779090955243</v>
       </c>
     </row>
   </sheetData>
@@ -7392,10 +7392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3601.60001525767</v>
+        <v>3742.569974569134</v>
       </c>
       <c r="C2" t="n">
-        <v>3.16086697963967e-09</v>
+        <v>9.685614892389775e-10</v>
       </c>
     </row>
     <row r="3">
@@ -7405,10 +7405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.82517951951179</v>
+        <v>29.0451044820103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2184174421117403</v>
+        <v>0.3299442775996972</v>
       </c>
     </row>
     <row r="4">
@@ -7418,10 +7418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.5375330383236</v>
+        <v>157.1779479452857</v>
       </c>
       <c r="C4" t="n">
-        <v>1.427722701167488e-17</v>
+        <v>1.564023185579953e-15</v>
       </c>
     </row>
     <row r="5">
@@ -7431,10 +7431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0101266460614743</v>
+        <v>-0.04231521236061885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7456516141755793</v>
+        <v>0.1705766415134814</v>
       </c>
     </row>
     <row r="6">
@@ -7444,10 +7444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.275671270583725e-05</v>
+        <v>-1.57221804310408e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6973475089686155</v>
+        <v>0.63180055491628</v>
       </c>
     </row>
     <row r="7">
@@ -7457,10 +7457,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.15711433372568</v>
+        <v>-27.71731873025285</v>
       </c>
       <c r="C7" t="n">
-        <v>5.948904369366551e-08</v>
+        <v>7.479582626739036e-08</v>
       </c>
     </row>
     <row r="8">
@@ -7470,10 +7470,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-335.7386275001979</v>
+        <v>-393.1067777030623</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4656316418732139</v>
+        <v>0.3800461168429815</v>
       </c>
     </row>
     <row r="9">
@@ -7483,10 +7483,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9438.807963242485</v>
+        <v>9397.808197227589</v>
       </c>
       <c r="C9" t="n">
-        <v>1.211587815291204e-22</v>
+        <v>3.91642753224512e-24</v>
       </c>
     </row>
     <row r="10">
@@ -7496,10 +7496,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.60781016029895</v>
+        <v>21.68723197379419</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07297429645501728</v>
+        <v>0.04379043768434984</v>
       </c>
     </row>
   </sheetData>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4796.731598881701</v>
+        <v>3847.016208039316</v>
       </c>
       <c r="C2" t="n">
-        <v>2.998412474984323e-14</v>
+        <v>9.69894446927674e-10</v>
       </c>
     </row>
     <row r="3">
@@ -7558,10 +7558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.3247042864422</v>
+        <v>4.290529994948074</v>
       </c>
       <c r="C3" t="n">
-        <v>0.702518248675477</v>
+        <v>0.8836734614144126</v>
       </c>
     </row>
     <row r="4">
@@ -7571,10 +7571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.4830281686707</v>
+        <v>158.8046757258967</v>
       </c>
       <c r="C4" t="n">
-        <v>1.243592565587182e-13</v>
+        <v>2.747603341869298e-15</v>
       </c>
     </row>
     <row r="5">
@@ -7584,10 +7584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02348155113442219</v>
+        <v>-0.02816361804841672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4834688639665038</v>
+        <v>0.3860289736502303</v>
       </c>
     </row>
     <row r="6">
@@ -7597,10 +7597,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.639462399082651e-05</v>
+        <v>-3.075650702600959e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1646287838027581</v>
+        <v>0.3530468860292758</v>
       </c>
     </row>
     <row r="7">
@@ -7610,10 +7610,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.20656811957421</v>
+        <v>-25.23865203911563</v>
       </c>
       <c r="C7" t="n">
-        <v>2.322076285157554e-07</v>
+        <v>1.372017471323162e-06</v>
       </c>
     </row>
     <row r="8">
@@ -7623,10 +7623,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-804.4085442409421</v>
+        <v>-879.6827969891079</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08597555109204676</v>
+        <v>0.05490471748349134</v>
       </c>
     </row>
     <row r="9">
@@ -7636,10 +7636,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7515.237506961892</v>
+        <v>9735.906364919319</v>
       </c>
       <c r="C9" t="n">
-        <v>8.827685752216957e-13</v>
+        <v>1.288485241421655e-21</v>
       </c>
     </row>
     <row r="10">
@@ -7649,10 +7649,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.11509206070878</v>
+        <v>21.74000367490726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3370131537749915</v>
+        <v>0.04178612433589653</v>
       </c>
     </row>
   </sheetData>
@@ -7698,10 +7698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3562.67275359386</v>
+        <v>3315.174254031553</v>
       </c>
       <c r="C2" t="n">
-        <v>7.927020880604728e-09</v>
+        <v>1.301455336665926e-07</v>
       </c>
     </row>
     <row r="3">
@@ -7711,10 +7711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.66767196699887</v>
+        <v>25.90720785605797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3596695188424626</v>
+        <v>0.3968757167892574</v>
       </c>
     </row>
     <row r="4">
@@ -7724,10 +7724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.5342655767391</v>
+        <v>173.9221966756519</v>
       </c>
       <c r="C4" t="n">
-        <v>2.043647069018902e-16</v>
+        <v>1.383372277029743e-17</v>
       </c>
     </row>
     <row r="5">
@@ -7737,10 +7737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0345432608878328</v>
+        <v>0.001468255455371208</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2856023566552487</v>
+        <v>0.9646800105998687</v>
       </c>
     </row>
     <row r="6">
@@ -7750,10 +7750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.119391679830884e-06</v>
+        <v>-3.78408633307324e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9229764170395183</v>
+        <v>0.2597423473222653</v>
       </c>
     </row>
     <row r="7">
@@ -7763,10 +7763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.18433512732526</v>
+        <v>-26.76081938497297</v>
       </c>
       <c r="C7" t="n">
-        <v>7.24979021389709e-08</v>
+        <v>3.947430094053455e-07</v>
       </c>
     </row>
     <row r="8">
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-296.5277499956227</v>
+        <v>-860.1173868804751</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5336614234983261</v>
+        <v>0.06687440687346607</v>
       </c>
     </row>
     <row r="9">
@@ -7789,10 +7789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10137.12041351301</v>
+        <v>9209.608726469403</v>
       </c>
       <c r="C9" t="n">
-        <v>6.399406281190213e-25</v>
+        <v>4.83363451173286e-22</v>
       </c>
     </row>
     <row r="10">
@@ -7802,10 +7802,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.36901817534089</v>
+        <v>31.86451232857303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05928551942910068</v>
+        <v>0.002687665060868437</v>
       </c>
     </row>
   </sheetData>
@@ -7851,10 +7851,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3310.84701840463</v>
+        <v>3891.270401745378</v>
       </c>
       <c r="C2" t="n">
-        <v>4.65824279422788e-08</v>
+        <v>1.05353681969245e-10</v>
       </c>
     </row>
     <row r="3">
@@ -7864,10 +7864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.922414390611884</v>
+        <v>27.55831015032824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7863870321439796</v>
+        <v>0.3342218194970302</v>
       </c>
     </row>
     <row r="4">
@@ -7877,10 +7877,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.282710101258</v>
+        <v>154.4271242346144</v>
       </c>
       <c r="C4" t="n">
-        <v>2.489158652324337e-16</v>
+        <v>2.831148964854897e-15</v>
       </c>
     </row>
     <row r="5">
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02950586920441162</v>
+        <v>-0.03864748441004397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3429507500605037</v>
+        <v>0.2056896089312369</v>
       </c>
     </row>
     <row r="6">
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.246591266044355e-05</v>
+        <v>1.1106083340079e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7459137356909653</v>
+        <v>0.7456978306093618</v>
       </c>
     </row>
     <row r="7">
@@ -7916,10 +7916,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.05064322575738</v>
+        <v>-29.39233160415181</v>
       </c>
       <c r="C7" t="n">
-        <v>3.053603584397726e-08</v>
+        <v>6.160376498969029e-09</v>
       </c>
     </row>
     <row r="8">
@@ -7929,10 +7929,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-528.7755290327759</v>
+        <v>-385.4490893268212</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2561200367341262</v>
+        <v>0.3789679953244466</v>
       </c>
     </row>
     <row r="9">
@@ -7942,10 +7942,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9681.689366642786</v>
+        <v>7566.890671388891</v>
       </c>
       <c r="C9" t="n">
-        <v>1.346307176727365e-24</v>
+        <v>2.976367898600405e-14</v>
       </c>
     </row>
     <row r="10">
@@ -7955,10 +7955,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.7893158225462</v>
+        <v>25.44948035807079</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002634586758470149</v>
+        <v>0.01141802703640512</v>
       </c>
     </row>
   </sheetData>
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2835.024693732661</v>
+        <v>3410.770207032812</v>
       </c>
       <c r="C2" t="n">
-        <v>3.450624417966923e-06</v>
+        <v>1.256346616320567e-09</v>
       </c>
     </row>
     <row r="3">
@@ -8017,10 +8017,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.51672779700099</v>
+        <v>17.79376049924162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04586166596409432</v>
+        <v>0.4928223538818429</v>
       </c>
     </row>
     <row r="4">
@@ -8030,10 +8030,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.2398528465489</v>
+        <v>169.8781448374841</v>
       </c>
       <c r="C4" t="n">
-        <v>3.365156729863588e-18</v>
+        <v>2.329700098923165e-21</v>
       </c>
     </row>
     <row r="5">
@@ -8043,10 +8043,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004283443001367397</v>
+        <v>-0.002667309326128742</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8794014537297126</v>
+        <v>0.9200269279994757</v>
       </c>
     </row>
     <row r="6">
@@ -8056,10 +8056,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.892000159719632e-07</v>
+        <v>-2.473528153966167e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9766612654761797</v>
+        <v>0.390819661451089</v>
       </c>
     </row>
     <row r="7">
@@ -8069,10 +8069,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.42211185260619</v>
+        <v>-30.75197506513139</v>
       </c>
       <c r="C7" t="n">
-        <v>3.550326062550854e-10</v>
+        <v>2.220951559753559e-11</v>
       </c>
     </row>
     <row r="8">
@@ -8082,10 +8082,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-324.2510792128335</v>
+        <v>-117.2215169698177</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4573511471607519</v>
+        <v>0.7749569787900078</v>
       </c>
     </row>
     <row r="9">
@@ -8095,10 +8095,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8623.404545474777</v>
+        <v>9583.452659043687</v>
       </c>
       <c r="C9" t="n">
-        <v>6.742316022025508e-21</v>
+        <v>8.436970529988855e-29</v>
       </c>
     </row>
     <row r="10">
@@ -8108,10 +8108,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.09595967831548</v>
+        <v>24.48687589708886</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001868634182554515</v>
+        <v>0.01302967239653171</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/France_other.xlsx
+++ b/outputs/ML_Results/dist_LR/France_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ12689044" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ12806923" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ12927322" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ13071598" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ13211235" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ13359239" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ13504947" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ13667736" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ13806003" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ13959166" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ14123249" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ14274540" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ14422253" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ14591529" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ14760112" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ14930099" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ15103223" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ15290530" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ15465764" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ15655539" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ15840075" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ16007035" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ16168989" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ16342535" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ16522231" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ16689686" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ16857846" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ17021883" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ17204201" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ17374210" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ17535148" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ17757191" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ17909588" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ18064072" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ18221879" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ18371807" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ18538465" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ18688512" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ18838450" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ19016862" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ19186646" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ19340608" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ19505608" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ19664189" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ19825027" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ20009819" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ20170854" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ20338266" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ20488445" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ20665053" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ12403003" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ12560086" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ12705252" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ12837866" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ12973419" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ13113290" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ13260274" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ13393841" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ13526870" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ13655317" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ13783909" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ13918538" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ14046408" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ14175344" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ14305559" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ14434895" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ14563369" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ14710274" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ14850310" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ14989163" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ15119375" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ15246355" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ15389020" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ15517539" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ15737755" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ15867423" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ15994327" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ16125376" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ16254306" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ16382903" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ16509918" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ16638951" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ16774094" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ16909240" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ17039318" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ17171856" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ17306124" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ17441484" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ17572717" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ17713846" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ17841928" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ17967685" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ18101930" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ18236131" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ18363478" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ18493362" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ18620415" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ18747328" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ18877047" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ19007088" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4192.859688919649</v>
+        <v>2522.6371932543</v>
       </c>
       <c r="C2" t="n">
-        <v>2.182057991329513e-12</v>
+        <v>0.000224835718746459</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.09440166045992</v>
+        <v>10.73230491609152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7163513777460303</v>
+        <v>0.7014501337342616</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.1161684949688</v>
+        <v>185.2218430255772</v>
       </c>
       <c r="C4" t="n">
-        <v>3.317675248818602e-19</v>
+        <v>3.224629463963903e-21</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03975518756600747</v>
+        <v>-0.1197604491074158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2268400051412837</v>
+        <v>0.000240051061009402</v>
       </c>
     </row>
     <row r="6">
@@ -559,62 +559,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.609311554855753e-05</v>
+        <v>-1.049358244556375e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1474477760458154</v>
+        <v>0.7858246711772452</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.9905633004031</v>
+        <v>10.56707984112421</v>
       </c>
       <c r="C7" t="n">
-        <v>4.731859042491603e-07</v>
+        <v>0.001073806403790522</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-336.9759577392307</v>
+        <v>-1884.165168848087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4323546758861635</v>
+        <v>0.005488974863198091</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7968.18779930989</v>
+        <v>-954.5167901493988</v>
       </c>
       <c r="C9" t="n">
-        <v>2.381182484140003e-16</v>
+        <v>0.01832837426744971</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8157.81035024978</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.46495828892374e-17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>13.50216313526285</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1749044499963271</v>
+      <c r="B11" t="n">
+        <v>14.18943744073361</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1572337125096102</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3460.986835129127</v>
+        <v>1895.028453175001</v>
       </c>
       <c r="C2" t="n">
-        <v>6.98534307958536e-09</v>
+        <v>0.004532446450144668</v>
       </c>
     </row>
     <row r="3">
@@ -673,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.16320845556497</v>
+        <v>46.10166249405268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06997214898579134</v>
+        <v>0.1242498603711279</v>
       </c>
     </row>
     <row r="4">
@@ -686,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.3152135874057</v>
+        <v>176.1651466700637</v>
       </c>
       <c r="C4" t="n">
-        <v>3.62609168993002e-17</v>
+        <v>5.47026014153491e-19</v>
       </c>
     </row>
     <row r="5">
@@ -699,10 +712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03231900825039733</v>
+        <v>-0.09911000452598333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2989136604556287</v>
+        <v>0.00130055388490717</v>
       </c>
     </row>
     <row r="6">
@@ -712,62 +725,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.296138654174276e-05</v>
+        <v>1.610199686378599e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4939622033680706</v>
+        <v>0.6742904162110074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.08477035108455</v>
+        <v>11.38872476421016</v>
       </c>
       <c r="C7" t="n">
-        <v>2.493138608182089e-06</v>
+        <v>0.000306831935493063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-501.8725475604601</v>
+        <v>-2574.178256850741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2593466812953092</v>
+        <v>0.0005692066018396478</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9297.496540713597</v>
+        <v>-1128.982126712214</v>
       </c>
       <c r="C9" t="n">
-        <v>1.837380245174439e-22</v>
+        <v>0.005656120027769483</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9586.222085234167</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.988982738481827e-24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>21.91927687645675</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03310636190781076</v>
+      <c r="B11" t="n">
+        <v>20.45353124717587</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04621772458391719</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3019.552343366677</v>
+        <v>2168.891275083583</v>
       </c>
       <c r="C2" t="n">
-        <v>1.329210161553668e-07</v>
+        <v>0.001080707103048243</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.48087716073696</v>
+        <v>11.17017653390212</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7050648467199976</v>
+        <v>0.6894078435781346</v>
       </c>
     </row>
     <row r="4">
@@ -839,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.567681161351</v>
+        <v>174.9358915541137</v>
       </c>
       <c r="C4" t="n">
-        <v>1.406106564428688e-18</v>
+        <v>2.439853360293274e-20</v>
       </c>
     </row>
     <row r="5">
@@ -852,10 +878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04497141098871519</v>
+        <v>-0.09802482527519911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1426091256297251</v>
+        <v>0.001175811635394244</v>
       </c>
     </row>
     <row r="6">
@@ -865,62 +891,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.006475072624577e-05</v>
+        <v>-1.146720375419414e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3063368545512785</v>
+        <v>0.7357964235501762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.59162715727636</v>
+        <v>5.169475220008055</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00033938125219413</v>
+        <v>0.1160699085263732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-619.4775169299174</v>
+        <v>-1554.214687671934</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1418798968161033</v>
+        <v>0.02069654226252952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9687.349190065808</v>
+        <v>-1164.866190056766</v>
       </c>
       <c r="C9" t="n">
-        <v>7.625351933847263e-26</v>
+        <v>0.003318370604278337</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9970.704518410883</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.762406307379603e-27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.58833228870674</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.003423705996652704</v>
+      <c r="B11" t="n">
+        <v>27.90998028601116</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004577746097816341</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3888.48330280998</v>
+        <v>1871.789695333433</v>
       </c>
       <c r="C2" t="n">
-        <v>4.274818057133312e-10</v>
+        <v>0.007790591240303952</v>
       </c>
     </row>
     <row r="3">
@@ -979,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.36880087297981</v>
+        <v>22.08070066328856</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3658771294354328</v>
+        <v>0.4505717065613414</v>
       </c>
     </row>
     <row r="4">
@@ -992,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.5260057497219</v>
+        <v>169.2320649666473</v>
       </c>
       <c r="C4" t="n">
-        <v>1.003380339762621e-15</v>
+        <v>9.323060703559274e-18</v>
       </c>
     </row>
     <row r="5">
@@ -1005,10 +1044,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01681226435179393</v>
+        <v>-0.09348164261187131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5934378612724804</v>
+        <v>0.004508401609623431</v>
       </c>
     </row>
     <row r="6">
@@ -1018,62 +1057,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.389851380764604e-05</v>
+        <v>3.334234587105104e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3941527222875343</v>
+        <v>0.9434176344038903</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.29476768395594</v>
+        <v>14.06354525602801</v>
       </c>
       <c r="C7" t="n">
-        <v>6.937047303455115e-08</v>
+        <v>2.6278073037075e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-649.2560844644424</v>
+        <v>-2436.399867679687</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1581838100954478</v>
+        <v>0.001270304824713348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9107.923238497715</v>
+        <v>-1349.902751195505</v>
       </c>
       <c r="C9" t="n">
-        <v>3.577694613813254e-21</v>
+        <v>0.001320183062386199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9507.548176640061</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.176015435270261e-23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>21.777371556525</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04585124900187768</v>
+      <c r="B11" t="n">
+        <v>20.18209644317784</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06529580551514741</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3963.485428722602</v>
+        <v>1783.022601618931</v>
       </c>
       <c r="C2" t="n">
-        <v>2.131779785619903e-10</v>
+        <v>0.009734324053912721</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.22315833454758</v>
+        <v>13.50188127830221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4119294817653283</v>
+        <v>0.6471129970182596</v>
       </c>
     </row>
     <row r="4">
@@ -1145,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.4058013948888</v>
+        <v>166.1396951086489</v>
       </c>
       <c r="C4" t="n">
-        <v>3.305459469885653e-15</v>
+        <v>3.463698930922421e-18</v>
       </c>
     </row>
     <row r="5">
@@ -1158,10 +1210,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02892259155235168</v>
+        <v>-0.1073268659938876</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3317875033516106</v>
+        <v>0.0002811269665768091</v>
       </c>
     </row>
     <row r="6">
@@ -1171,62 +1223,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.642647955891046e-05</v>
+        <v>2.735508533524784e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6055204500264073</v>
+        <v>0.449297398869972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.42879560242291</v>
+        <v>15.28919689380525</v>
       </c>
       <c r="C7" t="n">
-        <v>6.272194114750535e-09</v>
+        <v>2.348166257255075e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-435.476285367035</v>
+        <v>-2865.130793107367</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3422802350468473</v>
+        <v>5.045895688769419e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7809.699241061693</v>
+        <v>-1259.504804944401</v>
       </c>
       <c r="C9" t="n">
-        <v>3.562166878497121e-15</v>
+        <v>0.002719827367659621</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8014.370139357272</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.776657681519748e-16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.8911259679012</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01399421756061791</v>
+      <c r="B11" t="n">
+        <v>26.838903379929</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01018478432833079</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1272,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3509.784222758395</v>
+        <v>1631.081220639412</v>
       </c>
       <c r="C2" t="n">
-        <v>4.420257923372391e-09</v>
+        <v>0.01563689123666416</v>
       </c>
     </row>
     <row r="3">
@@ -1285,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.13365146378232</v>
+        <v>23.03802586882761</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4052486228859946</v>
+        <v>0.4490539164596895</v>
       </c>
     </row>
     <row r="4">
@@ -1298,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.0823703167057</v>
+        <v>189.9344524879672</v>
       </c>
       <c r="C4" t="n">
-        <v>2.550213876864556e-19</v>
+        <v>1.058097338472901e-20</v>
       </c>
     </row>
     <row r="5">
@@ -1311,10 +1376,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005981152259065398</v>
+        <v>-0.07142955278823203</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8478661334419627</v>
+        <v>0.02159546717345448</v>
       </c>
     </row>
     <row r="6">
@@ -1324,62 +1389,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.984027354664163e-05</v>
+        <v>-5.22174326564658e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2121178178234071</v>
+        <v>0.887683492729419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.8298913457896</v>
+        <v>12.54119673050849</v>
       </c>
       <c r="C7" t="n">
-        <v>4.141176457989607e-09</v>
+        <v>6.799672111018632e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-653.9853824561574</v>
+        <v>-2588.674603814391</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1530535702852363</v>
+        <v>0.000283669663605062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8744.122450018571</v>
+        <v>-1577.639327464588</v>
       </c>
       <c r="C9" t="n">
-        <v>4.571142623301148e-21</v>
+        <v>0.000192783966417363</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9084.681939419876</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.106949372540905e-22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.00277449810886</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.006639504167154323</v>
+      <c r="B11" t="n">
+        <v>28.70751826955075</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005620690453541307</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3311.647461713098</v>
+        <v>1035.542790504074</v>
       </c>
       <c r="C2" t="n">
-        <v>3.075099850511113e-08</v>
+        <v>0.1305415075226241</v>
       </c>
     </row>
     <row r="3">
@@ -1438,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.65099465753307</v>
+        <v>32.57810775431999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1716069440003012</v>
+        <v>0.2459528701165997</v>
       </c>
     </row>
     <row r="4">
@@ -1451,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.2941127447598</v>
+        <v>182.9971159020309</v>
       </c>
       <c r="C4" t="n">
-        <v>1.535204281164028e-18</v>
+        <v>8.055218931159581e-22</v>
       </c>
     </row>
     <row r="5">
@@ -1464,10 +1542,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0137410428530165</v>
+        <v>-0.09274315170530793</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6539004938535371</v>
+        <v>0.001975167053511085</v>
       </c>
     </row>
     <row r="6">
@@ -1477,62 +1555,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.539617689182674e-06</v>
+        <v>1.606286990540206e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7894929984482433</v>
+        <v>0.6608323633046882</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.01361007600445</v>
+        <v>15.42766385768857</v>
       </c>
       <c r="C7" t="n">
-        <v>1.380328980163352e-09</v>
+        <v>1.728827386167505e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-384.9239799076987</v>
+        <v>-1504.221726018562</v>
       </c>
       <c r="C8" t="n">
-        <v>0.362659708684276</v>
+        <v>0.02761487312465212</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10399.23523682271</v>
+        <v>-1052.576607639849</v>
       </c>
       <c r="C9" t="n">
-        <v>6.794778895973494e-27</v>
+        <v>0.008152088915655144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10755.36171114539</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.440955635599066e-28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>23.89358554352055</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01702716051228582</v>
+      <c r="B11" t="n">
+        <v>21.84488710054896</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03134891620001677</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1578,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3692.685873059163</v>
+        <v>1595.9268296703</v>
       </c>
       <c r="C2" t="n">
-        <v>1.407031639300641e-09</v>
+        <v>0.02053476816016853</v>
       </c>
     </row>
     <row r="3">
@@ -1591,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.727981211762277</v>
+        <v>2.200663265491301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7610703753518441</v>
+        <v>0.9395429528906587</v>
       </c>
     </row>
     <row r="4">
@@ -1604,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.926821744432</v>
+        <v>180.4774439154045</v>
       </c>
       <c r="C4" t="n">
-        <v>3.510063385843129e-18</v>
+        <v>9.303911494123282e-21</v>
       </c>
     </row>
     <row r="5">
@@ -1617,10 +1708,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03182185562408101</v>
+        <v>-0.08982244489502031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.310330238055669</v>
+        <v>0.004066078605613808</v>
       </c>
     </row>
     <row r="6">
@@ -1630,62 +1721,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.63220053342687e-06</v>
+        <v>-4.128175089271734e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8243377793176019</v>
+        <v>0.9913656272225344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.08662898723118</v>
+        <v>13.69517301885964</v>
       </c>
       <c r="C7" t="n">
-        <v>1.294054314891223e-07</v>
+        <v>4.010487582829264e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-510.3291747819152</v>
+        <v>-1988.184663605108</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2642604387917181</v>
+        <v>0.005151733828954433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8527.960936269317</v>
+        <v>-1260.969781482788</v>
       </c>
       <c r="C9" t="n">
-        <v>2.483902796970035e-19</v>
+        <v>0.002617955127636068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9047.70751248393</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.163858971892515e-21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.28581556722597</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01341926165937069</v>
+      <c r="B11" t="n">
+        <v>26.78067661851819</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.008920121113855983</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1731,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4092.692616702611</v>
+        <v>2095.898612177113</v>
       </c>
       <c r="C2" t="n">
-        <v>1.753316761022969e-11</v>
+        <v>0.003005902600153265</v>
       </c>
     </row>
     <row r="3">
@@ -1744,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.45867651053855</v>
+        <v>34.29453161064457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1931571675682301</v>
+        <v>0.2415560564756342</v>
       </c>
     </row>
     <row r="4">
@@ -1757,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.3258544094345</v>
+        <v>162.14804935324</v>
       </c>
       <c r="C4" t="n">
-        <v>1.181979058740857e-14</v>
+        <v>9.267735408221228e-17</v>
       </c>
     </row>
     <row r="5">
@@ -1770,10 +1874,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02444296833262434</v>
+        <v>-0.1000335560095522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4401694368181552</v>
+        <v>0.001728227014516428</v>
       </c>
     </row>
     <row r="6">
@@ -1783,62 +1887,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.279517159983451e-05</v>
+        <v>-4.562062291647494e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4896461770491743</v>
+        <v>0.9056306841781373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.77967357840528</v>
+        <v>12.92633332098725</v>
       </c>
       <c r="C7" t="n">
-        <v>1.340617463866209e-08</v>
+        <v>0.000193754110236414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-371.838373233154</v>
+        <v>-1955.747682118701</v>
       </c>
       <c r="C8" t="n">
-        <v>0.409697432841758</v>
+        <v>0.005152040810139356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9577.768045861074</v>
+        <v>-1149.157292068915</v>
       </c>
       <c r="C9" t="n">
-        <v>6.616554116898738e-23</v>
+        <v>0.006727323640676623</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9904.728446240068</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.781145693081995e-24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>12.79507369806173</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.220175201563583</v>
+      <c r="B11" t="n">
+        <v>13.67433771746484</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1950868276071283</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1884,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4131.788984440305</v>
+        <v>2036.358801704823</v>
       </c>
       <c r="C2" t="n">
-        <v>9.945525051960536e-12</v>
+        <v>0.002537986874214156</v>
       </c>
     </row>
     <row r="3">
@@ -1897,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.653396399263141</v>
+        <v>-5.164099351629105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.843467058783927</v>
+        <v>0.8564373899317353</v>
       </c>
     </row>
     <row r="4">
@@ -1910,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.2328208997936</v>
+        <v>167.937063456192</v>
       </c>
       <c r="C4" t="n">
-        <v>1.43601227586222e-15</v>
+        <v>4.339566502490129e-18</v>
       </c>
     </row>
     <row r="5">
@@ -1923,10 +2040,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01923593344862203</v>
+        <v>-0.1115770560102628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5215304205615289</v>
+        <v>0.0001899183425723983</v>
       </c>
     </row>
     <row r="6">
@@ -1936,62 +2053,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.349878726192028e-05</v>
+        <v>2.862516432021423e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3179024704617207</v>
+        <v>0.4596052354089116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.27470097539884</v>
+        <v>15.2797819653443</v>
       </c>
       <c r="C7" t="n">
-        <v>8.241570188109895e-09</v>
+        <v>1.775306676751086e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-795.5783987910713</v>
+        <v>-2948.324628310119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07441684027144746</v>
+        <v>2.161930839118732e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7954.604264978194</v>
+        <v>-1501.08898992965</v>
       </c>
       <c r="C9" t="n">
-        <v>2.913248382751608e-16</v>
+        <v>0.0002639058398856286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8174.278045461374</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.272874302373406e-17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.9318321316718</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01177353518152494</v>
+      <c r="B11" t="n">
+        <v>24.75545324623002</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01552622152902031</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2037,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3397.387264258425</v>
+        <v>1355.559291425874</v>
       </c>
       <c r="C2" t="n">
-        <v>1.659225596938686e-08</v>
+        <v>0.04267198604458947</v>
       </c>
     </row>
     <row r="3">
@@ -2050,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.55960224684487</v>
+        <v>33.26011493638883</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2364737548939758</v>
+        <v>0.2569571233927688</v>
       </c>
     </row>
     <row r="4">
@@ -2063,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.9667732710959</v>
+        <v>187.8176344621769</v>
       </c>
       <c r="C4" t="n">
-        <v>5.797769099486454e-19</v>
+        <v>3.489710270058316e-21</v>
       </c>
     </row>
     <row r="5">
@@ -2076,10 +2206,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02282769006086557</v>
+        <v>-0.08727460526623113</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4608824452418286</v>
+        <v>0.004015819151306192</v>
       </c>
     </row>
     <row r="6">
@@ -2089,62 +2219,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.716277988979499e-05</v>
+        <v>-5.319888710247416e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5789145195622512</v>
+        <v>0.8823914068320331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.98558307639485</v>
+        <v>13.69353587656622</v>
       </c>
       <c r="C7" t="n">
-        <v>2.551048326444183e-07</v>
+        <v>1.672448076469924e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-285.1496102567755</v>
+        <v>-1514.355070157477</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5195692331802937</v>
+        <v>0.03028981803744988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9204.106919143151</v>
+        <v>-912.8690942293149</v>
       </c>
       <c r="C9" t="n">
-        <v>5.912491489029464e-23</v>
+        <v>0.02623296122685508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9589.742146315177</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.367728737746943e-24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>22.19645684052699</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03346399109526251</v>
+      <c r="B11" t="n">
+        <v>21.66852963913565</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03877050911817459</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3745.797038758166</v>
+        <v>1814.627216998815</v>
       </c>
       <c r="C2" t="n">
-        <v>8.322010079744817e-09</v>
+        <v>0.01338810330461591</v>
       </c>
     </row>
     <row r="3">
@@ -2203,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.331722552243647</v>
+        <v>1.933171123265375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8377208012229114</v>
+        <v>0.9500924877100292</v>
       </c>
     </row>
     <row r="4">
@@ -2216,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.2212046186711</v>
+        <v>183.4590748915525</v>
       </c>
       <c r="C4" t="n">
-        <v>2.257999438816588e-17</v>
+        <v>1.053385089702724e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2229,10 +2372,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02637688206261909</v>
+        <v>-0.1026664302682633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4339955749337266</v>
+        <v>0.001685845868558437</v>
       </c>
     </row>
     <row r="6">
@@ -2242,62 +2385,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.362314300493504e-05</v>
+        <v>1.146828025791677e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4745902069053889</v>
+        <v>0.7580626835777344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.06438725538402</v>
+        <v>13.16617873054106</v>
       </c>
       <c r="C7" t="n">
-        <v>7.612932329034208e-07</v>
+        <v>0.0001500840570321177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-519.5753023479998</v>
+        <v>-2500.003010591076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2740138242833343</v>
+        <v>0.0005368638135511729</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9054.954931128817</v>
+        <v>-1287.613147609052</v>
       </c>
       <c r="C9" t="n">
-        <v>1.573589527131978e-19</v>
+        <v>0.003127181450287309</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9412.527054509774</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.011842235530933e-21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>21.99130080605529</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04309357959420376</v>
+      <c r="B11" t="n">
+        <v>22.76728583156738</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03562154893107769</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2343,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2499.936628689329</v>
+        <v>1374.49896520295</v>
       </c>
       <c r="C2" t="n">
-        <v>2.276082119043081e-05</v>
+        <v>0.04425992436913063</v>
       </c>
     </row>
     <row r="3">
@@ -2356,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.18241473274706</v>
+        <v>41.70387809017796</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1271534643976749</v>
+        <v>0.1547866402590293</v>
       </c>
     </row>
     <row r="4">
@@ -2369,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.2486407693539</v>
+        <v>182.804052818818</v>
       </c>
       <c r="C4" t="n">
-        <v>3.560328623770367e-19</v>
+        <v>2.698774178997465e-21</v>
       </c>
     </row>
     <row r="5">
@@ -2382,10 +2538,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00522115970768434</v>
+        <v>-0.0755459887160151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8593158570648209</v>
+        <v>0.01117118041721618</v>
       </c>
     </row>
     <row r="6">
@@ -2395,62 +2551,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.855367595706854e-05</v>
+        <v>1.266831214172076e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3657325648418026</v>
+        <v>0.7329286827628394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.85796042024143</v>
+        <v>8.370041331868272</v>
       </c>
       <c r="C7" t="n">
-        <v>1.633767771326747e-07</v>
+        <v>0.006765397197302824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-726.9886092102627</v>
+        <v>-2620.6852618601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08643890647378118</v>
+        <v>0.000321476624799303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10267.29797256862</v>
+        <v>-1538.188729308958</v>
       </c>
       <c r="C9" t="n">
-        <v>2.386796365564297e-27</v>
+        <v>0.0001003818519340315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10359.00889313436</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.579382555041849e-27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>41.20046765701925</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.327161404454407e-05</v>
+      <c r="B11" t="n">
+        <v>37.448282108025</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0002772663636162546</v>
       </c>
     </row>
   </sheetData>
@@ -2464,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2496,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3205.316452669374</v>
+        <v>1511.221431206318</v>
       </c>
       <c r="C2" t="n">
-        <v>1.18586658987611e-07</v>
+        <v>0.0280002090662214</v>
       </c>
     </row>
     <row r="3">
@@ -2509,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.23607299882816</v>
+        <v>37.75809488245778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1133936377415012</v>
+        <v>0.222916494616321</v>
       </c>
     </row>
     <row r="4">
@@ -2522,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.9748233812484</v>
+        <v>200.2408380974836</v>
       </c>
       <c r="C4" t="n">
-        <v>1.272120864697709e-20</v>
+        <v>3.831551713236217e-23</v>
       </c>
     </row>
     <row r="5">
@@ -2535,10 +2704,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01706800986894173</v>
+        <v>-0.08402268217190266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5657842807084528</v>
+        <v>0.004643261856514985</v>
       </c>
     </row>
     <row r="6">
@@ -2548,62 +2717,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.960907813404629e-06</v>
+        <v>1.860458922569958e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8762245309784659</v>
+        <v>0.6117652954495068</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.09192477325761</v>
+        <v>12.29506644282455</v>
       </c>
       <c r="C7" t="n">
-        <v>8.646152828489703e-07</v>
+        <v>0.0002338072634816911</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-774.9866290680869</v>
+        <v>-1979.21835424766</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08224226336404107</v>
+        <v>0.005456259808417238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9017.981386052288</v>
+        <v>-1443.93771451197</v>
       </c>
       <c r="C9" t="n">
-        <v>8.271536144591752e-22</v>
+        <v>0.0005249619535522409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9250.107201223367</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.030701903891421e-23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>26.61748070122441</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01041940247039817</v>
+      <c r="B11" t="n">
+        <v>24.73909301156247</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0178177696766328</v>
       </c>
     </row>
   </sheetData>
@@ -2617,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2649,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3453.96103026604</v>
+        <v>1247.501667436851</v>
       </c>
       <c r="C2" t="n">
-        <v>3.041128908745556e-09</v>
+        <v>0.06118907967076768</v>
       </c>
     </row>
     <row r="3">
@@ -2662,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.61018992098289</v>
+        <v>1.153395912307332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8108889514291113</v>
+        <v>0.9669638635775751</v>
       </c>
     </row>
     <row r="4">
@@ -2675,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.7915948633126</v>
+        <v>176.6601928234701</v>
       </c>
       <c r="C4" t="n">
-        <v>1.99506601775741e-18</v>
+        <v>8.507601537055283e-21</v>
       </c>
     </row>
     <row r="5">
@@ -2688,10 +2870,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01618795512923338</v>
+        <v>-0.08495119938238244</v>
       </c>
       <c r="C5" t="n">
-        <v>0.587340995368447</v>
+        <v>0.003535161297817046</v>
       </c>
     </row>
     <row r="6">
@@ -2701,62 +2883,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.58422476446587e-05</v>
+        <v>-7.61347536215808e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3931961141674147</v>
+        <v>0.8253152284146624</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.27270927274997</v>
+        <v>14.73802163336905</v>
       </c>
       <c r="C7" t="n">
-        <v>1.03168919791079e-08</v>
+        <v>3.314581932709291e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-461.3421342913387</v>
+        <v>-1994.806724783602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2842634270008157</v>
+        <v>0.004586533746124849</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10052.29507430355</v>
+        <v>-1135.801729382551</v>
       </c>
       <c r="C9" t="n">
-        <v>1.268619044182876e-28</v>
+        <v>0.004752151499211327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10257.80433051385</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.396965026341608e-29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>26.15990616995438</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.009635608952911009</v>
+      <c r="B11" t="n">
+        <v>27.38015704259303</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.007015306053098202</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2802,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3923.816891504849</v>
+        <v>1801.545899462844</v>
       </c>
       <c r="C2" t="n">
-        <v>1.829238980977764e-10</v>
+        <v>0.009939872877359717</v>
       </c>
     </row>
     <row r="3">
@@ -2815,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.21648397942346</v>
+        <v>19.62978331748685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4543839751910169</v>
+        <v>0.5077087071954931</v>
       </c>
     </row>
     <row r="4">
@@ -2828,10 +3023,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.4882856695484</v>
+        <v>164.7260514983088</v>
       </c>
       <c r="C4" t="n">
-        <v>5.69812520263571e-15</v>
+        <v>7.077829407657774e-17</v>
       </c>
     </row>
     <row r="5">
@@ -2841,10 +3036,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03209096628285806</v>
+        <v>-0.0963536789081125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3030404665394694</v>
+        <v>0.00192426005990418</v>
       </c>
     </row>
     <row r="6">
@@ -2854,62 +3049,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.453733852955244e-05</v>
+        <v>8.800556637522802e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6933676033069209</v>
+        <v>0.8294558902223343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.88108775762684</v>
+        <v>14.32043023107021</v>
       </c>
       <c r="C7" t="n">
-        <v>1.03125098974976e-07</v>
+        <v>2.026587147739982e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-702.8696055829587</v>
+        <v>-2337.243664792337</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1315654342164538</v>
+        <v>0.0009514674455262465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9154.124616914023</v>
+        <v>-1520.82064840345</v>
       </c>
       <c r="C9" t="n">
-        <v>2.122244865750926e-22</v>
+        <v>0.0003083672451015374</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9597.872006590593</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.631631064613589e-24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>22.91239167220595</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02807543186224844</v>
+      <c r="B11" t="n">
+        <v>24.2763581258252</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01963904658296347</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3811.961881844959</v>
+        <v>2160.667590624123</v>
       </c>
       <c r="C2" t="n">
-        <v>2.566869654028889e-10</v>
+        <v>0.001700956507745702</v>
       </c>
     </row>
     <row r="3">
@@ -2968,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04063775345904297</v>
+        <v>-3.75257900978806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9988656534440146</v>
+        <v>0.8964542024610563</v>
       </c>
     </row>
     <row r="4">
@@ -2981,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.2590194027647</v>
+        <v>177.6777133259152</v>
       </c>
       <c r="C4" t="n">
-        <v>6.987855219916904e-18</v>
+        <v>1.863980355333628e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2994,10 +3202,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04096126749628529</v>
+        <v>-0.1212281429789515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1990297365448361</v>
+        <v>0.0001685659720821746</v>
       </c>
     </row>
     <row r="6">
@@ -3007,62 +3215,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.575903299766769e-05</v>
+        <v>1.949452344344953e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6186362495870766</v>
+        <v>0.5992246845329225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.06123749887468</v>
+        <v>11.99020691676841</v>
       </c>
       <c r="C7" t="n">
-        <v>4.664279028027494e-08</v>
+        <v>0.0002468173043702999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-48.84970067143001</v>
+        <v>-2351.431978416955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9113774740417634</v>
+        <v>0.0006270584522893017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8673.391352644092</v>
+        <v>-781.6041777955131</v>
       </c>
       <c r="C9" t="n">
-        <v>9.343184878580727e-18</v>
+        <v>0.05543521462300108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8934.720226594185</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.354148804651784e-18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>18.69558541766629</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06356029725737562</v>
+      <c r="B11" t="n">
+        <v>16.49340144674257</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1052644820481651</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3108,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3505.2298969615</v>
+        <v>1802.336748294218</v>
       </c>
       <c r="C2" t="n">
-        <v>1.219189253876584e-08</v>
+        <v>0.008213730114236848</v>
       </c>
     </row>
     <row r="3">
@@ -3121,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.85319588209082</v>
+        <v>52.80186375289883</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05373247637958235</v>
+        <v>0.06231282655449817</v>
       </c>
     </row>
     <row r="4">
@@ -3134,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.8999123674394</v>
+        <v>160.1576042928324</v>
       </c>
       <c r="C4" t="n">
-        <v>1.825204418595583e-14</v>
+        <v>2.122618228425716e-17</v>
       </c>
     </row>
     <row r="5">
@@ -3147,10 +3368,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01064630965781038</v>
+        <v>-0.07507996234358623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7312884759933773</v>
+        <v>0.016962853951673</v>
       </c>
     </row>
     <row r="6">
@@ -3160,62 +3381,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.374858706268452e-05</v>
+        <v>-1.687413867799925e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.10476460727671</v>
+        <v>0.6739072337895129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.55910386215515</v>
+        <v>10.26704563504349</v>
       </c>
       <c r="C7" t="n">
-        <v>3.682936884048124e-08</v>
+        <v>0.0009893450795597223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-761.2472768023929</v>
+        <v>-2244.636264554437</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08235032435754619</v>
+        <v>0.001881173552569781</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8429.996610799964</v>
+        <v>-1503.061124926675</v>
       </c>
       <c r="C9" t="n">
-        <v>1.304574240882814e-17</v>
+        <v>0.0002596490775369545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8903.075197685961</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.044053863796353e-19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>31.70866417176754</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.002586324020620057</v>
+      <c r="B11" t="n">
+        <v>31.38370018682279</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003134599223596556</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3261,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3800.819299810892</v>
+        <v>1852.597997905522</v>
       </c>
       <c r="C2" t="n">
-        <v>2.240874284517733e-09</v>
+        <v>0.01082391994056599</v>
       </c>
     </row>
     <row r="3">
@@ -3274,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.87577160975304</v>
+        <v>29.05094189834021</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2075069660513971</v>
+        <v>0.3487636729852563</v>
       </c>
     </row>
     <row r="4">
@@ -3287,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.4234126296523</v>
+        <v>172.9566651168779</v>
       </c>
       <c r="C4" t="n">
-        <v>7.814829230097451e-16</v>
+        <v>4.107861145956519e-18</v>
       </c>
     </row>
     <row r="5">
@@ -3300,10 +3534,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02851353693388815</v>
+        <v>-0.1033402396580214</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3745827819857763</v>
+        <v>0.00121614079666308</v>
       </c>
     </row>
     <row r="6">
@@ -3313,62 +3547,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.206421564988003e-05</v>
+        <v>2.319016569525458e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7220173861348903</v>
+        <v>0.5438263307927154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.39835532611973</v>
+        <v>13.80612635817294</v>
       </c>
       <c r="C7" t="n">
-        <v>2.160090953681182e-08</v>
+        <v>2.196613745891801e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-276.1039624806338</v>
+        <v>-2701.62906587214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5496919560233615</v>
+        <v>0.0001986871073877077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8999.980012191838</v>
+        <v>-1109.680598029164</v>
       </c>
       <c r="C9" t="n">
-        <v>1.143915169074591e-20</v>
+        <v>0.009209702682387046</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9453.905237341725</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.543389312198199e-22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>19.21426896366229</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08215966849481798</v>
+      <c r="B11" t="n">
+        <v>18.05593733814975</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1034763163250388</v>
       </c>
     </row>
   </sheetData>
@@ -3382,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3414,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3749.797165221501</v>
+        <v>1967.314607948193</v>
       </c>
       <c r="C2" t="n">
-        <v>5.931557912233842e-11</v>
+        <v>0.002349690397097835</v>
       </c>
     </row>
     <row r="3">
@@ -3427,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.58811720990837</v>
+        <v>16.36560861127496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5653581359826131</v>
+        <v>0.5505117826563494</v>
       </c>
     </row>
     <row r="4">
@@ -3440,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.8371188355068</v>
+        <v>169.1625233012005</v>
       </c>
       <c r="C4" t="n">
-        <v>7.556183370182302e-17</v>
+        <v>2.358009763462191e-19</v>
       </c>
     </row>
     <row r="5">
@@ -3453,10 +3700,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01329324109051462</v>
+        <v>-0.09041130375675184</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6370380593941666</v>
+        <v>0.001464262928572066</v>
       </c>
     </row>
     <row r="6">
@@ -3466,62 +3713,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.412184182725455e-05</v>
+        <v>9.432576395509935e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.431171440121717</v>
+        <v>0.7923255741708869</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.81559157364156</v>
+        <v>11.46278494176303</v>
       </c>
       <c r="C7" t="n">
-        <v>1.907620671273697e-09</v>
+        <v>0.0002513563030459984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-523.3534261684925</v>
+        <v>-2393.869925615301</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2216789302445795</v>
+        <v>0.0002854598762543418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8976.397560867452</v>
+        <v>-1386.556671146922</v>
       </c>
       <c r="C9" t="n">
-        <v>2.844227978670161e-23</v>
+        <v>0.0005175704324193195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9330.6666412305</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.053965162774101e-24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.29214188906447</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01485438411112972</v>
+      <c r="B11" t="n">
+        <v>23.97431736673154</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01724987114352228</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3567,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3641.404163907747</v>
+        <v>1929.144343110022</v>
       </c>
       <c r="C2" t="n">
-        <v>1.773022043655992e-09</v>
+        <v>0.004028980929124468</v>
       </c>
     </row>
     <row r="3">
@@ -3580,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.897865628560595</v>
+        <v>9.644889949946865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.718067917226333</v>
+        <v>0.7264185211697685</v>
       </c>
     </row>
     <row r="4">
@@ -3593,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9358905705586</v>
+        <v>198.9275457654376</v>
       </c>
       <c r="C4" t="n">
-        <v>1.056266163721845e-22</v>
+        <v>6.994053335369803e-25</v>
       </c>
     </row>
     <row r="5">
@@ -3606,10 +3866,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006989716869268081</v>
+        <v>-0.07983631024917426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8106261969104805</v>
+        <v>0.006033679554123109</v>
       </c>
     </row>
     <row r="6">
@@ -3619,62 +3879,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.803288243657118e-05</v>
+        <v>-1.579466429854029e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1273676916557939</v>
+        <v>0.6647581670598097</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.56967451939916</v>
+        <v>11.00772490828357</v>
       </c>
       <c r="C7" t="n">
-        <v>1.857023234205458e-07</v>
+        <v>0.0005438685999074933</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-604.4931645516943</v>
+        <v>-2195.88551062765</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1566130552212505</v>
+        <v>0.001171987672789716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7993.21917079673</v>
+        <v>-1283.469084682157</v>
       </c>
       <c r="C9" t="n">
-        <v>9.977892837558639e-16</v>
+        <v>0.001355032671235092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8334.191802592311</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.131015475826216e-17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.21066407790147</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01733043898132584</v>
+      <c r="B11" t="n">
+        <v>25.0078249865136</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01420910660943933</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3720,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3177.682756473709</v>
+        <v>1590.199472858527</v>
       </c>
       <c r="C2" t="n">
-        <v>1.604705413889008e-07</v>
+        <v>0.01964638637268418</v>
       </c>
     </row>
     <row r="3">
@@ -3733,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.59736435112971</v>
+        <v>25.73127842784208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3096547626729778</v>
+        <v>0.3830344459788146</v>
       </c>
     </row>
     <row r="4">
@@ -3746,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.9099318087489</v>
+        <v>166.7771814920385</v>
       </c>
       <c r="C4" t="n">
-        <v>2.248039667806135e-15</v>
+        <v>1.555396433301658e-17</v>
       </c>
     </row>
     <row r="5">
@@ -3759,10 +4032,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01337711629792189</v>
+        <v>-0.0839128952285967</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6560648825321207</v>
+        <v>0.005598256926628952</v>
       </c>
     </row>
     <row r="6">
@@ -3772,62 +4045,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.541014380062653e-05</v>
+        <v>-6.240137745911751e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2633145780298169</v>
+        <v>0.8692791296582474</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.19748675504658</v>
+        <v>10.81573547694716</v>
       </c>
       <c r="C7" t="n">
-        <v>1.220497530333855e-06</v>
+        <v>0.0006557905787744503</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-877.2414409874139</v>
+        <v>-1963.688394034639</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04808403128341857</v>
+        <v>0.008359990468392418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9845.732489268214</v>
+        <v>-1503.989929272932</v>
       </c>
       <c r="C9" t="n">
-        <v>1.209937024369702e-24</v>
+        <v>0.0002676329810106327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10035.66422344367</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.598098789889031e-25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>33.33675895715434</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001097840910035117</v>
+      <c r="B11" t="n">
+        <v>32.07065334296225</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001850367808279654</v>
       </c>
     </row>
   </sheetData>
@@ -3841,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3873,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3012.276743359899</v>
+        <v>1353.800124008082</v>
       </c>
       <c r="C2" t="n">
-        <v>2.122178657794869e-07</v>
+        <v>0.04104701297009798</v>
       </c>
     </row>
     <row r="3">
@@ -3886,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.3616196883175</v>
+        <v>53.15209541047049</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06778149297629713</v>
+        <v>0.07586554376353392</v>
       </c>
     </row>
     <row r="4">
@@ -3899,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.188671396833</v>
+        <v>173.4217777288538</v>
       </c>
       <c r="C4" t="n">
-        <v>7.287418434042696e-17</v>
+        <v>7.393769538704488e-19</v>
       </c>
     </row>
     <row r="5">
@@ -3912,10 +4198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03339684152476214</v>
+        <v>-0.0887780522848373</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2514898118352087</v>
+        <v>0.002702240920533057</v>
       </c>
     </row>
     <row r="6">
@@ -3925,62 +4211,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.258776647732084e-05</v>
+        <v>2.825220112739827e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3373569029365171</v>
+        <v>0.4547142015936452</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.54298059555584</v>
+        <v>10.35233501530938</v>
       </c>
       <c r="C7" t="n">
-        <v>1.067892870447786e-07</v>
+        <v>0.0009495862858266651</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-449.4969372493719</v>
+        <v>-1454.564803103787</v>
       </c>
       <c r="C8" t="n">
-        <v>0.302797240690059</v>
+        <v>0.04034325090130603</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9617.281113890103</v>
+        <v>-1262.484437596247</v>
       </c>
       <c r="C9" t="n">
-        <v>4.032099355892676e-26</v>
+        <v>0.001796903425739367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9882.31986559683</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.414188020262918e-27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.94690246698301</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.003610500783591447</v>
+      <c r="B11" t="n">
+        <v>28.81942267313796</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004315189331349931</v>
       </c>
     </row>
   </sheetData>
@@ -3994,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4026,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3546.559493610384</v>
+        <v>1197.017748281922</v>
       </c>
       <c r="C2" t="n">
-        <v>4.374395593968232e-09</v>
+        <v>0.08910094862666149</v>
       </c>
     </row>
     <row r="3">
@@ -4039,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.1765479559663</v>
+        <v>24.21287898095976</v>
       </c>
       <c r="C3" t="n">
-        <v>0.227980388064643</v>
+        <v>0.4256567531317654</v>
       </c>
     </row>
     <row r="4">
@@ -4052,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.6586466201338</v>
+        <v>170.7744602051207</v>
       </c>
       <c r="C4" t="n">
-        <v>8.071434316346476e-16</v>
+        <v>5.406922749893556e-18</v>
       </c>
     </row>
     <row r="5">
@@ -4065,10 +4364,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.032611504107641</v>
+        <v>-0.1008109196181894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3445467892787178</v>
+        <v>0.002882651976317941</v>
       </c>
     </row>
     <row r="6">
@@ -4078,62 +4377,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.482920656372177e-06</v>
+        <v>8.376152416392749e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8345735141069808</v>
+        <v>0.8345626715067902</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.72980008526695</v>
+        <v>16.81350361061195</v>
       </c>
       <c r="C7" t="n">
-        <v>7.893320097047272e-08</v>
+        <v>2.02526083018783e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-410.6787040371036</v>
+        <v>-1634.317840947307</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3738006510458007</v>
+        <v>0.02457431680724973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9535.149288184013</v>
+        <v>-1115.343699260109</v>
       </c>
       <c r="C9" t="n">
-        <v>2.366568554422442e-23</v>
+        <v>0.008415588266134814</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9860.676637713404</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.133492541343905e-25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.74653534562853</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01541914863804676</v>
+      <c r="B11" t="n">
+        <v>24.29652699752588</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01763379782067313</v>
       </c>
     </row>
   </sheetData>
@@ -4147,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4179,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4535.710722199089</v>
+        <v>2746.927028823468</v>
       </c>
       <c r="C2" t="n">
-        <v>1.144640049234098e-13</v>
+        <v>8.336614642003343e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4192,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.24397591575082</v>
+        <v>7.653687433483405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6121985697203887</v>
+        <v>0.7872735818179966</v>
       </c>
     </row>
     <row r="4">
@@ -4205,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.0048920722616</v>
+        <v>152.7755168053713</v>
       </c>
       <c r="C4" t="n">
-        <v>1.187020706831441e-12</v>
+        <v>7.192155747462312e-15</v>
       </c>
     </row>
     <row r="5">
@@ -4218,10 +4530,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03160847649404652</v>
+        <v>-0.1015862540535795</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2968429028386081</v>
+        <v>0.001063150638016695</v>
       </c>
     </row>
     <row r="6">
@@ -4231,62 +4543,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.882330096194748e-05</v>
+        <v>4.169757427354391e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.611486668847756</v>
+        <v>0.918483537608916</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.03653169125566</v>
+        <v>12.32151686016906</v>
       </c>
       <c r="C7" t="n">
-        <v>2.848002382408355e-08</v>
+        <v>0.0001092768625665009</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-550.9865595613952</v>
+        <v>-2495.546697938492</v>
       </c>
       <c r="C8" t="n">
-        <v>0.233498976339491</v>
+        <v>0.0002683741763287233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8554.837693985452</v>
+        <v>-1409.957083228665</v>
       </c>
       <c r="C9" t="n">
-        <v>1.3344406717712e-19</v>
+        <v>0.0008801724669399324</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9106.434038875246</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.47006112926272e-22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>11.09695613759778</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2882384567741432</v>
+      <c r="B11" t="n">
+        <v>9.892893700528976</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3468581803420434</v>
       </c>
     </row>
   </sheetData>
@@ -4300,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4332,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3050.558997405587</v>
+        <v>1458.261810438561</v>
       </c>
       <c r="C2" t="n">
-        <v>3.162403418593091e-07</v>
+        <v>0.033818822645399</v>
       </c>
     </row>
     <row r="3">
@@ -4345,10 +4670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.27461917386474</v>
+        <v>38.57017363655682</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1110387076523591</v>
+        <v>0.2072324638528479</v>
       </c>
     </row>
     <row r="4">
@@ -4358,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.7653527639067</v>
+        <v>177.7895497321659</v>
       </c>
       <c r="C4" t="n">
-        <v>2.090678078717264e-17</v>
+        <v>1.141320909255723e-19</v>
       </c>
     </row>
     <row r="5">
@@ -4371,10 +4696,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01453133870671358</v>
+        <v>-0.08130796578849875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6290901809527729</v>
+        <v>0.006100915257422759</v>
       </c>
     </row>
     <row r="6">
@@ -4384,62 +4709,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.039715532407526e-05</v>
+        <v>4.893545382076179e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3238096244233956</v>
+        <v>0.8894776888227105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.4421979962841</v>
+        <v>11.56544179221883</v>
       </c>
       <c r="C7" t="n">
-        <v>1.420354403381669e-06</v>
+        <v>0.0005426597080947348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-751.7068517201359</v>
+        <v>-2313.024172361089</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09021082024032163</v>
+        <v>0.0006979516555811922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9898.412466521622</v>
+        <v>-1485.085522528744</v>
       </c>
       <c r="C9" t="n">
-        <v>6.359780211927674e-26</v>
+        <v>0.0002935229946913128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10186.1868658975</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.918065219387437e-27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>31.26108640137974</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.002048435145302661</v>
+      <c r="B11" t="n">
+        <v>29.94637038089259</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003189474656814967</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4485,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3771.485526843889</v>
+        <v>1835.707309397939</v>
       </c>
       <c r="C2" t="n">
-        <v>2.458806453533341e-10</v>
+        <v>0.006156195288228877</v>
       </c>
     </row>
     <row r="3">
@@ -4498,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.24319685181123</v>
+        <v>31.88022145780778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.180954564186856</v>
+        <v>0.2593292858951585</v>
       </c>
     </row>
     <row r="4">
@@ -4511,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.5701943679459</v>
+        <v>172.8370828383362</v>
       </c>
       <c r="C4" t="n">
-        <v>9.417362858268162e-18</v>
+        <v>6.030109640574893e-20</v>
       </c>
     </row>
     <row r="5">
@@ -4524,10 +4862,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03936493541661167</v>
+        <v>-0.1099603833396144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2208987452835926</v>
+        <v>0.0005376585366009253</v>
       </c>
     </row>
     <row r="6">
@@ -4537,62 +4875,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.544904410869367e-07</v>
+        <v>2.235432795053017e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9845575313864358</v>
+        <v>0.5722835053269275</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.13792444145576</v>
+        <v>13.45775648162548</v>
       </c>
       <c r="C7" t="n">
-        <v>6.808582261564716e-08</v>
+        <v>4.40391457750924e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-582.2556999480947</v>
+        <v>-1842.657955371439</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1782013144257305</v>
+        <v>0.01236669746948016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9561.763280931262</v>
+        <v>-1278.000520479099</v>
       </c>
       <c r="C9" t="n">
-        <v>3.856121998535653e-24</v>
+        <v>0.001495177558136161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9831.173888919004</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.413018310133219e-25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>19.16194751269876</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05647626019563744</v>
+      <c r="B11" t="n">
+        <v>18.02811122555228</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07549120175312092</v>
       </c>
     </row>
   </sheetData>
@@ -4606,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4638,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3266.713736037466</v>
+        <v>1484.315452729976</v>
       </c>
       <c r="C2" t="n">
-        <v>4.611790650423383e-08</v>
+        <v>0.02575476464766994</v>
       </c>
     </row>
     <row r="3">
@@ -4651,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.35865221467391</v>
+        <v>11.55552577096273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5163147055317382</v>
+        <v>0.6846569623010211</v>
       </c>
     </row>
     <row r="4">
@@ -4664,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.9809679194165</v>
+        <v>194.5772889932747</v>
       </c>
       <c r="C4" t="n">
-        <v>6.543540437316552e-21</v>
+        <v>6.161586075745754e-24</v>
       </c>
     </row>
     <row r="5">
@@ -4677,10 +5028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01481321377490051</v>
+        <v>-0.08811796548058469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.626898638927485</v>
+        <v>0.003336215099829942</v>
       </c>
     </row>
     <row r="6">
@@ -4690,62 +5041,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.764905321173883e-05</v>
+        <v>1.460342703075105e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3736261179887286</v>
+        <v>0.9672049182001335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.33071412947853</v>
+        <v>12.03350809326223</v>
       </c>
       <c r="C7" t="n">
-        <v>2.702689255684188e-07</v>
+        <v>0.0001046083076030639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-547.3691193087895</v>
+        <v>-2233.631637335443</v>
       </c>
       <c r="C8" t="n">
-        <v>0.205425207885684</v>
+        <v>0.001076054781602157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7612.504684061809</v>
+        <v>-1142.298729675481</v>
       </c>
       <c r="C9" t="n">
-        <v>2.526233119235076e-15</v>
+        <v>0.004791623148427478</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7769.335460474478</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.382890634436547e-16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>33.52830309927819</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001219773202295636</v>
+      <c r="B11" t="n">
+        <v>33.84477622914855</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001081180291959271</v>
       </c>
     </row>
   </sheetData>
@@ -4759,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4791,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3178.974895339512</v>
+        <v>952.5385852426432</v>
       </c>
       <c r="C2" t="n">
-        <v>2.602818218715321e-07</v>
+        <v>0.1740324945660821</v>
       </c>
     </row>
     <row r="3">
@@ -4804,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.452929605293868</v>
+        <v>14.25738424790901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8023014445934433</v>
+        <v>0.633376766734689</v>
       </c>
     </row>
     <row r="4">
@@ -4817,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.7447838286602</v>
+        <v>180.52138893974</v>
       </c>
       <c r="C4" t="n">
-        <v>4.56242234943451e-18</v>
+        <v>1.093852110637692e-19</v>
       </c>
     </row>
     <row r="5">
@@ -4830,10 +5194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001257968196232799</v>
+        <v>-0.08486943200053616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9672068148979904</v>
+        <v>0.006044110461621879</v>
       </c>
     </row>
     <row r="6">
@@ -4843,62 +5207,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.987495695468974e-05</v>
+        <v>-3.062811447722735e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3444511233940143</v>
+        <v>0.9366082930757063</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.70774500965394</v>
+        <v>14.47016177516949</v>
       </c>
       <c r="C7" t="n">
-        <v>1.065515614996725e-09</v>
+        <v>1.422737470779033e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-284.1868211604213</v>
+        <v>-2150.473992927759</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5280193427490596</v>
+        <v>0.004178105129209479</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9888.138685147946</v>
+        <v>-1092.909631911055</v>
       </c>
       <c r="C9" t="n">
-        <v>7.253632264940004e-24</v>
+        <v>0.009021860883169433</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10225.81713922495</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.997969716773024e-25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>33.57877352919098</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001510618671355085</v>
+      <c r="B11" t="n">
+        <v>33.59226133286204</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001656220614591977</v>
       </c>
     </row>
   </sheetData>
@@ -4912,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3448.500443121059</v>
+        <v>1560.411636626789</v>
       </c>
       <c r="C2" t="n">
-        <v>9.921720151451605e-09</v>
+        <v>0.02361129228864483</v>
       </c>
     </row>
     <row r="3">
@@ -4957,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.04776463798039</v>
+        <v>12.88960017328097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6495910073943256</v>
+        <v>0.6588208202797023</v>
       </c>
     </row>
     <row r="4">
@@ -4970,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.4551142564183</v>
+        <v>179.321244639424</v>
       </c>
       <c r="C4" t="n">
-        <v>2.501489680456761e-17</v>
+        <v>1.439187250313857e-19</v>
       </c>
     </row>
     <row r="5">
@@ -4983,10 +5360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01358549746895385</v>
+        <v>-0.07674888418968283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6692823629196313</v>
+        <v>0.01911413524889593</v>
       </c>
     </row>
     <row r="6">
@@ -4996,62 +5373,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.038204168737506e-05</v>
+        <v>-1.462663708459366e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5408698869689856</v>
+        <v>0.7184050863393288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.26907575573183</v>
+        <v>11.84190688782998</v>
       </c>
       <c r="C7" t="n">
-        <v>5.630404697044195e-07</v>
+        <v>0.0002459054806072064</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-628.8984964782303</v>
+        <v>-1235.066002206562</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1744943622820523</v>
+        <v>0.09523166714449882</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8927.215132676247</v>
+        <v>-1343.830017956591</v>
       </c>
       <c r="C9" t="n">
-        <v>1.717649086056891e-21</v>
+        <v>0.001560167606925832</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9182.586008602964</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.643697162341084e-22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.81526800460025</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.005403112633514961</v>
+      <c r="B11" t="n">
+        <v>29.95698727800566</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004462509398310296</v>
       </c>
     </row>
   </sheetData>
@@ -5065,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5097,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3686.037105020983</v>
+        <v>1418.99145212198</v>
       </c>
       <c r="C2" t="n">
-        <v>1.384542268843167e-09</v>
+        <v>0.04641395390466937</v>
       </c>
     </row>
     <row r="3">
@@ -5110,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.64532463521625</v>
+        <v>27.9640596038425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3032784372883093</v>
+        <v>0.3542288476646243</v>
       </c>
     </row>
     <row r="4">
@@ -5123,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.9445395117832</v>
+        <v>175.5788232072022</v>
       </c>
       <c r="C4" t="n">
-        <v>6.837209686732723e-16</v>
+        <v>9.749133594903226e-19</v>
       </c>
     </row>
     <row r="5">
@@ -5136,10 +5526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01023497040096256</v>
+        <v>-0.09117300690799106</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7497122506665364</v>
+        <v>0.00378510453104918</v>
       </c>
     </row>
     <row r="6">
@@ -5149,62 +5539,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.500154718783862e-06</v>
+        <v>1.314710558489847e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8523585634869003</v>
+        <v>0.7344986401100509</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.40018811245</v>
+        <v>14.0227549610164</v>
       </c>
       <c r="C7" t="n">
-        <v>5.831912019731103e-10</v>
+        <v>3.467532471227455e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-485.5249209939899</v>
+        <v>-2502.78393577255</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2834635178875588</v>
+        <v>0.0007198541629445</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8875.021145691171</v>
+        <v>-1351.806360803386</v>
       </c>
       <c r="C9" t="n">
-        <v>9.006136656166412e-21</v>
+        <v>0.001601613012749744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9343.448046838832</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.796834001779839e-22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>27.170991929693</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.009824078832035711</v>
+      <c r="B11" t="n">
+        <v>29.1719584387621</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005964074940053739</v>
       </c>
     </row>
   </sheetData>
@@ -5218,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5250,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3368.035294835061</v>
+        <v>1469.185838313648</v>
       </c>
       <c r="C2" t="n">
-        <v>3.486046463666311e-08</v>
+        <v>0.03007093271065349</v>
       </c>
     </row>
     <row r="3">
@@ -5263,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.88747370198767</v>
+        <v>7.241751580987188</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6850067979290206</v>
+        <v>0.8060139807170313</v>
       </c>
     </row>
     <row r="4">
@@ -5276,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.9702632865461</v>
+        <v>185.2591173714154</v>
       </c>
       <c r="C4" t="n">
-        <v>3.754363632943429e-19</v>
+        <v>4.580097791810877e-21</v>
       </c>
     </row>
     <row r="5">
@@ -5289,10 +5692,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01092601274143023</v>
+        <v>-0.07457371902145674</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7050292500513983</v>
+        <v>0.009486957678422749</v>
       </c>
     </row>
     <row r="6">
@@ -5302,62 +5705,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.246054187913627e-05</v>
+        <v>-1.114738729258459e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2992470579852669</v>
+        <v>0.7573225139716947</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.7046486102807</v>
+        <v>13.92677788011993</v>
       </c>
       <c r="C7" t="n">
-        <v>7.44506123465492e-08</v>
+        <v>1.350828668356e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-728.1925596594758</v>
+        <v>-1952.942621224922</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09675439903263262</v>
+        <v>0.00500896225567716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10262.24033544423</v>
+        <v>-1467.303192498969</v>
       </c>
       <c r="C9" t="n">
-        <v>1.261630077289648e-26</v>
+        <v>0.0002638932303759872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10546.43407951858</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.42774607168351e-28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>26.29257582313465</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01208849644106124</v>
+      <c r="B11" t="n">
+        <v>23.87602393074827</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02345624845593166</v>
       </c>
     </row>
   </sheetData>
@@ -5371,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5403,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3641.46407955524</v>
+        <v>2433.131724625069</v>
       </c>
       <c r="C2" t="n">
-        <v>6.146845128862533e-10</v>
+        <v>0.0002193457006535098</v>
       </c>
     </row>
     <row r="3">
@@ -5416,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.64556252753899</v>
+        <v>16.9859745624744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4784480667626606</v>
+        <v>0.541983305740217</v>
       </c>
     </row>
     <row r="4">
@@ -5429,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.625176847004</v>
+        <v>167.0255874739402</v>
       </c>
       <c r="C4" t="n">
-        <v>4.11442939560118e-17</v>
+        <v>1.160475471197841e-19</v>
       </c>
     </row>
     <row r="5">
@@ -5442,10 +5858,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04224191013161263</v>
+        <v>-0.128252533700728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1447437365940827</v>
+        <v>1.039425979316901e-05</v>
       </c>
     </row>
     <row r="6">
@@ -5455,62 +5871,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.66981465427339e-05</v>
+        <v>3.341827038071604e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3857201417427742</v>
+        <v>0.3534556436888459</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.04219757368116</v>
+        <v>7.672278359922572</v>
       </c>
       <c r="C7" t="n">
-        <v>6.966344143425193e-08</v>
+        <v>0.01220068466436843</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-446.2566773926808</v>
+        <v>-3228.215374225358</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2904627677748388</v>
+        <v>2.433568198766879e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8205.548273928245</v>
+        <v>-1278.7457606735</v>
       </c>
       <c r="C9" t="n">
-        <v>5.192033228389012e-18</v>
+        <v>0.001299418527903921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8561.906715167201</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.749847688273314e-19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.40203012758403</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.004024083176244787</v>
+      <c r="B11" t="n">
+        <v>28.08532438850314</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004422943203033372</v>
       </c>
     </row>
   </sheetData>
@@ -5524,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5556,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3607.715405799141</v>
+        <v>1891.128910463888</v>
       </c>
       <c r="C2" t="n">
-        <v>3.23106122287625e-09</v>
+        <v>0.006009339274780729</v>
       </c>
     </row>
     <row r="3">
@@ -5569,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.90625580125799</v>
+        <v>23.12446338969944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2433183901786266</v>
+        <v>0.4319720970259956</v>
       </c>
     </row>
     <row r="4">
@@ -5582,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.9617760158505</v>
+        <v>159.8864651425241</v>
       </c>
       <c r="C4" t="n">
-        <v>1.500634417134463e-14</v>
+        <v>6.261098276970656e-17</v>
       </c>
     </row>
     <row r="5">
@@ -5595,10 +6024,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002652192010787181</v>
+        <v>-0.08036990826075077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.92794758447931</v>
+        <v>0.006037250437933572</v>
       </c>
     </row>
     <row r="6">
@@ -5608,62 +6037,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.301057747193665e-05</v>
+        <v>4.757418462488668e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3016525120622245</v>
+        <v>0.8969710629327541</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.29468617160524</v>
+        <v>11.93867945474459</v>
       </c>
       <c r="C7" t="n">
-        <v>1.56388421396181e-08</v>
+        <v>0.0001463929108120812</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-856.7079930985947</v>
+        <v>-2713.754239669008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05417076581828901</v>
+        <v>0.0001206187752651162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9474.380657464681</v>
+        <v>-1740.992503518243</v>
       </c>
       <c r="C9" t="n">
-        <v>4.392626192826016e-22</v>
+        <v>2.204848142538225e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10022.69895892227</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.311986926592589e-24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>30.48814625361166</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.004378553698982077</v>
+      <c r="B11" t="n">
+        <v>29.16446564138471</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.006657327673468328</v>
       </c>
     </row>
   </sheetData>
@@ -5677,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5709,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3695.612807846793</v>
+        <v>1506.309100173024</v>
       </c>
       <c r="C2" t="n">
-        <v>1.206162877568807e-09</v>
+        <v>0.02714492146289961</v>
       </c>
     </row>
     <row r="3">
@@ -5722,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.1091362644418</v>
+        <v>35.96942352989221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08937375841600503</v>
+        <v>0.2125070976716642</v>
       </c>
     </row>
     <row r="4">
@@ -5735,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.5329171687055</v>
+        <v>175.757730469075</v>
       </c>
       <c r="C4" t="n">
-        <v>4.440869804575817e-17</v>
+        <v>2.104049316535784e-19</v>
       </c>
     </row>
     <row r="5">
@@ -5748,10 +6190,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01484198803806112</v>
+        <v>-0.0846722053228714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6400536617426944</v>
+        <v>0.006603826603872069</v>
       </c>
     </row>
     <row r="6">
@@ -5761,62 +6203,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.614280673686081e-05</v>
+        <v>7.688205325757805e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4303152667864676</v>
+        <v>0.9835188204247167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.46839316062599</v>
+        <v>16.84261492286496</v>
       </c>
       <c r="C7" t="n">
-        <v>3.92560086922944e-07</v>
+        <v>6.124376342857404e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-446.7065661648488</v>
+        <v>-2101.2708187551</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3189372029206064</v>
+        <v>0.001908460530841422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9228.391235076389</v>
+        <v>-1007.263809983647</v>
       </c>
       <c r="C9" t="n">
-        <v>4.52940580411728e-21</v>
+        <v>0.01376554482399065</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9518.821984017413</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.376228136245316e-22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>16.75680172650757</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1050480601952844</v>
+      <c r="B11" t="n">
+        <v>14.23455771942815</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1657017688171742</v>
       </c>
     </row>
   </sheetData>
@@ -5830,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5862,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3236.078416387008</v>
+        <v>1135.146696354752</v>
       </c>
       <c r="C2" t="n">
-        <v>6.373863682631391e-08</v>
+        <v>0.09615008367909064</v>
       </c>
     </row>
     <row r="3">
@@ -5875,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.25132357240285</v>
+        <v>30.80817435653707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3474685645877021</v>
+        <v>0.2748361580239439</v>
       </c>
     </row>
     <row r="4">
@@ -5888,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.8303127347585</v>
+        <v>173.6043324989605</v>
       </c>
       <c r="C4" t="n">
-        <v>6.622011006843076e-17</v>
+        <v>2.557059137845781e-19</v>
       </c>
     </row>
     <row r="5">
@@ -5901,10 +6356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01252132476991707</v>
+        <v>-0.08755247506776631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.679093374204536</v>
+        <v>0.00467272004609823</v>
       </c>
     </row>
     <row r="6">
@@ -5914,62 +6369,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.950255753064097e-06</v>
+        <v>2.909974317687951e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7826025828842473</v>
+        <v>0.4801113225047372</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.92868316916984</v>
+        <v>12.35106640451252</v>
       </c>
       <c r="C7" t="n">
-        <v>1.488708588082969e-09</v>
+        <v>0.000105218309027887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-319.4751278318212</v>
+        <v>-2233.240570214899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.474959233150183</v>
+        <v>0.001749648055598391</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8788.254856395037</v>
+        <v>-1219.734580477242</v>
       </c>
       <c r="C9" t="n">
-        <v>9.160397947405174e-21</v>
+        <v>0.003257228429277301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9351.449968329267</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.731496649237647e-23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>34.47992942747905</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.000884596480682287</v>
+      <c r="B11" t="n">
+        <v>36.33775144132834</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0005208865144504833</v>
       </c>
     </row>
   </sheetData>
@@ -5983,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6015,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3828.164509620417</v>
+        <v>1897.116969817313</v>
       </c>
       <c r="C2" t="n">
-        <v>4.72182051508285e-10</v>
+        <v>0.00835513235287702</v>
       </c>
     </row>
     <row r="3">
@@ -6028,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.96427828595434</v>
+        <v>23.06103351395094</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3578277512101607</v>
+        <v>0.4572362017419995</v>
       </c>
     </row>
     <row r="4">
@@ -6041,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.5350792141812</v>
+        <v>171.5615593728126</v>
       </c>
       <c r="C4" t="n">
-        <v>1.965527902602491e-16</v>
+        <v>2.093932268158824e-18</v>
       </c>
     </row>
     <row r="5">
@@ -6054,10 +6522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004465771298044513</v>
+        <v>-0.07315061441338513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8883234888646647</v>
+        <v>0.0251616046720455</v>
       </c>
     </row>
     <row r="6">
@@ -6067,62 +6535,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.740683281098401e-05</v>
+        <v>-3.823985655828796e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1131870014605403</v>
+        <v>0.3867717612410146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.92846159558888</v>
+        <v>13.03123153173597</v>
       </c>
       <c r="C7" t="n">
-        <v>6.899599755749965e-07</v>
+        <v>0.0002623768630552507</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-748.8408744302004</v>
+        <v>-1560.1282527725</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09246805027839103</v>
+        <v>0.03647203466050375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9163.065075925933</v>
+        <v>-1355.591306156831</v>
       </c>
       <c r="C9" t="n">
-        <v>1.094000208659614e-21</v>
+        <v>0.001213807950756241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9397.02601029355</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.919257857341365e-22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>20.48173107838479</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0456036947648678</v>
+      <c r="B11" t="n">
+        <v>20.88921432613123</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04366596715191642</v>
       </c>
     </row>
   </sheetData>
@@ -6136,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6168,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3903.482335416568</v>
+        <v>2045.090534282273</v>
       </c>
       <c r="C2" t="n">
-        <v>4.006103005447175e-10</v>
+        <v>0.003783791424044716</v>
       </c>
     </row>
     <row r="3">
@@ -6181,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.642397634251338</v>
+        <v>-12.17707360060815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8756122847376722</v>
+        <v>0.6825850529598452</v>
       </c>
     </row>
     <row r="4">
@@ -6194,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.5364129807198</v>
+        <v>189.6519298456759</v>
       </c>
       <c r="C4" t="n">
-        <v>7.59155983095873e-19</v>
+        <v>1.074741866105433e-20</v>
       </c>
     </row>
     <row r="5">
@@ -6207,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05041605242846265</v>
+        <v>-0.1185193332534859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1112797745276691</v>
+        <v>0.0001681292867131078</v>
       </c>
     </row>
     <row r="6">
@@ -6220,62 +6701,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.289517587946415e-05</v>
+        <v>1.204087015721159e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6823082375481793</v>
+        <v>0.7392660131533806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.64212802357434</v>
+        <v>13.99191706266853</v>
       </c>
       <c r="C7" t="n">
-        <v>2.620434063337979e-07</v>
+        <v>1.634671583635648e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-478.4905027370958</v>
+        <v>-2074.052962421107</v>
       </c>
       <c r="C8" t="n">
-        <v>0.305427658361345</v>
+        <v>0.003071706091370457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7993.834783611941</v>
+        <v>-1211.337740708378</v>
       </c>
       <c r="C9" t="n">
-        <v>2.447951557231849e-15</v>
+        <v>0.004616282753811611</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8215.679612078751</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.685694013632741e-16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>21.76441708225288</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04109617329974952</v>
+      <c r="B11" t="n">
+        <v>19.29720071865146</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07071897795571426</v>
       </c>
     </row>
   </sheetData>
@@ -6289,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6321,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3639.590777419183</v>
+        <v>1904.424066191346</v>
       </c>
       <c r="C2" t="n">
-        <v>8.627669435663691e-10</v>
+        <v>0.00382538316972709</v>
       </c>
     </row>
     <row r="3">
@@ -6334,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.28651880620789</v>
+        <v>44.61362748860475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1071357447118871</v>
+        <v>0.1237152043011142</v>
       </c>
     </row>
     <row r="4">
@@ -6347,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.078626864876</v>
+        <v>166.7029070054225</v>
       </c>
       <c r="C4" t="n">
-        <v>7.045362105076242e-16</v>
+        <v>5.635499448778232e-18</v>
       </c>
     </row>
     <row r="5">
@@ -6360,10 +6854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01916244561672453</v>
+        <v>-0.09072113018785589</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5076414215657201</v>
+        <v>0.001642775335701418</v>
       </c>
     </row>
     <row r="6">
@@ -6373,62 +6867,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.137198050450755e-05</v>
+        <v>-2.150413570399056e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3001380600829162</v>
+        <v>0.9512651430607639</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.02191255063791</v>
+        <v>11.04917977625159</v>
       </c>
       <c r="C7" t="n">
-        <v>6.05181541637389e-08</v>
+        <v>0.0004118635377337057</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-628.1937056562081</v>
+        <v>-2261.243230663928</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1492298358741506</v>
+        <v>0.001180389709405172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8854.447969106996</v>
+        <v>-1365.11756667749</v>
       </c>
       <c r="C9" t="n">
-        <v>1.374956113448219e-22</v>
+        <v>0.0007313138843384316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9091.204082748325</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.700398664678301e-23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.37521345590488</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01373134357256932</v>
+      <c r="B11" t="n">
+        <v>26.25224179100798</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0111818055452199</v>
       </c>
     </row>
   </sheetData>
@@ -6442,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6474,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3275.397140736808</v>
+        <v>1485.655778233081</v>
       </c>
       <c r="C2" t="n">
-        <v>2.698423589360381e-08</v>
+        <v>0.02371162771074388</v>
       </c>
     </row>
     <row r="3">
@@ -6487,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.7035003542981</v>
+        <v>16.38688419935609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2859915232278194</v>
+        <v>0.5570948764082385</v>
       </c>
     </row>
     <row r="4">
@@ -6500,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.8725678056971</v>
+        <v>178.4609755076186</v>
       </c>
       <c r="C4" t="n">
-        <v>5.43134725895716e-18</v>
+        <v>3.54152038858789e-21</v>
       </c>
     </row>
     <row r="5">
@@ -6513,10 +7020,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006832310149133686</v>
+        <v>-0.08688960193107793</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8272156837376771</v>
+        <v>0.003895493238628628</v>
       </c>
     </row>
     <row r="6">
@@ -6526,62 +7033,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.513002036900528e-05</v>
+        <v>1.429683618323947e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4119598260957932</v>
+        <v>0.6744634304379804</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.11919883821842</v>
+        <v>13.60843639887132</v>
       </c>
       <c r="C7" t="n">
-        <v>5.538763096010446e-08</v>
+        <v>1.789082612578637e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-528.7928510323532</v>
+        <v>-2846.095123131356</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2198291310014648</v>
+        <v>3.269661553713468e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10600.85377981647</v>
+        <v>-1234.743032336252</v>
       </c>
       <c r="C9" t="n">
-        <v>3.835054996380975e-28</v>
+        <v>0.001965357009266122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11038.83575839609</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.734084246880824e-30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.87031773002801</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0129170649941231</v>
+      <c r="B11" t="n">
+        <v>21.81064556634007</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02846657693660493</v>
       </c>
     </row>
   </sheetData>
@@ -6595,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6627,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4263.691242646007</v>
+        <v>1909.976922842746</v>
       </c>
       <c r="C2" t="n">
-        <v>1.93852523404172e-13</v>
+        <v>0.003028784922908501</v>
       </c>
     </row>
     <row r="3">
@@ -6640,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.71526429464429</v>
+        <v>46.13026195801936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03620489398913648</v>
+        <v>0.09573699580432063</v>
       </c>
     </row>
     <row r="4">
@@ -6653,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.1533261070201</v>
+        <v>153.5155655767311</v>
       </c>
       <c r="C4" t="n">
-        <v>6.908784193458985e-14</v>
+        <v>9.473225886406028e-17</v>
       </c>
     </row>
     <row r="5">
@@ -6666,10 +7186,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02492714048094566</v>
+        <v>-0.1028911206011611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.40734815064487</v>
+        <v>0.0005015129197116905</v>
       </c>
     </row>
     <row r="6">
@@ -6679,62 +7199,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.561042382024307e-05</v>
+        <v>7.965405563350514e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6073760034856779</v>
+        <v>0.8183865280946325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.34971126759372</v>
+        <v>17.18485928696613</v>
       </c>
       <c r="C7" t="n">
-        <v>1.128586561247811e-09</v>
+        <v>5.378352206613774e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-515.6162055075279</v>
+        <v>-2063.876087169833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2254175544931187</v>
+        <v>0.00196402200003082</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8183.116734898577</v>
+        <v>-1190.874322690306</v>
       </c>
       <c r="C9" t="n">
-        <v>1.075188612647407e-16</v>
+        <v>0.002495831145014035</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8398.242396461519</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.31906630197465e-17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>16.86930583295369</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0801894107568162</v>
+      <c r="B11" t="n">
+        <v>14.30323975304939</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1377365373692992</v>
       </c>
     </row>
   </sheetData>
@@ -6748,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6780,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3688.80525346356</v>
+        <v>2080.724073569271</v>
       </c>
       <c r="C2" t="n">
-        <v>1.670075207116031e-09</v>
+        <v>0.003099577737308094</v>
       </c>
     </row>
     <row r="3">
@@ -6793,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.16331575590376</v>
+        <v>11.92282995150016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5836080812883551</v>
+        <v>0.6901616114543322</v>
       </c>
     </row>
     <row r="4">
@@ -6806,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.8455064509523</v>
+        <v>177.197348666574</v>
       </c>
       <c r="C4" t="n">
-        <v>5.29057816874096e-17</v>
+        <v>1.401867235457522e-19</v>
       </c>
     </row>
     <row r="5">
@@ -6819,10 +7352,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01187922013250251</v>
+        <v>-0.08325215816270216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6894570830031521</v>
+        <v>0.005828855594911185</v>
       </c>
     </row>
     <row r="6">
@@ -6832,62 +7365,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.788636805791378e-05</v>
+        <v>3.580114244788871e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3907750129949952</v>
+        <v>0.9250487305426616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.32767475117204</v>
+        <v>10.20199043116683</v>
       </c>
       <c r="C7" t="n">
-        <v>4.670644902847079e-07</v>
+        <v>0.002761931998558353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-882.4786321063976</v>
+        <v>-2160.349064687271</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05267618765940533</v>
+        <v>0.002535640511185389</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8743.067711495691</v>
+        <v>-1631.576442624596</v>
       </c>
       <c r="C9" t="n">
-        <v>7.57221386994887e-21</v>
+        <v>0.0001411619810926251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8951.647469351972</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.497999249773735e-21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.48697110724402</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01333818159469467</v>
+      <c r="B11" t="n">
+        <v>26.54670056507896</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01046472430332743</v>
       </c>
     </row>
   </sheetData>
@@ -6901,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6933,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2843.077589885803</v>
+        <v>1075.766250167302</v>
       </c>
       <c r="C2" t="n">
-        <v>3.792445816244667e-06</v>
+        <v>0.1302327356646026</v>
       </c>
     </row>
     <row r="3">
@@ -6946,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.345375705874421</v>
+        <v>1.064627580141732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9083990196281981</v>
+        <v>0.9710788872295691</v>
       </c>
     </row>
     <row r="4">
@@ -6959,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.8048100659095</v>
+        <v>192.4763260149382</v>
       </c>
       <c r="C4" t="n">
-        <v>6.376168279956235e-20</v>
+        <v>1.640167692223944e-21</v>
       </c>
     </row>
     <row r="5">
@@ -6972,10 +7518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01416754878400117</v>
+        <v>-0.09013014555120588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6669477361091889</v>
+        <v>0.005613911473526648</v>
       </c>
     </row>
     <row r="6">
@@ -6985,62 +7531,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.937973799860358e-06</v>
+        <v>1.780346258703536e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9307235709953607</v>
+        <v>0.6384711852364722</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.01296588911271</v>
+        <v>11.70349073349589</v>
       </c>
       <c r="C7" t="n">
-        <v>1.253068038199939e-07</v>
+        <v>0.0006155980091098011</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-470.3211667516435</v>
+        <v>-2267.890095723275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2941740291178618</v>
+        <v>0.001024127893869213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9933.771854329298</v>
+        <v>-1258.847838040647</v>
       </c>
       <c r="C9" t="n">
-        <v>3.168045843492988e-24</v>
+        <v>0.002631766370882535</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10475.58045333797</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.220223665515288e-26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>35.80218495732117</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0006111117291651796</v>
+      <c r="B11" t="n">
+        <v>36.64780721841205</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0004908640613157444</v>
       </c>
     </row>
   </sheetData>
@@ -7054,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7086,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3341.756147284027</v>
+        <v>1526.743740093581</v>
       </c>
       <c r="C2" t="n">
-        <v>3.092040537884621e-08</v>
+        <v>0.0233909474636908</v>
       </c>
     </row>
     <row r="3">
@@ -7099,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.04006852679789</v>
+        <v>19.41909742251383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5251933323666644</v>
+        <v>0.4957942192902972</v>
       </c>
     </row>
     <row r="4">
@@ -7112,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.6752055568383</v>
+        <v>189.4125201577608</v>
       </c>
       <c r="C4" t="n">
-        <v>3.857942387336608e-20</v>
+        <v>4.663798397157896e-22</v>
       </c>
     </row>
     <row r="5">
@@ -7125,10 +7684,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005415095973770132</v>
+        <v>-0.06742002148527917</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8571829421537378</v>
+        <v>0.02561608992370491</v>
       </c>
     </row>
     <row r="6">
@@ -7138,62 +7697,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.969332990830921e-05</v>
+        <v>-2.977378887385564e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07914343479995972</v>
+        <v>0.4535235397942069</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.70513141183405</v>
+        <v>11.92043081287023</v>
       </c>
       <c r="C7" t="n">
-        <v>1.006827704129938e-07</v>
+        <v>0.0001577527060424765</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-515.441201612255</v>
+        <v>-2213.310744900438</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2467670708537716</v>
+        <v>0.002406414445508448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9317.381358551476</v>
+        <v>-1226.680584541465</v>
       </c>
       <c r="C9" t="n">
-        <v>2.703437176567172e-22</v>
+        <v>0.002771691014170508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9655.716979595183</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.635450524411991e-23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>27.21859235808148</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.009427504241426129</v>
+      <c r="B11" t="n">
+        <v>27.00908106564346</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01039642112007096</v>
       </c>
     </row>
   </sheetData>
@@ -7207,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7239,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3269.705700435612</v>
+        <v>953.8290419060793</v>
       </c>
       <c r="C2" t="n">
-        <v>1.745224286355193e-08</v>
+        <v>0.1417308503313468</v>
       </c>
     </row>
     <row r="3">
@@ -7252,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.32962483318825</v>
+        <v>19.78415369718707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3007517870740328</v>
+        <v>0.4694025048085423</v>
       </c>
     </row>
     <row r="4">
@@ -7265,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.5115507989023</v>
+        <v>178.5563242646616</v>
       </c>
       <c r="C4" t="n">
-        <v>2.009573951266915e-18</v>
+        <v>1.549903491806242e-21</v>
       </c>
     </row>
     <row r="5">
@@ -7278,10 +7850,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003454481614200852</v>
+        <v>-0.07888507174398274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9055829742348597</v>
+        <v>0.007072454598546266</v>
       </c>
     </row>
     <row r="6">
@@ -7291,62 +7863,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.989706872580265e-05</v>
+        <v>-8.745151328844921e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2180561568791285</v>
+        <v>0.8175965153016185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.34985681440348</v>
+        <v>17.48067830651938</v>
       </c>
       <c r="C7" t="n">
-        <v>4.758173150660875e-09</v>
+        <v>8.767229326681307e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-570.0473450210117</v>
+        <v>-2292.829668178268</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1874904925328253</v>
+        <v>0.001332482219445641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9258.258627100067</v>
+        <v>-1096.163302924869</v>
       </c>
       <c r="C9" t="n">
-        <v>2.100736984020002e-24</v>
+        <v>0.006528982920734608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9477.875480620984</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.923339563078137e-26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>32.27413815296211</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001337779090955243</v>
+      <c r="B11" t="n">
+        <v>28.76661715790682</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004139706227490068</v>
       </c>
     </row>
   </sheetData>
@@ -7360,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7392,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3742.569974569134</v>
+        <v>1920.55053775513</v>
       </c>
       <c r="C2" t="n">
-        <v>9.685614892389775e-10</v>
+        <v>0.005685014213790587</v>
       </c>
     </row>
     <row r="3">
@@ -7405,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.0451044820103</v>
+        <v>21.28353497939835</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3299442775996972</v>
+        <v>0.4793862115440596</v>
       </c>
     </row>
     <row r="4">
@@ -7418,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1779479452857</v>
+        <v>169.7526232663084</v>
       </c>
       <c r="C4" t="n">
-        <v>1.564023185579953e-15</v>
+        <v>3.186963713068671e-18</v>
       </c>
     </row>
     <row r="5">
@@ -7431,10 +8016,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04231521236061885</v>
+        <v>-0.1111981904100238</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1705766415134814</v>
+        <v>0.0003126534908833482</v>
       </c>
     </row>
     <row r="6">
@@ -7444,62 +8029,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.57221804310408e-05</v>
+        <v>1.778578735612644e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.63180055491628</v>
+        <v>0.6424947575496782</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.71731873025285</v>
+        <v>12.90587530445074</v>
       </c>
       <c r="C7" t="n">
-        <v>7.479582626739036e-08</v>
+        <v>4.350380033319778e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-393.1067777030623</v>
+        <v>-2340.928928314252</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3800461168429815</v>
+        <v>0.001336061376357325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9397.808197227589</v>
+        <v>-1155.067034430265</v>
       </c>
       <c r="C9" t="n">
-        <v>3.91642753224512e-24</v>
+        <v>0.004900635919490263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9721.642509745001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.377404035058815e-25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>21.68723197379419</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04379043768434984</v>
+      <c r="B11" t="n">
+        <v>18.97405102372551</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07895677038536977</v>
       </c>
     </row>
   </sheetData>
@@ -7513,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7545,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3847.016208039316</v>
+        <v>1845.130162545204</v>
       </c>
       <c r="C2" t="n">
-        <v>9.69894446927674e-10</v>
+        <v>0.008421841029942655</v>
       </c>
     </row>
     <row r="3">
@@ -7558,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.290529994948074</v>
+        <v>-4.104978100598473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8836734614144126</v>
+        <v>0.8884554248484136</v>
       </c>
     </row>
     <row r="4">
@@ -7571,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.8046757258967</v>
+        <v>168.6700579748569</v>
       </c>
       <c r="C4" t="n">
-        <v>2.747603341869298e-15</v>
+        <v>1.102376842042668e-17</v>
       </c>
     </row>
     <row r="5">
@@ -7584,10 +8182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02816361804841672</v>
+        <v>-0.1021898490292054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3860289736502303</v>
+        <v>0.001431183764357756</v>
       </c>
     </row>
     <row r="6">
@@ -7597,62 +8195,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.075650702600959e-05</v>
+        <v>9.879565169298485e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3530468860292758</v>
+        <v>0.7961579424099001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.23865203911563</v>
+        <v>14.25043161262833</v>
       </c>
       <c r="C7" t="n">
-        <v>1.372017471323162e-06</v>
+        <v>8.221711413444193e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-879.6827969891079</v>
+        <v>-2232.93580657898</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05490471748349134</v>
+        <v>0.001810148949513351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9735.906364919319</v>
+        <v>-1483.373178806135</v>
       </c>
       <c r="C9" t="n">
-        <v>1.288485241421655e-21</v>
+        <v>0.0003829008777911353</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10289.54936432928</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.446054018559301e-24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>21.74000367490726</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04178612433589653</v>
+      <c r="B11" t="n">
+        <v>20.45807043856929</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05499941559758488</v>
       </c>
     </row>
   </sheetData>
@@ -7666,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7698,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3315.174254031553</v>
+        <v>1515.117007081043</v>
       </c>
       <c r="C2" t="n">
-        <v>1.301455336665926e-07</v>
+        <v>0.03360101569593275</v>
       </c>
     </row>
     <row r="3">
@@ -7711,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.90720785605797</v>
+        <v>24.75732208138977</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3968757167892574</v>
+        <v>0.4265764153067569</v>
       </c>
     </row>
     <row r="4">
@@ -7724,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.9221966756519</v>
+        <v>186.7129057791032</v>
       </c>
       <c r="C4" t="n">
-        <v>1.383372277029743e-17</v>
+        <v>3.97362193322561e-20</v>
       </c>
     </row>
     <row r="5">
@@ -7737,10 +8348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001468255455371208</v>
+        <v>-0.07129656141087223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9646800105998687</v>
+        <v>0.0305825857837756</v>
       </c>
     </row>
     <row r="6">
@@ -7750,62 +8361,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.78408633307324e-05</v>
+        <v>-1.948300155448252e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2597423473222653</v>
+        <v>0.6246817353284253</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.76081938497297</v>
+        <v>11.14830575777724</v>
       </c>
       <c r="C7" t="n">
-        <v>3.947430094053455e-07</v>
+        <v>0.00064586846845191</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-860.1173868804751</v>
+        <v>-1712.981053162293</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06687440687346607</v>
+        <v>0.02322385346181835</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9209.608726469403</v>
+        <v>-1600.699039673068</v>
       </c>
       <c r="C9" t="n">
-        <v>4.83363451173286e-22</v>
+        <v>0.0002720129938386902</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9444.719941691079</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.573742871710035e-23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>31.86451232857303</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.002687665060868437</v>
+      <c r="B11" t="n">
+        <v>32.75987711772052</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002239185849940718</v>
       </c>
     </row>
   </sheetData>
@@ -7819,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7851,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3891.270401745378</v>
+        <v>2260.731517422263</v>
       </c>
       <c r="C2" t="n">
-        <v>1.05353681969245e-10</v>
+        <v>0.0008433439021959949</v>
       </c>
     </row>
     <row r="3">
@@ -7864,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.55831015032824</v>
+        <v>23.15276909111777</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3342218194970302</v>
+        <v>0.4237514492716694</v>
       </c>
     </row>
     <row r="4">
@@ -7877,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.4271242346144</v>
+        <v>164.7694019151081</v>
       </c>
       <c r="C4" t="n">
-        <v>2.831148964854897e-15</v>
+        <v>3.343786883960867e-17</v>
       </c>
     </row>
     <row r="5">
@@ -7890,10 +8514,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03864748441004397</v>
+        <v>-0.1153902141790156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2056896089312369</v>
+        <v>0.0001719377190481276</v>
       </c>
     </row>
     <row r="6">
@@ -7903,62 +8527,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.1106083340079e-05</v>
+        <v>3.040987359932808e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7456978306093618</v>
+        <v>0.4254431501761299</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.39233160415181</v>
+        <v>10.98587754869632</v>
       </c>
       <c r="C7" t="n">
-        <v>6.160376498969029e-09</v>
+        <v>0.0006657393278812876</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-385.4490893268212</v>
+        <v>-2578.231630021537</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3789679953244466</v>
+        <v>0.0001894809236669097</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7566.890671388891</v>
+        <v>-1273.483873627993</v>
       </c>
       <c r="C9" t="n">
-        <v>2.976367898600405e-14</v>
+        <v>0.001867375938116469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7886.40017259545</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.443851235359939e-15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.44948035807079</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01141802703640512</v>
+      <c r="B11" t="n">
+        <v>24.693665644505</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01487531411875398</v>
       </c>
     </row>
   </sheetData>
@@ -7972,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8004,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3410.770207032812</v>
+        <v>860.5491159403514</v>
       </c>
       <c r="C2" t="n">
-        <v>1.256346616320567e-09</v>
+        <v>0.1968420512452986</v>
       </c>
     </row>
     <row r="3">
@@ -8017,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.79376049924162</v>
+        <v>15.96320683553428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4928223538818429</v>
+        <v>0.5435476763716471</v>
       </c>
     </row>
     <row r="4">
@@ -8030,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.8781448374841</v>
+        <v>182.1977696487557</v>
       </c>
       <c r="C4" t="n">
-        <v>2.329700098923165e-21</v>
+        <v>2.966516661007499e-24</v>
       </c>
     </row>
     <row r="5">
@@ -8043,10 +8680,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002667309326128742</v>
+        <v>-0.07797371886057287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9200269279994757</v>
+        <v>0.003743856740078639</v>
       </c>
     </row>
     <row r="6">
@@ -8056,62 +8693,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.473528153966167e-05</v>
+        <v>-5.386272090790524e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.390819661451089</v>
+        <v>0.8731247611617874</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.75197506513139</v>
+        <v>17.18671976199562</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220951559753559e-11</v>
+        <v>7.011875848793456e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-117.2215169698177</v>
+        <v>-1900.589026792506</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7749569787900078</v>
+        <v>0.002523181492782743</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9583.452659043687</v>
+        <v>-873.907312881901</v>
       </c>
       <c r="C9" t="n">
-        <v>8.436970529988855e-29</v>
+        <v>0.02381305664532287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9888.596565320713</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.486029650944991e-30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.48687589708886</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01302967239653171</v>
+      <c r="B11" t="n">
+        <v>25.52431616919179</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01050749058840441</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/France_other.xlsx
+++ b/outputs/ML_Results/dist_LR/France_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ12403003" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ12560086" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ12705252" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ12837866" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ12973419" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ13113290" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ13260274" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ13393841" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ13526870" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ13655317" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ13783909" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ13918538" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ14046408" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ14175344" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ14305559" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ14434895" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ14563369" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ14710274" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ14850310" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ14989163" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ15119375" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ15246355" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ15389020" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ15517539" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ15737755" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ15867423" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ15994327" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ16125376" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ16254306" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ16382903" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ16509918" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ16638951" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ16774094" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ16909240" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ17039318" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ17171856" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ17306124" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ17441484" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ17572717" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ17713846" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ17841928" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ17967685" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ18101930" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ18236131" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ18363478" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ18493362" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ18620415" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ18747328" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ18877047" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ19007088" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ47241399" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ47428457" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ47546405" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ47665982" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ47783558" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ47900734" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ48017537" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ48137163" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ48259200" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ48380162" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ48498428" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ48616496" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ48736430" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ48859546" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ48985424" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ49120838" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ49264841" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ49428673" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ49584502" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ49740936" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ49897816" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ50059656" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ50228203" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ50386130" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ50559048" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ50714931" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ50892920" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ51042668" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ51225367" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ51390119" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ51552783" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ51714135" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ51880778" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ52094264" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ52255639" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ52419739" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ52587697" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ52785084" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ52944458" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ53119608" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ53276642" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ53476999" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ53679608" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ53882363" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ54084660" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ54255719" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ54423565" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ54590141" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ54743856" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ54896923" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2522.6371932543</v>
+        <v>2522.637193266393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000224835718746459</v>
+        <v>0.0002248357187267817</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.73230491609152</v>
+        <v>10.73230491583038</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7014501337342616</v>
+        <v>0.7014501337341843</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.2218430255772</v>
+        <v>185.2218430255078</v>
       </c>
       <c r="C4" t="n">
-        <v>3.224629463963903e-21</v>
+        <v>3.224629464968751e-21</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1197604491074158</v>
+        <v>-11.97604491072932</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000240051061009402</v>
+        <v>0.0002400510610114558</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.049358244556375e-05</v>
+        <v>-10.49358243820999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7858246711772452</v>
+        <v>0.7858246713220984</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.56707984112421</v>
+        <v>10.56707984112427</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001073806403790522</v>
+        <v>0.001073806403790422</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1884.165168848087</v>
+        <v>-18.84165168848102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005488974863198091</v>
+        <v>0.005488974863197809</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-954.5167901493988</v>
+        <v>-9.545167901493956</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01832837426744971</v>
+        <v>0.0183283742674502</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8157.81035024978</v>
+        <v>81.57810350249775</v>
       </c>
       <c r="C10" t="n">
-        <v>7.46495828892374e-17</v>
+        <v>7.464958288923311e-17</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.18943744073361</v>
+        <v>14.18943744073369</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1572337125096102</v>
+        <v>0.1572337125096077</v>
       </c>
     </row>
   </sheetData>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1895.028453175001</v>
+        <v>1895.028453147072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004532446450144668</v>
+        <v>0.004532446450742825</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.10166249405268</v>
+        <v>46.10166249481169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1242498603711279</v>
+        <v>0.1242498603710343</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.1651466700637</v>
+        <v>176.1651466688781</v>
       </c>
       <c r="C4" t="n">
-        <v>5.47026014153491e-19</v>
+        <v>5.470260149610745e-19</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09911000452598333</v>
+        <v>-9.911000452652329</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00130055388490717</v>
+        <v>0.00130055388483346</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.610199686378599e-05</v>
+        <v>16.1019968669026</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6742904162110074</v>
+        <v>0.6742904161503749</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.38872476421016</v>
+        <v>11.3887247642107</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000306831935493063</v>
+        <v>0.0003068319354928038</v>
       </c>
     </row>
     <row r="8">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2574.178256850741</v>
+        <v>-25.74178256850754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005692066018396478</v>
+        <v>0.0005692066018396293</v>
       </c>
     </row>
     <row r="9">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1128.982126712214</v>
+        <v>-11.28982126712224</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005656120027769483</v>
+        <v>0.005656120027769067</v>
       </c>
     </row>
     <row r="10">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9586.222085234167</v>
+        <v>95.86222085234229</v>
       </c>
       <c r="C10" t="n">
-        <v>6.988982738481827e-24</v>
+        <v>6.988982738477162e-24</v>
       </c>
     </row>
     <row r="11">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.45353124717587</v>
+        <v>20.45353124717608</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04621772458391719</v>
+        <v>0.04621772458391504</v>
       </c>
     </row>
   </sheetData>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2168.891275083583</v>
+        <v>2168.891275074932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001080707103048243</v>
+        <v>0.00108070710311147</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.17017653390212</v>
+        <v>11.17017653445183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6894078435781346</v>
+        <v>0.6894078435773904</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.9358915541137</v>
+        <v>174.9358915542346</v>
       </c>
       <c r="C4" t="n">
-        <v>2.439853360293274e-20</v>
+        <v>2.43985335905901e-20</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09802482527519911</v>
+        <v>-9.80248252750013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001175811635394244</v>
+        <v>0.001175811635427114</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.146720375419414e-05</v>
+        <v>-11.46720374997266</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7357964235501762</v>
+        <v>0.7357964236428763</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.169475220008055</v>
+        <v>5.169475220008088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1160699085263732</v>
+        <v>0.1160699085263711</v>
       </c>
     </row>
     <row r="8">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1554.214687671934</v>
+        <v>-15.54214687671934</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02069654226252952</v>
+        <v>0.02069654226252971</v>
       </c>
     </row>
     <row r="9">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1164.866190056766</v>
+        <v>-11.64866190056764</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003318370604278337</v>
+        <v>0.003318370604278391</v>
       </c>
     </row>
     <row r="10">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9970.704518410883</v>
+        <v>99.70704518410872</v>
       </c>
       <c r="C10" t="n">
-        <v>4.762406307379603e-27</v>
+        <v>4.762406307380183e-27</v>
       </c>
     </row>
     <row r="11">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.90998028601116</v>
+        <v>27.90998028601109</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004577746097816341</v>
+        <v>0.004577746097816439</v>
       </c>
     </row>
   </sheetData>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1871.789695333433</v>
+        <v>1871.789695326287</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007790591240303952</v>
+        <v>0.007790591240551633</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.08070066328856</v>
+        <v>22.08070066167696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4505717065613414</v>
+        <v>0.4505717065613097</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.2320649666473</v>
+        <v>169.2320649662576</v>
       </c>
       <c r="C4" t="n">
-        <v>9.323060703559274e-18</v>
+        <v>9.323060710973205e-18</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09348164261187131</v>
+        <v>-9.348164261157979</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004508401609623431</v>
+        <v>0.004508401609729167</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.334234587105104e-06</v>
+        <v>3.334234588352473</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9434176344038903</v>
+        <v>0.9434176343828135</v>
       </c>
     </row>
     <row r="7">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.06354525602801</v>
+        <v>14.06354525602847</v>
       </c>
       <c r="C7" t="n">
-        <v>2.6278073037075e-05</v>
+        <v>2.627807303705399e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2436.399867679687</v>
+        <v>-24.36399867679693</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001270304824713348</v>
+        <v>0.001270304824713313</v>
       </c>
     </row>
     <row r="9">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1349.902751195505</v>
+        <v>-13.49902751195508</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001320183062386199</v>
+        <v>0.001320183062386182</v>
       </c>
     </row>
     <row r="10">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9507.548176640061</v>
+        <v>95.07548176640066</v>
       </c>
       <c r="C10" t="n">
-        <v>7.176015435270261e-23</v>
+        <v>7.176015435269642e-23</v>
       </c>
     </row>
     <row r="11">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.18209644317784</v>
+        <v>20.182096443178</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06529580551514741</v>
+        <v>0.06529580551514556</v>
       </c>
     </row>
   </sheetData>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1783.022601618931</v>
+        <v>1783.022601617762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009734324053912721</v>
+        <v>0.00973432405397209</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.50188127830221</v>
+        <v>13.50188127929777</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6471129970182596</v>
+        <v>0.6471129970179972</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.1396951086489</v>
+        <v>166.1396951084662</v>
       </c>
       <c r="C4" t="n">
-        <v>3.463698930922421e-18</v>
+        <v>3.463698932999186e-18</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1073268659938876</v>
+        <v>-10.73268659945549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002811269665768091</v>
+        <v>0.0002811269665647956</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.735508533524784e-05</v>
+        <v>27.35508533688017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.449297398869972</v>
+        <v>0.449297398846676</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.28919689380525</v>
+        <v>15.28919689380571</v>
       </c>
       <c r="C7" t="n">
-        <v>2.348166257255075e-06</v>
+        <v>2.348166257252808e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2865.130793107367</v>
+        <v>-28.65130793107372</v>
       </c>
       <c r="C8" t="n">
-        <v>5.045895688769419e-05</v>
+        <v>5.045895688769154e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1259.504804944401</v>
+        <v>-12.59504804944412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002719827367659621</v>
+        <v>0.002719827367659454</v>
       </c>
     </row>
     <row r="10">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8014.370139357272</v>
+        <v>80.14370139357281</v>
       </c>
       <c r="C10" t="n">
-        <v>4.776657681519748e-16</v>
+        <v>4.776657681519472e-16</v>
       </c>
     </row>
     <row r="11">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.838903379929</v>
+        <v>26.83890337992925</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01018478432833079</v>
+        <v>0.0101847843283302</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1631.081220639412</v>
+        <v>1631.08122062467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01563689123666416</v>
+        <v>0.01563689123771225</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.03802586882761</v>
+        <v>23.03802586727055</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4490539164596895</v>
+        <v>0.4490539164600572</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9344524879672</v>
+        <v>189.934452487726</v>
       </c>
       <c r="C4" t="n">
-        <v>1.058097338472901e-20</v>
+        <v>1.05809733903119e-20</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07142955278823203</v>
+        <v>-7.142955278968329</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02159546717345448</v>
+        <v>0.02159546717116439</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.22174326564658e-06</v>
+        <v>-5.221743262119865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.887683492729419</v>
+        <v>0.8876834928062078</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.54119673050849</v>
+        <v>12.54119673050866</v>
       </c>
       <c r="C7" t="n">
-        <v>6.799672111018632e-05</v>
+        <v>6.79967211101702e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2588.674603814391</v>
+        <v>-25.88674603814383</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000283669663605062</v>
+        <v>0.000283669663605073</v>
       </c>
     </row>
     <row r="9">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1577.639327464588</v>
+        <v>-15.77639327464588</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000192783966417363</v>
+        <v>0.0001927839664173668</v>
       </c>
     </row>
     <row r="10">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9084.681939419876</v>
+        <v>90.84681939419882</v>
       </c>
       <c r="C10" t="n">
-        <v>2.106949372540905e-22</v>
+        <v>2.106949372541042e-22</v>
       </c>
     </row>
     <row r="11">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.70751826955075</v>
+        <v>28.70751826955097</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005620690453541307</v>
+        <v>0.005620690453540958</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1035.542790504074</v>
+        <v>1035.542790523775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1305415075226241</v>
+        <v>0.1305415075149136</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.57810775431999</v>
+        <v>32.57810775288408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2459528701165997</v>
+        <v>0.2459528701165682</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.9971159020309</v>
+        <v>182.9971159023754</v>
       </c>
       <c r="C4" t="n">
-        <v>8.055218931159581e-22</v>
+        <v>8.055218925887871e-22</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09274315170530793</v>
+        <v>-9.274315170549404</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001975167053511085</v>
+        <v>0.0019751670534746</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.606286990540206e-05</v>
+        <v>16.06286991664091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6608323633046882</v>
+        <v>0.6608323630833162</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.42766385768857</v>
+        <v>15.42766385768873</v>
       </c>
       <c r="C7" t="n">
-        <v>1.728827386167505e-06</v>
+        <v>1.728827386166792e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1504.221726018562</v>
+        <v>-15.04221726018554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02761487312465212</v>
+        <v>0.02761487312465263</v>
       </c>
     </row>
     <row r="9">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1052.576607639849</v>
+        <v>-10.5257660763984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008152088915655144</v>
+        <v>0.008152088915655697</v>
       </c>
     </row>
     <row r="10">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10755.36171114539</v>
+        <v>107.553617111454</v>
       </c>
       <c r="C10" t="n">
-        <v>3.440955635599066e-28</v>
+        <v>3.440955635598574e-28</v>
       </c>
     </row>
     <row r="11">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.84488710054896</v>
+        <v>21.84488710054913</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03134891620001677</v>
+        <v>0.0313489162000156</v>
       </c>
     </row>
   </sheetData>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.9268296703</v>
+        <v>1595.92682966696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02053476816016853</v>
+        <v>0.02053476816050922</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.200663265491301</v>
+        <v>2.200663265525037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9395429528906587</v>
+        <v>0.9395429528912281</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.4774439154045</v>
+        <v>180.47744391544</v>
       </c>
       <c r="C4" t="n">
-        <v>9.303911494123282e-21</v>
+        <v>9.303911486783664e-21</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08982244489502031</v>
+        <v>-8.982244489509512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004066078605613808</v>
+        <v>0.004066078605633909</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.128175089271734e-07</v>
+        <v>-0.4128175021204203</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9913656272225344</v>
+        <v>0.9913656273650712</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.69517301885964</v>
+        <v>13.69517301885963</v>
       </c>
       <c r="C7" t="n">
-        <v>4.010487582829264e-05</v>
+        <v>4.010487582829241e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1988.184663605108</v>
+        <v>-19.88184663605113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005151733828954433</v>
+        <v>0.005151733828954399</v>
       </c>
     </row>
     <row r="9">
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1260.969781482788</v>
+        <v>-12.60969781482791</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002617955127636068</v>
+        <v>0.002617955127636026</v>
       </c>
     </row>
     <row r="10">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9047.70751248393</v>
+        <v>90.47707512483919</v>
       </c>
       <c r="C10" t="n">
-        <v>2.163858971892515e-21</v>
+        <v>2.163858971892578e-21</v>
       </c>
     </row>
     <row r="11">
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2095.898612177113</v>
+        <v>2095.898612179812</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003005902600153265</v>
+        <v>0.003005902600113255</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.29453161064457</v>
+        <v>34.29453160973151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2415560564756342</v>
+        <v>0.2415560564753858</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.14804935324</v>
+        <v>162.148049353845</v>
       </c>
       <c r="C4" t="n">
-        <v>9.267735408221228e-17</v>
+        <v>9.267735400543717e-17</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1000335560095522</v>
+        <v>-10.00335560055243</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001728227014516428</v>
+        <v>0.001728227015212467</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.562062291647494e-06</v>
+        <v>-4.562062303362458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9056306841781373</v>
+        <v>0.9056306839368917</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.92633332098725</v>
+        <v>12.92633332098761</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000193754110236414</v>
+        <v>0.000193754110236307</v>
       </c>
     </row>
     <row r="8">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1955.747682118701</v>
+        <v>-19.55747682118694</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005152040810139356</v>
+        <v>0.005152040810139598</v>
       </c>
     </row>
     <row r="9">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1149.157292068915</v>
+        <v>-11.49157292068915</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006727323640676623</v>
+        <v>0.006727323640676646</v>
       </c>
     </row>
     <row r="10">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9904.728446240068</v>
+        <v>99.04728446240077</v>
       </c>
       <c r="C10" t="n">
-        <v>6.781145693081995e-24</v>
+        <v>6.781145693081507e-24</v>
       </c>
     </row>
     <row r="11">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.67433771746484</v>
+        <v>13.67433771746509</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1950868276071283</v>
+        <v>0.1950868276071208</v>
       </c>
     </row>
   </sheetData>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2036.358801704823</v>
+        <v>2036.35880170696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002537986874214156</v>
+        <v>0.002537986874202745</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.164099351629105</v>
+        <v>-5.164099351619829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8564373899317353</v>
+        <v>0.8564373899320452</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.937063456192</v>
+        <v>167.9370634561532</v>
       </c>
       <c r="C4" t="n">
-        <v>4.339566502490129e-18</v>
+        <v>4.33956650119946e-18</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1115770560102628</v>
+        <v>-11.1577056010335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001899183425723983</v>
+        <v>0.0001899183425697952</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.862516432021423e-05</v>
+        <v>28.62516431819452</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4596052354089116</v>
+        <v>0.4596052354411264</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.2797819653443</v>
+        <v>15.27978196534432</v>
       </c>
       <c r="C7" t="n">
-        <v>1.775306676751086e-06</v>
+        <v>1.77530667675104e-06</v>
       </c>
     </row>
     <row r="8">
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2948.324628310119</v>
+        <v>-29.48324628310122</v>
       </c>
       <c r="C8" t="n">
-        <v>2.161930839118732e-05</v>
+        <v>2.16193083911878e-05</v>
       </c>
     </row>
     <row r="9">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1501.08898992965</v>
+        <v>-15.01088989929655</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002639058398856286</v>
+        <v>0.000263905839885617</v>
       </c>
     </row>
     <row r="10">
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8174.278045461374</v>
+        <v>81.74278045461369</v>
       </c>
       <c r="C10" t="n">
-        <v>2.272874302373406e-17</v>
+        <v>2.272874302373422e-17</v>
       </c>
     </row>
     <row r="11">
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.75545324623002</v>
+        <v>24.75545324623</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01552622152902031</v>
+        <v>0.01552622152902033</v>
       </c>
     </row>
   </sheetData>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1355.559291425874</v>
+        <v>1355.559291411224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04267198604458947</v>
+        <v>0.04267198604699015</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.26011493638883</v>
+        <v>33.26011493680599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2569571233927688</v>
+        <v>0.2569571233927358</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.8176344621769</v>
+        <v>187.8176344625268</v>
       </c>
       <c r="C4" t="n">
-        <v>3.489710270058316e-21</v>
+        <v>3.489710268024811e-21</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08727460526623113</v>
+        <v>-8.727460526645018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004015819151306192</v>
+        <v>0.004015819151237615</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.319888710247416e-06</v>
+        <v>-5.319888704740251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8823914068320331</v>
+        <v>0.8823914069541202</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.69353587656622</v>
+        <v>13.69353587656685</v>
       </c>
       <c r="C7" t="n">
-        <v>1.672448076469924e-05</v>
+        <v>1.672448076467892e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1514.355070157477</v>
+        <v>-15.14355070157467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03028981803744988</v>
+        <v>0.030289818037451</v>
       </c>
     </row>
     <row r="9">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-912.8690942293149</v>
+        <v>-9.128690942293069</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02623296122685508</v>
+        <v>0.02623296122685646</v>
       </c>
     </row>
     <row r="10">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9589.742146315177</v>
+        <v>95.89742146315177</v>
       </c>
       <c r="C10" t="n">
         <v>1.367728737746943e-24</v>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.66852963913565</v>
+        <v>21.66852963913614</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03877050911817459</v>
+        <v>0.03877050911817055</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1814.627216998815</v>
+        <v>1814.627216998357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01338810330461591</v>
+        <v>0.01338810330468641</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.933171123265375</v>
+        <v>1.933171123292681</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9500924877100292</v>
+        <v>0.9500924877100166</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.4590748915525</v>
+        <v>183.4590748916017</v>
       </c>
       <c r="C4" t="n">
-        <v>1.053385089702724e-19</v>
+        <v>1.053385088580902e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1026664302682633</v>
+        <v>-10.26664302677293</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001685845868558437</v>
+        <v>0.001685845868634571</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.146828025791677e-05</v>
+        <v>11.46828025140212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7580626835777344</v>
+        <v>0.7580626837080389</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.16617873054106</v>
+        <v>13.16617873054104</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001500840570321177</v>
+        <v>0.0001500840570321166</v>
       </c>
     </row>
     <row r="8">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2500.003010591076</v>
+        <v>-25.00003010591075</v>
       </c>
       <c r="C8" t="n">
         <v>0.0005368638135511729</v>
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1287.613147609052</v>
+        <v>-12.87613147609052</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003127181450287309</v>
+        <v>0.003127181450287322</v>
       </c>
     </row>
     <row r="10">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9412.527054509774</v>
+        <v>94.12527054509765</v>
       </c>
       <c r="C10" t="n">
-        <v>5.011842235530933e-21</v>
+        <v>5.011842235531077e-21</v>
       </c>
     </row>
     <row r="11">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.76728583156738</v>
+        <v>22.76728583156736</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03562154893107769</v>
+        <v>0.03562154893107781</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1374.49896520295</v>
+        <v>1374.498965165719</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04425992436913063</v>
+        <v>0.04425992437535216</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.70387809017796</v>
+        <v>41.70387808942075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1547866402590293</v>
+        <v>0.1547866402588432</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.804052818818</v>
+        <v>182.8040528207254</v>
       </c>
       <c r="C4" t="n">
-        <v>2.698774178997465e-21</v>
+        <v>2.698774171432641e-21</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0755459887160151</v>
+        <v>-7.554598871440405</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01117118041721618</v>
+        <v>0.01117118041876788</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.266831214172076e-05</v>
+        <v>12.66831214406045</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7329286827628394</v>
+        <v>0.7329286827182104</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.370041331868272</v>
+        <v>8.370041331868823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006765397197302824</v>
+        <v>0.006765397197298473</v>
       </c>
     </row>
     <row r="8">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2620.6852618601</v>
+        <v>-26.20685261860113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000321476624799303</v>
+        <v>0.0003214766247992813</v>
       </c>
     </row>
     <row r="9">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1538.188729308958</v>
+        <v>-15.38188729308954</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001003818519340315</v>
+        <v>0.000100381851934033</v>
       </c>
     </row>
     <row r="10">
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10359.00889313436</v>
+        <v>103.5900889313436</v>
       </c>
       <c r="C10" t="n">
         <v>1.579382555041849e-27</v>
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.448282108025</v>
+        <v>37.44828210802523</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002772663636162546</v>
+        <v>0.0002772663636162391</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1511.221431206318</v>
+        <v>1511.221431209366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0280002090662214</v>
+        <v>0.02800020906588621</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.75809488245778</v>
+        <v>37.75809488166388</v>
       </c>
       <c r="C3" t="n">
-        <v>0.222916494616321</v>
+        <v>0.2229164946162924</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.2408380974836</v>
+        <v>200.2408380982372</v>
       </c>
       <c r="C4" t="n">
-        <v>3.831551713236217e-23</v>
+        <v>3.831551708310719e-23</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08402268217190266</v>
+        <v>-8.402268217256495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004643261856514985</v>
+        <v>0.004643261856253545</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.860458922569958e-05</v>
+        <v>18.60458922068771</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6117652954495068</v>
+        <v>0.6117652955544489</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.29506644282455</v>
+        <v>12.29506644282491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002338072634816911</v>
+        <v>0.0002338072634815611</v>
       </c>
     </row>
     <row r="8">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1979.21835424766</v>
+        <v>-19.79218354247646</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005456259808417238</v>
+        <v>0.005456259808417681</v>
       </c>
     </row>
     <row r="9">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1443.93771451197</v>
+        <v>-14.43937714511966</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005249619535522409</v>
+        <v>0.0005249619535522593</v>
       </c>
     </row>
     <row r="10">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9250.107201223367</v>
+        <v>92.50107201223371</v>
       </c>
       <c r="C10" t="n">
-        <v>9.030701903891421e-23</v>
+        <v>9.030701903891223e-23</v>
       </c>
     </row>
     <row r="11">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.73909301156247</v>
+        <v>24.73909301156272</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0178177696766328</v>
+        <v>0.01781776967663171</v>
       </c>
     </row>
   </sheetData>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1247.501667436851</v>
+        <v>1247.501667434395</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06118907967076768</v>
+        <v>0.06118907967183715</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.153395912307332</v>
+        <v>1.153395912310799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9669638635775751</v>
+        <v>0.9669638635779836</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.6601928234701</v>
+        <v>176.6601928234933</v>
       </c>
       <c r="C4" t="n">
-        <v>8.507601537055283e-21</v>
+        <v>8.507601527221473e-21</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08495119938238244</v>
+        <v>-8.495119938202661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003535161297817046</v>
+        <v>0.003535161298011187</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.61347536215808e-06</v>
+        <v>-7.613475385178727</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8253152284146624</v>
+        <v>0.8253152278959293</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.73802163336905</v>
+        <v>14.73802163336914</v>
       </c>
       <c r="C7" t="n">
-        <v>3.314581932709291e-06</v>
+        <v>3.314581932708727e-06</v>
       </c>
     </row>
     <row r="8">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1994.806724783602</v>
+        <v>-19.94806724783626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004586533746124849</v>
+        <v>0.004586533746124427</v>
       </c>
     </row>
     <row r="9">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1135.801729382551</v>
+        <v>-11.3580172938256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004752151499211327</v>
+        <v>0.004752151499211046</v>
       </c>
     </row>
     <row r="10">
@@ -2935,10 +2935,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10257.80433051385</v>
+        <v>102.5780433051385</v>
       </c>
       <c r="C10" t="n">
-        <v>1.396965026341608e-29</v>
+        <v>1.396965026341528e-29</v>
       </c>
     </row>
     <row r="11">
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.38015704259303</v>
+        <v>27.38015704259313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007015306053098202</v>
+        <v>0.00701530605309802</v>
       </c>
     </row>
   </sheetData>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1801.545899462844</v>
+        <v>1801.545899457857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009939872877359717</v>
+        <v>0.009939872877610813</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.62978331748685</v>
+        <v>19.62978331811071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5077087071954931</v>
+        <v>0.5077087071958156</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.7260514983088</v>
+        <v>164.726051498427</v>
       </c>
       <c r="C4" t="n">
-        <v>7.077829407657774e-17</v>
+        <v>7.077829405775917e-17</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0963536789081125</v>
+        <v>-9.635367890697207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00192426005990418</v>
+        <v>0.001924260060080587</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.800556637522802e-06</v>
+        <v>8.80055662454501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8294558902223343</v>
+        <v>0.829455890468676</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.32043023107021</v>
+        <v>14.32043023107032</v>
       </c>
       <c r="C7" t="n">
-        <v>2.026587147739982e-05</v>
+        <v>2.026587147739646e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2337.243664792337</v>
+        <v>-23.37243664792347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009514674455262465</v>
+        <v>0.0009514674455261811</v>
       </c>
     </row>
     <row r="9">
@@ -3088,10 +3088,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1520.82064840345</v>
+        <v>-15.20820648403454</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003083672451015374</v>
+        <v>0.0003083672451015322</v>
       </c>
     </row>
     <row r="10">
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9597.872006590593</v>
+        <v>95.97872006590592</v>
       </c>
       <c r="C10" t="n">
-        <v>1.631631064613589e-24</v>
+        <v>1.631631064613671e-24</v>
       </c>
     </row>
     <row r="11">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.2763581258252</v>
+        <v>24.27635812582512</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01963904658296347</v>
+        <v>0.01963904658296395</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2160.667590624123</v>
+        <v>2160.667590625565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001700956507745702</v>
+        <v>0.001700956507743184</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.75257900978806</v>
+        <v>-3.752579009725003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8964542024610563</v>
+        <v>0.8964542024611402</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.6777133259152</v>
+        <v>177.6777133258977</v>
       </c>
       <c r="C4" t="n">
-        <v>1.863980355333628e-19</v>
+        <v>1.863980355025182e-19</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1212281429789515</v>
+        <v>-12.12281429786014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001685659720821746</v>
+        <v>0.0001685659720875659</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3215,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.949452344344953e-05</v>
+        <v>19.49452345338524</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5992246845329225</v>
+        <v>0.5992246843463277</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.99020691676841</v>
+        <v>11.99020691676847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002468173043702999</v>
+        <v>0.0002468173043702798</v>
       </c>
     </row>
     <row r="8">
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2351.431978416955</v>
+        <v>-23.51431978416962</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006270584522893017</v>
+        <v>0.0006270584522892785</v>
       </c>
     </row>
     <row r="9">
@@ -3254,10 +3254,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-781.6041777955131</v>
+        <v>-7.816041777955146</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05543521462300108</v>
+        <v>0.05543521462300059</v>
       </c>
     </row>
     <row r="10">
@@ -3267,10 +3267,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8934.720226594185</v>
+        <v>89.3472022659418</v>
       </c>
       <c r="C10" t="n">
-        <v>1.354148804651784e-18</v>
+        <v>1.354148804651687e-18</v>
       </c>
     </row>
     <row r="11">
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.49340144674257</v>
+        <v>16.49340144674261</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1052644820481651</v>
+        <v>0.105264482048164</v>
       </c>
     </row>
   </sheetData>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1802.336748294218</v>
+        <v>1802.336748230277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008213730114236848</v>
+        <v>0.008213730116569042</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.80186375289883</v>
+        <v>52.80186375481559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06231282655449817</v>
+        <v>0.06231282655436613</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.1576042928324</v>
+        <v>160.1576042932126</v>
       </c>
       <c r="C4" t="n">
-        <v>2.122618228425716e-17</v>
+        <v>2.122618227500522e-17</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07507996234358623</v>
+        <v>-7.507996234278407</v>
       </c>
       <c r="C5" t="n">
-        <v>0.016962853951673</v>
+        <v>0.01696285395279372</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.687413867799925e-05</v>
+        <v>-16.87413867332305</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6739072337895129</v>
+        <v>0.6739072338747512</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.26704563504349</v>
+        <v>10.26704563504387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009893450795597223</v>
+        <v>0.0009893450795591654</v>
       </c>
     </row>
     <row r="8">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2244.636264554437</v>
+        <v>-22.44636264554435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001881173552569781</v>
+        <v>0.001881173552569785</v>
       </c>
     </row>
     <row r="9">
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1503.061124926675</v>
+        <v>-15.03061124926675</v>
       </c>
       <c r="C9" t="n">
         <v>0.0002596490775369545</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8903.075197685961</v>
+        <v>89.03075197685968</v>
       </c>
       <c r="C10" t="n">
-        <v>4.044053863796353e-19</v>
+        <v>4.044053863796527e-19</v>
       </c>
     </row>
     <row r="11">
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.38370018682279</v>
+        <v>31.38370018682289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003134599223596556</v>
+        <v>0.003134599223596471</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1852.597997905522</v>
+        <v>1852.597997896139</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01082391994056599</v>
+        <v>0.01082391994105919</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.05094189834021</v>
+        <v>29.0509418967922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3487636729852563</v>
+        <v>0.3487636729851206</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.9566651168779</v>
+        <v>172.9566651174413</v>
       </c>
       <c r="C4" t="n">
-        <v>4.107861145956519e-18</v>
+        <v>4.10786114229942e-18</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1033402396580214</v>
+        <v>-10.33402396550461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00121614079666308</v>
+        <v>0.001216140796997954</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.319016569525458e-05</v>
+        <v>23.19016569618533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5438263307927154</v>
+        <v>0.5438263307724591</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.80612635817294</v>
+        <v>13.80612635817297</v>
       </c>
       <c r="C7" t="n">
-        <v>2.196613745891801e-05</v>
+        <v>2.19661374589162e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2701.62906587214</v>
+        <v>-27.01629065872129</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001986871073877077</v>
+        <v>0.0001986871073877275</v>
       </c>
     </row>
     <row r="9">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1109.680598029164</v>
+        <v>-11.09680598029165</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009209702682387046</v>
+        <v>0.009209702682386965</v>
       </c>
     </row>
     <row r="10">
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9453.905237341725</v>
+        <v>94.53905237341729</v>
       </c>
       <c r="C10" t="n">
-        <v>1.543389312198199e-22</v>
+        <v>1.543389312198155e-22</v>
       </c>
     </row>
     <row r="11">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.05593733814975</v>
+        <v>18.05593733814966</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1034763163250388</v>
+        <v>0.1034763163250403</v>
       </c>
     </row>
   </sheetData>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1967.314607948193</v>
+        <v>1967.314607924619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002349690397097835</v>
+        <v>0.002349690397372461</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.36560861127496</v>
+        <v>16.36560861203848</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5505117826563494</v>
+        <v>0.5505117826567221</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.1625233012005</v>
+        <v>169.1625233010101</v>
       </c>
       <c r="C4" t="n">
-        <v>2.358009763462191e-19</v>
+        <v>2.358009764726037e-19</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3700,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09041130375675184</v>
+        <v>-9.041130375512651</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001464262928572066</v>
+        <v>0.001464262928823825</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3713,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.432576395509935e-06</v>
+        <v>9.432576407091531</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7923255741708869</v>
+        <v>0.7923255739209849</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.46278494176303</v>
+        <v>11.46278494176294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002513563030459984</v>
+        <v>0.0002513563030460243</v>
       </c>
     </row>
     <row r="8">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2393.869925615301</v>
+        <v>-23.93869925615289</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002854598762543418</v>
+        <v>0.0002854598762543654</v>
       </c>
     </row>
     <row r="9">
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1386.556671146922</v>
+        <v>-13.86556671146919</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005175704324193195</v>
+        <v>0.0005175704324193424</v>
       </c>
     </row>
     <row r="10">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9330.6666412305</v>
+        <v>93.30666641230496</v>
       </c>
       <c r="C10" t="n">
-        <v>1.053965162774101e-24</v>
+        <v>1.053965162774033e-24</v>
       </c>
     </row>
     <row r="11">
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.97431736673154</v>
+        <v>23.97431736673153</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01724987114352228</v>
+        <v>0.0172498711435223</v>
       </c>
     </row>
   </sheetData>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1929.144343110022</v>
+        <v>1929.14434311165</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004028980929124468</v>
+        <v>0.004028980929085828</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.644889949946865</v>
+        <v>9.644889949595495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7264185211697685</v>
+        <v>0.7264185211701792</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9275457654376</v>
+        <v>198.9275457651207</v>
       </c>
       <c r="C4" t="n">
-        <v>6.994053335369803e-25</v>
+        <v>6.994053348023276e-25</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07983631024917426</v>
+        <v>-7.983631024963119</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006033679554123109</v>
+        <v>0.006033679553935774</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.579466429854029e-05</v>
+        <v>-15.79466430683242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6647581670598097</v>
+        <v>0.6647581668982139</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.00772490828357</v>
+        <v>11.00772490828377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005438685999074933</v>
+        <v>0.0005438685999073197</v>
       </c>
     </row>
     <row r="8">
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2195.88551062765</v>
+        <v>-21.95885510627642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001171987672789716</v>
+        <v>0.001171987672789737</v>
       </c>
     </row>
     <row r="9">
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1283.469084682157</v>
+        <v>-12.83469084682162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001355032671235092</v>
+        <v>0.001355032671235031</v>
       </c>
     </row>
     <row r="10">
@@ -3931,7 +3931,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8334.191802592311</v>
+        <v>83.34191802592315</v>
       </c>
       <c r="C10" t="n">
         <v>7.131015475826216e-17</v>
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.0078249865136</v>
+        <v>25.00782498651377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01420910660943933</v>
+        <v>0.01420910660943868</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.199472858527</v>
+        <v>1590.199472814736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01964638637268418</v>
+        <v>0.01964638637623258</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.73127842784208</v>
+        <v>25.73127842729252</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3830344459788146</v>
+        <v>0.3830344459787876</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.7771814920385</v>
+        <v>166.7771814921197</v>
       </c>
       <c r="C4" t="n">
-        <v>1.555396433301658e-17</v>
+        <v>1.555396433046271e-17</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0839128952285967</v>
+        <v>-8.391289522996765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005598256926628952</v>
+        <v>0.005598256925973989</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.240137745911751e-06</v>
+        <v>-6.240137744436481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8692791296582474</v>
+        <v>0.8692791296890061</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.81573547694716</v>
+        <v>10.81573547694727</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006557905787744503</v>
+        <v>0.0006557905787743586</v>
       </c>
     </row>
     <row r="8">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1963.688394034639</v>
+        <v>-19.63688394034644</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008359990468392418</v>
+        <v>0.008359990468392323</v>
       </c>
     </row>
     <row r="9">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1503.989929272932</v>
+        <v>-15.03989929272932</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002676329810106327</v>
+        <v>0.0002676329810106313</v>
       </c>
     </row>
     <row r="10">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10035.66422344367</v>
+        <v>100.3566422344367</v>
       </c>
       <c r="C10" t="n">
-        <v>2.598098789889031e-25</v>
+        <v>2.598098789889125e-25</v>
       </c>
     </row>
     <row r="11">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.07065334296225</v>
+        <v>32.07065334296219</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001850367808279654</v>
+        <v>0.001850367808279674</v>
       </c>
     </row>
   </sheetData>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1353.800124008082</v>
+        <v>1353.800124003188</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04104701297009798</v>
+        <v>0.04104701297085696</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.15209541047049</v>
+        <v>53.15209541173496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07586554376353392</v>
+        <v>0.07586554376346431</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.4217777288538</v>
+        <v>173.4217777286918</v>
       </c>
       <c r="C4" t="n">
-        <v>7.393769538704488e-19</v>
+        <v>7.393769539960121e-19</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0887780522848373</v>
+        <v>-8.877805228313415</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002702240920533057</v>
+        <v>0.002702240920975563</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.825220112739827e-05</v>
+        <v>28.25220112143637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4547142015936452</v>
+        <v>0.4547142016801469</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.35233501530938</v>
+        <v>10.35233501530931</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009495862858266651</v>
+        <v>0.0009495862858267313</v>
       </c>
     </row>
     <row r="8">
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1454.564803103787</v>
+        <v>-14.54564803103782</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04034325090130603</v>
+        <v>0.04034325090130657</v>
       </c>
     </row>
     <row r="9">
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1262.484437596247</v>
+        <v>-12.6248443759626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001796903425739367</v>
+        <v>0.001796903425739149</v>
       </c>
     </row>
     <row r="10">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9882.31986559683</v>
+        <v>98.82319865596845</v>
       </c>
       <c r="C10" t="n">
-        <v>7.414188020262918e-27</v>
+        <v>7.414188020261218e-27</v>
       </c>
     </row>
     <row r="11">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.81942267313796</v>
+        <v>28.81942267313808</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004315189331349931</v>
+        <v>0.004315189331349762</v>
       </c>
     </row>
   </sheetData>
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1197.017748281922</v>
+        <v>1197.017748274382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08910094862666149</v>
+        <v>0.08910094862885545</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.21287898095976</v>
+        <v>24.21287897986266</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4256567531317654</v>
+        <v>0.4256567531315693</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.7744602051207</v>
+        <v>170.7744602055711</v>
       </c>
       <c r="C4" t="n">
-        <v>5.406922749893556e-18</v>
+        <v>5.406922745566796e-18</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1008109196181894</v>
+        <v>-10.08109196193326</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002882651976317941</v>
+        <v>0.002882651976053413</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.376152416392749e-06</v>
+        <v>8.376152423184855</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8345626715067902</v>
+        <v>0.8345626713766825</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.81350361061195</v>
+        <v>16.81350361061189</v>
       </c>
       <c r="C7" t="n">
-        <v>2.02526083018783e-06</v>
+        <v>2.025260830187921e-06</v>
       </c>
     </row>
     <row r="8">
@@ -4403,10 +4403,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1634.317840947307</v>
+        <v>-16.34317840947308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02457431680724973</v>
+        <v>0.02457431680724961</v>
       </c>
     </row>
     <row r="9">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1115.343699260109</v>
+        <v>-11.15343699260111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008415588266134814</v>
+        <v>0.008415588266134698</v>
       </c>
     </row>
     <row r="10">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9860.676637713404</v>
+        <v>98.60676637713411</v>
       </c>
       <c r="C10" t="n">
-        <v>9.133492541343905e-25</v>
+        <v>9.133492541343774e-25</v>
       </c>
     </row>
     <row r="11">
@@ -4445,7 +4445,7 @@
         <v>24.29652699752588</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01763379782067313</v>
+        <v>0.01763379782067316</v>
       </c>
     </row>
   </sheetData>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2746.927028823468</v>
+        <v>2746.927028825884</v>
       </c>
       <c r="C2" t="n">
-        <v>8.336614642003343e-05</v>
+        <v>8.336614641871992e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.653687433483405</v>
+        <v>7.653687434059467</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7872735818179966</v>
+        <v>0.7872735818176563</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.7755168053713</v>
+        <v>152.7755168051789</v>
       </c>
       <c r="C4" t="n">
-        <v>7.192155747462312e-15</v>
+        <v>7.192155753317878e-15</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1015862540535795</v>
+        <v>-10.1586254053714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001063150638016695</v>
+        <v>0.001063150638011024</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.169757427354391e-06</v>
+        <v>4.169757431848453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.918483537608916</v>
+        <v>0.918483537521019</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.32151686016906</v>
+        <v>12.3215168601691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001092768625665009</v>
+        <v>0.0001092768625664949</v>
       </c>
     </row>
     <row r="8">
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2495.546697938492</v>
+        <v>-24.95546697938505</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002683741763287233</v>
+        <v>0.0002683741763287082</v>
       </c>
     </row>
     <row r="9">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1409.957083228665</v>
+        <v>-14.09957083228666</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0008801724669399324</v>
+        <v>0.0008801724669399046</v>
       </c>
     </row>
     <row r="10">
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9106.434038875246</v>
+        <v>91.06434038875247</v>
       </c>
       <c r="C10" t="n">
         <v>9.47006112926272e-22</v>
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.892893700528976</v>
+        <v>9.892893700529157</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3468581803420434</v>
+        <v>0.3468581803420346</v>
       </c>
     </row>
   </sheetData>
@@ -4657,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1458.261810438561</v>
+        <v>1458.261810398687</v>
       </c>
       <c r="C2" t="n">
-        <v>0.033818822645399</v>
+        <v>0.03381882265065367</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.57017363655682</v>
+        <v>38.57017363861679</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2072324638528479</v>
+        <v>0.2072324638532097</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.7895497321659</v>
+        <v>177.7895497322897</v>
       </c>
       <c r="C4" t="n">
-        <v>1.141320909255723e-19</v>
+        <v>1.141320909048948e-19</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08130796578849875</v>
+        <v>-8.130796578934829</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006100915257422759</v>
+        <v>0.006100915256955802</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4709,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.893545382076179e-06</v>
+        <v>4.893545373867696</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8894776888227105</v>
+        <v>0.8894776890069277</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.56544179221883</v>
+        <v>11.56544179221885</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005426597080947348</v>
+        <v>0.0005426597080947296</v>
       </c>
     </row>
     <row r="8">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2313.024172361089</v>
+        <v>-23.13024172361098</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006979516555811922</v>
+        <v>0.0006979516555811702</v>
       </c>
     </row>
     <row r="9">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1485.085522528744</v>
+        <v>-14.8508552252874</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002935229946913128</v>
+        <v>0.0002935229946913222</v>
       </c>
     </row>
     <row r="10">
@@ -4761,10 +4761,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10186.1868658975</v>
+        <v>101.8618686589751</v>
       </c>
       <c r="C10" t="n">
-        <v>2.918065219387437e-27</v>
+        <v>2.918065219387248e-27</v>
       </c>
     </row>
     <row r="11">
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.94637038089259</v>
+        <v>29.94637038089244</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003189474656814967</v>
+        <v>0.003189474656815157</v>
       </c>
     </row>
   </sheetData>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1835.707309397939</v>
+        <v>1835.7073093458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006156195288228877</v>
+        <v>0.006156195289943706</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.88022145780778</v>
+        <v>31.88022145693463</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2593292858951585</v>
+        <v>0.2593292858949467</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.8370828383362</v>
+        <v>172.8370828383476</v>
       </c>
       <c r="C4" t="n">
-        <v>6.030109640574893e-20</v>
+        <v>6.030109640477577e-20</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4862,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1099603833396144</v>
+        <v>-10.99603833411603</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005376585366009253</v>
+        <v>0.0005376585365089991</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.235432795053017e-05</v>
+        <v>22.35432795739355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5722835053269275</v>
+        <v>0.5722835052133833</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.45775648162548</v>
+        <v>13.4577564816258</v>
       </c>
       <c r="C7" t="n">
-        <v>4.40391457750924e-05</v>
+        <v>4.403914577506575e-05</v>
       </c>
     </row>
     <row r="8">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1842.657955371439</v>
+        <v>-18.42657955371438</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01236669746948016</v>
+        <v>0.01236669746947994</v>
       </c>
     </row>
     <row r="9">
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1278.000520479099</v>
+        <v>-12.78000520479107</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001495177558136161</v>
+        <v>0.001495177558136042</v>
       </c>
     </row>
     <row r="10">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9831.173888919004</v>
+        <v>98.31173888919011</v>
       </c>
       <c r="C10" t="n">
-        <v>3.413018310133219e-25</v>
+        <v>3.413018310133073e-25</v>
       </c>
     </row>
     <row r="11">
@@ -4940,10 +4940,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.02811122555228</v>
+        <v>18.02811122555231</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07549120175312092</v>
+        <v>0.07549120175312062</v>
       </c>
     </row>
   </sheetData>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1484.315452729976</v>
+        <v>1484.315452735138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02575476464766994</v>
+        <v>0.02575476464704175</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.55552577096273</v>
+        <v>11.55552577101716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6846569623010211</v>
+        <v>0.6846569623013479</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.5772889932747</v>
+        <v>194.5772889932711</v>
       </c>
       <c r="C4" t="n">
-        <v>6.161586075745754e-24</v>
+        <v>6.161586075955459e-24</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08811796548058469</v>
+        <v>-8.81179654815962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003336215099829942</v>
+        <v>0.003336215099574524</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +5041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.460342703075105e-06</v>
+        <v>1.460342701086383</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9672049182001335</v>
+        <v>0.967204918244978</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +5054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.03350809326223</v>
+        <v>12.03350809326278</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001046083076030639</v>
+        <v>0.0001046083076029692</v>
       </c>
     </row>
     <row r="8">
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2233.631637335443</v>
+        <v>-22.33631637335434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001076054781602157</v>
+        <v>0.001076054781602236</v>
       </c>
     </row>
     <row r="9">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1142.298729675481</v>
+        <v>-11.42298729675479</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004791623148427478</v>
+        <v>0.004791623148427539</v>
       </c>
     </row>
     <row r="10">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7769.335460474478</v>
+        <v>77.69335460474471</v>
       </c>
       <c r="C10" t="n">
-        <v>6.382890634436547e-16</v>
+        <v>6.382890634436914e-16</v>
       </c>
     </row>
     <row r="11">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.84477622914855</v>
+        <v>33.84477622914871</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001081180291959271</v>
+        <v>0.001081180291959214</v>
       </c>
     </row>
   </sheetData>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>952.5385852426432</v>
+        <v>952.5385852321072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1740324945660821</v>
+        <v>0.1740324945708488</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.25738424790901</v>
+        <v>14.2573842474945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.633376766734689</v>
+        <v>0.6333767667341608</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.52138893974</v>
+        <v>180.5213889401756</v>
       </c>
       <c r="C4" t="n">
-        <v>1.093852110637692e-19</v>
+        <v>1.093852109075238e-19</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08486943200053616</v>
+        <v>-8.486943199965413</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006044110461621879</v>
+        <v>0.006044110462086727</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.062811447722735e-06</v>
+        <v>-3.06281144209494</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9366082930757063</v>
+        <v>0.936608293192289</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.47016177516949</v>
+        <v>14.47016177516952</v>
       </c>
       <c r="C7" t="n">
-        <v>1.422737470779033e-05</v>
+        <v>1.422737470778983e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2150.473992927759</v>
+        <v>-21.50473992927769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004178105129209479</v>
+        <v>0.004178105129209339</v>
       </c>
     </row>
     <row r="9">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1092.909631911055</v>
+        <v>-10.92909631911057</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009021860883169433</v>
+        <v>0.00902186088316935</v>
       </c>
     </row>
     <row r="10">
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10225.81713922495</v>
+        <v>102.2581713922496</v>
       </c>
       <c r="C10" t="n">
-        <v>4.997969716773024e-25</v>
+        <v>4.997969716772561e-25</v>
       </c>
     </row>
     <row r="11">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.59226133286204</v>
+        <v>33.59226133286206</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001656220614591977</v>
+        <v>0.001656220614591988</v>
       </c>
     </row>
   </sheetData>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.411636626789</v>
+        <v>1560.411636626979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02361129228864483</v>
+        <v>0.02361129228862251</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.88960017328097</v>
+        <v>12.88960017359453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6588208202797023</v>
+        <v>0.6588208202795406</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.321244639424</v>
+        <v>179.3212446392548</v>
       </c>
       <c r="C4" t="n">
-        <v>1.439187250313857e-19</v>
+        <v>1.439187251183714e-19</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07674888418968283</v>
+        <v>-7.674888419006761</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01911413524889593</v>
+        <v>0.01911413524835073</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.462663708459366e-05</v>
+        <v>-14.62663707444295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7184050863393288</v>
+        <v>0.7184050865290863</v>
       </c>
     </row>
     <row r="7">
@@ -5389,7 +5389,7 @@
         <v>11.84190688782998</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002459054806072064</v>
+        <v>0.0002459054806072015</v>
       </c>
     </row>
     <row r="8">
@@ -5399,10 +5399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1235.066002206562</v>
+        <v>-12.35066002206567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09523166714449882</v>
+        <v>0.0952316671444967</v>
       </c>
     </row>
     <row r="9">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1343.830017956591</v>
+        <v>-13.43830017956588</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001560167606925832</v>
+        <v>0.001560167606925879</v>
       </c>
     </row>
     <row r="10">
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9182.586008602964</v>
+        <v>91.82586008602981</v>
       </c>
       <c r="C10" t="n">
-        <v>2.643697162341084e-22</v>
+        <v>2.64369716234078e-22</v>
       </c>
     </row>
     <row r="11">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.95698727800566</v>
+        <v>29.95698727800573</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004462509398310296</v>
+        <v>0.004462509398310215</v>
       </c>
     </row>
   </sheetData>
@@ -5487,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1418.99145212198</v>
+        <v>1418.991452110744</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04641395390466937</v>
+        <v>0.04641395390654581</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.9640596038425</v>
+        <v>27.96405960398121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3542288476646243</v>
+        <v>0.3542288476644694</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.5788232072022</v>
+        <v>175.5788232072575</v>
       </c>
       <c r="C4" t="n">
-        <v>9.749133594903226e-19</v>
+        <v>9.749133593903325e-19</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09117300690799106</v>
+        <v>-9.117300690720267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00378510453104918</v>
+        <v>0.003785104531304117</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.314710558489847e-05</v>
+        <v>13.14710558431794</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7344986401100509</v>
+        <v>0.7344986401218032</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.0227549610164</v>
+        <v>14.02275496101631</v>
       </c>
       <c r="C7" t="n">
-        <v>3.467532471227455e-05</v>
+        <v>3.467532471227754e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5565,10 +5565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2502.78393577255</v>
+        <v>-25.02783935772554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007198541629445</v>
+        <v>0.0007198541629444951</v>
       </c>
     </row>
     <row r="9">
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1351.806360803386</v>
+        <v>-13.51806360803383</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001601613012749744</v>
+        <v>0.001601613012749768</v>
       </c>
     </row>
     <row r="10">
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9343.448046838832</v>
+        <v>93.4344804683883</v>
       </c>
       <c r="C10" t="n">
-        <v>1.796834001779839e-22</v>
+        <v>1.796834001779697e-22</v>
       </c>
     </row>
     <row r="11">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.1719584387621</v>
+        <v>29.17195843876194</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005964074940053739</v>
+        <v>0.005964074940054027</v>
       </c>
     </row>
   </sheetData>
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1469.185838313648</v>
+        <v>1469.185838294207</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03007093271065349</v>
+        <v>0.03007093271364391</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.241751580987188</v>
+        <v>7.241751581701212</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8060139807170313</v>
+        <v>0.8060139807166854</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.2591173714154</v>
+        <v>185.2591173717275</v>
       </c>
       <c r="C4" t="n">
-        <v>4.580097791810877e-21</v>
+        <v>4.580097783525227e-21</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07457371902145674</v>
+        <v>-7.457371902052415</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009486957678422749</v>
+        <v>0.009486957679030895</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5705,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.114738729258459e-05</v>
+        <v>-11.14738728180058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7573225139716947</v>
+        <v>0.757322514196488</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.92677788011993</v>
+        <v>13.92677788012027</v>
       </c>
       <c r="C7" t="n">
-        <v>1.350828668356e-05</v>
+        <v>1.350828668355062e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1952.942621224922</v>
+        <v>-19.52942621224923</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00500896225567716</v>
+        <v>0.005008962255677011</v>
       </c>
     </row>
     <row r="9">
@@ -5744,10 +5744,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1467.303192498969</v>
+        <v>-14.67303192498968</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002638932303759872</v>
+        <v>0.0002638932303759937</v>
       </c>
     </row>
     <row r="10">
@@ -5757,10 +5757,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10546.43407951858</v>
+        <v>105.4643407951857</v>
       </c>
       <c r="C10" t="n">
-        <v>6.42774607168351e-28</v>
+        <v>6.427746071683325e-28</v>
       </c>
     </row>
     <row r="11">
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.87602393074827</v>
+        <v>23.87602393074821</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02345624845593166</v>
+        <v>0.02345624845593218</v>
       </c>
     </row>
   </sheetData>
@@ -5819,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2433.131724625069</v>
+        <v>2433.131724613047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002193457006535098</v>
+        <v>0.000219345700673802</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.9859745624744</v>
+        <v>16.98597456145019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.541983305740217</v>
+        <v>0.541983305740207</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.0255874739402</v>
+        <v>167.0255874741393</v>
       </c>
       <c r="C4" t="n">
-        <v>1.160475471197841e-19</v>
+        <v>1.16047547048007e-19</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.128252533700728</v>
+        <v>-12.82525337009416</v>
       </c>
       <c r="C5" t="n">
-        <v>1.039425979316901e-05</v>
+        <v>1.039425979323819e-05</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.341827038071604e-05</v>
+        <v>33.41827038397433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3534556436888459</v>
+        <v>0.3534556436387805</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.672278359922572</v>
+        <v>7.672278359922569</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01220068466436843</v>
+        <v>0.01220068466436833</v>
       </c>
     </row>
     <row r="8">
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3228.215374225358</v>
+        <v>-32.28215374225346</v>
       </c>
       <c r="C8" t="n">
-        <v>2.433568198766879e-06</v>
+        <v>2.433568198767104e-06</v>
       </c>
     </row>
     <row r="9">
@@ -5910,10 +5910,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1278.7457606735</v>
+        <v>-12.78745760673507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001299418527903921</v>
+        <v>0.001299418527903859</v>
       </c>
     </row>
     <row r="10">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8561.906715167201</v>
+        <v>85.61906715167198</v>
       </c>
       <c r="C10" t="n">
-        <v>1.749847688273314e-19</v>
+        <v>1.74984768827349e-19</v>
       </c>
     </row>
     <row r="11">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.08532438850314</v>
+        <v>28.08532438850319</v>
       </c>
       <c r="C11" t="n">
         <v>0.004422943203033372</v>
@@ -5985,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1891.128910463888</v>
+        <v>1891.128910453777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006009339274780729</v>
+        <v>0.006009339275090913</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.12446338969944</v>
+        <v>23.12446338939787</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4319720970259956</v>
+        <v>0.4319720970262134</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.8864651425241</v>
+        <v>159.8864651436175</v>
       </c>
       <c r="C4" t="n">
-        <v>6.261098276970656e-17</v>
+        <v>6.261098263808713e-17</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08036990826075077</v>
+        <v>-8.036990825876849</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006037250437933572</v>
+        <v>0.006037250439100106</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.757418462488668e-06</v>
+        <v>4.757418441005569</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8969710629327541</v>
+        <v>0.8969710633943192</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +6050,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.93867945474459</v>
+        <v>11.93867945474512</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001463929108120812</v>
+        <v>0.0001463929108119589</v>
       </c>
     </row>
     <row r="8">
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2713.754239669008</v>
+        <v>-27.13754239668994</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001206187752651162</v>
+        <v>0.0001206187752651277</v>
       </c>
     </row>
     <row r="9">
@@ -6076,10 +6076,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1740.992503518243</v>
+        <v>-17.40992503518237</v>
       </c>
       <c r="C9" t="n">
-        <v>2.204848142538225e-05</v>
+        <v>2.204848142538398e-05</v>
       </c>
     </row>
     <row r="10">
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10022.69895892227</v>
+        <v>100.2269895892227</v>
       </c>
       <c r="C10" t="n">
-        <v>2.311986926592589e-24</v>
+        <v>2.311986926592738e-24</v>
       </c>
     </row>
     <row r="11">
@@ -6102,10 +6102,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.16446564138471</v>
+        <v>29.16446564138501</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006657327673468328</v>
+        <v>0.006657327673467875</v>
       </c>
     </row>
   </sheetData>
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.309100173024</v>
+        <v>1506.309100215781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02714492146289961</v>
+        <v>0.02714492145848212</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.96942352989221</v>
+        <v>35.96942353077996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2125070976716642</v>
+        <v>0.2125070976716929</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.757730469075</v>
+        <v>175.7577304687308</v>
       </c>
       <c r="C4" t="n">
-        <v>2.104049316535784e-19</v>
+        <v>2.104049317678152e-19</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0846722053228714</v>
+        <v>-8.467220532777507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006603826603872069</v>
+        <v>0.006603826600962613</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +6203,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.688205325757805e-07</v>
+        <v>0.7688205245933659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9835188204247167</v>
+        <v>0.9835188205958687</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +6216,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.84261492286496</v>
+        <v>16.84261492286519</v>
       </c>
       <c r="C7" t="n">
-        <v>6.124376342857404e-07</v>
+        <v>6.124376342853837e-07</v>
       </c>
     </row>
     <row r="8">
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2101.2708187551</v>
+        <v>-21.01270818755102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001908460530841422</v>
+        <v>0.001908460530841407</v>
       </c>
     </row>
     <row r="9">
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1007.263809983647</v>
+        <v>-10.07263809983645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01376554482399065</v>
+        <v>0.01376554482399083</v>
       </c>
     </row>
     <row r="10">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9518.821984017413</v>
+        <v>95.18821984017428</v>
       </c>
       <c r="C10" t="n">
-        <v>1.376228136245316e-22</v>
+        <v>1.37622813624509e-22</v>
       </c>
     </row>
     <row r="11">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.23455771942815</v>
+        <v>14.23455771942824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1657017688171742</v>
+        <v>0.1657017688171717</v>
       </c>
     </row>
   </sheetData>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1135.146696354752</v>
+        <v>1135.146696354999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09615008367909064</v>
+        <v>0.09615008367901463</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.80817435653707</v>
+        <v>30.80817435669265</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2748361580239439</v>
+        <v>0.274836158024295</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.6043324989605</v>
+        <v>173.6043324988819</v>
       </c>
       <c r="C4" t="n">
-        <v>2.557059137845781e-19</v>
+        <v>2.557059138189603e-19</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +6356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08755247506776631</v>
+        <v>-8.755247506957204</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00467272004609823</v>
+        <v>0.004672720045376449</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +6369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.909974317687951e-05</v>
+        <v>29.09974317888162</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4801113225047372</v>
+        <v>0.4801113224739698</v>
       </c>
     </row>
     <row r="7">
@@ -6385,7 +6385,7 @@
         <v>12.35106640451252</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000105218309027887</v>
+        <v>0.0001052183090278848</v>
       </c>
     </row>
     <row r="8">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2233.240570214899</v>
+        <v>-22.33240570214908</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001749648055598391</v>
+        <v>0.001749648055598299</v>
       </c>
     </row>
     <row r="9">
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1219.734580477242</v>
+        <v>-12.1973458047724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003257228429277301</v>
+        <v>0.003257228429277368</v>
       </c>
     </row>
     <row r="10">
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9351.449968329267</v>
+        <v>93.51449968329261</v>
       </c>
       <c r="C10" t="n">
-        <v>7.731496649237647e-23</v>
+        <v>7.731496649238425e-23</v>
       </c>
     </row>
     <row r="11">
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.33775144132834</v>
+        <v>36.33775144132843</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005208865144504833</v>
+        <v>0.0005208865144504675</v>
       </c>
     </row>
   </sheetData>
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1897.116969817313</v>
+        <v>1897.116969797815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00835513235287702</v>
+        <v>0.008355132353644856</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.06103351395094</v>
+        <v>23.06103351448936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4572362017419995</v>
+        <v>0.4572362017424204</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.5615593728126</v>
+        <v>171.5615593724179</v>
       </c>
       <c r="C4" t="n">
-        <v>2.093932268158824e-18</v>
+        <v>2.093932269622705e-18</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07315061441338513</v>
+        <v>-7.315061441284139</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0251616046720455</v>
+        <v>0.02516160467311031</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.823985655828796e-05</v>
+        <v>-38.23985656788975</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3867717612410146</v>
+        <v>0.3867717611191235</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.03123153173597</v>
+        <v>13.03123153173637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002623768630552507</v>
+        <v>0.0002623768630550853</v>
       </c>
     </row>
     <row r="8">
@@ -6561,10 +6561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1560.1282527725</v>
+        <v>-15.60128252772503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03647203466050375</v>
+        <v>0.0364720346605038</v>
       </c>
     </row>
     <row r="9">
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1355.591306156831</v>
+        <v>-13.55591306156825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001213807950756241</v>
+        <v>0.001213807950756312</v>
       </c>
     </row>
     <row r="10">
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9397.02601029355</v>
+        <v>93.97026010293561</v>
       </c>
       <c r="C10" t="n">
-        <v>1.919257857341365e-22</v>
+        <v>1.919257857341173e-22</v>
       </c>
     </row>
     <row r="11">
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.88921432613123</v>
+        <v>20.88921432613129</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04366596715191642</v>
+        <v>0.04366596715191601</v>
       </c>
     </row>
   </sheetData>
@@ -6649,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2045.090534282273</v>
+        <v>2045.090534279045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003783791424044716</v>
+        <v>0.003783791424091707</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-12.17707360060815</v>
+        <v>-12.17707360039722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6825850529598452</v>
+        <v>0.6825850529600228</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.6519298456759</v>
+        <v>189.651929845816</v>
       </c>
       <c r="C4" t="n">
-        <v>1.074741866105433e-20</v>
+        <v>1.074741866620465e-20</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1185193332534859</v>
+        <v>-11.85193332532605</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001681292867131078</v>
+        <v>0.0001681292867151992</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.204087015721159e-05</v>
+        <v>12.04087015666367</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7392660131533806</v>
+        <v>0.7392660131655366</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.99191706266853</v>
+        <v>13.99191706266896</v>
       </c>
       <c r="C7" t="n">
-        <v>1.634671583635648e-05</v>
+        <v>1.634671583634274e-05</v>
       </c>
     </row>
     <row r="8">
@@ -6727,10 +6727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2074.052962421107</v>
+        <v>-20.74052962421109</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003071706091370457</v>
+        <v>0.003071706091370394</v>
       </c>
     </row>
     <row r="9">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1211.337740708378</v>
+        <v>-12.11337740708378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004616282753811611</v>
+        <v>0.004616282753811648</v>
       </c>
     </row>
     <row r="10">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8215.679612078751</v>
+        <v>82.15679612078745</v>
       </c>
       <c r="C10" t="n">
-        <v>3.685694013632741e-16</v>
+        <v>3.685694013632342e-16</v>
       </c>
     </row>
     <row r="11">
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.29720071865146</v>
+        <v>19.29720071865165</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07071897795571426</v>
+        <v>0.07071897795571187</v>
       </c>
     </row>
   </sheetData>
@@ -6815,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1904.424066191346</v>
+        <v>1904.424066109216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00382538316972709</v>
+        <v>0.003825383171328065</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.61362748860475</v>
+        <v>44.6136274868348</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1237152043011142</v>
+        <v>0.1237152043013213</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.7029070054225</v>
+        <v>166.7029070053194</v>
       </c>
       <c r="C4" t="n">
-        <v>5.635499448778232e-18</v>
+        <v>5.63549944956725e-18</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09072113018785589</v>
+        <v>-9.07211301839482</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001642775335701418</v>
+        <v>0.001642775336398355</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.150413570399056e-06</v>
+        <v>-2.150413570825918</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9512651430607639</v>
+        <v>0.9512651430506096</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.04917977625159</v>
+        <v>11.04917977625214</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004118635377337057</v>
+        <v>0.000411863537733351</v>
       </c>
     </row>
     <row r="8">
@@ -6893,10 +6893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2261.243230663928</v>
+        <v>-22.61243230663928</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001180389709405172</v>
+        <v>0.001180389709405166</v>
       </c>
     </row>
     <row r="9">
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1365.11756667749</v>
+        <v>-13.65117566677488</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007313138843384316</v>
+        <v>0.0007313138843384401</v>
       </c>
     </row>
     <row r="10">
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9091.204082748325</v>
+        <v>90.91204082748318</v>
       </c>
       <c r="C10" t="n">
-        <v>1.700398664678301e-23</v>
+        <v>1.700398664678582e-23</v>
       </c>
     </row>
     <row r="11">
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.25224179100798</v>
+        <v>26.25224179100807</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0111818055452199</v>
+        <v>0.01118180554521961</v>
       </c>
     </row>
   </sheetData>
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.655778233081</v>
+        <v>1485.655778221962</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02371162771074388</v>
+        <v>0.02371162771195152</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.38688419935609</v>
+        <v>16.38688419940673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5570948764082385</v>
+        <v>0.5570948764082564</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.4609755076186</v>
+        <v>178.4609755076331</v>
       </c>
       <c r="C4" t="n">
-        <v>3.54152038858789e-21</v>
+        <v>3.541520388428555e-21</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +7020,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08688960193107793</v>
+        <v>-8.688960193167059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003895493238628628</v>
+        <v>0.003895493238497165</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.429683618323947e-05</v>
+        <v>14.29683617412491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6744634304379804</v>
+        <v>0.6744634306348951</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +7046,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.60843639887132</v>
+        <v>13.60843639887169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.789082612578637e-05</v>
+        <v>1.789082612577359e-05</v>
       </c>
     </row>
     <row r="8">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2846.095123131356</v>
+        <v>-28.4609512313137</v>
       </c>
       <c r="C8" t="n">
-        <v>3.269661553713468e-05</v>
+        <v>3.269661553713131e-05</v>
       </c>
     </row>
     <row r="9">
@@ -7072,10 +7072,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1234.743032336252</v>
+        <v>-12.34743032336256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001965357009266122</v>
+        <v>0.001965357009266073</v>
       </c>
     </row>
     <row r="10">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11038.83575839609</v>
+        <v>110.3883575839607</v>
       </c>
       <c r="C10" t="n">
-        <v>1.734084246880824e-30</v>
+        <v>1.734084246881022e-30</v>
       </c>
     </row>
     <row r="11">
@@ -7098,10 +7098,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.81064556634007</v>
+        <v>21.81064556634038</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02846657693660493</v>
+        <v>0.02846657693660301</v>
       </c>
     </row>
   </sheetData>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1909.976922842746</v>
+        <v>1909.976922781517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003028784922908501</v>
+        <v>0.003028784923909297</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.13026195801936</v>
+        <v>46.13026195837351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09573699580432063</v>
+        <v>0.09573699580424094</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.5155655767311</v>
+        <v>153.5155655755879</v>
       </c>
       <c r="C4" t="n">
-        <v>9.473225886406028e-17</v>
+        <v>9.473225899256267e-17</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1028911206011611</v>
+        <v>-10.2891120603538</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005015129197116905</v>
+        <v>0.0005015129195715086</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.965405563350514e-06</v>
+        <v>7.965405571218717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8183865280946325</v>
+        <v>0.8183865279200497</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.18485928696613</v>
+        <v>17.18485928696621</v>
       </c>
       <c r="C7" t="n">
-        <v>5.378352206613774e-08</v>
+        <v>5.378352206611882e-08</v>
       </c>
     </row>
     <row r="8">
@@ -7225,10 +7225,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2063.876087169833</v>
+        <v>-20.63876087169826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00196402200003082</v>
+        <v>0.001964022000030938</v>
       </c>
     </row>
     <row r="9">
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1190.874322690306</v>
+        <v>-11.90874322690313</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002495831145014035</v>
+        <v>0.002495831145013874</v>
       </c>
     </row>
     <row r="10">
@@ -7251,10 +7251,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8398.242396461519</v>
+        <v>83.98242396461505</v>
       </c>
       <c r="C10" t="n">
-        <v>1.31906630197465e-17</v>
+        <v>1.319066301974726e-17</v>
       </c>
     </row>
     <row r="11">
@@ -7264,10 +7264,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.30323975304939</v>
+        <v>14.3032397530494</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1377365373692992</v>
+        <v>0.137736537369299</v>
       </c>
     </row>
   </sheetData>
@@ -7313,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2080.724073569271</v>
+        <v>2080.724073547982</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003099577737308094</v>
+        <v>0.003099577737744497</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.92282995150016</v>
+        <v>11.92282995185169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6901616114543322</v>
+        <v>0.6901616114538998</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.197348666574</v>
+        <v>177.1973486667241</v>
       </c>
       <c r="C4" t="n">
-        <v>1.401867235457522e-19</v>
+        <v>1.401867234616296e-19</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +7352,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08325215816270216</v>
+        <v>-8.325215816259643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005828855594911185</v>
+        <v>0.005828855595033736</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.580114244788871e-06</v>
+        <v>3.580114243098947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9250487305426616</v>
+        <v>0.9250487305781773</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +7378,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.20199043116683</v>
+        <v>10.20199043116723</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002761931998558353</v>
+        <v>0.002761931998556948</v>
       </c>
     </row>
     <row r="8">
@@ -7391,10 +7391,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2160.349064687271</v>
+        <v>-21.60349064687269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002535640511185389</v>
+        <v>0.002535640511185499</v>
       </c>
     </row>
     <row r="9">
@@ -7404,10 +7404,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1631.576442624596</v>
+        <v>-16.31576442624594</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001411619810926251</v>
+        <v>0.0001411619810926291</v>
       </c>
     </row>
     <row r="10">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8951.647469351972</v>
+        <v>89.51647469351947</v>
       </c>
       <c r="C10" t="n">
-        <v>1.497999249773735e-21</v>
+        <v>1.497999249773918e-21</v>
       </c>
     </row>
     <row r="11">
@@ -7430,10 +7430,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.54670056507896</v>
+        <v>26.54670056507908</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01046472430332743</v>
+        <v>0.01046472430332717</v>
       </c>
     </row>
   </sheetData>
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1075.766250167302</v>
+        <v>1075.766250166536</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1302327356646026</v>
+        <v>0.1302327356650433</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.064627580141732</v>
+        <v>1.064627580120806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9710788872295691</v>
+        <v>0.9710788872296034</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.4763260149382</v>
+        <v>192.4763260149481</v>
       </c>
       <c r="C4" t="n">
-        <v>1.640167692223944e-21</v>
+        <v>1.6401676917241e-21</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +7518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09013014555120588</v>
+        <v>-9.013014555125876</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005613911473526648</v>
+        <v>0.005613911473585016</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +7531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.780346258703536e-05</v>
+        <v>17.80346258666704</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6384711852364722</v>
+        <v>0.6384711852452535</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +7544,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.70349073349589</v>
+        <v>11.70349073349646</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006155980091098011</v>
+        <v>0.0006155980091093243</v>
       </c>
     </row>
     <row r="8">
@@ -7557,10 +7557,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2267.890095723275</v>
+        <v>-22.67890095723274</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001024127893869213</v>
+        <v>0.001024127893869236</v>
       </c>
     </row>
     <row r="9">
@@ -7570,10 +7570,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1258.847838040647</v>
+        <v>-12.5884783804064</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002631766370882535</v>
+        <v>0.002631766370882724</v>
       </c>
     </row>
     <row r="10">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10475.58045333797</v>
+        <v>104.7558045333798</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220223665515288e-26</v>
+        <v>2.220223665515447e-26</v>
       </c>
     </row>
     <row r="11">
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.64780721841205</v>
+        <v>36.64780721841202</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004908640613157444</v>
+        <v>0.0004908640613157584</v>
       </c>
     </row>
   </sheetData>
@@ -7645,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1526.743740093581</v>
+        <v>1526.743740114827</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0233909474636908</v>
+        <v>0.02339094746161481</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.41909742251383</v>
+        <v>19.41909742244084</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4957942192902972</v>
+        <v>0.4957942192901117</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.4125201577608</v>
+        <v>189.412520157095</v>
       </c>
       <c r="C4" t="n">
-        <v>4.663798397157896e-22</v>
+        <v>4.663798406026841e-22</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06742002148527917</v>
+        <v>-6.742002148544713</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02561608992370491</v>
+        <v>0.02561608992341777</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7697,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.977378887385564e-05</v>
+        <v>-29.77378887820622</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4535235397942069</v>
+        <v>0.4535235397221734</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.92043081287023</v>
+        <v>11.92043081287017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001577527060424765</v>
+        <v>0.0001577527060424856</v>
       </c>
     </row>
     <row r="8">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2213.310744900438</v>
+        <v>-22.13310744900425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002406414445508448</v>
+        <v>0.002406414445508613</v>
       </c>
     </row>
     <row r="9">
@@ -7736,10 +7736,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1226.680584541465</v>
+        <v>-12.2668058454146</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002771691014170508</v>
+        <v>0.002771691014170605</v>
       </c>
     </row>
     <row r="10">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9655.716979595183</v>
+        <v>96.55716979595195</v>
       </c>
       <c r="C10" t="n">
-        <v>1.635450524411991e-23</v>
+        <v>1.635450524411827e-23</v>
       </c>
     </row>
     <row r="11">
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.00908106564346</v>
+        <v>27.00908106564345</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01039642112007096</v>
+        <v>0.01039642112007092</v>
       </c>
     </row>
   </sheetData>
@@ -7811,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.8290419060793</v>
+        <v>953.8290419088667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1417308503313468</v>
+        <v>0.1417308503301222</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.78415369718707</v>
+        <v>19.78415369753743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4694025048085423</v>
+        <v>0.4694025048086258</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.5563242646616</v>
+        <v>178.556324265189</v>
       </c>
       <c r="C4" t="n">
-        <v>1.549903491806242e-21</v>
+        <v>1.549903489422564e-21</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7850,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07888507174398274</v>
+        <v>-7.888507174164596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007072454598546266</v>
+        <v>0.007072454600053185</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.745151328844921e-06</v>
+        <v>-8.745151340648377</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8175965153016185</v>
+        <v>0.8175965150583153</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7876,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.48067830651938</v>
+        <v>17.48067830651971</v>
       </c>
       <c r="C7" t="n">
-        <v>8.767229326681307e-08</v>
+        <v>8.767229326673781e-08</v>
       </c>
     </row>
     <row r="8">
@@ -7889,10 +7889,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2292.829668178268</v>
+        <v>-22.92829668178301</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001332482219445641</v>
+        <v>0.001332482219445423</v>
       </c>
     </row>
     <row r="9">
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1096.163302924869</v>
+        <v>-10.96163302924869</v>
       </c>
       <c r="C9" t="n">
         <v>0.006528982920734608</v>
@@ -7915,10 +7915,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9477.875480620984</v>
+        <v>94.77875480620959</v>
       </c>
       <c r="C10" t="n">
-        <v>8.923339563078137e-26</v>
+        <v>8.923339563079095e-26</v>
       </c>
     </row>
     <row r="11">
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.76661715790682</v>
+        <v>28.76661715790686</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004139706227490068</v>
+        <v>0.004139706227490005</v>
       </c>
     </row>
   </sheetData>
@@ -7977,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1920.55053775513</v>
+        <v>1920.55053775613</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005685014213790587</v>
+        <v>0.005685014213762573</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.28353497939835</v>
+        <v>21.28353497981237</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4793862115440596</v>
+        <v>0.4793862115439594</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.7526232663084</v>
+        <v>169.7526232658101</v>
       </c>
       <c r="C4" t="n">
-        <v>3.186963713068671e-18</v>
+        <v>3.186963716207307e-18</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +8016,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1111981904100238</v>
+        <v>-11.11981904101166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003126534908833482</v>
+        <v>0.0003126534908809818</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +8029,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.778578735612644e-05</v>
+        <v>17.78578734741889</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6424947575496782</v>
+        <v>0.6424947577173737</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.90587530445074</v>
+        <v>12.90587530445083</v>
       </c>
       <c r="C7" t="n">
-        <v>4.350380033319778e-05</v>
+        <v>4.350380033319127e-05</v>
       </c>
     </row>
     <row r="8">
@@ -8055,10 +8055,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2340.928928314252</v>
+        <v>-23.40928928314248</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001336061376357325</v>
+        <v>0.001336061376357319</v>
       </c>
     </row>
     <row r="9">
@@ -8068,10 +8068,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1155.067034430265</v>
+        <v>-11.55067034430251</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004900635919490263</v>
+        <v>0.004900635919490856</v>
       </c>
     </row>
     <row r="10">
@@ -8081,10 +8081,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9721.642509745001</v>
+        <v>97.21642509745011</v>
       </c>
       <c r="C10" t="n">
-        <v>1.377404035058815e-25</v>
+        <v>1.377404035058855e-25</v>
       </c>
     </row>
     <row r="11">
@@ -8094,10 +8094,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.97405102372551</v>
+        <v>18.9740510237256</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07895677038536977</v>
+        <v>0.07895677038536804</v>
       </c>
     </row>
   </sheetData>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1845.130162545204</v>
+        <v>1845.130162546308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008421841029942655</v>
+        <v>0.008421841029938546</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.104978100598473</v>
+        <v>-4.104978100445777</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8884554248484136</v>
+        <v>0.8884554248477141</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.6700579748569</v>
+        <v>168.6700579749018</v>
       </c>
       <c r="C4" t="n">
-        <v>1.102376842042668e-17</v>
+        <v>1.102376842470241e-17</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +8182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1021898490292054</v>
+        <v>-10.218984902868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001431183764357756</v>
+        <v>0.001431183764514275</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +8195,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.879565169298485e-06</v>
+        <v>9.879565170010139</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7961579424099001</v>
+        <v>0.7961579423994173</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +8208,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.25043161262833</v>
+        <v>14.25043161262836</v>
       </c>
       <c r="C7" t="n">
-        <v>8.221711413444193e-06</v>
+        <v>8.221711413443991e-06</v>
       </c>
     </row>
     <row r="8">
@@ -8221,10 +8221,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2232.93580657898</v>
+        <v>-22.32935806578967</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001810148949513351</v>
+        <v>0.001810148949513441</v>
       </c>
     </row>
     <row r="9">
@@ -8234,10 +8234,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1483.373178806135</v>
+        <v>-14.8337317880614</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003829008777911353</v>
+        <v>0.000382900877791115</v>
       </c>
     </row>
     <row r="10">
@@ -8247,10 +8247,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10289.54936432928</v>
+        <v>102.8954936432929</v>
       </c>
       <c r="C10" t="n">
-        <v>5.446054018559301e-24</v>
+        <v>5.446054018558951e-24</v>
       </c>
     </row>
     <row r="11">
@@ -8263,7 +8263,7 @@
         <v>20.45807043856929</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05499941559758488</v>
+        <v>0.05499941559758496</v>
       </c>
     </row>
   </sheetData>
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1515.117007081043</v>
+        <v>1515.117007082169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03360101569593275</v>
+        <v>0.03360101569577471</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.75732208138977</v>
+        <v>24.75732207951223</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4265764153067569</v>
+        <v>0.4265764153065101</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.7129057791032</v>
+        <v>186.712905778937</v>
       </c>
       <c r="C4" t="n">
-        <v>3.97362193322561e-20</v>
+        <v>3.973621934567991e-20</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +8348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07129656141087223</v>
+        <v>-7.129656141127124</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0305825857837756</v>
+        <v>0.03058258578302218</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +8361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.948300155448252e-05</v>
+        <v>-19.4830015788057</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6246817353284253</v>
+        <v>0.6246817348965517</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +8374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.14830575777724</v>
+        <v>11.14830575777722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00064586846845191</v>
+        <v>0.0006458684684519176</v>
       </c>
     </row>
     <row r="8">
@@ -8387,10 +8387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1712.981053162293</v>
+        <v>-17.12981053162301</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02322385346181835</v>
+        <v>0.02322385346181762</v>
       </c>
     </row>
     <row r="9">
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1600.699039673068</v>
+        <v>-16.00699039673074</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002720129938386902</v>
+        <v>0.0002720129938386751</v>
       </c>
     </row>
     <row r="10">
@@ -8413,10 +8413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9444.719941691079</v>
+        <v>94.44719941691062</v>
       </c>
       <c r="C10" t="n">
-        <v>9.573742871710035e-23</v>
+        <v>9.573742871710926e-23</v>
       </c>
     </row>
     <row r="11">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.75987711772052</v>
+        <v>32.75987711772056</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002239185849940718</v>
+        <v>0.002239185849940684</v>
       </c>
     </row>
   </sheetData>
@@ -8475,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2260.731517422263</v>
+        <v>2260.731517415285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008433439021959949</v>
+        <v>0.0008433439022333065</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.15276909111777</v>
+        <v>23.15276909041939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4237514492716694</v>
+        <v>0.4237514492715743</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.7694019151081</v>
+        <v>164.7694019145925</v>
       </c>
       <c r="C4" t="n">
-        <v>3.343786883960867e-17</v>
+        <v>3.343786887313614e-17</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +8514,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1153902141790156</v>
+        <v>-11.53902141776499</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001719377190481276</v>
+        <v>0.0001719377190731598</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +8527,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.040987359932808e-05</v>
+        <v>30.40987357915888</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4254431501761299</v>
+        <v>0.425443150475982</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +8540,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.98587754869632</v>
+        <v>10.98587754869672</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006657393278812876</v>
+        <v>0.0006657393278808849</v>
       </c>
     </row>
     <row r="8">
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2578.231630021537</v>
+        <v>-25.78231630021529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001894809236669097</v>
+        <v>0.0001894809236669172</v>
       </c>
     </row>
     <row r="9">
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1273.483873627993</v>
+        <v>-12.73483873627993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001867375938116469</v>
+        <v>0.001867375938116462</v>
       </c>
     </row>
     <row r="10">
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7886.40017259545</v>
+        <v>78.86400172595457</v>
       </c>
       <c r="C10" t="n">
-        <v>3.443851235359939e-15</v>
+        <v>3.443851235359902e-15</v>
       </c>
     </row>
     <row r="11">
@@ -8592,10 +8592,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.693665644505</v>
+        <v>24.69366564450535</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01487531411875398</v>
+        <v>0.01487531411875273</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>860.5491159403514</v>
+        <v>860.5491159324711</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1968420512452986</v>
+        <v>0.1968420512492461</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.96320683553428</v>
+        <v>15.96320683441256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5435476763716471</v>
+        <v>0.5435476763715887</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.1977696487557</v>
+        <v>182.1977696491453</v>
       </c>
       <c r="C4" t="n">
-        <v>2.966516661007499e-24</v>
+        <v>2.966516656862591e-24</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8680,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07797371886057287</v>
+        <v>-7.797371886030522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003743856740078639</v>
+        <v>0.003743856740195804</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8693,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.386272090790524e-06</v>
+        <v>-5.386272096941155</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8731247611617874</v>
+        <v>0.8731247610170496</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.18671976199562</v>
+        <v>17.18671976199583</v>
       </c>
       <c r="C7" t="n">
-        <v>7.011875848793456e-07</v>
+        <v>7.011875848790096e-07</v>
       </c>
     </row>
     <row r="8">
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1900.589026792506</v>
+        <v>-19.00589026792505</v>
       </c>
       <c r="C8" t="n">
         <v>0.002523181492782743</v>
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-873.907312881901</v>
+        <v>-8.739073128818951</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02381305664532287</v>
+        <v>0.02381305664532366</v>
       </c>
     </row>
     <row r="10">
@@ -8745,10 +8745,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9888.596565320713</v>
+        <v>98.88596565320705</v>
       </c>
       <c r="C10" t="n">
-        <v>4.486029650944991e-30</v>
+        <v>4.486029650945762e-30</v>
       </c>
     </row>
     <row r="11">
@@ -8758,10 +8758,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.52431616919179</v>
+        <v>25.52431616919174</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01050749058840441</v>
+        <v>0.01050749058840454</v>
       </c>
     </row>
   </sheetData>
